--- a/songs.xlsx
+++ b/songs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="141">
   <si>
     <t xml:space="preserve">artist</t>
   </si>
@@ -29,6 +29,420 @@
   </si>
   <si>
     <t xml:space="preserve">song</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jimmy Dorsey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contrasts (40)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cab Calloway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forever Gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Honeydripper (45)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sam Donahue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take Five: 1945-1948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rainy Night In Rio (46)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harry James</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I Found A New Baby (41)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doris Day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secret Love</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moonlight Bay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tommy Dorsey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battle Of The Bands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opus No. 1 (45)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@40sJunction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40s and Beyond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jan Savitt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If I Didn't Care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si Zetner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VOL. 1-Great Instrumental Hits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Up A Lazy River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frank Sinatra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't Cry Joe (49)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrews Sisters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Lady from 29 Palms (47)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artie Shaw Gramercy 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Self Portrait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summit Ridge Drive (41)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Woody Herman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At The Woodchopper's Ball</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine And Dandy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gene Kelly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An American In Paris SNDTK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I've Got A Crush On You</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bing Crosby o/Xavier Cugat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bing! His Legendary Years, 1941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You Belong To My Heart (41)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benny Goodman v/Helen Ward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Fabulous Benny Goodman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goody Goody</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duke Ellington</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1942-1944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perdido (41)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Francis Craig v/Bob Lamm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Near You (47)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count Basie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ken Burns Jazz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Li'l Darlin'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gene Krupa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moonlight Serenade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erskine Hawkins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tippin' In (45)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dooley Wilson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Songs From The Movies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As Time Goes By (42)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Larry Clinton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shades Of Hades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Campbells Are Swingin'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elena Bennet/Fred Barton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And The Angels Sing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1940s and Beyond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@40sJuntion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mel Torme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Legendary Mel Torme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My Baby Just Cares For Me (47)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perry Como o/Mitchell Ayres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greatest Hits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papa Loves Mambo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glenn Miller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memorial 1944-1969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuxedo Junction (40)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jimmy Dorsey v/B Eberly/K Kallen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Besame Mucho (43)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andy Russell/Pied Pipers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Underneath The Arches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaughn Monroe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I Wish I Didn't Love You So</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teddy Wilson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When You're Smiling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tommy Dorsey v/Sy Oliver/Sentimenta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicago (44)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1941, Vol. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, Indeed! (42)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lester Young</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I Got Rhythm (47)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Louis Jordan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swing It, Daddy-O!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choo Choo Ch'Boogie (46)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artie Shaw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indian Love Call</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What Is This Thing Called Love?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horace Heidt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Hits &amp; More</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This Is the Army, Mister Jones (43)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les Brown and his Band of Renown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heat Wave (46)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Columbia Years (1943-1952)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I Should Care (45)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ray Anthony</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ray Anthony Concert/The Anthony</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Street Scene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Louis Armstrong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Portrait Of Louis Armstrong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuban Pete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1940s and beyond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lionel Hampton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1938-1939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It Don't Mean A Thing (If It Ain't </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jo Stafford</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Best Things in Life Are... (47)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stan Kenton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arkansas Traveler (41)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bing Crosby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Far Away Places (49)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Billie Holiday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soundtrack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I Can't Give You Anything But Love</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benny Goodman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classics Big Band Jazz -- Swing That Jazz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big John's Special</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nat King Cole Trio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's Only A Paper Moon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julius LaRosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change Partners</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fletcher Henderson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Back In Your Own Backyard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Their All-Time Greatest Hits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boogie Woogie Bugle Boy (41)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glenn Miller v/Ray Eberle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Essential Glenn Miller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At Last</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will Bradley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big Band Years, Vol. 1  Lost Treasur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There I Go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joe Liggins &amp; The Honeydrippers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Big Dipper</t>
   </si>
 </sst>
 </file>
@@ -38,7 +452,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -59,6 +473,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -103,12 +524,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -129,26 +554,576 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="A58" activeCellId="0" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="36.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="34.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="31.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.06"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/songs.xlsx
+++ b/songs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="631">
   <si>
     <t>Pied Pipers</t>
   </si>
@@ -75,6 +75,1839 @@
   </si>
   <si>
     <t>Deep Purple-Artie Shaw v/Helen Forrest</t>
+  </si>
+  <si>
+    <t>Stan Kenton</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Laura-Stan Kenton</t>
+  </si>
+  <si>
+    <t>Woody Herman</t>
+  </si>
+  <si>
+    <t>Big Band Bash</t>
+  </si>
+  <si>
+    <t>Moten Swing</t>
+  </si>
+  <si>
+    <t>Moten Swing-Woody Herman</t>
+  </si>
+  <si>
+    <t>Four Lads o/Norman Leyden</t>
+  </si>
+  <si>
+    <t>Istanbul (Not Constantinople)</t>
+  </si>
+  <si>
+    <t>Istanbul (Not Constantinople)-Four Lads o/Norman Leyden</t>
+  </si>
+  <si>
+    <t>Benny Goodman</t>
+  </si>
+  <si>
+    <t>The Fabulous Benny Goodman</t>
+  </si>
+  <si>
+    <t>Christopher Columbus</t>
+  </si>
+  <si>
+    <t>Christopher Columbus-Benny Goodman</t>
+  </si>
+  <si>
+    <t>Louis Armstrong</t>
+  </si>
+  <si>
+    <t>100th Birthday Celebration</t>
+  </si>
+  <si>
+    <t>Do You Know What It Means... (48)</t>
+  </si>
+  <si>
+    <t>Do You Know What It Means... (48)-Louis Armstrong</t>
+  </si>
+  <si>
+    <t>Erskine Hawkins</t>
+  </si>
+  <si>
+    <t>Five O'Clock Whistle</t>
+  </si>
+  <si>
+    <t>Five O'Clock Whistle-Erskine Hawkins</t>
+  </si>
+  <si>
+    <t>Kay Kyser v/Mike Douglas</t>
+  </si>
+  <si>
+    <t>The Old Lamplighter</t>
+  </si>
+  <si>
+    <t>The Old Lamplighter-Kay Kyser v/Mike Douglas</t>
+  </si>
+  <si>
+    <t>Glenn Miller</t>
+  </si>
+  <si>
+    <t>The Essential Glenn Miller</t>
+  </si>
+  <si>
+    <t>A String of Pearls (42)</t>
+  </si>
+  <si>
+    <t>A String of Pearls (42)-Glenn Miller</t>
+  </si>
+  <si>
+    <t>Gene Krupa v/Roy Eldridge</t>
+  </si>
+  <si>
+    <t>Knock Me A Kiss (45)</t>
+  </si>
+  <si>
+    <t>Knock Me A Kiss (45)-Gene Krupa v/Roy Eldridge</t>
+  </si>
+  <si>
+    <t>Ray Noble</t>
+  </si>
+  <si>
+    <t>Alexander's Ragtime Band</t>
+  </si>
+  <si>
+    <t>Alexander's Ragtime Band-Ray Noble</t>
+  </si>
+  <si>
+    <t>Bing Crosby o/Georgie Stoll</t>
+  </si>
+  <si>
+    <t>Pennies From Heaven</t>
+  </si>
+  <si>
+    <t>Pennies From Heaven-Bing Crosby o/Georgie Stoll</t>
+  </si>
+  <si>
+    <t>Sonny Dunham</t>
+  </si>
+  <si>
+    <t>Amor (44)</t>
+  </si>
+  <si>
+    <t>Amor (44)-Sonny Dunham</t>
+  </si>
+  <si>
+    <t>Johnny Mercer</t>
+  </si>
+  <si>
+    <t>The Best of Johnny Mercer</t>
+  </si>
+  <si>
+    <t>On The Atchison, Topeka... (45)</t>
+  </si>
+  <si>
+    <t>On The Atchison, Topeka... (45)-Johnny Mercer</t>
+  </si>
+  <si>
+    <t>Billie Holiday</t>
+  </si>
+  <si>
+    <t>Songs for DistinguÚ Lovers</t>
+  </si>
+  <si>
+    <t>Let's Call the Whole Thing Off</t>
+  </si>
+  <si>
+    <t>Let's Call the Whole Thing Off-Billie Holiday</t>
+  </si>
+  <si>
+    <t>Andrews Sisters gt/Les Paul</t>
+  </si>
+  <si>
+    <t>Rumors Are Flying (46)</t>
+  </si>
+  <si>
+    <t>Rumors Are Flying (46)-Andrews Sisters gt/Les Paul</t>
+  </si>
+  <si>
+    <t>1940s and Beyond</t>
+  </si>
+  <si>
+    <t>@40sJunction-1940s and Beyond</t>
+  </si>
+  <si>
+    <t>Jimmy Dorsey</t>
+  </si>
+  <si>
+    <t>Golden Memories Of The 40's</t>
+  </si>
+  <si>
+    <t>Jersey Bounce (42)</t>
+  </si>
+  <si>
+    <t>Jersey Bounce (42)-Jimmy Dorsey</t>
+  </si>
+  <si>
+    <t>Les Brown v/Doris Day</t>
+  </si>
+  <si>
+    <t>Sentimental Journey</t>
+  </si>
+  <si>
+    <t>I Got the Sun in the Morning (46)</t>
+  </si>
+  <si>
+    <t>I Got the Sun in the Morning (46)-Les Brown v/Doris Day</t>
+  </si>
+  <si>
+    <t>Tommy Dorsey v/Frank Sinatra</t>
+  </si>
+  <si>
+    <t>Battle of the Bands: Miller Vs. Dors</t>
+  </si>
+  <si>
+    <t>I'll Never Smile Again (40)</t>
+  </si>
+  <si>
+    <t>I'll Never Smile Again (40)-Tommy Dorsey v/Frank Sinatra</t>
+  </si>
+  <si>
+    <t>Count Basie v/Jimmy Rushing</t>
+  </si>
+  <si>
+    <t>Best Of The Big Bands</t>
+  </si>
+  <si>
+    <t>Blue Skies (46)</t>
+  </si>
+  <si>
+    <t>Blue Skies (46)-Count Basie v/Jimmy Rushing</t>
+  </si>
+  <si>
+    <t>Bobby Sherwood</t>
+  </si>
+  <si>
+    <t>The Elk's Parade (42)</t>
+  </si>
+  <si>
+    <t>The Elk's Parade (42)-Bobby Sherwood</t>
+  </si>
+  <si>
+    <t>Keely Smith</t>
+  </si>
+  <si>
+    <t>Return Of The Wildest</t>
+  </si>
+  <si>
+    <t>(I Love You) For Sentimental Reason</t>
+  </si>
+  <si>
+    <t>(I Love You) For Sentimental Reason-Keely Smith</t>
+  </si>
+  <si>
+    <t>Artie Shaw</t>
+  </si>
+  <si>
+    <t>Non-Stop Flight</t>
+  </si>
+  <si>
+    <t>It's A Long Way To Tipperary</t>
+  </si>
+  <si>
+    <t>It's A Long Way To Tipperary-Artie Shaw</t>
+  </si>
+  <si>
+    <t>Harry James</t>
+  </si>
+  <si>
+    <t>Who's Sorry Now? (46)</t>
+  </si>
+  <si>
+    <t>Who's Sorry Now? (46)-Harry James</t>
+  </si>
+  <si>
+    <t>Will Bradley</t>
+  </si>
+  <si>
+    <t>Whatcha Know Joe? (41)</t>
+  </si>
+  <si>
+    <t>Whatcha Know Joe? (41)-Will Bradley</t>
+  </si>
+  <si>
+    <t>Vaughn Monroe</t>
+  </si>
+  <si>
+    <t>Stop Watchin' The Clock (43)</t>
+  </si>
+  <si>
+    <t>Stop Watchin' The Clock (43)-Vaughn Monroe</t>
+  </si>
+  <si>
+    <t>Benny Goodman v/Helen Forrest</t>
+  </si>
+  <si>
+    <t>Voice Of The Big Bands</t>
+  </si>
+  <si>
+    <t>Taking A Chance On Love (43)</t>
+  </si>
+  <si>
+    <t>Taking A Chance On Love (43)-Benny Goodman v/Helen Forrest</t>
+  </si>
+  <si>
+    <t>Tex Beneke</t>
+  </si>
+  <si>
+    <t>The Best of Tex Beneke</t>
+  </si>
+  <si>
+    <t>A Gal in Calico (46)</t>
+  </si>
+  <si>
+    <t>A Gal in Calico (46)-Tex Beneke</t>
+  </si>
+  <si>
+    <t>Dick Haymes</t>
+  </si>
+  <si>
+    <t>The Very Best of Dick Haymes</t>
+  </si>
+  <si>
+    <t>You'll Never Know (43)</t>
+  </si>
+  <si>
+    <t>You'll Never Know (43)-Dick Haymes</t>
+  </si>
+  <si>
+    <t>Lionel Hampton</t>
+  </si>
+  <si>
+    <t>1938-1939</t>
+  </si>
+  <si>
+    <t>Wizzin' The Wizz</t>
+  </si>
+  <si>
+    <t>Wizzin' The Wizz-Lionel Hampton</t>
+  </si>
+  <si>
+    <t>Four Lads o/Ray Ellis</t>
+  </si>
+  <si>
+    <t>16 Most Requested Songs</t>
+  </si>
+  <si>
+    <t>Standing On The Corner (42)</t>
+  </si>
+  <si>
+    <t>Standing On The Corner (42)-Four Lads o/Ray Ellis</t>
+  </si>
+  <si>
+    <t>Larry Clinton</t>
+  </si>
+  <si>
+    <t>I Hear Music</t>
+  </si>
+  <si>
+    <t>I Hear Music (40)</t>
+  </si>
+  <si>
+    <t>I Hear Music (40)-Larry Clinton</t>
+  </si>
+  <si>
+    <t>Too Soon (41)</t>
+  </si>
+  <si>
+    <t>Too Soon (41)-Stan Kenton</t>
+  </si>
+  <si>
+    <t>Glen Gray</t>
+  </si>
+  <si>
+    <t>Smoke Rings</t>
+  </si>
+  <si>
+    <t>Smoke Rings-Glen Gray</t>
+  </si>
+  <si>
+    <t>Louis Jordan</t>
+  </si>
+  <si>
+    <t>Let the Good Times Roll  Anthology 1</t>
+  </si>
+  <si>
+    <t>Is You Is or Is You Ain't... (44)</t>
+  </si>
+  <si>
+    <t>Is You Is or Is You Ain't... (44)-Louis Jordan</t>
+  </si>
+  <si>
+    <t>Charlie Barnet</t>
+  </si>
+  <si>
+    <t>The Milkman's Matinee</t>
+  </si>
+  <si>
+    <t>The Milkman's Matinee-Charlie Barnet</t>
+  </si>
+  <si>
+    <t>Moonglow</t>
+  </si>
+  <si>
+    <t>Moonglow-Duke Ellington</t>
+  </si>
+  <si>
+    <t>Cab Calloway</t>
+  </si>
+  <si>
+    <t>I've Got The World On A String</t>
+  </si>
+  <si>
+    <t>I've Got The World On A String-Cab Calloway</t>
+  </si>
+  <si>
+    <t>Sunset Serenade Live January 3</t>
+  </si>
+  <si>
+    <t>In the Mood</t>
+  </si>
+  <si>
+    <t>In the Mood-Glenn Miller</t>
+  </si>
+  <si>
+    <t>Gene Krupa v/Howard Dulaney &amp; Anita</t>
+  </si>
+  <si>
+    <t>Vol. 1: 1941</t>
+  </si>
+  <si>
+    <t>Green Eyes (41)</t>
+  </si>
+  <si>
+    <t>Green Eyes (41)-Gene Krupa v/Howard Dulaney &amp; Anita</t>
+  </si>
+  <si>
+    <t>Billy May</t>
+  </si>
+  <si>
+    <t>Charmaine</t>
+  </si>
+  <si>
+    <t>Charmaine-Billy May</t>
+  </si>
+  <si>
+    <t>Bing Crosby/Andrews Sisters</t>
+  </si>
+  <si>
+    <t>Ciribiribin</t>
+  </si>
+  <si>
+    <t>Ciribiribin-Bing Crosby/Andrews Sisters</t>
+  </si>
+  <si>
+    <t>Al Donahue v/Paula Kelly</t>
+  </si>
+  <si>
+    <t>Happy Days Are Here Again</t>
+  </si>
+  <si>
+    <t>Jeepers Creepers (43)</t>
+  </si>
+  <si>
+    <t>Jeepers Creepers (43)-Al Donahue v/Paula Kelly</t>
+  </si>
+  <si>
+    <t>Tommy Dorsey</t>
+  </si>
+  <si>
+    <t>At the Fat Man's</t>
+  </si>
+  <si>
+    <t>The Continental (49)</t>
+  </si>
+  <si>
+    <t>The Continental (49)-Tommy Dorsey</t>
+  </si>
+  <si>
+    <t>Count Basie</t>
+  </si>
+  <si>
+    <t>Somebody Stole My Gal (40)</t>
+  </si>
+  <si>
+    <t>Somebody Stole My Gal (40)-Count Basie</t>
+  </si>
+  <si>
+    <t>King Cole Trio</t>
+  </si>
+  <si>
+    <t>WWII Transcriptions</t>
+  </si>
+  <si>
+    <t>D-Day (45)</t>
+  </si>
+  <si>
+    <t>D-Day (45)-King Cole Trio</t>
+  </si>
+  <si>
+    <t>Les Brown</t>
+  </si>
+  <si>
+    <t>Best of the Big Bands</t>
+  </si>
+  <si>
+    <t>Just One Of Those Things (45)</t>
+  </si>
+  <si>
+    <t>Just One Of Those Things (45)-Les Brown</t>
+  </si>
+  <si>
+    <t>I Didn't Know What Time It Was</t>
+  </si>
+  <si>
+    <t>I Didn't Know What Time It Was-Artie Shaw v/Helen Forrest</t>
+  </si>
+  <si>
+    <t>Pied Pipers &amp; Jo Stafford</t>
+  </si>
+  <si>
+    <t>The Trolley Song (44)</t>
+  </si>
+  <si>
+    <t>The Trolley Song (44)-Pied Pipers &amp; Jo Stafford</t>
+  </si>
+  <si>
+    <t>Charlie Spivak</t>
+  </si>
+  <si>
+    <t>Old Devil Moon</t>
+  </si>
+  <si>
+    <t>Old Devil Moon-Charlie Spivak</t>
+  </si>
+  <si>
+    <t>Harry James v/Frank Sinatra</t>
+  </si>
+  <si>
+    <t>Complete Recordings</t>
+  </si>
+  <si>
+    <t>Moon Love</t>
+  </si>
+  <si>
+    <t>Moon Love-Harry James v/Frank Sinatra</t>
+  </si>
+  <si>
+    <t>Johnny Long v/Patti Dugan</t>
+  </si>
+  <si>
+    <t>78rpm single</t>
+  </si>
+  <si>
+    <t>No Love No Nothin' (44)</t>
+  </si>
+  <si>
+    <t>No Love No Nothin' (44)-Johnny Long v/Patti Dugan</t>
+  </si>
+  <si>
+    <t>Fats Waller</t>
+  </si>
+  <si>
+    <t>Don't Let It Bother You</t>
+  </si>
+  <si>
+    <t>Don't Let It Bother You-Fats Waller</t>
+  </si>
+  <si>
+    <t>Buddy Clark</t>
+  </si>
+  <si>
+    <t>Linda</t>
+  </si>
+  <si>
+    <t>How Are Things In Glocca Mo... (47)</t>
+  </si>
+  <si>
+    <t>How Are Things In Glocca Mo... (47)-Buddy Clark</t>
+  </si>
+  <si>
+    <t>Ella Fitzgerald &amp; her Orchestra</t>
+  </si>
+  <si>
+    <t>Strictly Jive</t>
+  </si>
+  <si>
+    <t>Lindy Hopper's Delight</t>
+  </si>
+  <si>
+    <t>Lindy Hopper's Delight-Ella Fitzgerald &amp; her Orchestra</t>
+  </si>
+  <si>
+    <t>Band That Plays the Blues</t>
+  </si>
+  <si>
+    <t>Four or Five Times (44)</t>
+  </si>
+  <si>
+    <t>Four or Five Times (44)-Woody Herman</t>
+  </si>
+  <si>
+    <t>Perfidia (41)</t>
+  </si>
+  <si>
+    <t>Perfidia (41)-Jimmy Dorsey</t>
+  </si>
+  <si>
+    <t>Peggy Lee</t>
+  </si>
+  <si>
+    <t>Goody Goody</t>
+  </si>
+  <si>
+    <t>Goody Goody-Peggy Lee</t>
+  </si>
+  <si>
+    <t>The Blue Room</t>
+  </si>
+  <si>
+    <t>The Blue Room-Benny Goodman</t>
+  </si>
+  <si>
+    <t>40s and Beyond</t>
+  </si>
+  <si>
+    <t>40s and Beyond-@40sJunction</t>
+  </si>
+  <si>
+    <t>You Make Me Feel So Young (48)</t>
+  </si>
+  <si>
+    <t>You Make Me Feel So Young (48)-Dick Haymes</t>
+  </si>
+  <si>
+    <t>Bob Crosby</t>
+  </si>
+  <si>
+    <t>Deep in a Dream</t>
+  </si>
+  <si>
+    <t>Deep in a Dream-Bob Crosby</t>
+  </si>
+  <si>
+    <t>Jerry Gray</t>
+  </si>
+  <si>
+    <t>Holiday For Strings</t>
+  </si>
+  <si>
+    <t>Holiday For Strings-Jerry Gray</t>
+  </si>
+  <si>
+    <t>Harry Babbitt/Martha Tilton</t>
+  </si>
+  <si>
+    <t>The Coral Treasures</t>
+  </si>
+  <si>
+    <t>Let's Get Away From It All (49)</t>
+  </si>
+  <si>
+    <t>Let's Get Away From It All (49)-Harry Babbitt/Martha Tilton</t>
+  </si>
+  <si>
+    <t>Glenn Miller v/Ray Eberle</t>
+  </si>
+  <si>
+    <t>Over The Rainbow</t>
+  </si>
+  <si>
+    <t>Over The Rainbow-Glenn Miller v/Ray Eberle</t>
+  </si>
+  <si>
+    <t>Let The Good Times Roll</t>
+  </si>
+  <si>
+    <t>Jack You're Dead  (47)</t>
+  </si>
+  <si>
+    <t>Jack You're Dead  (47)-Louis Jordan</t>
+  </si>
+  <si>
+    <t>Sounds of the</t>
+  </si>
+  <si>
+    <t>Savoy Express</t>
+  </si>
+  <si>
+    <t>Savoy Express-Sounds of the</t>
+  </si>
+  <si>
+    <t>Vic Damone</t>
+  </si>
+  <si>
+    <t>Serenade In Blue</t>
+  </si>
+  <si>
+    <t>Serenade In Blue-Vic Damone</t>
+  </si>
+  <si>
+    <t>Jimmie Lunceford</t>
+  </si>
+  <si>
+    <t>1937-1939</t>
+  </si>
+  <si>
+    <t>Posin' (47)</t>
+  </si>
+  <si>
+    <t>Posin' (47)-Jimmie Lunceford</t>
+  </si>
+  <si>
+    <t>1928-42</t>
+  </si>
+  <si>
+    <t>Night And Day</t>
+  </si>
+  <si>
+    <t>Night And Day-Tommy Dorsey</t>
+  </si>
+  <si>
+    <t>twitter.com</t>
+  </si>
+  <si>
+    <t>../40sJunction</t>
+  </si>
+  <si>
+    <t>../40sJunction-twitter.com</t>
+  </si>
+  <si>
+    <t>Gene Krupa</t>
+  </si>
+  <si>
+    <t>The Gene Krupa Story</t>
+  </si>
+  <si>
+    <t>Lover (45)</t>
+  </si>
+  <si>
+    <t>Lover (45)-Gene Krupa</t>
+  </si>
+  <si>
+    <t>Their Complete Recordings</t>
+  </si>
+  <si>
+    <t>Tallahassee (47)</t>
+  </si>
+  <si>
+    <t>Tallahassee (47)-Bing Crosby/Andrews Sisters</t>
+  </si>
+  <si>
+    <t>I Never Knew (40)</t>
+  </si>
+  <si>
+    <t>I Never Knew (40)-Count Basie</t>
+  </si>
+  <si>
+    <t>Tony Martin</t>
+  </si>
+  <si>
+    <t>Sleepy Lagoon</t>
+  </si>
+  <si>
+    <t>Sleepy Lagoon-Tony Martin</t>
+  </si>
+  <si>
+    <t>Tuxedo Junction</t>
+  </si>
+  <si>
+    <t>Tuxedo Junction (40)</t>
+  </si>
+  <si>
+    <t>Tuxedo Junction (40)-Erskine Hawkins</t>
+  </si>
+  <si>
+    <t>King Sisters</t>
+  </si>
+  <si>
+    <t>Swing Out To Victory</t>
+  </si>
+  <si>
+    <t>He's 1-A In The Army And He.. (41)</t>
+  </si>
+  <si>
+    <t>He's 1-A In The Army And He.. (41)-King Sisters</t>
+  </si>
+  <si>
+    <t>Ray Anthony</t>
+  </si>
+  <si>
+    <t>House Party Hop</t>
+  </si>
+  <si>
+    <t>House Party Hop-Ray Anthony</t>
+  </si>
+  <si>
+    <t>Kay Kyser v/Harry &amp; Ginny</t>
+  </si>
+  <si>
+    <t>We'll Meet Again (41)</t>
+  </si>
+  <si>
+    <t>We'll Meet Again (41)-Kay Kyser v/Harry &amp; Ginny</t>
+  </si>
+  <si>
+    <t>Music Makers (41)</t>
+  </si>
+  <si>
+    <t>Music Makers (41)-Harry James</t>
+  </si>
+  <si>
+    <t>Artie Shaw Self Portrait</t>
+  </si>
+  <si>
+    <t>I Get A Kick Out Of You (45)</t>
+  </si>
+  <si>
+    <t>I Get A Kick Out Of You (45)-Artie Shaw</t>
+  </si>
+  <si>
+    <t>Fred Astaire</t>
+  </si>
+  <si>
+    <t>Songs &amp; Pictures 1928-1944</t>
+  </si>
+  <si>
+    <t>A Fine Romance</t>
+  </si>
+  <si>
+    <t>A Fine Romance-Fred Astaire</t>
+  </si>
+  <si>
+    <t>Sammy Kaye v/Tommy Ryan</t>
+  </si>
+  <si>
+    <t>All Ashore</t>
+  </si>
+  <si>
+    <t>All Ashore-Sammy Kaye v/Tommy Ryan</t>
+  </si>
+  <si>
+    <t>Duke Ellington's 70th Birthday Concert</t>
+  </si>
+  <si>
+    <t>Rockin' in Rhythm</t>
+  </si>
+  <si>
+    <t>Rockin' in Rhythm-Duke Ellington</t>
+  </si>
+  <si>
+    <t>Ink Spots</t>
+  </si>
+  <si>
+    <t>20th Century Masters - The Mille</t>
+  </si>
+  <si>
+    <t>I Don't Want To Set The Wor... (41)</t>
+  </si>
+  <si>
+    <t>I Don't Want To Set The Wor... (41)-Ink Spots</t>
+  </si>
+  <si>
+    <t>Gotta Be This Or That (45)</t>
+  </si>
+  <si>
+    <t>Gotta Be This Or That (45)-Benny Goodman</t>
+  </si>
+  <si>
+    <t>Fletcher Henderson</t>
+  </si>
+  <si>
+    <t>The Chronological Classics</t>
+  </si>
+  <si>
+    <t>Until Today</t>
+  </si>
+  <si>
+    <t>Until Today-Fletcher Henderson</t>
+  </si>
+  <si>
+    <t>Stan Kenton v/June Christy</t>
+  </si>
+  <si>
+    <t>Best Of Stan Kenton</t>
+  </si>
+  <si>
+    <t>Just A-Sittin' And A-Rockin' (46)</t>
+  </si>
+  <si>
+    <t>Just A-Sittin' And A-Rockin' (46)-Stan Kenton v/June Christy</t>
+  </si>
+  <si>
+    <t>Dick Contino o/David Carroll</t>
+  </si>
+  <si>
+    <t>Mercury 70420</t>
+  </si>
+  <si>
+    <t>Lady Of Spain (49)</t>
+  </si>
+  <si>
+    <t>Lady Of Spain (49)-Dick Contino o/David Carroll</t>
+  </si>
+  <si>
+    <t>Skylark (42)</t>
+  </si>
+  <si>
+    <t>Skylark (42)-Glenn Miller v/Ray Eberle</t>
+  </si>
+  <si>
+    <t>Ted Heath</t>
+  </si>
+  <si>
+    <t>Listen to My Music, Vol. 3  1947-48</t>
+  </si>
+  <si>
+    <t>Hindustan (48)</t>
+  </si>
+  <si>
+    <t>Hindustan (48)-Ted Heath</t>
+  </si>
+  <si>
+    <t>Coleman Hawkins</t>
+  </si>
+  <si>
+    <t>Retrospective</t>
+  </si>
+  <si>
+    <t>One O'Clock Jump (43)</t>
+  </si>
+  <si>
+    <t>One O'Clock Jump (43)-Coleman Hawkins</t>
+  </si>
+  <si>
+    <t>Re-Stringing the Pearls  1949-1951 R</t>
+  </si>
+  <si>
+    <t>Crew Cut (49)</t>
+  </si>
+  <si>
+    <t>Crew Cut (49)-Jerry Gray</t>
+  </si>
+  <si>
+    <t>Modernaires</t>
+  </si>
+  <si>
+    <t>Juke Box Saturday Night</t>
+  </si>
+  <si>
+    <t>Connecticut (47)</t>
+  </si>
+  <si>
+    <t>Connecticut (47)-Modernaires</t>
+  </si>
+  <si>
+    <t>Everybody Loves My Baby</t>
+  </si>
+  <si>
+    <t>Everybody Loves My Baby-Fats Waller</t>
+  </si>
+  <si>
+    <t>Chick Webb</t>
+  </si>
+  <si>
+    <t>Stompin' At The Savoy</t>
+  </si>
+  <si>
+    <t>Stompin' At The Savoy-Chick Webb</t>
+  </si>
+  <si>
+    <t>Doris Day o/Harry James</t>
+  </si>
+  <si>
+    <t>Lullaby of Broadway</t>
+  </si>
+  <si>
+    <t>Lullaby of Broadway-Doris Day o/Harry James</t>
+  </si>
+  <si>
+    <t>Perry Como o/Hugo Winterhalter</t>
+  </si>
+  <si>
+    <t>Wanted</t>
+  </si>
+  <si>
+    <t>Wanted-Perry Como o/Hugo Winterhalter</t>
+  </si>
+  <si>
+    <t>In A Persian Market</t>
+  </si>
+  <si>
+    <t>In A Persian Market-Larry Clinton</t>
+  </si>
+  <si>
+    <t>Jimmy Dorsey v/Bob Eberly</t>
+  </si>
+  <si>
+    <t>The Jimmy Dorsey Years</t>
+  </si>
+  <si>
+    <t>Stairway To The Stars</t>
+  </si>
+  <si>
+    <t>Stairway To The Stars-Jimmy Dorsey v/Bob Eberly</t>
+  </si>
+  <si>
+    <t>Tommy Dorsey/Frank Sinatra</t>
+  </si>
+  <si>
+    <t>Frank Sinatra &amp; the Tommy Dorsey Orc</t>
+  </si>
+  <si>
+    <t>Look at Me Now (41)</t>
+  </si>
+  <si>
+    <t>Look at Me Now (41)-Tommy Dorsey/Frank Sinatra</t>
+  </si>
+  <si>
+    <t>Nat King Cole Trio</t>
+  </si>
+  <si>
+    <t>Rockin' Boppin' and Blues</t>
+  </si>
+  <si>
+    <t>Route 66 (46)</t>
+  </si>
+  <si>
+    <t>Route 66 (46)-Nat King Cole Trio</t>
+  </si>
+  <si>
+    <t>Glen Gray v/Pee Wee Hunt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lookie, Lookie, Lookie, Here Comes </t>
+  </si>
+  <si>
+    <t>Lookie, Lookie, Lookie, Here Comes -Glen Gray v/Pee Wee Hunt</t>
+  </si>
+  <si>
+    <t>My Melancholy Baby</t>
+  </si>
+  <si>
+    <t>My Melancholy Baby-Jimmie Lunceford</t>
+  </si>
+  <si>
+    <t>Portrait of Billie Holiday</t>
+  </si>
+  <si>
+    <t>Pennies From Heaven-Billie Holiday</t>
+  </si>
+  <si>
+    <t>Self Portrait</t>
+  </si>
+  <si>
+    <t>Stardust (41)</t>
+  </si>
+  <si>
+    <t>Stardust (41)-Artie Shaw</t>
+  </si>
+  <si>
+    <t>Louis Jordan &amp; His Tympany 5</t>
+  </si>
+  <si>
+    <t>Let the Good Times Roll: Anthology 1</t>
+  </si>
+  <si>
+    <t>G.I. Jive (44)</t>
+  </si>
+  <si>
+    <t>G.I. Jive (44)-Louis Jordan &amp; His Tympany 5</t>
+  </si>
+  <si>
+    <t>Kay Kyser</t>
+  </si>
+  <si>
+    <t>The Best of Kay Kyser &amp; His Orchestr</t>
+  </si>
+  <si>
+    <t>A Zoot Suit (For My Sund...) (42)</t>
+  </si>
+  <si>
+    <t>A Zoot Suit (For My Sund...) (42)-Kay Kyser</t>
+  </si>
+  <si>
+    <t>Bing Crosby\\Merry Macs</t>
+  </si>
+  <si>
+    <t>Your Hit Parade: 1941</t>
+  </si>
+  <si>
+    <t>Dolores</t>
+  </si>
+  <si>
+    <t>Dolores-Bing Crosby\\Merry Macs</t>
+  </si>
+  <si>
+    <t>The Popular Recordings (1938-1942)</t>
+  </si>
+  <si>
+    <t>I Know Why (And So Do You) (41)</t>
+  </si>
+  <si>
+    <t>I Know Why (And So Do You) (41)-Glenn Miller</t>
+  </si>
+  <si>
+    <t>Bandstand Memories  1938 To 1948</t>
+  </si>
+  <si>
+    <t>Limehouse Blues (47)</t>
+  </si>
+  <si>
+    <t>Limehouse Blues (47)-Harry James</t>
+  </si>
+  <si>
+    <t>Alvino Rey</t>
+  </si>
+  <si>
+    <t>Mairzy Doats 44 Wacky Hits</t>
+  </si>
+  <si>
+    <t>Cement Mixer (46)</t>
+  </si>
+  <si>
+    <t>Cement Mixer (46)-Alvino Rey</t>
+  </si>
+  <si>
+    <t>Andrews Sisters</t>
+  </si>
+  <si>
+    <t>S'Wonderful The Great Gershwin Decca</t>
+  </si>
+  <si>
+    <t>Nice Work If You Can Get It</t>
+  </si>
+  <si>
+    <t>Nice Work If You Can Get It-Andrews Sisters</t>
+  </si>
+  <si>
+    <t>Bob Kean</t>
+  </si>
+  <si>
+    <t>The Lady Is A Tramp</t>
+  </si>
+  <si>
+    <t>The Lady Is A Tramp-Bob Kean</t>
+  </si>
+  <si>
+    <t>His Best Recordings 1928-1942</t>
+  </si>
+  <si>
+    <t>Hawaiian War Chant (41)</t>
+  </si>
+  <si>
+    <t>Hawaiian War Chant (41)-Tommy Dorsey</t>
+  </si>
+  <si>
+    <t>Mills Brothers</t>
+  </si>
+  <si>
+    <t>Till Then (44)</t>
+  </si>
+  <si>
+    <t>Till Then (44)-Mills Brothers</t>
+  </si>
+  <si>
+    <t>Salute To Glenn Miller</t>
+  </si>
+  <si>
+    <t>I've Got A Gal in Kalamazoo (42)</t>
+  </si>
+  <si>
+    <t>I've Got A Gal in Kalamazoo (42)-Ted Heath</t>
+  </si>
+  <si>
+    <t>Les Brown and Doris Day</t>
+  </si>
+  <si>
+    <t>Amapola (41)</t>
+  </si>
+  <si>
+    <t>Amapola (41)-Les Brown and Doris Day</t>
+  </si>
+  <si>
+    <t>Rose Room</t>
+  </si>
+  <si>
+    <t>Rose Room-Artie Shaw</t>
+  </si>
+  <si>
+    <t>facebook.com</t>
+  </si>
+  <si>
+    <t>../40sJunction-facebook.com</t>
+  </si>
+  <si>
+    <t>Hey! Ba-Ba-Re-Bop (46)</t>
+  </si>
+  <si>
+    <t>Hey! Ba-Ba-Re-Bop (46)-Lionel Hampton</t>
+  </si>
+  <si>
+    <t>Ella Fitzgerald</t>
+  </si>
+  <si>
+    <t>The War Years</t>
+  </si>
+  <si>
+    <t>(I Love You) For Sentimenta... (46)</t>
+  </si>
+  <si>
+    <t>(I Love You) For Sentimenta... (46)-Ella Fitzgerald</t>
+  </si>
+  <si>
+    <t>Jan Savitt</t>
+  </si>
+  <si>
+    <t>Get Happy (46)</t>
+  </si>
+  <si>
+    <t>Get Happy (46)-Jan Savitt</t>
+  </si>
+  <si>
+    <t>Marion Hutton &amp; the Modernaires</t>
+  </si>
+  <si>
+    <t>Something For The Boys</t>
+  </si>
+  <si>
+    <t>Johnny Zero (43)</t>
+  </si>
+  <si>
+    <t>Johnny Zero (43)-Marion Hutton &amp; the Modernaires</t>
+  </si>
+  <si>
+    <t>1935-42-Louis Sings Armstrong</t>
+  </si>
+  <si>
+    <t>You Are My Lucky Star</t>
+  </si>
+  <si>
+    <t>You Are My Lucky Star-Louis Armstrong</t>
+  </si>
+  <si>
+    <t>Dorsey Brothers</t>
+  </si>
+  <si>
+    <t>TV's Stage Show 1/8/55</t>
+  </si>
+  <si>
+    <t>Opus One</t>
+  </si>
+  <si>
+    <t>Opus One-Dorsey Brothers</t>
+  </si>
+  <si>
+    <t>Love On A Greyhound Bus (41)</t>
+  </si>
+  <si>
+    <t>Love On A Greyhound Bus (41)-Vaughn Monroe</t>
+  </si>
+  <si>
+    <t>1940-1941</t>
+  </si>
+  <si>
+    <t>Blue Prelude (41)</t>
+  </si>
+  <si>
+    <t>Blue Prelude (41)-Jimmie Lunceford</t>
+  </si>
+  <si>
+    <t>Manhattan (43)</t>
+  </si>
+  <si>
+    <t>Manhattan (43)-Jimmy Dorsey</t>
+  </si>
+  <si>
+    <t>Charles Trenet</t>
+  </si>
+  <si>
+    <t>Anthologie</t>
+  </si>
+  <si>
+    <t>La Mer (49)</t>
+  </si>
+  <si>
+    <t>La Mer (49)-Charles Trenet</t>
+  </si>
+  <si>
+    <t>Benny Goodman v/Peggy Lee</t>
+  </si>
+  <si>
+    <t>Masterpieces, Vol. 5</t>
+  </si>
+  <si>
+    <t>Why Don't You Do Right? (43)</t>
+  </si>
+  <si>
+    <t>Why Don't You Do Right? (43)-Benny Goodman v/Peggy Lee</t>
+  </si>
+  <si>
+    <t>Frank Sinatra</t>
+  </si>
+  <si>
+    <t>Five Minutes More (46)</t>
+  </si>
+  <si>
+    <t>Five Minutes More (46)-Frank Sinatra</t>
+  </si>
+  <si>
+    <t>Yasha Bunchuk's Swing Symphony</t>
+  </si>
+  <si>
+    <t>Crazy Rhythm</t>
+  </si>
+  <si>
+    <t>Crazy Rhythm-Yasha Bunchuk's Swing Symphony</t>
+  </si>
+  <si>
+    <t>Duke Ellington v/Joya Sherrill</t>
+  </si>
+  <si>
+    <t>Nipper's Greatest Hits: The 40's, Vol. 1</t>
+  </si>
+  <si>
+    <t>I'm Beginning To See The Light (45)</t>
+  </si>
+  <si>
+    <t>I'm Beginning To See The Light (45)-Duke Ellington v/Joya Sherrill</t>
+  </si>
+  <si>
+    <t>Sarah Vaughan/Basie</t>
+  </si>
+  <si>
+    <t>Sarah Vaughan with Count Basie</t>
+  </si>
+  <si>
+    <t>Perdido (49)</t>
+  </si>
+  <si>
+    <t>Perdido (49)-Sarah Vaughan/Basie</t>
+  </si>
+  <si>
+    <t>Memorial 1944-1969</t>
+  </si>
+  <si>
+    <t>Anvil Chorus (41)</t>
+  </si>
+  <si>
+    <t>Anvil Chorus (41)-Glenn Miller</t>
+  </si>
+  <si>
+    <t>Let's Get Lost (43)</t>
+  </si>
+  <si>
+    <t>Let's Get Lost (43)-Kay Kyser</t>
+  </si>
+  <si>
+    <t>Helen Forrest</t>
+  </si>
+  <si>
+    <t>Embraceable You</t>
+  </si>
+  <si>
+    <t>I'll Get By (44)</t>
+  </si>
+  <si>
+    <t>I'll Get By (44)-Helen Forrest</t>
+  </si>
+  <si>
+    <t>Charmaine (44)</t>
+  </si>
+  <si>
+    <t>Charmaine (44)-Harry James</t>
+  </si>
+  <si>
+    <t>The Best Of Tommy Dorsey</t>
+  </si>
+  <si>
+    <t>Indian Summer</t>
+  </si>
+  <si>
+    <t>Indian Summer-Tommy Dorsey</t>
+  </si>
+  <si>
+    <t>Leave Us Leap (47)</t>
+  </si>
+  <si>
+    <t>Leave Us Leap (47)-Gene Krupa</t>
+  </si>
+  <si>
+    <t>Tommy Tucker</t>
+  </si>
+  <si>
+    <t>On The Sunny Side Of The Street</t>
+  </si>
+  <si>
+    <t>On The Sunny Side Of The Street-Tommy Tucker</t>
+  </si>
+  <si>
+    <t>When You're Smiling</t>
+  </si>
+  <si>
+    <t>When You're Smiling-Billie Holiday</t>
+  </si>
+  <si>
+    <t>Merry Macs</t>
+  </si>
+  <si>
+    <t>Harmonious Hits Of The Merry Macs</t>
+  </si>
+  <si>
+    <t>Jingle Jangle Jingle (42)</t>
+  </si>
+  <si>
+    <t>Jingle Jangle Jingle (42)-Merry Macs</t>
+  </si>
+  <si>
+    <t>Charlie Ventura</t>
+  </si>
+  <si>
+    <t>Good (Big) Deal (46)</t>
+  </si>
+  <si>
+    <t>Good (Big) Deal (46)-Charlie Ventura</t>
+  </si>
+  <si>
+    <t>Bing Crosby</t>
+  </si>
+  <si>
+    <t>Swingin' on a Star</t>
+  </si>
+  <si>
+    <t>Swinging On A Star (44)</t>
+  </si>
+  <si>
+    <t>Swinging On A Star (44)-Bing Crosby</t>
+  </si>
+  <si>
+    <t>The Hut Sut Song (41)-King Sisters</t>
+  </si>
+  <si>
+    <t>Jan Garber</t>
+  </si>
+  <si>
+    <t>Vol. 2, 1944 Swing Band</t>
+  </si>
+  <si>
+    <t>My Blue Heaven (46)</t>
+  </si>
+  <si>
+    <t>My Blue Heaven (46)-Jan Garber</t>
+  </si>
+  <si>
+    <t>It's Been A Long, Long Time (45)</t>
+  </si>
+  <si>
+    <t>It's Been A Long, Long Time (45)-Stan Kenton v/June Christy</t>
+  </si>
+  <si>
+    <t>Linda-Charlie Spivak</t>
+  </si>
+  <si>
+    <t>Blue Skies (40)</t>
+  </si>
+  <si>
+    <t>Blue Skies (40)-Artie Shaw</t>
+  </si>
+  <si>
+    <t>Hollywood Canteen</t>
+  </si>
+  <si>
+    <t>Hollywood Canteen (44)</t>
+  </si>
+  <si>
+    <t>Hollywood Canteen (44)-Andrews Sisters</t>
+  </si>
+  <si>
+    <t>Turn On The Heat: The Fats Walle</t>
+  </si>
+  <si>
+    <t>Handful Of Keys (41)</t>
+  </si>
+  <si>
+    <t>Handful Of Keys (41)-Fats Waller</t>
+  </si>
+  <si>
+    <t>Jo Stafford</t>
+  </si>
+  <si>
+    <t>I'll Be Seeing You</t>
+  </si>
+  <si>
+    <t>I'll Be Seeing You-Jo Stafford</t>
+  </si>
+  <si>
+    <t>Spitfire Band</t>
+  </si>
+  <si>
+    <t>Virtual Reality</t>
+  </si>
+  <si>
+    <t>Two O'Clock Jump</t>
+  </si>
+  <si>
+    <t>Two O'Clock Jump-Spitfire Band</t>
+  </si>
+  <si>
+    <t>The Complete Benny Goodman - Vol. 4</t>
+  </si>
+  <si>
+    <t>Sing, Sing, Sing</t>
+  </si>
+  <si>
+    <t>Sing, Sing, Sing-Benny Goodman</t>
+  </si>
+  <si>
+    <t>Mel Torme</t>
+  </si>
+  <si>
+    <t>The Velvet Fog</t>
+  </si>
+  <si>
+    <t>A Foggy Day (48)</t>
+  </si>
+  <si>
+    <t>A Foggy Day (48)-Mel Torme</t>
+  </si>
+  <si>
+    <t>Don Lusher Big Band</t>
+  </si>
+  <si>
+    <t>The Very Best Of</t>
+  </si>
+  <si>
+    <t>Peanut Vendor (42)</t>
+  </si>
+  <si>
+    <t>Peanut Vendor (42)-Don Lusher Big Band</t>
+  </si>
+  <si>
+    <t>Larry Clinton v/Bea Wain</t>
+  </si>
+  <si>
+    <t>Very Best Of Larry Clinton And H</t>
+  </si>
+  <si>
+    <t>My Heart Belongs To Daddy</t>
+  </si>
+  <si>
+    <t>My Heart Belongs To Daddy-Larry Clinton v/Bea Wain</t>
+  </si>
+  <si>
+    <t>The Swinging Mr. Miller</t>
+  </si>
+  <si>
+    <t>Caribbean Clipper</t>
+  </si>
+  <si>
+    <t>Caribbean Clipper-Glenn Miller</t>
+  </si>
+  <si>
+    <t>Bob Hope/Shirley Ross</t>
+  </si>
+  <si>
+    <t>The Envelope Please</t>
+  </si>
+  <si>
+    <t>Thanks For The Memory</t>
+  </si>
+  <si>
+    <t>Thanks For The Memory-Bob Hope/Shirley Ross</t>
+  </si>
+  <si>
+    <t>Jack Teagarden</t>
+  </si>
+  <si>
+    <t>Columbia 35323</t>
+  </si>
+  <si>
+    <t>Swingin' On The Teagarden Gate</t>
+  </si>
+  <si>
+    <t>Swingin' On The Teagarden Gate-Jack Teagarden</t>
+  </si>
+  <si>
+    <t>The Uncollected Les Brown &amp; His Orch</t>
+  </si>
+  <si>
+    <t>Just a Gigolo (49)</t>
+  </si>
+  <si>
+    <t>Just a Gigolo (49)-Les Brown</t>
+  </si>
+  <si>
+    <t>Billy Eckstine</t>
+  </si>
+  <si>
+    <t>I Apologize</t>
+  </si>
+  <si>
+    <t>I Apologize-Billy Eckstine</t>
+  </si>
+  <si>
+    <t>Boswell Sisters o/Jimmie Grier</t>
+  </si>
+  <si>
+    <t>That's How Rhythm Was Born</t>
+  </si>
+  <si>
+    <t>The Object Of My Affection</t>
+  </si>
+  <si>
+    <t>The Object Of My Affection-Boswell Sisters o/Jimmie Grier</t>
+  </si>
+  <si>
+    <t>Swingsation</t>
+  </si>
+  <si>
+    <t>Jumpin' At The Woodside</t>
+  </si>
+  <si>
+    <t>Jumpin' At The Woodside-Count Basie</t>
+  </si>
+  <si>
+    <t>Judy Garland</t>
+  </si>
+  <si>
+    <t>On the Atchison, Topeka And... (45)</t>
+  </si>
+  <si>
+    <t>On the Atchison, Topeka And... (45)-Judy Garland</t>
+  </si>
+  <si>
+    <t>Let's Face the Music</t>
+  </si>
+  <si>
+    <t>Cheek to Cheek</t>
+  </si>
+  <si>
+    <t>Cheek to Cheek-Fred Astaire</t>
+  </si>
+  <si>
+    <t>1927-1947</t>
+  </si>
+  <si>
+    <t>Wire Brush Stomp (40)</t>
+  </si>
+  <si>
+    <t>Wire Brush Stomp (40)-Gene Krupa</t>
+  </si>
+  <si>
+    <t>Bali Ha'i (49)</t>
+  </si>
+  <si>
+    <t>Bali Ha'i (49)-Peggy Lee</t>
+  </si>
+  <si>
+    <t>East Of The Sun (And West...) (40)</t>
+  </si>
+  <si>
+    <t>East Of The Sun (And West...) (40)-Tommy Dorsey/Frank Sinatra</t>
+  </si>
+  <si>
+    <t>Penthouse Serenade</t>
+  </si>
+  <si>
+    <t>Penthouse Serenade-Harry James</t>
+  </si>
+  <si>
+    <t>In The Middle Of May (45)</t>
+  </si>
+  <si>
+    <t>In The Middle Of May (45)-Freddy Martin</t>
+  </si>
+  <si>
+    <t>Duke Ellington v/Ivie Anderson</t>
+  </si>
+  <si>
+    <t>1938-Vol. 2</t>
+  </si>
+  <si>
+    <t>When My Sugar Walks Down The Street</t>
+  </si>
+  <si>
+    <t>When My Sugar Walks Down The Street-Duke Ellington v/Ivie Anderson</t>
+  </si>
+  <si>
+    <t>Songs from the Movies</t>
+  </si>
+  <si>
+    <t>A Gal In Calico (47)</t>
+  </si>
+  <si>
+    <t>A Gal In Calico (47)-Bing Crosby</t>
+  </si>
+  <si>
+    <t>Begin The Beguine</t>
+  </si>
+  <si>
+    <t>Back Bay Shuffle</t>
+  </si>
+  <si>
+    <t>Back Bay Shuffle-Artie Shaw</t>
+  </si>
+  <si>
+    <t>Ray Anthony v/Ronnie Deauville</t>
+  </si>
+  <si>
+    <t>Nevertheless (I'm in Love With You)</t>
+  </si>
+  <si>
+    <t>Nevertheless (I'm in Love With You)-Ray Anthony v/Ronnie Deauville</t>
+  </si>
+  <si>
+    <t>Lester Young</t>
+  </si>
+  <si>
+    <t>Jump Lester Jump (44)</t>
+  </si>
+  <si>
+    <t>Jump Lester Jump (44)-Lester Young</t>
+  </si>
+  <si>
+    <t>Chick Webb v/Ella Fitzgerald</t>
+  </si>
+  <si>
+    <t>The Dipsy Doodle</t>
+  </si>
+  <si>
+    <t>The Dipsy Doodle-Chick Webb v/Ella Fitzgerald</t>
+  </si>
+  <si>
+    <t>Perry Como o/Benny Goodman</t>
+  </si>
+  <si>
+    <t>Incomparable</t>
+  </si>
+  <si>
+    <t>Goodbye Sue</t>
+  </si>
+  <si>
+    <t>Goodbye Sue-Perry Como o/Benny Goodman</t>
+  </si>
+  <si>
+    <t>Andrews Sisters o/Vic Schoen</t>
+  </si>
+  <si>
+    <t>Decca 3553</t>
+  </si>
+  <si>
+    <t>Scrub Me Mama With A Boogie Beat (4</t>
+  </si>
+  <si>
+    <t>Scrub Me Mama With A Boogie Beat (4-Andrews Sisters o/Vic Schoen</t>
+  </si>
+  <si>
+    <t>Carmen Cavallaro</t>
+  </si>
+  <si>
+    <t>Uncollected Carmen Cavallaro &amp; His O</t>
+  </si>
+  <si>
+    <t>It's De-Lovely (46)</t>
+  </si>
+  <si>
+    <t>It's De-Lovely (46)-Carmen Cavallaro</t>
+  </si>
+  <si>
+    <t>Jimmy Dorsey v/Helen O'Connell</t>
+  </si>
+  <si>
+    <t>Six Lessons From Madame La... (40)</t>
+  </si>
+  <si>
+    <t>Six Lessons From Madame La... (40)-Jimmy Dorsey v/Helen O'Connell</t>
+  </si>
+  <si>
+    <t>Song Spinners</t>
+  </si>
+  <si>
+    <t>Your Hit Parade: 1943</t>
+  </si>
+  <si>
+    <t>Comin' In On A Wing And A... (43)</t>
+  </si>
+  <si>
+    <t>Comin' In On A Wing And A... (43)-Song Spinners</t>
+  </si>
+  <si>
+    <t>Soft Lights And Sweet Music (49)</t>
+  </si>
+  <si>
+    <t>Soft Lights And Sweet Music (49)-Dick Haymes</t>
+  </si>
+  <si>
+    <t>Benny Goodman v/Martha Tilton</t>
+  </si>
+  <si>
+    <t>The Complete 1937 Madhattan Room</t>
+  </si>
+  <si>
+    <t>Sweet Stranger</t>
+  </si>
+  <si>
+    <t>Sweet Stranger-Benny Goodman v/Martha Tilton</t>
+  </si>
+  <si>
+    <t>Woodchopper's Ball</t>
+  </si>
+  <si>
+    <t>Woodchopper's Ball-Woody Herman</t>
+  </si>
+  <si>
+    <t>Racing with the Moon</t>
+  </si>
+  <si>
+    <t>Seems Like Old Times (46)</t>
+  </si>
+  <si>
+    <t>Seems Like Old Times (46)-Vaughn Monroe</t>
+  </si>
+  <si>
+    <t>Coquette</t>
+  </si>
+  <si>
+    <t>Coquette-Billy Eckstine</t>
+  </si>
+  <si>
+    <t>The Lionel Hampton Story</t>
+  </si>
+  <si>
+    <t>Flying Home</t>
+  </si>
+  <si>
+    <t>Flying Home-Lionel Hampton</t>
+  </si>
+  <si>
+    <t>Desi Arnaz</t>
+  </si>
+  <si>
+    <t>Straw Hat Song</t>
+  </si>
+  <si>
+    <t>Straw Hat Song-Desi Arnaz</t>
+  </si>
+  <si>
+    <t>Glenn Miller AAF Band</t>
+  </si>
+  <si>
+    <t>Memorial</t>
+  </si>
+  <si>
+    <t>St. Louis Blues March</t>
+  </si>
+  <si>
+    <t>St. Louis Blues March-Glenn Miller AAF Band</t>
   </si>
 </sst>
 </file>
@@ -132,7 +1965,7 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -142,6 +1975,7 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -443,88 +2277,2545 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A2:D7"/>
+  <dimension ref="A2:D199"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C4" activeCellId="0" pane="topLeft" sqref="A2:C4"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A112" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="D5" activeCellId="0" pane="topLeft" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="2" width="11.52"/>
+    <col customWidth="1" max="1" min="1" style="2" width="29.59"/>
+    <col customWidth="1" max="2" min="2" style="2" width="39.45"/>
+    <col customWidth="1" max="3" min="3" style="2" width="33.34"/>
+    <col customWidth="1" max="4" min="4" style="2" width="63.08"/>
+    <col customWidth="1" max="1025" min="5" style="2" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+    <row customHeight="1" ht="12.8" r="2" s="3" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+    <row customHeight="1" ht="12.8" r="3" s="3" spans="1:4">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+    <row customHeight="1" ht="12.8" r="4" s="3" spans="1:4">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+    <row customHeight="1" ht="12.8" r="5" s="3" spans="1:4">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+    <row customHeight="1" ht="12.8" r="6" s="3" spans="1:4">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
+    <row customHeight="1" ht="12.8" r="7" s="3" spans="1:4">
+      <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="8" s="3" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="9" s="3" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="10" s="3" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="11" s="3" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="12" s="3" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="13" s="3" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="14" s="3" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="15" s="3" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="16" s="3" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="17" s="3" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="18" s="3" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="19" s="3" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="20" s="3" spans="1:4">
+      <c r="A20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="21" s="3" spans="1:4">
+      <c r="A21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="22" s="3" spans="1:4">
+      <c r="A22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="23" s="3" spans="1:4">
+      <c r="A23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="24" s="3" spans="1:4">
+      <c r="A24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="25" s="3" spans="1:4">
+      <c r="A25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="26" s="3" spans="1:4">
+      <c r="A26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="27" s="3" spans="1:4">
+      <c r="A27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="28" s="3" spans="1:4">
+      <c r="A28" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="29" s="3" spans="1:4">
+      <c r="A29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="30" s="3" spans="1:4">
+      <c r="A30" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="31" s="3" spans="1:4">
+      <c r="A31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="32" s="3" spans="1:4">
+      <c r="A32" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="33" s="3" spans="1:4">
+      <c r="A33" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>1943</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="34" s="3" spans="1:4">
+      <c r="A34" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="35" s="3" spans="1:4">
+      <c r="A35" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="36" s="3" spans="1:4">
+      <c r="A36" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="37" s="3" spans="1:4">
+      <c r="A37" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="38" s="3" spans="1:4">
+      <c r="A38" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="39" s="3" spans="1:4">
+      <c r="A39" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="40" s="3" spans="1:4">
+      <c r="A40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="41" s="3" spans="1:4">
+      <c r="A41" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="42" s="3" spans="1:4">
+      <c r="A42" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="43" s="3" spans="1:4">
+      <c r="A43" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="44" s="3" spans="1:4">
+      <c r="A44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="45" s="3" spans="1:4">
+      <c r="A45" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="46" s="3" spans="1:4">
+      <c r="A46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="47" s="3" spans="1:4">
+      <c r="A47" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="48" s="3" spans="1:4">
+      <c r="A48" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="49" s="3" spans="1:4">
+      <c r="A49" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="50" s="3" spans="1:4">
+      <c r="A50" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="51" s="3" spans="1:4">
+      <c r="A51" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="52" s="3" spans="1:4">
+      <c r="A52" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="53" s="3" spans="1:4">
+      <c r="A53" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="54" s="3" spans="1:4">
+      <c r="A54" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="55" s="3" spans="1:4">
+      <c r="A55" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="56" s="3" spans="1:4">
+      <c r="A56" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="57" s="3" spans="1:4">
+      <c r="A57" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="58" s="3" spans="1:4">
+      <c r="A58" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="59" s="3" spans="1:4">
+      <c r="A59" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="60" s="3" spans="1:4">
+      <c r="A60" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="61" s="3" spans="1:4">
+      <c r="A61" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="62" s="3" spans="1:4">
+      <c r="A62" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="63" s="3" spans="1:4">
+      <c r="A63" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="64" s="3" spans="1:4">
+      <c r="A64" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="65" s="3" spans="1:4">
+      <c r="A65" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="66" s="3" spans="1:4">
+      <c r="A66" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="67" s="3" spans="1:4">
+      <c r="A67" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="68" s="3" spans="1:4">
+      <c r="A68" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="69" s="3" spans="1:4">
+      <c r="A69" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="70" s="3" spans="1:4">
+      <c r="A70" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="71" s="3" spans="1:4">
+      <c r="A71" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="72" s="3" spans="1:4">
+      <c r="A72" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="73" s="3" spans="1:4">
+      <c r="A73" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="74" s="3" spans="1:4">
+      <c r="A74" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="75" s="3" spans="1:4">
+      <c r="A75" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="76" s="3" spans="1:4">
+      <c r="A76" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="77" s="3" spans="1:4">
+      <c r="A77" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="78" s="3" spans="1:4">
+      <c r="A78" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="79" s="3" spans="1:4">
+      <c r="A79" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="80" s="3" spans="1:4">
+      <c r="A80" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="81" s="3" spans="1:4">
+      <c r="A81" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="82" s="3" spans="1:4">
+      <c r="A82" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="83" s="3" spans="1:4">
+      <c r="A83" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="84" s="3" spans="1:4">
+      <c r="A84" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="85" s="3" spans="1:4">
+      <c r="A85" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="86" s="3" spans="1:4">
+      <c r="A86" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="87" s="3" spans="1:4">
+      <c r="A87" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="88" s="3" spans="1:4">
+      <c r="A88" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="89" s="3" spans="1:4">
+      <c r="A89" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="90" s="3" spans="1:4">
+      <c r="A90" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="91" s="3" spans="1:4">
+      <c r="A91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="92" s="3" spans="1:4">
+      <c r="A92" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="93" s="3" spans="1:4">
+      <c r="A93" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="94" s="3" spans="1:4">
+      <c r="A94" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="95" s="3" spans="1:4">
+      <c r="A95" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="96" s="3" spans="1:4">
+      <c r="A96" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="97" s="3" spans="1:4">
+      <c r="A97" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="98" s="3" spans="1:4">
+      <c r="A98" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="99" s="3" spans="1:4">
+      <c r="A99" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="100" s="3" spans="1:4">
+      <c r="A100" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="101" s="3" spans="1:4">
+      <c r="A101" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="102" s="3" spans="1:4">
+      <c r="A102" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="103" s="3" spans="1:4">
+      <c r="A103" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="104" s="3" spans="1:4">
+      <c r="A104" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="105" s="3" spans="1:4">
+      <c r="A105" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="106" s="3" spans="1:4">
+      <c r="A106" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="107" s="3" spans="1:4">
+      <c r="A107" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="108" s="3" spans="1:4">
+      <c r="A108" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="109" s="3" spans="1:4">
+      <c r="A109" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="110" s="3" spans="1:4">
+      <c r="A110" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="111" s="3" spans="1:4">
+      <c r="A111" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="112" s="3" spans="1:4">
+      <c r="A112" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="113" s="3" spans="1:4">
+      <c r="A113" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="114" s="3" spans="1:4">
+      <c r="A114" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="115" s="3" spans="1:4">
+      <c r="A115" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="116" s="3" spans="1:4">
+      <c r="A116" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="117" s="3" spans="1:4">
+      <c r="A117" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="118" s="3" spans="1:4">
+      <c r="A118" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="119" s="3" spans="1:4">
+      <c r="A119" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="120" s="3" spans="1:4">
+      <c r="A120" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="121" s="3" spans="1:4">
+      <c r="A121" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="122" s="3" spans="1:4">
+      <c r="A122" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="123" s="3" spans="1:4">
+      <c r="A123" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="124" s="3" spans="1:4">
+      <c r="A124" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="125" s="3" spans="1:4">
+      <c r="A125" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="126" s="3" spans="1:4">
+      <c r="A126" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="127" s="3" spans="1:4">
+      <c r="A127" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="128" s="3" spans="1:4">
+      <c r="A128" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="129" s="3" spans="1:4">
+      <c r="A129" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="130" s="3" spans="1:4">
+      <c r="A130" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="131" s="3" spans="1:4">
+      <c r="A131" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="132" s="3" spans="1:4">
+      <c r="A132" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="133" s="3" spans="1:4">
+      <c r="A133" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="134" s="3" spans="1:4">
+      <c r="A134" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="135" s="3" spans="1:4">
+      <c r="A135" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="136" s="3" spans="1:4">
+      <c r="A136" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="137" s="3" spans="1:4">
+      <c r="A137" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>441</v>
+      </c>
+      <c r="B138" t="s">
+        <v>442</v>
+      </c>
+      <c r="C138" t="s">
+        <v>443</v>
+      </c>
+      <c r="D138" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>445</v>
+      </c>
+      <c r="C139" t="s">
+        <v>446</v>
+      </c>
+      <c r="D139" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>448</v>
+      </c>
+      <c r="B140" t="s">
+        <v>195</v>
+      </c>
+      <c r="C140" t="s">
+        <v>449</v>
+      </c>
+      <c r="D140" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>451</v>
+      </c>
+      <c r="B141" t="s">
+        <v>452</v>
+      </c>
+      <c r="C141" t="s">
+        <v>453</v>
+      </c>
+      <c r="D141" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>455</v>
+      </c>
+      <c r="B142" t="s">
+        <v>456</v>
+      </c>
+      <c r="C142" t="s">
+        <v>457</v>
+      </c>
+      <c r="D142" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>44</v>
+      </c>
+      <c r="B143" t="s">
+        <v>459</v>
+      </c>
+      <c r="C143" t="s">
+        <v>460</v>
+      </c>
+      <c r="D143" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>369</v>
+      </c>
+      <c r="C144" t="s">
+        <v>462</v>
+      </c>
+      <c r="D144" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>464</v>
+      </c>
+      <c r="B145" t="s">
+        <v>465</v>
+      </c>
+      <c r="C145" t="s">
+        <v>466</v>
+      </c>
+      <c r="D145" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>100</v>
+      </c>
+      <c r="C146" t="s">
+        <v>468</v>
+      </c>
+      <c r="D146" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>167</v>
+      </c>
+      <c r="B147" t="s">
+        <v>470</v>
+      </c>
+      <c r="C147" t="s">
+        <v>471</v>
+      </c>
+      <c r="D147" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>255</v>
+      </c>
+      <c r="B148" t="s">
+        <v>256</v>
+      </c>
+      <c r="C148" t="s">
+        <v>473</v>
+      </c>
+      <c r="D148" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>475</v>
+      </c>
+      <c r="C149" t="s">
+        <v>476</v>
+      </c>
+      <c r="D149" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>64</v>
+      </c>
+      <c r="C150" t="s">
+        <v>478</v>
+      </c>
+      <c r="D150" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>480</v>
+      </c>
+      <c r="B151" t="s">
+        <v>481</v>
+      </c>
+      <c r="C151" t="s">
+        <v>482</v>
+      </c>
+      <c r="D151" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>484</v>
+      </c>
+      <c r="C152" t="s">
+        <v>485</v>
+      </c>
+      <c r="D152" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>487</v>
+      </c>
+      <c r="B153" t="s">
+        <v>488</v>
+      </c>
+      <c r="C153" t="s">
+        <v>489</v>
+      </c>
+      <c r="D153" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>270</v>
+      </c>
+      <c r="C154" t="s">
+        <v>15</v>
+      </c>
+      <c r="D154" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>492</v>
+      </c>
+      <c r="B155" t="s">
+        <v>493</v>
+      </c>
+      <c r="C155" t="s">
+        <v>494</v>
+      </c>
+      <c r="D155" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>305</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1945</v>
+      </c>
+      <c r="C156" t="s">
+        <v>496</v>
+      </c>
+      <c r="D156" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>187</v>
+      </c>
+      <c r="C157" t="s">
+        <v>202</v>
+      </c>
+      <c r="D157" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>96</v>
+      </c>
+      <c r="C158" t="s">
+        <v>499</v>
+      </c>
+      <c r="D158" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>387</v>
+      </c>
+      <c r="B159" t="s">
+        <v>501</v>
+      </c>
+      <c r="C159" t="s">
+        <v>502</v>
+      </c>
+      <c r="D159" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>198</v>
+      </c>
+      <c r="B160" t="s">
+        <v>504</v>
+      </c>
+      <c r="C160" t="s">
+        <v>505</v>
+      </c>
+      <c r="D160" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>507</v>
+      </c>
+      <c r="C161" t="s">
+        <v>508</v>
+      </c>
+      <c r="D161" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>510</v>
+      </c>
+      <c r="B162" t="s">
+        <v>511</v>
+      </c>
+      <c r="C162" t="s">
+        <v>512</v>
+      </c>
+      <c r="D162" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>30</v>
+      </c>
+      <c r="B163" t="s">
+        <v>514</v>
+      </c>
+      <c r="C163" t="s">
+        <v>515</v>
+      </c>
+      <c r="D163" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>517</v>
+      </c>
+      <c r="B164" t="s">
+        <v>518</v>
+      </c>
+      <c r="C164" t="s">
+        <v>519</v>
+      </c>
+      <c r="D164" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>521</v>
+      </c>
+      <c r="B165" t="s">
+        <v>522</v>
+      </c>
+      <c r="C165" t="s">
+        <v>523</v>
+      </c>
+      <c r="D165" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>525</v>
+      </c>
+      <c r="B166" t="s">
+        <v>526</v>
+      </c>
+      <c r="C166" t="s">
+        <v>527</v>
+      </c>
+      <c r="D166" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>44</v>
+      </c>
+      <c r="B167" t="s">
+        <v>529</v>
+      </c>
+      <c r="C167" t="s">
+        <v>530</v>
+      </c>
+      <c r="D167" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>532</v>
+      </c>
+      <c r="B168" t="s">
+        <v>533</v>
+      </c>
+      <c r="C168" t="s">
+        <v>534</v>
+      </c>
+      <c r="D168" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>536</v>
+      </c>
+      <c r="B169" t="s">
+        <v>537</v>
+      </c>
+      <c r="C169" t="s">
+        <v>538</v>
+      </c>
+      <c r="D169" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>178</v>
+      </c>
+      <c r="B170" t="s">
+        <v>540</v>
+      </c>
+      <c r="C170" t="s">
+        <v>541</v>
+      </c>
+      <c r="D170" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>543</v>
+      </c>
+      <c r="C171" t="s">
+        <v>544</v>
+      </c>
+      <c r="D171" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>546</v>
+      </c>
+      <c r="B172" t="s">
+        <v>547</v>
+      </c>
+      <c r="C172" t="s">
+        <v>548</v>
+      </c>
+      <c r="D172" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
+        <v>550</v>
+      </c>
+      <c r="C173" t="s">
+        <v>551</v>
+      </c>
+      <c r="D173" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>553</v>
+      </c>
+      <c r="C174" t="s">
+        <v>554</v>
+      </c>
+      <c r="D174" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>285</v>
+      </c>
+      <c r="B175" t="s">
+        <v>556</v>
+      </c>
+      <c r="C175" t="s">
+        <v>557</v>
+      </c>
+      <c r="D175" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>255</v>
+      </c>
+      <c r="B176" t="s">
+        <v>559</v>
+      </c>
+      <c r="C176" t="s">
+        <v>560</v>
+      </c>
+      <c r="D176" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>214</v>
+      </c>
+      <c r="C177" t="s">
+        <v>562</v>
+      </c>
+      <c r="D177" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>347</v>
+      </c>
+      <c r="C178" t="s">
+        <v>564</v>
+      </c>
+      <c r="D178" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>100</v>
+      </c>
+      <c r="C179" t="s">
+        <v>566</v>
+      </c>
+      <c r="D179" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>14</v>
+      </c>
+      <c r="C180" t="s">
+        <v>568</v>
+      </c>
+      <c r="D180" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>570</v>
+      </c>
+      <c r="B181" t="s">
+        <v>571</v>
+      </c>
+      <c r="C181" t="s">
+        <v>572</v>
+      </c>
+      <c r="D181" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>487</v>
+      </c>
+      <c r="B182" t="s">
+        <v>574</v>
+      </c>
+      <c r="C182" t="s">
+        <v>575</v>
+      </c>
+      <c r="D182" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>96</v>
+      </c>
+      <c r="B183" t="s">
+        <v>577</v>
+      </c>
+      <c r="C183" t="s">
+        <v>578</v>
+      </c>
+      <c r="D183" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>580</v>
+      </c>
+      <c r="C184" t="s">
+        <v>581</v>
+      </c>
+      <c r="D184" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>583</v>
+      </c>
+      <c r="C185" t="s">
+        <v>584</v>
+      </c>
+      <c r="D185" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>586</v>
+      </c>
+      <c r="C186" t="s">
+        <v>587</v>
+      </c>
+      <c r="D186" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
+        <v>589</v>
+      </c>
+      <c r="B187" t="s">
+        <v>590</v>
+      </c>
+      <c r="C187" t="s">
+        <v>591</v>
+      </c>
+      <c r="D187" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>593</v>
+      </c>
+      <c r="B188" t="s">
+        <v>594</v>
+      </c>
+      <c r="C188" t="s">
+        <v>595</v>
+      </c>
+      <c r="D188" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
+        <v>597</v>
+      </c>
+      <c r="B189" t="s">
+        <v>598</v>
+      </c>
+      <c r="C189" t="s">
+        <v>599</v>
+      </c>
+      <c r="D189" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
+        <v>601</v>
+      </c>
+      <c r="C190" t="s">
+        <v>602</v>
+      </c>
+      <c r="D190" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" t="s">
+        <v>604</v>
+      </c>
+      <c r="B191" t="s">
+        <v>605</v>
+      </c>
+      <c r="C191" t="s">
+        <v>606</v>
+      </c>
+      <c r="D191" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" t="s">
+        <v>117</v>
+      </c>
+      <c r="C192" t="s">
+        <v>608</v>
+      </c>
+      <c r="D192" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" t="s">
+        <v>610</v>
+      </c>
+      <c r="B193" t="s">
+        <v>611</v>
+      </c>
+      <c r="C193" t="s">
+        <v>612</v>
+      </c>
+      <c r="D193" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" t="s">
+        <v>23</v>
+      </c>
+      <c r="C194" t="s">
+        <v>614</v>
+      </c>
+      <c r="D194" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
+        <v>106</v>
+      </c>
+      <c r="B195" t="s">
+        <v>616</v>
+      </c>
+      <c r="C195" t="s">
+        <v>617</v>
+      </c>
+      <c r="D195" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
+        <v>543</v>
+      </c>
+      <c r="C196" t="s">
+        <v>619</v>
+      </c>
+      <c r="D196" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" t="s">
+        <v>121</v>
+      </c>
+      <c r="B197" t="s">
+        <v>621</v>
+      </c>
+      <c r="C197" t="s">
+        <v>622</v>
+      </c>
+      <c r="D197" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
+        <v>624</v>
+      </c>
+      <c r="C198" t="s">
+        <v>625</v>
+      </c>
+      <c r="D198" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
+        <v>627</v>
+      </c>
+      <c r="B199" t="s">
+        <v>628</v>
+      </c>
+      <c r="C199" t="s">
+        <v>629</v>
+      </c>
+      <c r="D199" t="s">
+        <v>630</v>
       </c>
     </row>
   </sheetData>

--- a/songs.xlsx
+++ b/songs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1280">
   <si>
     <t>Pied Pipers</t>
   </si>
@@ -3798,6 +3798,63 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=Xe2UXccid40</t>
+  </si>
+  <si>
+    <t>Bing! His Legendary Years, 1931</t>
+  </si>
+  <si>
+    <t>You Must Have Been A Beautiful Baby</t>
+  </si>
+  <si>
+    <t>You Must Have Been A Beautiful Baby-Bing Crosby</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Lk-wTeDXJCk</t>
+  </si>
+  <si>
+    <t>Sings The Cole Porter Songbook</t>
+  </si>
+  <si>
+    <t>It's De-Lovely</t>
+  </si>
+  <si>
+    <t>It's De-Lovely-Ella Fitzgerald</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=z2uiP0-VF78</t>
+  </si>
+  <si>
+    <t>Artie Shaw Featuring Roy Eldridge</t>
+  </si>
+  <si>
+    <t>Little Jazz (45)</t>
+  </si>
+  <si>
+    <t>Little Jazz (45)-Artie Shaw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4XZKuZvAJ4U</t>
+  </si>
+  <si>
+    <t>You'd Be So Nice To Come Home To</t>
+  </si>
+  <si>
+    <t>The Music Stopped (44)</t>
+  </si>
+  <si>
+    <t>The Music Stopped (44)-Woody Herman</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Dtgf2FjlWXs</t>
+  </si>
+  <si>
+    <t>South Rampart Street Parade</t>
+  </si>
+  <si>
+    <t>South Rampart Street Parade-Bob Crosby</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XM-kpxelWkM</t>
   </si>
 </sst>
 </file>
@@ -4167,7 +4224,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A2:E314"/>
+  <dimension ref="A2:E319"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A63" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A78" activeCellId="0" pane="topLeft" sqref="A78"/>
@@ -9134,7 +9191,6 @@
       <c r="A314" t="s">
         <v>487</v>
       </c>
-      <c r="B314" t="s"/>
       <c r="C314" t="s">
         <v>1258</v>
       </c>
@@ -9143,6 +9199,91 @@
       </c>
       <c r="E314" t="s">
         <v>1260</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" t="s">
+        <v>621</v>
+      </c>
+      <c r="B315" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C315" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D315" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E315" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" t="s">
+        <v>522</v>
+      </c>
+      <c r="B316" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C316" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D316" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E316" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" t="s">
+        <v>117</v>
+      </c>
+      <c r="B317" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C317" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D317" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E317" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" t="s">
+        <v>26</v>
+      </c>
+      <c r="B318" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C318" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D318" t="s">
+        <v>1275</v>
+      </c>
+      <c r="E318" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" t="s">
+        <v>280</v>
+      </c>
+      <c r="B319" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C319" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D319" t="s">
+        <v>1278</v>
+      </c>
+      <c r="E319" t="s">
+        <v>1279</v>
       </c>
     </row>
   </sheetData>

--- a/songs.xlsx
+++ b/songs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1370">
   <si>
     <t>Pied Pipers</t>
   </si>
@@ -3855,6 +3855,276 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=XM-kpxelWkM</t>
+  </si>
+  <si>
+    <t>We'll Be Together Again (45)-Les Brown v/Doris Day</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mV74nzxJceY</t>
+  </si>
+  <si>
+    <t>Tony Pastor</t>
+  </si>
+  <si>
+    <t>Bell Bottom Trousers (45)</t>
+  </si>
+  <si>
+    <t>Bell Bottom Trousers (45)-Tony Pastor</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rR184ZGzURk</t>
+  </si>
+  <si>
+    <t>Vol. 4 - 1937</t>
+  </si>
+  <si>
+    <t>Nice Work If You Can Get It-Billie Holiday</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=CPXIIokdc1U</t>
+  </si>
+  <si>
+    <t>Ellington At Newport</t>
+  </si>
+  <si>
+    <t>Sophisticated Lady</t>
+  </si>
+  <si>
+    <t>Sophisticated Lady-Duke Ellington</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=brqxEdwsTQs</t>
+  </si>
+  <si>
+    <t>Ralph Flanagan</t>
+  </si>
+  <si>
+    <t>Dream</t>
+  </si>
+  <si>
+    <t>Dream-Ralph Flanagan</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VJuuqFP8YK8</t>
+  </si>
+  <si>
+    <t>Little White Lies (48)</t>
+  </si>
+  <si>
+    <t>Little White Lies (48)-Dick Haymes</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=L3xwyE1Hskw</t>
+  </si>
+  <si>
+    <t>Swingin' High</t>
+  </si>
+  <si>
+    <t>Peg O' My Heart</t>
+  </si>
+  <si>
+    <t>Peg O' My Heart-Bunny Berigan</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ffAGOm1mbaY</t>
+  </si>
+  <si>
+    <t>A Nightingale Sang in Berke... (40)</t>
+  </si>
+  <si>
+    <t>A Nightingale Sang in Berke... (40)-Glenn Miller</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TPhrlCnfx7s</t>
+  </si>
+  <si>
+    <t>Do You Love Me? (46)</t>
+  </si>
+  <si>
+    <t>Do You Love Me? (46)-Harry James</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SUCkSqm61PM</t>
+  </si>
+  <si>
+    <t>Andy Russell/Pied Pipers</t>
+  </si>
+  <si>
+    <t>Underneath The Arches</t>
+  </si>
+  <si>
+    <t>Underneath The Arches-Andy Russell/Pied Pipers</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1qdKF70BbyM</t>
+  </si>
+  <si>
+    <t>Ivie Anderson</t>
+  </si>
+  <si>
+    <t>I Got It Good &amp; That Ain't Bad</t>
+  </si>
+  <si>
+    <t>When My Sugar Walks Dow... (44)</t>
+  </si>
+  <si>
+    <t>When My Sugar Walks Dow... (44)-Ivie Anderson</t>
+  </si>
+  <si>
+    <t>The Lonesome Road</t>
+  </si>
+  <si>
+    <t>The Lonesome Road-Tommy Dorsey</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lo2CqunIDGs</t>
+  </si>
+  <si>
+    <t>Mary Martin</t>
+  </si>
+  <si>
+    <t>Kiss The Boys Goodbye (41)</t>
+  </si>
+  <si>
+    <t>Kiss The Boys Goodbye (41)-Mary Martin</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Z_8zMvDXBrY</t>
+  </si>
+  <si>
+    <t>The Magnificent Mr. B</t>
+  </si>
+  <si>
+    <t>I'm In The Mood For Love (46)</t>
+  </si>
+  <si>
+    <t>I'm In The Mood For Love (46)-Billy Eckstine</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=CLPSYMgZJbA</t>
+  </si>
+  <si>
+    <t>I Remember You</t>
+  </si>
+  <si>
+    <t>Holiday for Strings (44)</t>
+  </si>
+  <si>
+    <t>Holiday for Strings (44)-Jimmy Dorsey</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_ujGG3qTeig</t>
+  </si>
+  <si>
+    <t>Summer Souvenirs</t>
+  </si>
+  <si>
+    <t>Summer Souvenirs-Larry Clinton v/Bea Wain</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=apn6T3BIqNQ</t>
+  </si>
+  <si>
+    <t>Perry Como</t>
+  </si>
+  <si>
+    <t>Bali Ha'i (49)-Perry Como</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QNQ1M6XDQs4</t>
+  </si>
+  <si>
+    <t>Gene Kelly</t>
+  </si>
+  <si>
+    <t>Hollywood's Most Precious Jewels</t>
+  </si>
+  <si>
+    <t>Singin' In The Rain</t>
+  </si>
+  <si>
+    <t>Singin' In The Rain-Gene Kelly</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w40ushYAaYA</t>
+  </si>
+  <si>
+    <t>Shep Fields</t>
+  </si>
+  <si>
+    <t>The Caissons Go Rolling... (42)</t>
+  </si>
+  <si>
+    <t>The Caissons Go Rolling... (42)-Shep Fields</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7H123iwDGRc</t>
+  </si>
+  <si>
+    <t>Russ Case</t>
+  </si>
+  <si>
+    <t>45rpm single</t>
+  </si>
+  <si>
+    <t>Carioca</t>
+  </si>
+  <si>
+    <t>Carioca-Russ Case</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qHCAVTD9Ras</t>
+  </si>
+  <si>
+    <t>Take The A Train (41)</t>
+  </si>
+  <si>
+    <t>Take The A Train (41)-Duke Ellington</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dQnNnPLC_b4</t>
+  </si>
+  <si>
+    <t>The Best Things in Life Are... (47)</t>
+  </si>
+  <si>
+    <t>The Best Things in Life Are... (47)-Jo Stafford</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6raAdR-1s0o</t>
+  </si>
+  <si>
+    <t>The Best Of The Decca Years</t>
+  </si>
+  <si>
+    <t>You Always Hurt The One You... (44)</t>
+  </si>
+  <si>
+    <t>You Always Hurt The One You... (44)-Mills Brothers</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RryORqwLPy0</t>
+  </si>
+  <si>
+    <t>1940s and Beyond</t>
+  </si>
+  <si>
+    <t>@40sJunction</t>
+  </si>
+  <si>
+    <t>@40sJunction-1940s and Beyond</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=g1jGDhkkzzc</t>
+  </si>
+  <si>
+    <t>Brazil (42)</t>
+  </si>
+  <si>
+    <t>Brazil (42)-Jimmy Dorsey</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lurX5s28pUU</t>
   </si>
 </sst>
 </file>
@@ -4224,7 +4494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A2:E319"/>
+  <dimension ref="A2:E344"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A63" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A78" activeCellId="0" pane="topLeft" sqref="A78"/>
@@ -9286,6 +9556,395 @@
         <v>1279</v>
       </c>
     </row>
+    <row r="320" spans="1:5">
+      <c r="A320" t="s">
+        <v>93</v>
+      </c>
+      <c r="B320" t="s">
+        <v>94</v>
+      </c>
+      <c r="C320" t="s">
+        <v>924</v>
+      </c>
+      <c r="D320" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E320" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C321" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D321" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E321" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" t="s">
+        <v>79</v>
+      </c>
+      <c r="B322" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C322" t="s">
+        <v>489</v>
+      </c>
+      <c r="D322" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E322" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" t="s">
+        <v>9</v>
+      </c>
+      <c r="B323" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C323" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D323" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E323" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C324" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D324" t="s">
+        <v>1295</v>
+      </c>
+      <c r="E324" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" t="s">
+        <v>144</v>
+      </c>
+      <c r="C325" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D325" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E325" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B326" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C326" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D326" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E326" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" t="s">
+        <v>53</v>
+      </c>
+      <c r="C327" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D327" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E327" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" t="s">
+        <v>122</v>
+      </c>
+      <c r="C328" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D328" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E328" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C329" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D329" t="s">
+        <v>1312</v>
+      </c>
+      <c r="E329" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B330" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C330" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D330" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E330" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" t="s">
+        <v>209</v>
+      </c>
+      <c r="C331" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D331" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E331" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B332" t="s">
+        <v>160</v>
+      </c>
+      <c r="C332" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D332" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E332" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" t="s">
+        <v>695</v>
+      </c>
+      <c r="B333" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C333" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D333" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E333" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" t="s">
+        <v>88</v>
+      </c>
+      <c r="B334" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C334" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D334" t="s">
+        <v>1331</v>
+      </c>
+      <c r="E334" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" t="s">
+        <v>672</v>
+      </c>
+      <c r="C335" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D335" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E335" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C336" t="s">
+        <v>720</v>
+      </c>
+      <c r="D336" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E336" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B337" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C337" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D337" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E337" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B338" t="s">
+        <v>245</v>
+      </c>
+      <c r="C338" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D338" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E338" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B339" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C339" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D339" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E339" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340" t="s">
+        <v>9</v>
+      </c>
+      <c r="C340" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D340" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E340" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="A341" t="s">
+        <v>649</v>
+      </c>
+      <c r="C341" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D341" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E341" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" t="s">
+        <v>500</v>
+      </c>
+      <c r="B342" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C342" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D342" t="s">
+        <v>1361</v>
+      </c>
+      <c r="E342" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C343" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D343" t="s">
+        <v>1365</v>
+      </c>
+      <c r="E343" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" t="s">
+        <v>88</v>
+      </c>
+      <c r="B344" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C344" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D344" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E344" t="s">
+        <v>1369</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>

--- a/songs.xlsx
+++ b/songs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2085">
   <si>
     <t>Pied Pipers</t>
   </si>
@@ -4125,6 +4125,2151 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=lurX5s28pUU</t>
+  </si>
+  <si>
+    <t>Charlie Spivak v/Jimmy Saunders</t>
+  </si>
+  <si>
+    <t>78rpm single: RCA Victor 1981</t>
+  </si>
+  <si>
+    <t>(I Love You) For Sentiment... (46)</t>
+  </si>
+  <si>
+    <t>(I Love You) For Sentiment... (46)-Charlie Spivak v/Jimmy Saunders</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Xeyy2wyIelE</t>
+  </si>
+  <si>
+    <t>Bijou (47)</t>
+  </si>
+  <si>
+    <t>Bijou (47)-Woody Herman</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GWH5TsoTIOA</t>
+  </si>
+  <si>
+    <t>Elmer's Tune (41)</t>
+  </si>
+  <si>
+    <t>Elmer's Tune (41)-Glenn Miller</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=slMZJtnsD2A</t>
+  </si>
+  <si>
+    <t>twitter.com</t>
+  </si>
+  <si>
+    <t>../40sJunction-twitter.com</t>
+  </si>
+  <si>
+    <t>St. Louis Blues March-Tex Beneke</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6Jfvxd7qG0U</t>
+  </si>
+  <si>
+    <t>Enoch Light Orchestra</t>
+  </si>
+  <si>
+    <t>Stompin' At The Savoy-Enoch Light Orchestra</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=S2A3vki-qBE</t>
+  </si>
+  <si>
+    <t>G.I. Jo Sings The Hits</t>
+  </si>
+  <si>
+    <t>What Is This Thing Called... (42)</t>
+  </si>
+  <si>
+    <t>What Is This Thing Called... (42)-Pied Pipers</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=70AxE0CZlAw</t>
+  </si>
+  <si>
+    <t>Cherokee  1939-1940</t>
+  </si>
+  <si>
+    <t>Leapin' At The Lincoln (40)</t>
+  </si>
+  <si>
+    <t>Leapin' At The Lincoln (40)-Charlie Barnet</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fBCep2jEB8E</t>
+  </si>
+  <si>
+    <t>Betty Hutton</t>
+  </si>
+  <si>
+    <t>Doctor Lawyer Indian Chief (45)</t>
+  </si>
+  <si>
+    <t>Doctor Lawyer Indian Chief (45)-Betty Hutton</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZdVZ7Ks8c2g</t>
+  </si>
+  <si>
+    <t>Popular Frank Sinatra, Vol. 2</t>
+  </si>
+  <si>
+    <t>I'll Take Tallulah</t>
+  </si>
+  <si>
+    <t>I'll Take Tallulah-Tommy Dorsey v/Frank Sinatra</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vAErYvfNX9k</t>
+  </si>
+  <si>
+    <t>The Definitive Collection</t>
+  </si>
+  <si>
+    <t>A Kiss to Build a Dream On</t>
+  </si>
+  <si>
+    <t>A Kiss to Build a Dream On-Louis Armstrong</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fHjZQb-kGek</t>
+  </si>
+  <si>
+    <t>Slim and Slam</t>
+  </si>
+  <si>
+    <t>Slim Gaillard 1937-1938</t>
+  </si>
+  <si>
+    <t>Tutti Frutti</t>
+  </si>
+  <si>
+    <t>Tutti Frutti-Slim and Slam</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QRFjkTHKO70</t>
+  </si>
+  <si>
+    <t>Let Me Off Uptown  The Best of Anita</t>
+  </si>
+  <si>
+    <t>Boogie Blues (46)</t>
+  </si>
+  <si>
+    <t>Boogie Blues (46)-Gene Krupa v/Anita O'Day</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nds2TwDHwNw</t>
+  </si>
+  <si>
+    <t>Road to Morocco</t>
+  </si>
+  <si>
+    <t>AC-Cent-Tchu-Ate the Positive (45)</t>
+  </si>
+  <si>
+    <t>AC-Cent-Tchu-Ate the Positive (45)-Bing Crosby/Andrews Sisters</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5Qk9o_ZeR7s</t>
+  </si>
+  <si>
+    <t>That Naughty Waltz</t>
+  </si>
+  <si>
+    <t>That Naughty Waltz-Benny Goodman</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=83wYbbdxAJE</t>
+  </si>
+  <si>
+    <t>Tuxedo Junction (41)</t>
+  </si>
+  <si>
+    <t>Tuxedo Junction (41)-Glen Gray</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Sn_aL8HRWCA</t>
+  </si>
+  <si>
+    <t>Real Jazz</t>
+  </si>
+  <si>
+    <t>Ch 67</t>
+  </si>
+  <si>
+    <t>Ch 67-Real Jazz</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hUjRuVhJ_4o</t>
+  </si>
+  <si>
+    <t>The Complete Roulette Studio Rec.</t>
+  </si>
+  <si>
+    <t>Cute</t>
+  </si>
+  <si>
+    <t>Cute-Count Basie</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s0igE09HI1U</t>
+  </si>
+  <si>
+    <t>Early Years - Parts I &amp; II</t>
+  </si>
+  <si>
+    <t>What Can I Say After I Say I'm Sorr</t>
+  </si>
+  <si>
+    <t>What Can I Say After I Say I'm Sorr-Ella Fitzgerald</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ajZroxzhYUI</t>
+  </si>
+  <si>
+    <t>Contrasts (40)</t>
+  </si>
+  <si>
+    <t>Contrasts (40)-Jimmy Dorsey</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XtREs-RrVFo</t>
+  </si>
+  <si>
+    <t>Harry James v/Helen Forrest</t>
+  </si>
+  <si>
+    <t>Record Session: 1939-1942</t>
+  </si>
+  <si>
+    <t>Mister Five By Five (42)</t>
+  </si>
+  <si>
+    <t>Mister Five By Five (42)-Harry James v/Helen Forrest</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=snOnIAiBgno</t>
+  </si>
+  <si>
+    <t>No Moon At All (47)</t>
+  </si>
+  <si>
+    <t>No Moon At All (47)-Doris Day</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4GxvSALRLzM</t>
+  </si>
+  <si>
+    <t>Things Ain't What They Used... (41)</t>
+  </si>
+  <si>
+    <t>Things Ain't What They Used... (41)-Duke Ellington</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pOePGV9Utrk</t>
+  </si>
+  <si>
+    <t>Greatest Hits</t>
+  </si>
+  <si>
+    <t>Pennsylvania 6-5000 (40)</t>
+  </si>
+  <si>
+    <t>Pennsylvania 6-5000 (40)-Glenn Miller</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=m_muFwwTSMs</t>
+  </si>
+  <si>
+    <t>Mr. Anthony's Boogie</t>
+  </si>
+  <si>
+    <t>Mr. Anthony's Boogie-Ray Anthony</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1xLk-zZdQTY</t>
+  </si>
+  <si>
+    <t>Re-Stringing The Pearls</t>
+  </si>
+  <si>
+    <t>Re-Stringing The Pearls-Jerry Gray</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AbU3ynppf74</t>
+  </si>
+  <si>
+    <t>Very Best of Larry Clinton and His O</t>
+  </si>
+  <si>
+    <t>The Big Dipper (Theme Song)</t>
+  </si>
+  <si>
+    <t>The Big Dipper (Theme Song)-Larry Clinton</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jGwaxrJYZt0</t>
+  </si>
+  <si>
+    <t>Ginny Simms</t>
+  </si>
+  <si>
+    <t>The Starlit Hour</t>
+  </si>
+  <si>
+    <t>The Starlit Hour-Ginny Simms</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=aSigZNWLZDc</t>
+  </si>
+  <si>
+    <t>Bing Crosby/Judy Garland</t>
+  </si>
+  <si>
+    <t>Connecticut (45)</t>
+  </si>
+  <si>
+    <t>Connecticut (45)-Bing Crosby/Judy Garland</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BoSgwEvhh9g</t>
+  </si>
+  <si>
+    <t>Paul Weston</t>
+  </si>
+  <si>
+    <t>Mood for 12/Solo Mood</t>
+  </si>
+  <si>
+    <t>A Foggy Day</t>
+  </si>
+  <si>
+    <t>A Foggy Day-Paul Weston</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=o4VzjNHB0RY</t>
+  </si>
+  <si>
+    <t>The Answer Is Love</t>
+  </si>
+  <si>
+    <t>The Answer Is Love-Bob Crosby</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gzAbHHqEr2g</t>
+  </si>
+  <si>
+    <t>Vol 2-Greatest Hits</t>
+  </si>
+  <si>
+    <t>Artistry In Rhythm</t>
+  </si>
+  <si>
+    <t>Artistry In Rhythm-Stan Kenton</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pZFjJ7Per0k</t>
+  </si>
+  <si>
+    <t>Fractious Fingering/The Early Years</t>
+  </si>
+  <si>
+    <t>It's A Sin To Tell A Lie</t>
+  </si>
+  <si>
+    <t>It's A Sin To Tell A Lie-Fats Waller</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Q9IQb_sKTEg</t>
+  </si>
+  <si>
+    <t>Satin Doll</t>
+  </si>
+  <si>
+    <t>Satin Doll-Duke Ellington</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TrytKuC3Z_o</t>
+  </si>
+  <si>
+    <t>There'll Be A Hot Time In... (43)</t>
+  </si>
+  <si>
+    <t>There'll Be A Hot Time In... (43)-Frank Sinatra</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NNvPU6b7lTA</t>
+  </si>
+  <si>
+    <t>Selection Of The Andrews Sisters</t>
+  </si>
+  <si>
+    <t>South American Way</t>
+  </si>
+  <si>
+    <t>South American Way-Andrews Sisters</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_fRBJ04zx_M</t>
+  </si>
+  <si>
+    <t>The Man With The Horn</t>
+  </si>
+  <si>
+    <t>The Man With The Horn-Ray Anthony</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8swDPnGa6BI</t>
+  </si>
+  <si>
+    <t>40s and Beyond</t>
+  </si>
+  <si>
+    <t>40s and Beyond-@40sJunction</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=N47TJ9psd84</t>
+  </si>
+  <si>
+    <t>Al Jolson</t>
+  </si>
+  <si>
+    <t>The Jolson Story</t>
+  </si>
+  <si>
+    <t>Avalon</t>
+  </si>
+  <si>
+    <t>Avalon-Al Jolson</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=k8mhhTH1pHc</t>
+  </si>
+  <si>
+    <t>Memories Of You</t>
+  </si>
+  <si>
+    <t>Memories Of You-Glen Gray</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5xa7e1Ygxgo</t>
+  </si>
+  <si>
+    <t>Artie Shaw v/Billie Holiday</t>
+  </si>
+  <si>
+    <t>Any Old Time</t>
+  </si>
+  <si>
+    <t>Any Old Time-Artie Shaw v/Billie Holiday</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kGrU7n9m2Y0</t>
+  </si>
+  <si>
+    <t>April In Paris</t>
+  </si>
+  <si>
+    <t>Shiny Stockings</t>
+  </si>
+  <si>
+    <t>Shiny Stockings-Count Basie</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MV5apkGSkfM</t>
+  </si>
+  <si>
+    <t>Bob Chester</t>
+  </si>
+  <si>
+    <t>And His Orchestra</t>
+  </si>
+  <si>
+    <t>Oh! Look At Me Now (41)</t>
+  </si>
+  <si>
+    <t>Oh! Look At Me Now (41)-Bob Chester</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fsgbFl8v7Ps</t>
+  </si>
+  <si>
+    <t>The Darktown Strutters' Ball (43)</t>
+  </si>
+  <si>
+    <t>The Darktown Strutters' Ball (43)-Jimmy Dorsey</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HxQVkLtQRKA</t>
+  </si>
+  <si>
+    <t>Benny Goodman: The Centennial Collection</t>
+  </si>
+  <si>
+    <t>Good-Bye</t>
+  </si>
+  <si>
+    <t>Good-Bye-Benny Goodman</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Dxz6Ak2mp8c</t>
+  </si>
+  <si>
+    <t>Les Brown and his Band of Renown</t>
+  </si>
+  <si>
+    <t>Heat Wave (46)</t>
+  </si>
+  <si>
+    <t>Heat Wave (46)-Les Brown and his Band of Renown</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=28Y7TRlvYZ8&amp;list=PLbzsRStzeWBtDjJl0dWvzKb2HcrOvSMyI</t>
+  </si>
+  <si>
+    <t>Mam'selle (47)-Dick Haymes</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=69RtZUXnlF8</t>
+  </si>
+  <si>
+    <t>Cement Mixer (46)-Charlie Barnet</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=aGDLQKfWadc</t>
+  </si>
+  <si>
+    <t>Mitchell Ayres v/Mary Ann Mercer</t>
+  </si>
+  <si>
+    <t>Bluebird 10609</t>
+  </si>
+  <si>
+    <t>How High The Moon  (40)</t>
+  </si>
+  <si>
+    <t>How High The Moon  (40)-Mitchell Ayres v/Mary Ann Mercer</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-XLF28HnFVw</t>
+  </si>
+  <si>
+    <t>Kokomo Indiana (47)</t>
+  </si>
+  <si>
+    <t>Kokomo Indiana (47)-Vaughn Monroe</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Gva_MXG0uSg</t>
+  </si>
+  <si>
+    <t>The Big Band Sounds Of Ralph Flanaga</t>
+  </si>
+  <si>
+    <t>Don't Cry Joe (49)</t>
+  </si>
+  <si>
+    <t>Don't Cry Joe (49)-Ralph Flanagan</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HP2MMo-lQbY</t>
+  </si>
+  <si>
+    <t>McGuire Sisters</t>
+  </si>
+  <si>
+    <t>Anthology</t>
+  </si>
+  <si>
+    <t>Moonglow-McGuire Sisters</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=A9NANkuTnYk</t>
+  </si>
+  <si>
+    <t>Careless Hands (49)</t>
+  </si>
+  <si>
+    <t>Careless Hands (49)-Mel Torme</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3sTtR7kx_hQ</t>
+  </si>
+  <si>
+    <t>Gus Arnheim</t>
+  </si>
+  <si>
+    <t>So Rare</t>
+  </si>
+  <si>
+    <t>So Rare-Gus Arnheim</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s630ftuWZTY</t>
+  </si>
+  <si>
+    <t>Frank Sinatra o/Axel Stordahl</t>
+  </si>
+  <si>
+    <t>Concepts</t>
+  </si>
+  <si>
+    <t>Lean Baby</t>
+  </si>
+  <si>
+    <t>Lean Baby-Frank Sinatra o/Axel Stordahl</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=txoy9H96aoc</t>
+  </si>
+  <si>
+    <t>1940s and beyond</t>
+  </si>
+  <si>
+    <t>1940s and beyond-@40sJunction</t>
+  </si>
+  <si>
+    <t>Ozzie Nelson</t>
+  </si>
+  <si>
+    <t>Nelson Touch</t>
+  </si>
+  <si>
+    <t>Jersey Jive (41)</t>
+  </si>
+  <si>
+    <t>Jersey Jive (41)-Ozzie Nelson</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6SneQJL4Zfw</t>
+  </si>
+  <si>
+    <t>Tommy Dorsey v/Charlie Shavers</t>
+  </si>
+  <si>
+    <t>The Post-War Era</t>
+  </si>
+  <si>
+    <t>The Hucklebuck (49)</t>
+  </si>
+  <si>
+    <t>The Hucklebuck (49)-Tommy Dorsey v/Charlie Shavers</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=x5H2gsUMIIk</t>
+  </si>
+  <si>
+    <t>Blues On Parade</t>
+  </si>
+  <si>
+    <t>Blues On Parade (41)</t>
+  </si>
+  <si>
+    <t>Blues On Parade (41)-Woody Herman</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=h0rXUueLJ3U</t>
+  </si>
+  <si>
+    <t>Elena Bennet/Fred Barton</t>
+  </si>
+  <si>
+    <t>And The Angels Sing</t>
+  </si>
+  <si>
+    <t>And The Angels Sing-Elena Bennet/Fred Barton</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Pkky3CgQC5Q</t>
+  </si>
+  <si>
+    <t>One Dozen Roses (42)</t>
+  </si>
+  <si>
+    <t>One Dozen Roses (42)-Glen Gray v/Pee Wee Hunt</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zkrHz7l0aJk</t>
+  </si>
+  <si>
+    <t>McKinley Time</t>
+  </si>
+  <si>
+    <t>It's Only a Paper Moon (49)</t>
+  </si>
+  <si>
+    <t>It's Only a Paper Moon (49)-Ray McKinley</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ByF0sJDg_ek</t>
+  </si>
+  <si>
+    <t>Andrews Sisters o/Gordon Jenkins</t>
+  </si>
+  <si>
+    <t>Their All-Time Greatest Hits</t>
+  </si>
+  <si>
+    <t>I Wanna Be Loved</t>
+  </si>
+  <si>
+    <t>I Wanna Be Loved-Andrews Sisters o/Gordon Jenkins</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AUT0ha7HazU</t>
+  </si>
+  <si>
+    <t>Shades Of Hades</t>
+  </si>
+  <si>
+    <t>The Campbells Are Swingin'</t>
+  </si>
+  <si>
+    <t>The Campbells Are Swingin'-Larry Clinton</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HCL_AEAuEWQ</t>
+  </si>
+  <si>
+    <t>Kay Kyser v/Harry Babbitt/Ginny Sim</t>
+  </si>
+  <si>
+    <t>The Best Of The Big Bands</t>
+  </si>
+  <si>
+    <t>Two Sleepy People</t>
+  </si>
+  <si>
+    <t>Two Sleepy People-Kay Kyser v/Harry Babbitt/Ginny Sim</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bovXPTnqZA4</t>
+  </si>
+  <si>
+    <t>Count Basie &amp; His Orchestra</t>
+  </si>
+  <si>
+    <t>This Time The Dream's On Me</t>
+  </si>
+  <si>
+    <t>This Time The Dream's On Me-Count Basie &amp; His Orchestra</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LY_aH8AiqXQ</t>
+  </si>
+  <si>
+    <t>Ethel Smith</t>
+  </si>
+  <si>
+    <t>The First Lady of the Hammond Organ  Plays \</t>
+  </si>
+  <si>
+    <t>Tico Tico</t>
+  </si>
+  <si>
+    <t>Tico Tico-Ethel Smith</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DvCis_JktXI</t>
+  </si>
+  <si>
+    <t>Harry James v/Kitty Kallen</t>
+  </si>
+  <si>
+    <t>It's Been A Long, Long Time (45)-Harry James v/Kitty Kallen</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MU14NbQSE0A</t>
+  </si>
+  <si>
+    <t>Fletcher Henderson v/'Georgia Boy'</t>
+  </si>
+  <si>
+    <t>Chronological Classics</t>
+  </si>
+  <si>
+    <t>Sing. Sing, Sing</t>
+  </si>
+  <si>
+    <t>Sing. Sing, Sing-Fletcher Henderson v/'Georgia Boy'</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=A9VLDpZbaR4</t>
+  </si>
+  <si>
+    <t>Martha Tilton</t>
+  </si>
+  <si>
+    <t>The Liltin' Miss Tilton: The Complet</t>
+  </si>
+  <si>
+    <t>I'll Remember April (42)</t>
+  </si>
+  <si>
+    <t>I'll Remember April (42)-Martha Tilton</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sEa7CZsU_78</t>
+  </si>
+  <si>
+    <t>Georgie Auld</t>
+  </si>
+  <si>
+    <t>Jump Georgie Jump</t>
+  </si>
+  <si>
+    <t>Stompin' At The Savoy (41)</t>
+  </si>
+  <si>
+    <t>Stompin' At The Savoy (41)-Georgie Auld</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VPrfz381ga0</t>
+  </si>
+  <si>
+    <t>Rose Room-Duke Ellington</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xPl9Jwe2QSA</t>
+  </si>
+  <si>
+    <t>High Society, Vol. 10  1939</t>
+  </si>
+  <si>
+    <t>I Thought About You (40)</t>
+  </si>
+  <si>
+    <t>I Thought About You (40)-Bob Crosby</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=obS-aFcrIm4</t>
+  </si>
+  <si>
+    <t>Mills Brothers o/Sy Oliver</t>
+  </si>
+  <si>
+    <t>Best Of The Decca Years</t>
+  </si>
+  <si>
+    <t>Be My Life's Companion</t>
+  </si>
+  <si>
+    <t>Be My Life's Companion-Mills Brothers o/Sy Oliver</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=x-z28pfjB3Y</t>
+  </si>
+  <si>
+    <t>Bugle Call Rag (40)</t>
+  </si>
+  <si>
+    <t>Bugle Call Rag (40)-Glenn Miller</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iV4iViKWRe8</t>
+  </si>
+  <si>
+    <t>Lucky Millinder</t>
+  </si>
+  <si>
+    <t>Savoy (43)</t>
+  </si>
+  <si>
+    <t>Savoy (43)-Lucky Millinder</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tkfENs05NCI</t>
+  </si>
+  <si>
+    <t>A Tribute to Glenn Miller</t>
+  </si>
+  <si>
+    <t>My Hero (49)</t>
+  </si>
+  <si>
+    <t>My Hero (49)-Ralph Flanagan</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nRgNrTKLzfI</t>
+  </si>
+  <si>
+    <t>Gene Krupa v/Leo Watson</t>
+  </si>
+  <si>
+    <t>Nagasaki</t>
+  </si>
+  <si>
+    <t>Nagasaki-Gene Krupa v/Leo Watson</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tX93rMQJo30</t>
+  </si>
+  <si>
+    <t>Mister Five by Five (42)</t>
+  </si>
+  <si>
+    <t>Mister Five by Five (42)-Andrews Sisters</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xns08Zt_mMg</t>
+  </si>
+  <si>
+    <t>Chronological Classics 1935</t>
+  </si>
+  <si>
+    <t>Louisiana Fairy Tale</t>
+  </si>
+  <si>
+    <t>Louisiana Fairy Tale-Fats Waller</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Tjnz0LPGy84</t>
+  </si>
+  <si>
+    <t>Minnie The Moocher (45)</t>
+  </si>
+  <si>
+    <t>Minnie The Moocher (45)-Cab Calloway</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=u7ogK_unbqM</t>
+  </si>
+  <si>
+    <t>1947, Vol. 2</t>
+  </si>
+  <si>
+    <t>The Peanut Vendor (47)</t>
+  </si>
+  <si>
+    <t>The Peanut Vendor (47)-Stan Kenton</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Q5L0TS3V91Y</t>
+  </si>
+  <si>
+    <t>Charlie Barnet v/Frances Wayne</t>
+  </si>
+  <si>
+    <t>That Old Black Magic (43)</t>
+  </si>
+  <si>
+    <t>That Old Black Magic (43)-Charlie Barnet v/Frances Wayne</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Dn4ufPFhTiA</t>
+  </si>
+  <si>
+    <t>High Society</t>
+  </si>
+  <si>
+    <t>High Society-Bob Crosby</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8twKrUrxwsI</t>
+  </si>
+  <si>
+    <t>Come To Baby Do! (45)</t>
+  </si>
+  <si>
+    <t>Come To Baby Do! (45)-Les Brown v/Doris Day</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vhl0Abi1TAw</t>
+  </si>
+  <si>
+    <t>Leo Reisman v/Leo Reisman</t>
+  </si>
+  <si>
+    <t>Those Were the Days</t>
+  </si>
+  <si>
+    <t>The Continental</t>
+  </si>
+  <si>
+    <t>The Continental-Leo Reisman v/Leo Reisman</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DKoiZoY1xRA</t>
+  </si>
+  <si>
+    <t>At The Woodchopper's Ball</t>
+  </si>
+  <si>
+    <t>Fine And Dandy</t>
+  </si>
+  <si>
+    <t>Fine And Dandy-Woody Herman</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=J3GvjC0HWak</t>
+  </si>
+  <si>
+    <t>Let the Good Times Roll  Antholo</t>
+  </si>
+  <si>
+    <t>Five Guys Named Moe (46)</t>
+  </si>
+  <si>
+    <t>Five Guys Named Moe (46)-Louis Jordan &amp; His Tympany 5</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w9RDiJpxcKs</t>
+  </si>
+  <si>
+    <t>Lena Horne</t>
+  </si>
+  <si>
+    <t>Ultimate Divas</t>
+  </si>
+  <si>
+    <t>Stormy Weather</t>
+  </si>
+  <si>
+    <t>Stormy Weather-Lena Horne</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zJvYo5pZEfE</t>
+  </si>
+  <si>
+    <t>Classics Big Band Jazz -- Swing That Jazz</t>
+  </si>
+  <si>
+    <t>Big John's Special</t>
+  </si>
+  <si>
+    <t>Big John's Special-Benny Goodman</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Sp0QD8rE1TQ</t>
+  </si>
+  <si>
+    <t>1941, Vol. 2</t>
+  </si>
+  <si>
+    <t>Dodger's Fan Dance (41)</t>
+  </si>
+  <si>
+    <t>Dodger's Fan Dance (41)-Harry James</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iBcucTLbx90</t>
+  </si>
+  <si>
+    <t>Leo Watson</t>
+  </si>
+  <si>
+    <t>ARTIE &amp; HIS SINGERS</t>
+  </si>
+  <si>
+    <t>Shoot The Likker To Me John Boy (40</t>
+  </si>
+  <si>
+    <t>Shoot The Likker To Me John Boy (40-Leo Watson</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LMSffz-swn8</t>
+  </si>
+  <si>
+    <t>In A Little Spanish Town</t>
+  </si>
+  <si>
+    <t>In A Little Spanish Town-Pied Pipers</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=q4Mdo8XujDs</t>
+  </si>
+  <si>
+    <t>I Remember Glenn Miller</t>
+  </si>
+  <si>
+    <t>Tenderly (49)</t>
+  </si>
+  <si>
+    <t>Tenderly (49)-Ray Anthony</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GqajsxSykR0</t>
+  </si>
+  <si>
+    <t>Tico-Tico (44)</t>
+  </si>
+  <si>
+    <t>Tico-Tico (44)-Andrews Sisters</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8tq4L4iLRqA</t>
+  </si>
+  <si>
+    <t>Tuxedo Junction (40)-Glenn Miller</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iBTYcqtaOjg</t>
+  </si>
+  <si>
+    <t>Ain't She Sweet</t>
+  </si>
+  <si>
+    <t>Ain't She Sweet-Bunny Berigan</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2pwGJcbPTdg</t>
+  </si>
+  <si>
+    <t>Men of Jazz</t>
+  </si>
+  <si>
+    <t>On the Sunny Side of the S... (45)</t>
+  </si>
+  <si>
+    <t>On the Sunny Side of the S... (45)-Tommy Dorsey</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Il25S7FtKd8</t>
+  </si>
+  <si>
+    <t>Blue Moon</t>
+  </si>
+  <si>
+    <t>Blue Moon-Glen Gray</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6JUMZeJtCWs</t>
+  </si>
+  <si>
+    <t>1221 6th Ave 36 FL</t>
+  </si>
+  <si>
+    <t>NY, NY 10020</t>
+  </si>
+  <si>
+    <t>NY, NY 10020-1221 6th Ave 36 FL</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VDT9EViminI</t>
+  </si>
+  <si>
+    <t>The Columbia Years 1943-1952)</t>
+  </si>
+  <si>
+    <t>There's No Business Like Sh... (46)</t>
+  </si>
+  <si>
+    <t>There's No Business Like Sh... (46)-Frank Sinatra</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=A19S8Cp3Oz8</t>
+  </si>
+  <si>
+    <t>David Rose</t>
+  </si>
+  <si>
+    <t>Holiday for Strings (44)-David Rose</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Lxz86P5pcbM</t>
+  </si>
+  <si>
+    <t>Bing Crosby o/Lani McIntyre</t>
+  </si>
+  <si>
+    <t>Blue Hawaii</t>
+  </si>
+  <si>
+    <t>Blue Hawaii-Bing Crosby o/Lani McIntyre</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cnDU4jT79Rw</t>
+  </si>
+  <si>
+    <t>Ravens</t>
+  </si>
+  <si>
+    <t>That Old Gang Of Mine</t>
+  </si>
+  <si>
+    <t>That Old Gang Of Mine-Ravens</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uSnXGTzah90</t>
+  </si>
+  <si>
+    <t>Rag Mop</t>
+  </si>
+  <si>
+    <t>Rag Mop-Lionel Hampton</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-IJdUMzDXA4</t>
+  </si>
+  <si>
+    <t>This Is Jazz, Vol. 32  Standards</t>
+  </si>
+  <si>
+    <t>The Very Thought of You</t>
+  </si>
+  <si>
+    <t>The Very Thought of You-Billie Holiday</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9yakzL1Q88c</t>
+  </si>
+  <si>
+    <t>Billy Eckstine &amp; His Orchestra</t>
+  </si>
+  <si>
+    <t>1946-47</t>
+  </si>
+  <si>
+    <t>Oo Bop Sh'Bam (44)</t>
+  </si>
+  <si>
+    <t>Oo Bop Sh'Bam (44)-Billy Eckstine &amp; His Orchestra</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VEdnJM6PENc</t>
+  </si>
+  <si>
+    <t>Nancy Sinatra</t>
+  </si>
+  <si>
+    <t>Now! Channel 71</t>
+  </si>
+  <si>
+    <t>Now! Channel 71-Nancy Sinatra</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ObQsvZpLIaU</t>
+  </si>
+  <si>
+    <t>Stop Look &amp; Listen</t>
+  </si>
+  <si>
+    <t>Shoot The Meatballs To Me Dominick</t>
+  </si>
+  <si>
+    <t>Shoot The Meatballs To Me Dominick-Jimmy Dorsey</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RvQgGIUyAkQ</t>
+  </si>
+  <si>
+    <t>Harbor Lights</t>
+  </si>
+  <si>
+    <t>Harbor Lights-Ralph Flanagan</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=U4wK-ocqNxw</t>
+  </si>
+  <si>
+    <t>Across The Alley From The... (47)</t>
+  </si>
+  <si>
+    <t>Across The Alley From The... (47)-Mills Brothers</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=erzfo6zejjM</t>
+  </si>
+  <si>
+    <t>Fats Waller &amp; His Rhythm</t>
+  </si>
+  <si>
+    <t>The Darktown Strutters' Ball (40)</t>
+  </si>
+  <si>
+    <t>The Darktown Strutters' Ball (40)-Fats Waller &amp; His Rhythm</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8Ai8hz9oQVQ</t>
+  </si>
+  <si>
+    <t>Perez Prado</t>
+  </si>
+  <si>
+    <t>Mambo No. 5 (49)</t>
+  </si>
+  <si>
+    <t>Mambo No. 5 (49)-Perez Prado</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HJlAb4VLs4k</t>
+  </si>
+  <si>
+    <t>Poinciana (43)</t>
+  </si>
+  <si>
+    <t>Poinciana (43)-Glenn Miller AAF Band</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=h0dtkNJJsf4</t>
+  </si>
+  <si>
+    <t>Where Do We Go From Here, Vol. 18</t>
+  </si>
+  <si>
+    <t>The Marines' Hymn (42)</t>
+  </si>
+  <si>
+    <t>The Marines' Hymn (42)-Bob Crosby</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-o7a600Q14w</t>
+  </si>
+  <si>
+    <t>1938-46</t>
+  </si>
+  <si>
+    <t>Flat Foot Floogee</t>
+  </si>
+  <si>
+    <t>Flat Foot Floogee-Slim and Slam</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vtCpzov_bQ4</t>
+  </si>
+  <si>
+    <t>I'm Getting Sentimental Over You</t>
+  </si>
+  <si>
+    <t>I'm Getting Sentimental Over You-Tommy Dorsey</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cKQc-cbAvdQ</t>
+  </si>
+  <si>
+    <t>The Complete Modernaires on Columbia</t>
+  </si>
+  <si>
+    <t>Salute to Glenn Miller (46)</t>
+  </si>
+  <si>
+    <t>Salute to Glenn Miller (46)-Modernaires</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cI7TmUxe35M</t>
+  </si>
+  <si>
+    <t>Sing Baby Sing</t>
+  </si>
+  <si>
+    <t>Sing Baby Sing-Charlie Barnet</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LoSucquA6RY</t>
+  </si>
+  <si>
+    <t>Dream Along With Me (I'm on My Way</t>
+  </si>
+  <si>
+    <t>Dream Along With Me (I'm on My Way-Perry Como</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jRcj1CRNuYQ</t>
+  </si>
+  <si>
+    <t>Count Basie And His Orchestra</t>
+  </si>
+  <si>
+    <t>America's #1 Band!</t>
+  </si>
+  <si>
+    <t>Broadway</t>
+  </si>
+  <si>
+    <t>Broadway-Count Basie And His Orchestra</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6EHR2WNUcto</t>
+  </si>
+  <si>
+    <t>Sentimental Journey (45)</t>
+  </si>
+  <si>
+    <t>Sentimental Journey (45)-Les Brown v/Doris Day</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PUw125JMVFI</t>
+  </si>
+  <si>
+    <t>Black Bottom</t>
+  </si>
+  <si>
+    <t>Black Bottom-Bunny Berigan</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=X1ZcaKA80S8</t>
+  </si>
+  <si>
+    <t>Button up Your Overcoat</t>
+  </si>
+  <si>
+    <t>Button up Your Overcoat-Dick Haymes</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=x_6o-OYOOTw</t>
+  </si>
+  <si>
+    <t>King Porter Stomp (46)</t>
+  </si>
+  <si>
+    <t>King Porter Stomp (46)-Harry James</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6kuC4RJgec4</t>
+  </si>
+  <si>
+    <t>The Uncollected Glen Gray &amp; the Casa</t>
+  </si>
+  <si>
+    <t>Wrap Your Troubles in Dreams (40)</t>
+  </si>
+  <si>
+    <t>Wrap Your Troubles in Dreams (40)-Glen Gray</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dIQslJDTrrg</t>
+  </si>
+  <si>
+    <t>Comes Love</t>
+  </si>
+  <si>
+    <t>Comes Love-Artie Shaw v/Helen Forrest</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=M8JoCSoOcPM</t>
+  </si>
+  <si>
+    <t>Pennsylvania Polka (42)</t>
+  </si>
+  <si>
+    <t>Pennsylvania Polka (42)-Andrews Sisters</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=92rmDlhgPqk</t>
+  </si>
+  <si>
+    <t>Mission To Moscow (44)</t>
+  </si>
+  <si>
+    <t>Mission To Moscow (44)-Benny Goodman</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WuFvsyAApog</t>
+  </si>
+  <si>
+    <t>You Go To My Head</t>
+  </si>
+  <si>
+    <t>You Go To My Head-Larry Clinton v/Bea Wain</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dJkprBT0CsM</t>
+  </si>
+  <si>
+    <t>Skitch Henderson v/Ray Kellogg</t>
+  </si>
+  <si>
+    <t>Five Minutes More (46)-Skitch Henderson v/Ray Kellogg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UCjW57Yyidc</t>
+  </si>
+  <si>
+    <t>June Christy</t>
+  </si>
+  <si>
+    <t>It Don't Mean A Thing (If It Ain't-June Christy</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qPcfX7z6Mps</t>
+  </si>
+  <si>
+    <t>At Last</t>
+  </si>
+  <si>
+    <t>At Last-Glenn Miller v/Ray Eberle</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-sg16tbH6OI</t>
+  </si>
+  <si>
+    <t>In A Mellotone</t>
+  </si>
+  <si>
+    <t>In A Mellotone (40)</t>
+  </si>
+  <si>
+    <t>In A Mellotone (40)-Duke Ellington</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GMVEF3lxgTw</t>
+  </si>
+  <si>
+    <t>Are You Hep to the Jive?</t>
+  </si>
+  <si>
+    <t>A Chicken Ain't Nothin' But A Bird</t>
+  </si>
+  <si>
+    <t>A Chicken Ain't Nothin' But A Bird-Cab Calloway</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=88pD6vKNptk</t>
+  </si>
+  <si>
+    <t>Don't Be That Way</t>
+  </si>
+  <si>
+    <t>Don't Be That Way-Jimmy Dorsey</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wgDjKfwXD8s</t>
+  </si>
+  <si>
+    <t>The Lady from 29 Palms (47)</t>
+  </si>
+  <si>
+    <t>The Lady from 29 Palms (47)-Freddy Martin</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=aG-hVV6EwAU</t>
+  </si>
+  <si>
+    <t>Metronome All-Stars</t>
+  </si>
+  <si>
+    <t>Blue Lou (41)</t>
+  </si>
+  <si>
+    <t>Blue Lou (41)-Metronome All-Stars</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-FA45Th4W-8</t>
+  </si>
+  <si>
+    <t>Penthouse Serenade (When We're Alon</t>
+  </si>
+  <si>
+    <t>Penthouse Serenade (When We're Alon-Ralph Flanagan</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tl1cTMQaeKw</t>
+  </si>
+  <si>
+    <t>Little Jack Little</t>
+  </si>
+  <si>
+    <t>I'm in the Mood for Love</t>
+  </si>
+  <si>
+    <t>I'm in the Mood for Love-Little Jack Little</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MX6HClZIUGE</t>
+  </si>
+  <si>
+    <t>Hamp's Boogie Woogie (44)</t>
+  </si>
+  <si>
+    <t>Hamp's Boogie Woogie (44)-Lionel Hampton</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KME0TMnhF6M</t>
+  </si>
+  <si>
+    <t>I Cried For You (42)</t>
+  </si>
+  <si>
+    <t>I Cried For You (42)-Jimmy Dorsey</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fTCj5H3shvs</t>
+  </si>
+  <si>
+    <t>Let The Good Times Roll (46)</t>
+  </si>
+  <si>
+    <t>Let The Good Times Roll (46)-Louis Jordan</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YdQJ3Q0uhYE</t>
+  </si>
+  <si>
+    <t>Coquette-Jimmie Lunceford</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_6ezPHBunsY</t>
+  </si>
+  <si>
+    <t>One O'Clock Boogie (47)</t>
+  </si>
+  <si>
+    <t>One O'Clock Boogie (47)-Count Basie</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EQCOaZnUUOc</t>
+  </si>
+  <si>
+    <t>Strip Polka (42)</t>
+  </si>
+  <si>
+    <t>Strip Polka (42)-Andrews Sisters</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Beuh6LcTlEk</t>
+  </si>
+  <si>
+    <t>A Strict Education in Music: 50 of t</t>
+  </si>
+  <si>
+    <t>Praise The Lord And Pass The Ammuni</t>
+  </si>
+  <si>
+    <t>Praise The Lord And Pass The Ammuni-Kay Kyser</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TUOPvtVZwo8</t>
+  </si>
+  <si>
+    <t>Buddy Clark o/Ray Noble</t>
+  </si>
+  <si>
+    <t>I'll Dance At Your Wedding (47)</t>
+  </si>
+  <si>
+    <t>I'll Dance At Your Wedding (47)-Buddy Clark o/Ray Noble</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2RxdMHchQYQ</t>
+  </si>
+  <si>
+    <t>What's Cookin' Charlie?</t>
+  </si>
+  <si>
+    <t>Stomping Room Only (46)</t>
+  </si>
+  <si>
+    <t>Stomping Room Only (46)-Charlie Spivak</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=X0lGwRmtAUY</t>
+  </si>
+  <si>
+    <t>Benny Goodman and His Orchestra</t>
+  </si>
+  <si>
+    <t>Down South Camp Meeting</t>
+  </si>
+  <si>
+    <t>Down South Camp Meeting-Benny Goodman</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tU-T43tKJYo</t>
+  </si>
+  <si>
+    <t>Johnny Mercer o/Paul Weston</t>
+  </si>
+  <si>
+    <t>Blues In The Night</t>
+  </si>
+  <si>
+    <t>A Gal In Calico (46)</t>
+  </si>
+  <si>
+    <t>A Gal In Calico (46)-Johnny Mercer o/Paul Weston</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_Bp4VhCpxIQ</t>
+  </si>
+  <si>
+    <t>Charlie Barnet v/Modernaires</t>
+  </si>
+  <si>
+    <t>1936-1937</t>
+  </si>
+  <si>
+    <t>Make Believe Ballroom (49)</t>
+  </si>
+  <si>
+    <t>Make Believe Ballroom (49)-Charlie Barnet v/Modernaires</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7vN6hDAyc0I</t>
+  </si>
+  <si>
+    <t>Les Elgart &amp; His Orchestra</t>
+  </si>
+  <si>
+    <t>Television Themes  16 Most Requested</t>
+  </si>
+  <si>
+    <t>Bandstand Boogie</t>
+  </si>
+  <si>
+    <t>Bandstand Boogie-Les Elgart &amp; His Orchestra</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FViHwIO0a-o</t>
+  </si>
+  <si>
+    <t>Aren't You Glad You're You (45)</t>
+  </si>
+  <si>
+    <t>Aren't You Glad You're You (45)-Pied Pipers</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ECtFDj6YjKc</t>
+  </si>
+  <si>
+    <t>Columbia 35422</t>
+  </si>
+  <si>
+    <t>Flying Home (40)</t>
+  </si>
+  <si>
+    <t>Flying Home (40)-Will Bradley</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=19Oef8k2K24</t>
+  </si>
+  <si>
+    <t>Laura (45)</t>
+  </si>
+  <si>
+    <t>Laura (45)-Dick Haymes</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JwB67Oa0ngQ</t>
+  </si>
+  <si>
+    <t>Body and Soul</t>
+  </si>
+  <si>
+    <t>Body and Soul-Coleman Hawkins</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zUFg6HvljDE</t>
+  </si>
+  <si>
+    <t>The Legendary Mel Torme</t>
+  </si>
+  <si>
+    <t>My Baby Just Cares For Me (47)</t>
+  </si>
+  <si>
+    <t>My Baby Just Cares For Me (47)-Mel Torme</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VG059fTPcP8</t>
+  </si>
+  <si>
+    <t>Blue Champagne (41)</t>
+  </si>
+  <si>
+    <t>Blue Champagne (41)-Jimmy Dorsey v/Bob Eberly</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UxgZFATXgwY</t>
+  </si>
+  <si>
+    <t>Four Freshmen</t>
+  </si>
+  <si>
+    <t>I'm Getting Sentimental Over You-Four Freshmen</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TxOrOT80yDs</t>
+  </si>
+  <si>
+    <t>Makin' Whoopee (46)</t>
+  </si>
+  <si>
+    <t>Makin' Whoopee (46)-Bobby Sherwood</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y7c87TvL_Cc</t>
+  </si>
+  <si>
+    <t>Ain't Misbehavin' (46)</t>
+  </si>
+  <si>
+    <t>Ain't Misbehavin' (46)-Modernaires</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ebOCGKY3ofo</t>
+  </si>
+  <si>
+    <t>Frenesi (40)</t>
+  </si>
+  <si>
+    <t>Frenesi (40)-Artie Shaw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sMOHMYl5BCs</t>
+  </si>
+  <si>
+    <t>Woody Herman v/Frances Wayne</t>
+  </si>
+  <si>
+    <t>Decca 18577</t>
+  </si>
+  <si>
+    <t>I Couldn't Sleep A Wink... (43)</t>
+  </si>
+  <si>
+    <t>I Couldn't Sleep A Wink... (43)-Woody Herman v/Frances Wayne</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4jQw_S3WlSM</t>
+  </si>
+  <si>
+    <t>I Can't Get Started - A Portrait Of Bunny Berigan</t>
+  </si>
+  <si>
+    <t>I Can't Get Started</t>
+  </si>
+  <si>
+    <t>I Can't Get Started-Bunny Berigan</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=z2BuWDhuT2I</t>
+  </si>
+  <si>
+    <t>Swingtime In The Rockies</t>
+  </si>
+  <si>
+    <t>Swingtime In The Rockies-Benny Goodman</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BdceZAQVcHs</t>
+  </si>
+  <si>
+    <t>888-728-6940</t>
+  </si>
+  <si>
+    <t>888-SAVOY-40</t>
+  </si>
+  <si>
+    <t>888-SAVOY-40-888-728-6940</t>
+  </si>
+  <si>
+    <t>Larry Clinton v/Ford Leary</t>
+  </si>
+  <si>
+    <t>Comes Love-Larry Clinton v/Ford Leary</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JwE09KAz5yw</t>
+  </si>
+  <si>
+    <t>Hey! Ba-Ba-Re-Bop (46)-Tex Beneke</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NRGz5nYRYdM</t>
+  </si>
+  <si>
+    <t>Adios</t>
+  </si>
+  <si>
+    <t>Adios-Stan Kenton</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5Pb6DGUysnY</t>
+  </si>
+  <si>
+    <t>Eddie 'Rochester' Anderson</t>
+  </si>
+  <si>
+    <t>Joe Franklin Presents: Growing u</t>
+  </si>
+  <si>
+    <t>My! My! (40)</t>
+  </si>
+  <si>
+    <t>My! My! (40)-Eddie 'Rochester' Anderson</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tAOfNkQyUlQ</t>
+  </si>
+  <si>
+    <t>Deanna Durbin</t>
+  </si>
+  <si>
+    <t>Can't Help Singing</t>
+  </si>
+  <si>
+    <t>God Bless America (47)</t>
+  </si>
+  <si>
+    <t>God Bless America (47)-Deanna Durbin</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=O5jinzPk2Zo</t>
+  </si>
+  <si>
+    <t>The Nearness Of You</t>
+  </si>
+  <si>
+    <t>The Nearness Of You-Woody Herman</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2f7taltyD_w</t>
+  </si>
+  <si>
+    <t>Juke Box Saturday Night-Glenn Miller</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hth9lwK-0Os</t>
+  </si>
+  <si>
+    <t>Fred Astaire o/Leo Reisman</t>
+  </si>
+  <si>
+    <t>The Broadway Musical - Vol. 2</t>
+  </si>
+  <si>
+    <t>Night And Day-Fred Astaire o/Leo Reisman</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DoR2uCi8d_k</t>
+  </si>
+  <si>
+    <t>Ray Anthony Concert/The Anthony</t>
+  </si>
+  <si>
+    <t>Street Scene</t>
+  </si>
+  <si>
+    <t>Street Scene-Ray Anthony</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2IegS82aWcM</t>
+  </si>
+  <si>
+    <t>The Very Thought Of You</t>
+  </si>
+  <si>
+    <t>The Very Thought Of You-Bing Crosby</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=v2Qaou0EHi8</t>
+  </si>
+  <si>
+    <t>Anything Goes (46)</t>
+  </si>
+  <si>
+    <t>Anything Goes (46)-Ted Heath</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=x4sHp55DC3k</t>
+  </si>
+  <si>
+    <t>Tommy Dorsey v/J Stafford/S Oliver</t>
+  </si>
+  <si>
+    <t>Homefront  1941-1945</t>
+  </si>
+  <si>
+    <t>Yes, Indeed! (41)</t>
+  </si>
+  <si>
+    <t>Yes, Indeed! (41)-Tommy Dorsey v/J Stafford/S Oliver</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qLlqdIwhepM</t>
+  </si>
+  <si>
+    <t>Beware (45)</t>
+  </si>
+  <si>
+    <t>Beware (45)-Louis Jordan</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BlKmnXV5qrA</t>
+  </si>
+  <si>
+    <t>Bennie Moten</t>
+  </si>
+  <si>
+    <t>1930-1932</t>
+  </si>
+  <si>
+    <t>Moten Swing-Bennie Moten</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hr42hm6GvkQ</t>
+  </si>
+  <si>
+    <t>40sJunction</t>
+  </si>
+  <si>
+    <t>@siriusxm.com</t>
+  </si>
+  <si>
+    <t>@siriusxm.com-40sJunction</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dmbflslh-js&amp;list=PLFsuraK4pkVb67nakuDI4BgfxY-yu63u8</t>
+  </si>
+  <si>
+    <t>Ella Mae Morse</t>
+  </si>
+  <si>
+    <t>No Love, No Nothin' (43)</t>
+  </si>
+  <si>
+    <t>No Love, No Nothin' (43)-Ella Mae Morse</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Y-2PYiloD20</t>
+  </si>
+  <si>
+    <t>A Study In Brown</t>
+  </si>
+  <si>
+    <t>A Study In Brown-Bunny Berigan</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QrjuTMepj1s</t>
+  </si>
+  <si>
+    <t>Stan Kenton v/Red Dorris</t>
+  </si>
+  <si>
+    <t>The Complete Capitol Studio Reco</t>
+  </si>
+  <si>
+    <t>Do Nothin' Till You Hear Fr... (44)</t>
+  </si>
+  <si>
+    <t>Do Nothin' Till You Hear Fr... (44)-Stan Kenton v/Red Dorris</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FAgN306jf8Q</t>
+  </si>
+  <si>
+    <t>China Stomp</t>
+  </si>
+  <si>
+    <t>China Stomp-Lionel Hampton</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=36lwrdc63cI</t>
+  </si>
+  <si>
+    <t>Tangerine (42)</t>
+  </si>
+  <si>
+    <t>Tangerine (42)-Jimmy Dorsey</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=q-JDUnZv1N0</t>
+  </si>
+  <si>
+    <t>Nat King Cole o/Pete Rugolo</t>
+  </si>
+  <si>
+    <t>Red Sails In The Sunset</t>
+  </si>
+  <si>
+    <t>Red Sails In The Sunset-Nat King Cole o/Pete Rugolo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kM2O7zmfTDI</t>
+  </si>
+  <si>
+    <t>Boo-Wha Boo-Wha (40)</t>
+  </si>
+  <si>
+    <t>Boo-Wha Boo-Wha (40)-Cab Calloway</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Mn00zvkbDss</t>
+  </si>
+  <si>
+    <t>Jimmy Dorsey v/Kitty Kallen</t>
+  </si>
+  <si>
+    <t>They're Either Too Young... (43)</t>
+  </si>
+  <si>
+    <t>They're Either Too Young... (43)-Jimmy Dorsey v/Kitty Kallen</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wj08AkvJVIc</t>
+  </si>
+  <si>
+    <t>1942-43</t>
+  </si>
+  <si>
+    <t>Ain't Misbehavin'</t>
+  </si>
+  <si>
+    <t>Ain't Misbehavin'-Fats Waller</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PSNPpssruFY</t>
+  </si>
+  <si>
+    <t>Lily Belle  (45)</t>
+  </si>
+  <si>
+    <t>Lily Belle  (45)-Pied Pipers</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7zDfloiEaK8</t>
+  </si>
+  <si>
+    <t>Doris Day o/Paul Weston</t>
+  </si>
+  <si>
+    <t>Shanghai</t>
+  </si>
+  <si>
+    <t>Shanghai-Doris Day o/Paul Weston</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=D5KgQkUTd-I</t>
+  </si>
+  <si>
+    <t>Ray Noble v/Al Bowlly</t>
+  </si>
+  <si>
+    <t>The Very Thought of You-Ray Noble v/Al Bowlly</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=CCSZb40mswQ</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>q-r</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NtwCTo7T9zg</t>
+  </si>
+  <si>
+    <t>Tain't Nobody's Bizness If I Do</t>
+  </si>
+  <si>
+    <t>Tain't Nobody's Bizness If I Do-Billie Holiday</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JAbMlxUhjTs</t>
   </si>
 </sst>
 </file>
@@ -4494,7 +6639,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A2:E344"/>
+  <dimension ref="A2:E540"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A63" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A78" activeCellId="0" pane="topLeft" sqref="A78"/>
@@ -9945,6 +12090,3080 @@
         <v>1369</v>
       </c>
     </row>
+    <row r="345" spans="1:5">
+      <c r="A345" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B345" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C345" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D345" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E345" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="A346" t="s">
+        <v>26</v>
+      </c>
+      <c r="C346" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D346" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E346" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347" t="s">
+        <v>53</v>
+      </c>
+      <c r="B347" t="s">
+        <v>54</v>
+      </c>
+      <c r="C347" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D347" t="s">
+        <v>1379</v>
+      </c>
+      <c r="E347" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C348" t="s">
+        <v>516</v>
+      </c>
+      <c r="D348" t="s">
+        <v>1382</v>
+      </c>
+      <c r="E348" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" t="s">
+        <v>139</v>
+      </c>
+      <c r="C349" t="s">
+        <v>809</v>
+      </c>
+      <c r="D349" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E349" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C350" t="s">
+        <v>416</v>
+      </c>
+      <c r="D350" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E350" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" t="s">
+        <v>0</v>
+      </c>
+      <c r="B351" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C351" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D351" t="s">
+        <v>1390</v>
+      </c>
+      <c r="E351" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="A352" t="s">
+        <v>176</v>
+      </c>
+      <c r="B352" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C352" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D352" t="s">
+        <v>1394</v>
+      </c>
+      <c r="E352" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C353" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D353" t="s">
+        <v>1398</v>
+      </c>
+      <c r="E353" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" t="s">
+        <v>98</v>
+      </c>
+      <c r="B354" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C354" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D354" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E354" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355" t="s">
+        <v>40</v>
+      </c>
+      <c r="B355" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C355" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D355" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E355" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B356" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C356" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D356" t="s">
+        <v>1411</v>
+      </c>
+      <c r="E356" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B357" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C357" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D357" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E357" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" t="s">
+        <v>200</v>
+      </c>
+      <c r="B358" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C358" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D358" t="s">
+        <v>1419</v>
+      </c>
+      <c r="E358" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5">
+      <c r="A359" t="s">
+        <v>35</v>
+      </c>
+      <c r="C359" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D359" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E359" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360" t="s">
+        <v>167</v>
+      </c>
+      <c r="C360" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D360" t="s">
+        <v>1425</v>
+      </c>
+      <c r="E360" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="A361" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C361" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D361" t="s">
+        <v>1429</v>
+      </c>
+      <c r="E361" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="A362" t="s">
+        <v>214</v>
+      </c>
+      <c r="B362" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C362" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D362" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E362" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363" t="s">
+        <v>522</v>
+      </c>
+      <c r="B363" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C363" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D363" t="s">
+        <v>1437</v>
+      </c>
+      <c r="E363" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="A364" t="s">
+        <v>88</v>
+      </c>
+      <c r="C364" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D364" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E364" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="A365" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B365" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C365" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D365" t="s">
+        <v>1445</v>
+      </c>
+      <c r="E365" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="A366" t="s">
+        <v>887</v>
+      </c>
+      <c r="C366" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D366" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E366" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367" t="s">
+        <v>9</v>
+      </c>
+      <c r="C367" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D367" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E367" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368" t="s">
+        <v>53</v>
+      </c>
+      <c r="B368" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C368" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D368" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E368" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="A369" t="s">
+        <v>339</v>
+      </c>
+      <c r="C369" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D369" t="s">
+        <v>1458</v>
+      </c>
+      <c r="E369" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="A370" t="s">
+        <v>284</v>
+      </c>
+      <c r="C370" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D370" t="s">
+        <v>1461</v>
+      </c>
+      <c r="E370" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="A371" t="s">
+        <v>159</v>
+      </c>
+      <c r="B371" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C371" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D371" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E371" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="A372" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C372" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D372" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E372" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="A373" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C373" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D373" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E373" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="A374" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B374" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C374" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D374" t="s">
+        <v>1478</v>
+      </c>
+      <c r="E374" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="A375" t="s">
+        <v>280</v>
+      </c>
+      <c r="C375" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D375" t="s">
+        <v>1481</v>
+      </c>
+      <c r="E375" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="A376" t="s">
+        <v>22</v>
+      </c>
+      <c r="B376" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C376" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D376" t="s">
+        <v>1485</v>
+      </c>
+      <c r="E376" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5">
+      <c r="A377" t="s">
+        <v>249</v>
+      </c>
+      <c r="B377" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C377" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D377" t="s">
+        <v>1489</v>
+      </c>
+      <c r="E377" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5">
+      <c r="A378" t="s">
+        <v>9</v>
+      </c>
+      <c r="B378" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C378" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D378" t="s">
+        <v>1492</v>
+      </c>
+      <c r="E378" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5">
+      <c r="A379" t="s">
+        <v>565</v>
+      </c>
+      <c r="C379" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D379" t="s">
+        <v>1495</v>
+      </c>
+      <c r="E379" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5">
+      <c r="A380" t="s">
+        <v>487</v>
+      </c>
+      <c r="B380" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C380" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D380" t="s">
+        <v>1499</v>
+      </c>
+      <c r="E380" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5">
+      <c r="A381" t="s">
+        <v>339</v>
+      </c>
+      <c r="C381" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D381" t="s">
+        <v>1502</v>
+      </c>
+      <c r="E381" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5">
+      <c r="A382" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C382" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D382" t="s">
+        <v>1505</v>
+      </c>
+      <c r="E382" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5">
+      <c r="A383" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B383" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C383" t="s">
+        <v>1509</v>
+      </c>
+      <c r="D383" t="s">
+        <v>1510</v>
+      </c>
+      <c r="E383" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5">
+      <c r="A384" t="s">
+        <v>167</v>
+      </c>
+      <c r="C384" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D384" t="s">
+        <v>1513</v>
+      </c>
+      <c r="E384" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5">
+      <c r="A385" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B385" t="s">
+        <v>455</v>
+      </c>
+      <c r="C385" t="s">
+        <v>1516</v>
+      </c>
+      <c r="D385" t="s">
+        <v>1517</v>
+      </c>
+      <c r="E385" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5">
+      <c r="A386" t="s">
+        <v>214</v>
+      </c>
+      <c r="B386" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C386" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D386" t="s">
+        <v>1521</v>
+      </c>
+      <c r="E386" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5">
+      <c r="A387" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B387" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C387" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D387" t="s">
+        <v>1526</v>
+      </c>
+      <c r="E387" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5">
+      <c r="A388" t="s">
+        <v>88</v>
+      </c>
+      <c r="B388" t="s">
+        <v>970</v>
+      </c>
+      <c r="C388" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D388" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E388" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="A389" t="s">
+        <v>35</v>
+      </c>
+      <c r="B389" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C389" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D389" t="s">
+        <v>1533</v>
+      </c>
+      <c r="E389" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="A390" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C390" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D390" t="s">
+        <v>1537</v>
+      </c>
+      <c r="E390" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5">
+      <c r="A391" t="s">
+        <v>144</v>
+      </c>
+      <c r="C391" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D391" t="s">
+        <v>1539</v>
+      </c>
+      <c r="E391" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5">
+      <c r="A392" t="s">
+        <v>176</v>
+      </c>
+      <c r="C392" t="s">
+        <v>484</v>
+      </c>
+      <c r="D392" t="s">
+        <v>1541</v>
+      </c>
+      <c r="E392" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5">
+      <c r="A393" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B393" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C393" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D393" t="s">
+        <v>1546</v>
+      </c>
+      <c r="E393" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5">
+      <c r="A394" t="s">
+        <v>130</v>
+      </c>
+      <c r="C394" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D394" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E394" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5">
+      <c r="A395" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B395" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C395" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D395" t="s">
+        <v>1553</v>
+      </c>
+      <c r="E395" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5">
+      <c r="A396" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B396" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C396" t="s">
+        <v>180</v>
+      </c>
+      <c r="D396" t="s">
+        <v>1557</v>
+      </c>
+      <c r="E396" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5">
+      <c r="A397" t="s">
+        <v>662</v>
+      </c>
+      <c r="C397" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D397" t="s">
+        <v>1560</v>
+      </c>
+      <c r="E397" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5">
+      <c r="A398" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C398" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D398" t="s">
+        <v>1564</v>
+      </c>
+      <c r="E398" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5">
+      <c r="A399" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B399" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C399" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D399" t="s">
+        <v>1569</v>
+      </c>
+      <c r="E399" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5">
+      <c r="A400" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C400" t="s">
+        <v>1571</v>
+      </c>
+      <c r="D400" t="s">
+        <v>1572</v>
+      </c>
+      <c r="E400" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5">
+      <c r="A401" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B401" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C401" t="s">
+        <v>1575</v>
+      </c>
+      <c r="D401" t="s">
+        <v>1576</v>
+      </c>
+      <c r="E401" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5">
+      <c r="A402" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B402" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C402" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D402" t="s">
+        <v>1581</v>
+      </c>
+      <c r="E402" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5">
+      <c r="A403" t="s">
+        <v>26</v>
+      </c>
+      <c r="B403" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C403" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D403" t="s">
+        <v>1585</v>
+      </c>
+      <c r="E403" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5">
+      <c r="A404" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C404" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D404" t="s">
+        <v>1589</v>
+      </c>
+      <c r="E404" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5">
+      <c r="A405" t="s">
+        <v>445</v>
+      </c>
+      <c r="C405" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D405" t="s">
+        <v>1592</v>
+      </c>
+      <c r="E405" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5">
+      <c r="A406" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B406" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C406" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D406" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E406" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5">
+      <c r="A407" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B407" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C407" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D407" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E407" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5">
+      <c r="A408" t="s">
+        <v>159</v>
+      </c>
+      <c r="B408" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C408" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D408" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E408" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5">
+      <c r="A409" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B409" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C409" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D409" t="s">
+        <v>1610</v>
+      </c>
+      <c r="E409" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5">
+      <c r="A410" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C410" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D410" t="s">
+        <v>1614</v>
+      </c>
+      <c r="E410" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5">
+      <c r="A411" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B411" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C411" t="s">
+        <v>1618</v>
+      </c>
+      <c r="D411" t="s">
+        <v>1619</v>
+      </c>
+      <c r="E411" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5">
+      <c r="A412" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B412" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C412" t="s">
+        <v>633</v>
+      </c>
+      <c r="D412" t="s">
+        <v>1622</v>
+      </c>
+      <c r="E412" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5">
+      <c r="A413" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B413" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C413" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D413" t="s">
+        <v>1627</v>
+      </c>
+      <c r="E413" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5">
+      <c r="A414" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B414" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C414" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D414" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E414" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5">
+      <c r="A415" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B415" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C415" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D415" t="s">
+        <v>1637</v>
+      </c>
+      <c r="E415" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5">
+      <c r="A416" t="s">
+        <v>9</v>
+      </c>
+      <c r="C416" t="s">
+        <v>512</v>
+      </c>
+      <c r="D416" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E416" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5">
+      <c r="A417" t="s">
+        <v>280</v>
+      </c>
+      <c r="B417" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C417" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D417" t="s">
+        <v>1643</v>
+      </c>
+      <c r="E417" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5">
+      <c r="A418" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B418" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C418" t="s">
+        <v>1647</v>
+      </c>
+      <c r="D418" t="s">
+        <v>1648</v>
+      </c>
+      <c r="E418" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5">
+      <c r="A419" t="s">
+        <v>53</v>
+      </c>
+      <c r="C419" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D419" t="s">
+        <v>1651</v>
+      </c>
+      <c r="E419" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5">
+      <c r="A420" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C420" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D420" t="s">
+        <v>1655</v>
+      </c>
+      <c r="E420" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5">
+      <c r="A421" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B421" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C421" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D421" t="s">
+        <v>1659</v>
+      </c>
+      <c r="E421" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5">
+      <c r="A422" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C422" t="s">
+        <v>1662</v>
+      </c>
+      <c r="D422" t="s">
+        <v>1663</v>
+      </c>
+      <c r="E422" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5">
+      <c r="A423" t="s">
+        <v>487</v>
+      </c>
+      <c r="B423" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C423" t="s">
+        <v>1665</v>
+      </c>
+      <c r="D423" t="s">
+        <v>1666</v>
+      </c>
+      <c r="E423" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5">
+      <c r="A424" t="s">
+        <v>249</v>
+      </c>
+      <c r="B424" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C424" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D424" t="s">
+        <v>1670</v>
+      </c>
+      <c r="E424" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5">
+      <c r="A425" t="s">
+        <v>183</v>
+      </c>
+      <c r="C425" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D425" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E425" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5">
+      <c r="A426" t="s">
+        <v>22</v>
+      </c>
+      <c r="B426" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C426" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D426" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E426" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5">
+      <c r="A427" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B427" t="n">
+        <v>1942</v>
+      </c>
+      <c r="C427" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D427" t="s">
+        <v>1681</v>
+      </c>
+      <c r="E427" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5">
+      <c r="A428" t="s">
+        <v>280</v>
+      </c>
+      <c r="C428" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D428" t="s">
+        <v>1684</v>
+      </c>
+      <c r="E428" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5">
+      <c r="A429" t="s">
+        <v>93</v>
+      </c>
+      <c r="C429" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D429" t="s">
+        <v>1687</v>
+      </c>
+      <c r="E429" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5">
+      <c r="A430" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B430" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C430" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D430" t="s">
+        <v>1692</v>
+      </c>
+      <c r="E430" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5">
+      <c r="A431" t="s">
+        <v>26</v>
+      </c>
+      <c r="B431" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C431" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D431" t="s">
+        <v>1696</v>
+      </c>
+      <c r="E431" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5">
+      <c r="A432" t="s">
+        <v>459</v>
+      </c>
+      <c r="B432" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C432" t="s">
+        <v>1699</v>
+      </c>
+      <c r="D432" t="s">
+        <v>1700</v>
+      </c>
+      <c r="E432" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5">
+      <c r="A433" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B433" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C433" t="s">
+        <v>1704</v>
+      </c>
+      <c r="D433" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E433" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5">
+      <c r="A434" t="s">
+        <v>35</v>
+      </c>
+      <c r="B434" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C434" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D434" t="s">
+        <v>1709</v>
+      </c>
+      <c r="E434" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5">
+      <c r="A435" t="s">
+        <v>122</v>
+      </c>
+      <c r="B435" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C435" t="s">
+        <v>1712</v>
+      </c>
+      <c r="D435" t="s">
+        <v>1713</v>
+      </c>
+      <c r="E435" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5">
+      <c r="A436" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B436" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C436" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D436" t="s">
+        <v>1718</v>
+      </c>
+      <c r="E436" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5">
+      <c r="A437" t="s">
+        <v>0</v>
+      </c>
+      <c r="C437" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D437" t="s">
+        <v>1721</v>
+      </c>
+      <c r="E437" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5">
+      <c r="A438" t="s">
+        <v>339</v>
+      </c>
+      <c r="B438" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C438" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D438" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E438" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5">
+      <c r="A439" t="s">
+        <v>487</v>
+      </c>
+      <c r="B439" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C439" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D439" t="s">
+        <v>1728</v>
+      </c>
+      <c r="E439" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5">
+      <c r="A440" t="s">
+        <v>53</v>
+      </c>
+      <c r="B440" t="s">
+        <v>583</v>
+      </c>
+      <c r="C440" t="s">
+        <v>331</v>
+      </c>
+      <c r="D440" t="s">
+        <v>1730</v>
+      </c>
+      <c r="E440" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5">
+      <c r="A441" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B441" t="s">
+        <v>834</v>
+      </c>
+      <c r="C441" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D441" t="s">
+        <v>1733</v>
+      </c>
+      <c r="E441" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5">
+      <c r="A442" t="s">
+        <v>209</v>
+      </c>
+      <c r="B442" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C442" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D442" t="s">
+        <v>1737</v>
+      </c>
+      <c r="E442" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5">
+      <c r="A443" t="s">
+        <v>167</v>
+      </c>
+      <c r="C443" t="s">
+        <v>1739</v>
+      </c>
+      <c r="D443" t="s">
+        <v>1740</v>
+      </c>
+      <c r="E443" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5">
+      <c r="A444" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C444" t="s">
+        <v>1743</v>
+      </c>
+      <c r="D444" t="s">
+        <v>1744</v>
+      </c>
+      <c r="E444" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5">
+      <c r="A445" t="s">
+        <v>565</v>
+      </c>
+      <c r="B445" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C445" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D445" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E445" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5">
+      <c r="A446" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C446" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D446" t="s">
+        <v>1751</v>
+      </c>
+      <c r="E446" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5">
+      <c r="A447" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C447" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D447" t="s">
+        <v>1755</v>
+      </c>
+      <c r="E447" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5">
+      <c r="A448" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C448" t="s">
+        <v>1758</v>
+      </c>
+      <c r="D448" t="s">
+        <v>1759</v>
+      </c>
+      <c r="E448" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5">
+      <c r="A449" t="s">
+        <v>149</v>
+      </c>
+      <c r="C449" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D449" t="s">
+        <v>1762</v>
+      </c>
+      <c r="E449" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5">
+      <c r="A450" t="s">
+        <v>79</v>
+      </c>
+      <c r="B450" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C450" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D450" t="s">
+        <v>1766</v>
+      </c>
+      <c r="E450" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5">
+      <c r="A451" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B451" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C451" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D451" t="s">
+        <v>1771</v>
+      </c>
+      <c r="E451" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5">
+      <c r="A452" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C452" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D452" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E452" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5">
+      <c r="A453" t="s">
+        <v>88</v>
+      </c>
+      <c r="B453" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C453" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D453" t="s">
+        <v>1779</v>
+      </c>
+      <c r="E453" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5">
+      <c r="A454" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C454" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D454" t="s">
+        <v>1782</v>
+      </c>
+      <c r="E454" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5">
+      <c r="A455" t="s">
+        <v>500</v>
+      </c>
+      <c r="B455" t="s">
+        <v>368</v>
+      </c>
+      <c r="C455" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D455" t="s">
+        <v>1785</v>
+      </c>
+      <c r="E455" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5">
+      <c r="A456" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B456" t="s">
+        <v>927</v>
+      </c>
+      <c r="C456" t="s">
+        <v>1788</v>
+      </c>
+      <c r="D456" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E456" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5">
+      <c r="A457" t="s">
+        <v>1791</v>
+      </c>
+      <c r="C457" t="s">
+        <v>1792</v>
+      </c>
+      <c r="D457" t="s">
+        <v>1793</v>
+      </c>
+      <c r="E457" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5">
+      <c r="A458" t="s">
+        <v>807</v>
+      </c>
+      <c r="C458" t="s">
+        <v>1795</v>
+      </c>
+      <c r="D458" t="s">
+        <v>1796</v>
+      </c>
+      <c r="E458" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5">
+      <c r="A459" t="s">
+        <v>280</v>
+      </c>
+      <c r="B459" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C459" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D459" t="s">
+        <v>1800</v>
+      </c>
+      <c r="E459" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5">
+      <c r="A460" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B460" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C460" t="s">
+        <v>1803</v>
+      </c>
+      <c r="D460" t="s">
+        <v>1804</v>
+      </c>
+      <c r="E460" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5">
+      <c r="A461" t="s">
+        <v>209</v>
+      </c>
+      <c r="C461" t="s">
+        <v>1806</v>
+      </c>
+      <c r="D461" t="s">
+        <v>1807</v>
+      </c>
+      <c r="E461" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5">
+      <c r="A462" t="s">
+        <v>407</v>
+      </c>
+      <c r="B462" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C462" t="s">
+        <v>1810</v>
+      </c>
+      <c r="D462" t="s">
+        <v>1811</v>
+      </c>
+      <c r="E462" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5">
+      <c r="A463" t="s">
+        <v>176</v>
+      </c>
+      <c r="C463" t="s">
+        <v>1813</v>
+      </c>
+      <c r="D463" t="s">
+        <v>1814</v>
+      </c>
+      <c r="E463" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5">
+      <c r="A464" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C464" t="s">
+        <v>1816</v>
+      </c>
+      <c r="D464" t="s">
+        <v>1817</v>
+      </c>
+      <c r="E464" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5">
+      <c r="A465" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B465" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C465" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D465" t="s">
+        <v>1822</v>
+      </c>
+      <c r="E465" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5">
+      <c r="A466" t="s">
+        <v>93</v>
+      </c>
+      <c r="C466" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D466" t="s">
+        <v>1825</v>
+      </c>
+      <c r="E466" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5">
+      <c r="A467" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C467" t="s">
+        <v>1827</v>
+      </c>
+      <c r="D467" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E467" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5">
+      <c r="A468" t="s">
+        <v>144</v>
+      </c>
+      <c r="C468" t="s">
+        <v>1830</v>
+      </c>
+      <c r="D468" t="s">
+        <v>1831</v>
+      </c>
+      <c r="E468" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5">
+      <c r="A469" t="s">
+        <v>122</v>
+      </c>
+      <c r="C469" t="s">
+        <v>1833</v>
+      </c>
+      <c r="D469" t="s">
+        <v>1834</v>
+      </c>
+      <c r="E469" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5">
+      <c r="A470" t="s">
+        <v>167</v>
+      </c>
+      <c r="B470" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C470" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D470" t="s">
+        <v>1838</v>
+      </c>
+      <c r="E470" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5">
+      <c r="A471" t="s">
+        <v>18</v>
+      </c>
+      <c r="C471" t="s">
+        <v>1840</v>
+      </c>
+      <c r="D471" t="s">
+        <v>1841</v>
+      </c>
+      <c r="E471" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5">
+      <c r="A472" t="s">
+        <v>487</v>
+      </c>
+      <c r="C472" t="s">
+        <v>1843</v>
+      </c>
+      <c r="D472" t="s">
+        <v>1844</v>
+      </c>
+      <c r="E472" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5">
+      <c r="A473" t="s">
+        <v>35</v>
+      </c>
+      <c r="C473" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D473" t="s">
+        <v>1847</v>
+      </c>
+      <c r="E473" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5">
+      <c r="A474" t="s">
+        <v>672</v>
+      </c>
+      <c r="B474" t="s">
+        <v>673</v>
+      </c>
+      <c r="C474" t="s">
+        <v>1849</v>
+      </c>
+      <c r="D474" t="s">
+        <v>1850</v>
+      </c>
+      <c r="E474" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5">
+      <c r="A475" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B475" t="s">
+        <v>245</v>
+      </c>
+      <c r="C475" t="s">
+        <v>566</v>
+      </c>
+      <c r="D475" t="s">
+        <v>1853</v>
+      </c>
+      <c r="E475" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5">
+      <c r="A476" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C476" t="s">
+        <v>931</v>
+      </c>
+      <c r="D476" t="s">
+        <v>1856</v>
+      </c>
+      <c r="E476" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5">
+      <c r="A477" t="s">
+        <v>293</v>
+      </c>
+      <c r="B477" t="s">
+        <v>54</v>
+      </c>
+      <c r="C477" t="s">
+        <v>1858</v>
+      </c>
+      <c r="D477" t="s">
+        <v>1859</v>
+      </c>
+      <c r="E477" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5">
+      <c r="A478" t="s">
+        <v>9</v>
+      </c>
+      <c r="B478" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C478" t="s">
+        <v>1862</v>
+      </c>
+      <c r="D478" t="s">
+        <v>1863</v>
+      </c>
+      <c r="E478" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5">
+      <c r="A479" t="s">
+        <v>183</v>
+      </c>
+      <c r="B479" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C479" t="s">
+        <v>1866</v>
+      </c>
+      <c r="D479" t="s">
+        <v>1867</v>
+      </c>
+      <c r="E479" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5">
+      <c r="A480" t="s">
+        <v>88</v>
+      </c>
+      <c r="C480" t="s">
+        <v>1869</v>
+      </c>
+      <c r="D480" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E480" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5">
+      <c r="A481" t="s">
+        <v>14</v>
+      </c>
+      <c r="B481" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C481" t="s">
+        <v>1872</v>
+      </c>
+      <c r="D481" t="s">
+        <v>1873</v>
+      </c>
+      <c r="E481" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5">
+      <c r="A482" t="s">
+        <v>1875</v>
+      </c>
+      <c r="C482" t="s">
+        <v>1876</v>
+      </c>
+      <c r="D482" t="s">
+        <v>1877</v>
+      </c>
+      <c r="E482" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5">
+      <c r="A483" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C483" t="s">
+        <v>1879</v>
+      </c>
+      <c r="D483" t="s">
+        <v>1880</v>
+      </c>
+      <c r="E483" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5">
+      <c r="A484" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C484" t="s">
+        <v>1883</v>
+      </c>
+      <c r="D484" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E484" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5">
+      <c r="A485" t="s">
+        <v>149</v>
+      </c>
+      <c r="B485" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C485" t="s">
+        <v>1886</v>
+      </c>
+      <c r="D485" t="s">
+        <v>1887</v>
+      </c>
+      <c r="E485" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5">
+      <c r="A486" t="s">
+        <v>88</v>
+      </c>
+      <c r="B486" t="s">
+        <v>970</v>
+      </c>
+      <c r="C486" t="s">
+        <v>1889</v>
+      </c>
+      <c r="D486" t="s">
+        <v>1890</v>
+      </c>
+      <c r="E486" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5">
+      <c r="A487" t="s">
+        <v>171</v>
+      </c>
+      <c r="B487" t="s">
+        <v>297</v>
+      </c>
+      <c r="C487" t="s">
+        <v>1892</v>
+      </c>
+      <c r="D487" t="s">
+        <v>1893</v>
+      </c>
+      <c r="E487" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5">
+      <c r="A488" t="s">
+        <v>309</v>
+      </c>
+      <c r="C488" t="s">
+        <v>796</v>
+      </c>
+      <c r="D488" t="s">
+        <v>1895</v>
+      </c>
+      <c r="E488" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5">
+      <c r="A489" t="s">
+        <v>214</v>
+      </c>
+      <c r="B489" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C489" t="s">
+        <v>1897</v>
+      </c>
+      <c r="D489" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E489" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5">
+      <c r="A490" t="s">
+        <v>487</v>
+      </c>
+      <c r="C490" t="s">
+        <v>1900</v>
+      </c>
+      <c r="D490" t="s">
+        <v>1901</v>
+      </c>
+      <c r="E490" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5">
+      <c r="A491" t="s">
+        <v>464</v>
+      </c>
+      <c r="B491" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C491" t="s">
+        <v>1904</v>
+      </c>
+      <c r="D491" t="s">
+        <v>1905</v>
+      </c>
+      <c r="E491" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5">
+      <c r="A492" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B492" t="s">
+        <v>254</v>
+      </c>
+      <c r="C492" t="s">
+        <v>1908</v>
+      </c>
+      <c r="D492" t="s">
+        <v>1909</v>
+      </c>
+      <c r="E492" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5">
+      <c r="A493" t="s">
+        <v>235</v>
+      </c>
+      <c r="B493" t="s">
+        <v>1911</v>
+      </c>
+      <c r="C493" t="s">
+        <v>1912</v>
+      </c>
+      <c r="D493" t="s">
+        <v>1913</v>
+      </c>
+      <c r="E493" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5">
+      <c r="A494" t="s">
+        <v>35</v>
+      </c>
+      <c r="B494" t="s">
+        <v>1915</v>
+      </c>
+      <c r="C494" t="s">
+        <v>1916</v>
+      </c>
+      <c r="D494" t="s">
+        <v>1917</v>
+      </c>
+      <c r="E494" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5">
+      <c r="A495" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B495" t="s">
+        <v>1920</v>
+      </c>
+      <c r="C495" t="s">
+        <v>1921</v>
+      </c>
+      <c r="D495" t="s">
+        <v>1922</v>
+      </c>
+      <c r="E495" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5">
+      <c r="A496" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B496" t="s">
+        <v>1925</v>
+      </c>
+      <c r="C496" t="s">
+        <v>1926</v>
+      </c>
+      <c r="D496" t="s">
+        <v>1927</v>
+      </c>
+      <c r="E496" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5">
+      <c r="A497" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B497" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C497" t="s">
+        <v>1931</v>
+      </c>
+      <c r="D497" t="s">
+        <v>1932</v>
+      </c>
+      <c r="E497" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5">
+      <c r="A498" t="s">
+        <v>0</v>
+      </c>
+      <c r="B498" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C498" t="s">
+        <v>1934</v>
+      </c>
+      <c r="D498" t="s">
+        <v>1935</v>
+      </c>
+      <c r="E498" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5">
+      <c r="A499" t="s">
+        <v>126</v>
+      </c>
+      <c r="B499" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C499" t="s">
+        <v>1938</v>
+      </c>
+      <c r="D499" t="s">
+        <v>1939</v>
+      </c>
+      <c r="E499" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5">
+      <c r="A500" t="s">
+        <v>144</v>
+      </c>
+      <c r="B500" t="s">
+        <v>145</v>
+      </c>
+      <c r="C500" t="s">
+        <v>1941</v>
+      </c>
+      <c r="D500" t="s">
+        <v>1942</v>
+      </c>
+      <c r="E500" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5">
+      <c r="A501" t="s">
+        <v>398</v>
+      </c>
+      <c r="B501" t="s">
+        <v>1944</v>
+      </c>
+      <c r="C501" t="s">
+        <v>1944</v>
+      </c>
+      <c r="D501" t="s">
+        <v>1945</v>
+      </c>
+      <c r="E501" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5">
+      <c r="A502" t="s">
+        <v>662</v>
+      </c>
+      <c r="B502" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C502" t="s">
+        <v>1948</v>
+      </c>
+      <c r="D502" t="s">
+        <v>1949</v>
+      </c>
+      <c r="E502" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5">
+      <c r="A503" t="s">
+        <v>430</v>
+      </c>
+      <c r="C503" t="s">
+        <v>1951</v>
+      </c>
+      <c r="D503" t="s">
+        <v>1952</v>
+      </c>
+      <c r="E503" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5">
+      <c r="A504" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C504" t="s">
+        <v>1806</v>
+      </c>
+      <c r="D504" t="s">
+        <v>1955</v>
+      </c>
+      <c r="E504" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5">
+      <c r="A505" t="s">
+        <v>108</v>
+      </c>
+      <c r="C505" t="s">
+        <v>1957</v>
+      </c>
+      <c r="D505" t="s">
+        <v>1958</v>
+      </c>
+      <c r="E505" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5">
+      <c r="A506" t="s">
+        <v>407</v>
+      </c>
+      <c r="C506" t="s">
+        <v>1960</v>
+      </c>
+      <c r="D506" t="s">
+        <v>1961</v>
+      </c>
+      <c r="E506" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5">
+      <c r="A507" t="s">
+        <v>117</v>
+      </c>
+      <c r="C507" t="s">
+        <v>1963</v>
+      </c>
+      <c r="D507" t="s">
+        <v>1964</v>
+      </c>
+      <c r="E507" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5">
+      <c r="A508" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B508" t="s">
+        <v>1967</v>
+      </c>
+      <c r="C508" t="s">
+        <v>1968</v>
+      </c>
+      <c r="D508" t="s">
+        <v>1969</v>
+      </c>
+      <c r="E508" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5">
+      <c r="A509" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B509" t="s">
+        <v>1971</v>
+      </c>
+      <c r="C509" t="s">
+        <v>1972</v>
+      </c>
+      <c r="D509" t="s">
+        <v>1973</v>
+      </c>
+      <c r="E509" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5">
+      <c r="A510" t="s">
+        <v>35</v>
+      </c>
+      <c r="B510" t="s">
+        <v>785</v>
+      </c>
+      <c r="C510" t="s">
+        <v>1975</v>
+      </c>
+      <c r="D510" t="s">
+        <v>1976</v>
+      </c>
+      <c r="E510" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5">
+      <c r="A511" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C511" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D511" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5">
+      <c r="A512" t="s">
+        <v>1981</v>
+      </c>
+      <c r="C512" t="s">
+        <v>1840</v>
+      </c>
+      <c r="D512" t="s">
+        <v>1982</v>
+      </c>
+      <c r="E512" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5">
+      <c r="A513" t="s">
+        <v>139</v>
+      </c>
+      <c r="C513" t="s">
+        <v>519</v>
+      </c>
+      <c r="D513" t="s">
+        <v>1984</v>
+      </c>
+      <c r="E513" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5">
+      <c r="A514" t="s">
+        <v>22</v>
+      </c>
+      <c r="C514" t="s">
+        <v>1986</v>
+      </c>
+      <c r="D514" t="s">
+        <v>1987</v>
+      </c>
+      <c r="E514" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5">
+      <c r="A515" t="s">
+        <v>1989</v>
+      </c>
+      <c r="B515" t="s">
+        <v>1990</v>
+      </c>
+      <c r="C515" t="s">
+        <v>1991</v>
+      </c>
+      <c r="D515" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E515" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5">
+      <c r="A516" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B516" t="s">
+        <v>1995</v>
+      </c>
+      <c r="C516" t="s">
+        <v>1996</v>
+      </c>
+      <c r="D516" t="s">
+        <v>1997</v>
+      </c>
+      <c r="E516" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5">
+      <c r="A517" t="s">
+        <v>26</v>
+      </c>
+      <c r="C517" t="s">
+        <v>1999</v>
+      </c>
+      <c r="D517" t="s">
+        <v>2000</v>
+      </c>
+      <c r="E517" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5">
+      <c r="A518" t="s">
+        <v>53</v>
+      </c>
+      <c r="B518" t="s">
+        <v>677</v>
+      </c>
+      <c r="C518" t="s">
+        <v>408</v>
+      </c>
+      <c r="D518" t="s">
+        <v>2002</v>
+      </c>
+      <c r="E518" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5">
+      <c r="A519" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B519" t="s">
+        <v>2005</v>
+      </c>
+      <c r="C519" t="s">
+        <v>315</v>
+      </c>
+      <c r="D519" t="s">
+        <v>2006</v>
+      </c>
+      <c r="E519" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5">
+      <c r="A520" t="s">
+        <v>339</v>
+      </c>
+      <c r="B520" t="s">
+        <v>2008</v>
+      </c>
+      <c r="C520" t="s">
+        <v>2009</v>
+      </c>
+      <c r="D520" t="s">
+        <v>2010</v>
+      </c>
+      <c r="E520" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5">
+      <c r="A521" t="s">
+        <v>621</v>
+      </c>
+      <c r="C521" t="s">
+        <v>2012</v>
+      </c>
+      <c r="D521" t="s">
+        <v>2013</v>
+      </c>
+      <c r="E521" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5">
+      <c r="A522" t="s">
+        <v>393</v>
+      </c>
+      <c r="C522" t="s">
+        <v>2015</v>
+      </c>
+      <c r="D522" t="s">
+        <v>2016</v>
+      </c>
+      <c r="E522" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5">
+      <c r="A523" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B523" t="s">
+        <v>2019</v>
+      </c>
+      <c r="C523" t="s">
+        <v>2020</v>
+      </c>
+      <c r="D523" t="s">
+        <v>2021</v>
+      </c>
+      <c r="E523" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5">
+      <c r="A524" t="s">
+        <v>171</v>
+      </c>
+      <c r="C524" t="s">
+        <v>2023</v>
+      </c>
+      <c r="D524" t="s">
+        <v>2024</v>
+      </c>
+      <c r="E524" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5">
+      <c r="A525" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B525" t="s">
+        <v>2027</v>
+      </c>
+      <c r="C525" t="s">
+        <v>28</v>
+      </c>
+      <c r="D525" t="s">
+        <v>2028</v>
+      </c>
+      <c r="E525" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5">
+      <c r="A526" t="s">
+        <v>2030</v>
+      </c>
+      <c r="C526" t="s">
+        <v>2031</v>
+      </c>
+      <c r="D526" t="s">
+        <v>2032</v>
+      </c>
+      <c r="E526" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5">
+      <c r="A527" t="s">
+        <v>2034</v>
+      </c>
+      <c r="C527" t="s">
+        <v>2035</v>
+      </c>
+      <c r="D527" t="s">
+        <v>2036</v>
+      </c>
+      <c r="E527" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5">
+      <c r="A528" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B528" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C528" t="s">
+        <v>2038</v>
+      </c>
+      <c r="D528" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E528" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5">
+      <c r="A529" t="s">
+        <v>2041</v>
+      </c>
+      <c r="B529" t="s">
+        <v>2042</v>
+      </c>
+      <c r="C529" t="s">
+        <v>2043</v>
+      </c>
+      <c r="D529" t="s">
+        <v>2044</v>
+      </c>
+      <c r="E529" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5">
+      <c r="A530" t="s">
+        <v>149</v>
+      </c>
+      <c r="C530" t="s">
+        <v>2046</v>
+      </c>
+      <c r="D530" t="s">
+        <v>2047</v>
+      </c>
+      <c r="E530" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5">
+      <c r="A531" t="s">
+        <v>88</v>
+      </c>
+      <c r="B531" t="s">
+        <v>970</v>
+      </c>
+      <c r="C531" t="s">
+        <v>2049</v>
+      </c>
+      <c r="D531" t="s">
+        <v>2050</v>
+      </c>
+      <c r="E531" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5">
+      <c r="A532" t="s">
+        <v>2052</v>
+      </c>
+      <c r="C532" t="s">
+        <v>2053</v>
+      </c>
+      <c r="D532" t="s">
+        <v>2054</v>
+      </c>
+      <c r="E532" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5">
+      <c r="A533" t="s">
+        <v>183</v>
+      </c>
+      <c r="C533" t="s">
+        <v>2056</v>
+      </c>
+      <c r="D533" t="s">
+        <v>2057</v>
+      </c>
+      <c r="E533" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5">
+      <c r="A534" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C534" t="s">
+        <v>2060</v>
+      </c>
+      <c r="D534" t="s">
+        <v>2061</v>
+      </c>
+      <c r="E534" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5">
+      <c r="A535" t="s">
+        <v>249</v>
+      </c>
+      <c r="B535" t="s">
+        <v>2063</v>
+      </c>
+      <c r="C535" t="s">
+        <v>2064</v>
+      </c>
+      <c r="D535" t="s">
+        <v>2065</v>
+      </c>
+      <c r="E535" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5">
+      <c r="A536" t="s">
+        <v>0</v>
+      </c>
+      <c r="B536" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C536" t="s">
+        <v>2067</v>
+      </c>
+      <c r="D536" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E536" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5">
+      <c r="A537" t="s">
+        <v>2070</v>
+      </c>
+      <c r="B537" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C537" t="s">
+        <v>2071</v>
+      </c>
+      <c r="D537" t="s">
+        <v>2072</v>
+      </c>
+      <c r="E537" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5">
+      <c r="A538" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C538" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D538" t="s">
+        <v>2075</v>
+      </c>
+      <c r="E538" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5">
+      <c r="A539" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B539" t="s">
+        <v>2078</v>
+      </c>
+      <c r="C539" t="s">
+        <v>2079</v>
+      </c>
+      <c r="D539" t="s">
+        <v>2080</v>
+      </c>
+      <c r="E539" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5">
+      <c r="A540" t="s">
+        <v>79</v>
+      </c>
+      <c r="B540" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C540" t="s">
+        <v>2082</v>
+      </c>
+      <c r="D540" t="s">
+        <v>2083</v>
+      </c>
+      <c r="E540" t="s">
+        <v>2084</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>

--- a/songs.xlsx
+++ b/songs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2085">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2778">
   <si>
     <t>Pied Pipers</t>
   </si>
@@ -6270,6 +6270,2085 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=JAbMlxUhjTs</t>
+  </si>
+  <si>
+    <t>Bill Bailey</t>
+  </si>
+  <si>
+    <t>Bill Bailey-Ralph Flanagan</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4DOhi4mseVk</t>
+  </si>
+  <si>
+    <t>Best Of Big Band 1941</t>
+  </si>
+  <si>
+    <t>Chattanooga Choo Choo (41)</t>
+  </si>
+  <si>
+    <t>Chattanooga Choo Choo (41)-Glenn Miller</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-XQybKMXL-k</t>
+  </si>
+  <si>
+    <t>Sleepy Time Gal (44)</t>
+  </si>
+  <si>
+    <t>Sleepy Time Gal (44)-Harry James</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gK6kH2XXn2g</t>
+  </si>
+  <si>
+    <t>Charlie Spivak v/G Stevens/J Hutton</t>
+  </si>
+  <si>
+    <t>I Remember You (42)</t>
+  </si>
+  <si>
+    <t>I Remember You (42)-Charlie Spivak v/G Stevens/J Hutton</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Qi9lgy0RTeA</t>
+  </si>
+  <si>
+    <t>Delta Rhythm Boys</t>
+  </si>
+  <si>
+    <t>Just A-Sittin' And A-Rockin' (46)-Delta Rhythm Boys</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1VXtg0G91_A</t>
+  </si>
+  <si>
+    <t>Down By The O-H-I-O (40)</t>
+  </si>
+  <si>
+    <t>Down By The O-H-I-O (40)-Andrews Sisters</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tV-n_Y4Kt1g</t>
+  </si>
+  <si>
+    <t>Always In My Heart</t>
+  </si>
+  <si>
+    <t>21 Dollars A Day</t>
+  </si>
+  <si>
+    <t>21 Dollars A Day-Tony Pastor</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ozOb-abTYRc</t>
+  </si>
+  <si>
+    <t>Ole Buttermilk Sky</t>
+  </si>
+  <si>
+    <t>Ole Buttermilk Sky-Kay Kyser v/Mike Douglas</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OWLrrFp9veY</t>
+  </si>
+  <si>
+    <t>The Sidewalks Of New York (40)</t>
+  </si>
+  <si>
+    <t>The Sidewalks Of New York (40)-Duke Ellington</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=piPsIIDNVCY</t>
+  </si>
+  <si>
+    <t>Tommy Dorsey v/Sy Oliver/Sentimenta</t>
+  </si>
+  <si>
+    <t>Chicago (44)</t>
+  </si>
+  <si>
+    <t>Chicago (44)-Tommy Dorsey v/Sy Oliver/Sentimenta</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=CGzl2LWspBo</t>
+  </si>
+  <si>
+    <t>(I Love You) For Sentimenta... (46)-Nat King Cole Trio</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TnEtvtmFcgo</t>
+  </si>
+  <si>
+    <t>Jimmy Dorsey v/Sandy Evans/Pat O'Co</t>
+  </si>
+  <si>
+    <t>Columbia 39526</t>
+  </si>
+  <si>
+    <t>Cherry Pink And Apple Blossom White</t>
+  </si>
+  <si>
+    <t>Cherry Pink And Apple Blossom White-Jimmy Dorsey v/Sandy Evans/Pat O'Co</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Hd9AsxUBl0w</t>
+  </si>
+  <si>
+    <t>Forever Gold</t>
+  </si>
+  <si>
+    <t>The Honeydripper (45)</t>
+  </si>
+  <si>
+    <t>The Honeydripper (45)-Cab Calloway</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OCs91ZgqSLc</t>
+  </si>
+  <si>
+    <t>Arkansas Traveler (41)</t>
+  </si>
+  <si>
+    <t>Arkansas Traveler (41)-Stan Kenton</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BIiXbZ8eYuU</t>
+  </si>
+  <si>
+    <t>Let's Dance</t>
+  </si>
+  <si>
+    <t>Let's Dance-Benny Goodman</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=M7HYVow1kHQ</t>
+  </si>
+  <si>
+    <t>Robin Hood (45)</t>
+  </si>
+  <si>
+    <t>Robin Hood (45)-Les Brown</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kYoxZv6eoIk</t>
+  </si>
+  <si>
+    <t>Mills Brothers o/Hal McIntyre</t>
+  </si>
+  <si>
+    <t>The Glow Worm</t>
+  </si>
+  <si>
+    <t>The Glow Worm-Mills Brothers o/Hal McIntyre</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JBsu6qjirvE</t>
+  </si>
+  <si>
+    <t>Sunrise Serenade</t>
+  </si>
+  <si>
+    <t>Sunrise Serenade-Glen Gray</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UlzQ0VF0SiU</t>
+  </si>
+  <si>
+    <t>Caldonia (45)</t>
+  </si>
+  <si>
+    <t>Caldonia (45)-Woody Herman</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lkLqzDH5mZM</t>
+  </si>
+  <si>
+    <t>The Complete Standard Transcriptions</t>
+  </si>
+  <si>
+    <t>Practice Makes Perfect (41)</t>
+  </si>
+  <si>
+    <t>Practice Makes Perfect (41)-Martha Tilton</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SlzBCwatS3E</t>
+  </si>
+  <si>
+    <t>Alfred Newman</t>
+  </si>
+  <si>
+    <t>Street Scene-Alfred Newman</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EuO6j7y0gYk</t>
+  </si>
+  <si>
+    <t>Jan Savitt v/Bon Bon</t>
+  </si>
+  <si>
+    <t>It's Time to Jump &amp; Shout</t>
+  </si>
+  <si>
+    <t>720 in the Books</t>
+  </si>
+  <si>
+    <t>720 in the Books-Jan Savitt v/Bon Bon</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kd2kB7yiEX8</t>
+  </si>
+  <si>
+    <t>How High the Moon (46)</t>
+  </si>
+  <si>
+    <t>How High the Moon (46)-Gene Krupa</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=h-zA9QbRTa0</t>
+  </si>
+  <si>
+    <t>Jo &amp; Jazz</t>
+  </si>
+  <si>
+    <t>I Didn't Know About You</t>
+  </si>
+  <si>
+    <t>I Didn't Know About You-Jo Stafford</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qfm07vyZyms</t>
+  </si>
+  <si>
+    <t>We're Still in Love</t>
+  </si>
+  <si>
+    <t>Imagination (40)</t>
+  </si>
+  <si>
+    <t>Imagination (40)-Glenn Miller</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VYtcM51yIOM</t>
+  </si>
+  <si>
+    <t>Boogie Woogie Bugle Boy (41)</t>
+  </si>
+  <si>
+    <t>Boogie Woogie Bugle Boy (41)-Andrews Sisters</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yE48XS2Rn0A</t>
+  </si>
+  <si>
+    <t>Dolores (41)</t>
+  </si>
+  <si>
+    <t>Dolores (41)-Tommy Dorsey/Frank Sinatra</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=v-FRmR8HEk0</t>
+  </si>
+  <si>
+    <t>Johnny Desmond</t>
+  </si>
+  <si>
+    <t>Musical Hits of the 1930's</t>
+  </si>
+  <si>
+    <t>There's a Small Hotel</t>
+  </si>
+  <si>
+    <t>There's a Small Hotel-Johnny Desmond</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VEWTLxzvFBs</t>
+  </si>
+  <si>
+    <t>Sugar (46)</t>
+  </si>
+  <si>
+    <t>Sugar (46)-Louis Armstrong</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rL_FGMXXuTg</t>
+  </si>
+  <si>
+    <t>Big Band Sounds of Ralph Flanagan</t>
+  </si>
+  <si>
+    <t>Nevertheless (I'm in Love with You)</t>
+  </si>
+  <si>
+    <t>Nevertheless (I'm in Love with You)-Ralph Flanagan v/Harry Prime</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=u3kRotrmQc0</t>
+  </si>
+  <si>
+    <t>Music Makers (41)-Count Basie</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wVBeX_n8ZIc</t>
+  </si>
+  <si>
+    <t>Willie Bryant</t>
+  </si>
+  <si>
+    <t>Is It True What They Say About Dixi</t>
+  </si>
+  <si>
+    <t>Is It True What They Say About Dixi-Willie Bryant</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ck78Ji6C7w8</t>
+  </si>
+  <si>
+    <t>Abe Lyman v/Rose Blane</t>
+  </si>
+  <si>
+    <t>78rpm: Bluebird 10924</t>
+  </si>
+  <si>
+    <t>He's My Uncle  (40)</t>
+  </si>
+  <si>
+    <t>He's My Uncle  (40)-Abe Lyman v/Rose Blane</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FnvEk9zk1ro</t>
+  </si>
+  <si>
+    <t>Earl Hines</t>
+  </si>
+  <si>
+    <t>Boogie Woogie Stomp</t>
+  </si>
+  <si>
+    <t>Boogie Woogie On St. Louis Blues</t>
+  </si>
+  <si>
+    <t>Boogie Woogie On St. Louis Blues-Earl Hines</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=z-Mpb9Lx5UM</t>
+  </si>
+  <si>
+    <t>Ralph Marterie</t>
+  </si>
+  <si>
+    <t>A Trumpeter's Lullaby</t>
+  </si>
+  <si>
+    <t>A Trumpeter's Lullaby-Ralph Marterie</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=23YzfM0qUS4</t>
+  </si>
+  <si>
+    <t>Kiss The Boys Goodbye</t>
+  </si>
+  <si>
+    <t>The Army Air Corps (42)</t>
+  </si>
+  <si>
+    <t>The Army Air Corps (42)-Alvino Rey</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TT7aQnEru3Y</t>
+  </si>
+  <si>
+    <t>A Kiss To Build A Dream On (44)</t>
+  </si>
+  <si>
+    <t>A Kiss To Build A Dream On (44)-Jimmy Dorsey</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fGwpbgRG2Q4</t>
+  </si>
+  <si>
+    <t>Skeets Tolbert &amp; His Gentlemen Of S</t>
+  </si>
+  <si>
+    <t>SKEETS TOLBERT AND HIS GENTLEMEN OF</t>
+  </si>
+  <si>
+    <t>Raz Ma Taz (40)</t>
+  </si>
+  <si>
+    <t>Raz Ma Taz (40)-Skeets Tolbert &amp; His Gentlemen Of S</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ySzx-qZ0u44&amp;list=PLCkD92KhsPeGDNaQ4BvZhSFhDEBdxEMBz</t>
+  </si>
+  <si>
+    <t>1938-1942</t>
+  </si>
+  <si>
+    <t>Night Song</t>
+  </si>
+  <si>
+    <t>Night Song-Bunny Berigan</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kHiBhivVxKo</t>
+  </si>
+  <si>
+    <t>Penthouse Serenade (47)</t>
+  </si>
+  <si>
+    <t>Penthouse Serenade (47)-Charlie Spivak</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=H10JSjbZiQg</t>
+  </si>
+  <si>
+    <t>Four Or Five Times</t>
+  </si>
+  <si>
+    <t>Four Or Five Times-Harry James</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ltskMcfPQN4</t>
+  </si>
+  <si>
+    <t>The All Night Record Man... (40)</t>
+  </si>
+  <si>
+    <t>The All Night Record Man... (40)-Charlie Barnet</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QhYKJb2qodw</t>
+  </si>
+  <si>
+    <t>20th Century Masters - The Millenniu</t>
+  </si>
+  <si>
+    <t>Near You (47)</t>
+  </si>
+  <si>
+    <t>Near You (47)-Andrews Sisters</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PzvD31-Vkxc</t>
+  </si>
+  <si>
+    <t>St. James Infirmary</t>
+  </si>
+  <si>
+    <t>St. James Infirmary-Cab Calloway</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bFBx3qYGxL8</t>
+  </si>
+  <si>
+    <t>Tess' Torch Song (I Had a Man)</t>
+  </si>
+  <si>
+    <t>Tess' Torch Song (I Had a Man)-Ella Mae Morse</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7Nx1BIxhGus</t>
+  </si>
+  <si>
+    <t>Satin Doll-Billy Eckstine</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dg2vwghPL-k</t>
+  </si>
+  <si>
+    <t>Martha</t>
+  </si>
+  <si>
+    <t>Martha-Larry Clinton v/Bea Wain</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Hn-3TkE_BmA</t>
+  </si>
+  <si>
+    <t>Lambeth Walk</t>
+  </si>
+  <si>
+    <t>Lambeth Walk-Artie Shaw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QvOjNAXYMGA</t>
+  </si>
+  <si>
+    <t>Johnny One Note (48)</t>
+  </si>
+  <si>
+    <t>Johnny One Note (48)-Mel Torme</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_VTk4seLaPk</t>
+  </si>
+  <si>
+    <t>Big Bands of the Swinging Years</t>
+  </si>
+  <si>
+    <t>Margie</t>
+  </si>
+  <si>
+    <t>Margie-Jimmie Lunceford</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zNHdkGQ1TKo</t>
+  </si>
+  <si>
+    <t>Bing: His Legendary Years</t>
+  </si>
+  <si>
+    <t>What's New?</t>
+  </si>
+  <si>
+    <t>What's New?-Bing Crosby</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=j8ncTGTu5wo</t>
+  </si>
+  <si>
+    <t>It Was a Good Time</t>
+  </si>
+  <si>
+    <t>The Trolley Song (44)-Judy Garland</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hmx1L8G25q4</t>
+  </si>
+  <si>
+    <t>Frances Langford</t>
+  </si>
+  <si>
+    <t>I'm In The Mood For Love</t>
+  </si>
+  <si>
+    <t>Serenade In Blue (42)</t>
+  </si>
+  <si>
+    <t>Serenade In Blue (42)-Frances Langford</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=grK-sBs22lc</t>
+  </si>
+  <si>
+    <t>Dick Haymes/Andrews Sisters o/Vic S</t>
+  </si>
+  <si>
+    <t>Decca 23412</t>
+  </si>
+  <si>
+    <t>Pack Up Your Troubles... (44)</t>
+  </si>
+  <si>
+    <t>Pack Up Your Troubles... (44)-Dick Haymes/Andrews Sisters o/Vic S</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dB1NiMSw3lE</t>
+  </si>
+  <si>
+    <t>The Beat Of The Big Bands</t>
+  </si>
+  <si>
+    <t>Perdido (46)</t>
+  </si>
+  <si>
+    <t>Perdido (46)-Harry James</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ArL97egtxTk</t>
+  </si>
+  <si>
+    <t>The Anthology</t>
+  </si>
+  <si>
+    <t>The Gypsy (46)</t>
+  </si>
+  <si>
+    <t>The Gypsy (46)-Ink Spots</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vG6g5CkyWAo</t>
+  </si>
+  <si>
+    <t>Jivin' the Vibes</t>
+  </si>
+  <si>
+    <t>My Last Affair</t>
+  </si>
+  <si>
+    <t>My Last Affair-Lionel Hampton</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3T7qT36WQeM</t>
+  </si>
+  <si>
+    <t>Great Louis Armstrong - Vol.2</t>
+  </si>
+  <si>
+    <t>St. Louis Blues</t>
+  </si>
+  <si>
+    <t>St. Louis Blues-Louis Armstrong</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=D2TUlUwa3_o</t>
+  </si>
+  <si>
+    <t>The Huckle-Buck (49)</t>
+  </si>
+  <si>
+    <t>The Huckle-Buck (49)-Frank Sinatra</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5X9lOWg7fNM</t>
+  </si>
+  <si>
+    <t>Masterpieces, Vol. 20</t>
+  </si>
+  <si>
+    <t>Tampico (45)</t>
+  </si>
+  <si>
+    <t>Tampico (45)-Stan Kenton v/June Christy</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KsU1q44X_2E</t>
+  </si>
+  <si>
+    <t>Rhumboogie (40)</t>
+  </si>
+  <si>
+    <t>Rhumboogie (40)-Andrews Sisters</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=k2H1PndCQug</t>
+  </si>
+  <si>
+    <t>Stop, Look &amp; Listen</t>
+  </si>
+  <si>
+    <t>Little White Lies</t>
+  </si>
+  <si>
+    <t>Little White Lies-Tommy Dorsey</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PU7mkfN0n7E</t>
+  </si>
+  <si>
+    <t>Buddy Johnson &amp; Ella Johnson</t>
+  </si>
+  <si>
+    <t>Buddy and Ella Johnson 1953-1964</t>
+  </si>
+  <si>
+    <t>Crazy 'Bout a Saxophone (42)</t>
+  </si>
+  <si>
+    <t>Crazy 'Bout a Saxophone (42)-Buddy Johnson &amp; Ella Johnson</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AxdFkH2rCCQ</t>
+  </si>
+  <si>
+    <t>The Bunny Hop</t>
+  </si>
+  <si>
+    <t>The Bunny Hop-Ray Anthony</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RajWqQaq5dE</t>
+  </si>
+  <si>
+    <t>Begin the Beguine</t>
+  </si>
+  <si>
+    <t>Begin the Beguine-Artie Shaw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pCXVxE_YeP4</t>
+  </si>
+  <si>
+    <t>Sentimental Journey-Merry Macs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ojva-BAiuEE</t>
+  </si>
+  <si>
+    <t>Cynthia's in Love</t>
+  </si>
+  <si>
+    <t>Cynthia's in Love-Tex Beneke</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=r2O7DIQIBcA</t>
+  </si>
+  <si>
+    <t>My Old Flame</t>
+  </si>
+  <si>
+    <t>My Old Flame-Billie Holiday</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jDSUKQZbHEk</t>
+  </si>
+  <si>
+    <t>The Very Best of Perry Como</t>
+  </si>
+  <si>
+    <t>Dig You Later (A Hubba-Hub...) (46)</t>
+  </si>
+  <si>
+    <t>Dig You Later (A Hubba-Hub...) (46)-Perry Como</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zwsyw-IdiOE</t>
+  </si>
+  <si>
+    <t>Star Burst (49)</t>
+  </si>
+  <si>
+    <t>Star Burst (49)-Gene Krupa</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5iOoR3Hxeqc</t>
+  </si>
+  <si>
+    <t>Louis Prima v/Lily Ann Carol</t>
+  </si>
+  <si>
+    <t>Oh Marie (44)</t>
+  </si>
+  <si>
+    <t>Oh Marie (44)-Louis Prima v/Lily Ann Carol</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pCyjRMpQ60c</t>
+  </si>
+  <si>
+    <t>Heart and Soul</t>
+  </si>
+  <si>
+    <t>Heart and Soul-Larry Clinton v/Bea Wain</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hn5N59H6a9M</t>
+  </si>
+  <si>
+    <t>Ted Weems v/Bob Edwards</t>
+  </si>
+  <si>
+    <t>Mickey (47)</t>
+  </si>
+  <si>
+    <t>Mickey (47)-Ted Weems v/Bob Edwards</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TaUlR3GWBRg</t>
+  </si>
+  <si>
+    <t>B. Crosby/C. Boswell/E. Cantor</t>
+  </si>
+  <si>
+    <t>Alexander's Ragtime Band-B. Crosby/C. Boswell/E. Cantor</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2Zh3xK55UAo</t>
+  </si>
+  <si>
+    <t>Masterpieces, Vol. 15</t>
+  </si>
+  <si>
+    <t>Song Of India</t>
+  </si>
+  <si>
+    <t>Song Of India-Tommy Dorsey</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5hDWIg4FGJs</t>
+  </si>
+  <si>
+    <t>Buddy Morrow</t>
+  </si>
+  <si>
+    <t>Shanghai-Buddy Morrow</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0jSrXBcOH3I</t>
+  </si>
+  <si>
+    <t>Artie Shaw &amp; his Orchestra</t>
+  </si>
+  <si>
+    <t>Thou Swell</t>
+  </si>
+  <si>
+    <t>Thou Swell-Artie Shaw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-kR5UgzwR6Q</t>
+  </si>
+  <si>
+    <t>The Complete Decca Recordings (1937-</t>
+  </si>
+  <si>
+    <t>Sent for You Yesterday (And Here Yo</t>
+  </si>
+  <si>
+    <t>Sent for You Yesterday (And Here Yo-Count Basie</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MKIVmWIKHOI</t>
+  </si>
+  <si>
+    <t>Bell Sisters o/Henri Rene</t>
+  </si>
+  <si>
+    <t>The Bermuda Girls</t>
+  </si>
+  <si>
+    <t>Wheel Of Fortune</t>
+  </si>
+  <si>
+    <t>Wheel Of Fortune-Bell Sisters o/Henri Rene</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VsrxC72LnGw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It Don't Mean A Thing (If It Ain't </t>
+  </si>
+  <si>
+    <t>It Don't Mean A Thing (If It Ain't -Lionel Hampton</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=M6YR0gC63-g</t>
+  </si>
+  <si>
+    <t>Horace Heidt</t>
+  </si>
+  <si>
+    <t>The Hut Sut Song (41)-Horace Heidt</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yrsRQwKNiGo</t>
+  </si>
+  <si>
+    <t>Dick Powell</t>
+  </si>
+  <si>
+    <t>Lulu's Back in Town</t>
+  </si>
+  <si>
+    <t>Lulu's Back in Town-Dick Powell</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NlDojSnIkO8</t>
+  </si>
+  <si>
+    <t>Make Believe Ballroom  1935-1939</t>
+  </si>
+  <si>
+    <t>Knocking at the Famous Door (40)</t>
+  </si>
+  <si>
+    <t>Knocking at the Famous Door (40)-Charlie Barnet</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1PR5xigX54g</t>
+  </si>
+  <si>
+    <t>Complete Helen Forrest with the Harr</t>
+  </si>
+  <si>
+    <t>Manhattan Serenade (42)</t>
+  </si>
+  <si>
+    <t>Manhattan Serenade (42)-Harry James v/Helen Forrest</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QbluxHzBvvs</t>
+  </si>
+  <si>
+    <t>Nagasaki-Glen Gray</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VL87Fnu5G9s</t>
+  </si>
+  <si>
+    <t>There! I've Said It Again (45)</t>
+  </si>
+  <si>
+    <t>There! I've Said It Again (45)-Modernaires</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=17tCHBf14Gs</t>
+  </si>
+  <si>
+    <t>Perry Como o/Mitchell Ayres</t>
+  </si>
+  <si>
+    <t>Papa Loves Mambo</t>
+  </si>
+  <si>
+    <t>Papa Loves Mambo-Perry Como o/Mitchell Ayres</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tftVzoglG6s</t>
+  </si>
+  <si>
+    <t>Moonlight Serenade</t>
+  </si>
+  <si>
+    <t>Sunrise Serenade-Glenn Miller</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lrpk3Ww8U4I</t>
+  </si>
+  <si>
+    <t>Massachusetts (42)</t>
+  </si>
+  <si>
+    <t>Massachusetts (42)-Gene Krupa v/Anita O'Day</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-PqRnBbm5xk</t>
+  </si>
+  <si>
+    <t>Early Artistry in Rhythm</t>
+  </si>
+  <si>
+    <t>Intermission Riff</t>
+  </si>
+  <si>
+    <t>Intermission Riff-Stan Kenton</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Oax-u-X0G8E</t>
+  </si>
+  <si>
+    <t>A-Tisket, A-Tasket</t>
+  </si>
+  <si>
+    <t>A-Tisket, A-Tasket-Chick Webb/Ella Fitzgerald</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=O18MD2rcrqs</t>
+  </si>
+  <si>
+    <t>What'cha Know Joe? (42)</t>
+  </si>
+  <si>
+    <t>What'cha Know Joe? (42)-Tommy Dorsey v/Pied Pipers</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iXWFFtcg2qU</t>
+  </si>
+  <si>
+    <t>If I Didn't Care</t>
+  </si>
+  <si>
+    <t>If I Didn't Care-Jan Savitt</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nckhE2cwjK4</t>
+  </si>
+  <si>
+    <t>Les Brown and His Great Vocalists</t>
+  </si>
+  <si>
+    <t>My Dreams Are Getting Bette.. (45)</t>
+  </si>
+  <si>
+    <t>My Dreams Are Getting Bette.. (45)-Les Brown v/Doris Day</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-_ug1nLarhI</t>
+  </si>
+  <si>
+    <t>The Very Best of Vaughn Monroe</t>
+  </si>
+  <si>
+    <t>Ballerina (47)</t>
+  </si>
+  <si>
+    <t>Ballerina (47)-Vaughn Monroe</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QYVNuxcDcnE</t>
+  </si>
+  <si>
+    <t>Bradley/McKinley</t>
+  </si>
+  <si>
+    <t>Celery Stalks At Midnight (40)</t>
+  </si>
+  <si>
+    <t>Celery Stalks At Midnight (40)-Will Bradley</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eW8gOzqcAnE</t>
+  </si>
+  <si>
+    <t>Fat Man Boogie</t>
+  </si>
+  <si>
+    <t>Fat Man Boogie-Billy May</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oG1zjGEXOw0</t>
+  </si>
+  <si>
+    <t>(There'll Be A) Hot Time... (44)</t>
+  </si>
+  <si>
+    <t>(There'll Be A) Hot Time... (44)-Bing Crosby/Andrews Sisters</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=q8mm_TeasEI</t>
+  </si>
+  <si>
+    <t>Best Of The Big Band Era 1947</t>
+  </si>
+  <si>
+    <t>Open The Door Richard (47)</t>
+  </si>
+  <si>
+    <t>Open The Door Richard (47)-Count Basie</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KXgOb6ek_Fw</t>
+  </si>
+  <si>
+    <t>Skokiaan</t>
+  </si>
+  <si>
+    <t>Skokiaan-Ralph Marterie</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HEyG11wdw-s</t>
+  </si>
+  <si>
+    <t>1937-1938</t>
+  </si>
+  <si>
+    <t>Sophisticated Swing</t>
+  </si>
+  <si>
+    <t>Sophisticated Swing-Bunny Berigan</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zeIqU5C4icQ</t>
+  </si>
+  <si>
+    <t>Without a Song</t>
+  </si>
+  <si>
+    <t>Without a Song-Ralph Flanagan</t>
+  </si>
+  <si>
+    <t>Stompin' at the Savoy</t>
+  </si>
+  <si>
+    <t>King Porter Stomp</t>
+  </si>
+  <si>
+    <t>King Porter Stomp-Benny Goodman</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zpzOFpPum6w</t>
+  </si>
+  <si>
+    <t>My Sugar Is So Refined (46)</t>
+  </si>
+  <si>
+    <t>My Sugar Is So Refined (46)-Johnny Mercer</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=e3EJjosetQI</t>
+  </si>
+  <si>
+    <t>Carmen Miranda</t>
+  </si>
+  <si>
+    <t>Brazilian Bombshell  25 Hits</t>
+  </si>
+  <si>
+    <t>South American Way (40)</t>
+  </si>
+  <si>
+    <t>South American Way (40)-Carmen Miranda</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eDwQN4UeF8E</t>
+  </si>
+  <si>
+    <t>You Made Me Love You</t>
+  </si>
+  <si>
+    <t>Sleepy Lagoon (42)</t>
+  </si>
+  <si>
+    <t>Sleepy Lagoon (42)-Harry James</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t1r6PCa6II0</t>
+  </si>
+  <si>
+    <t>The Columbia Years 1943-1952</t>
+  </si>
+  <si>
+    <t>Once In Love With Amy (48)</t>
+  </si>
+  <si>
+    <t>Once In Love With Amy (48)-Frank Sinatra</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=p6x0rFqqYeA</t>
+  </si>
+  <si>
+    <t>Sy Oliver</t>
+  </si>
+  <si>
+    <t>This Is Love</t>
+  </si>
+  <si>
+    <t>This Is Love-Sy Oliver</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cwWwyuVcjeU</t>
+  </si>
+  <si>
+    <t>Jimmy Dorsey v/Bob &amp; Helen</t>
+  </si>
+  <si>
+    <t>Green Eyes (41)-Jimmy Dorsey v/Bob &amp; Helen</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=x2TW6suPWMY</t>
+  </si>
+  <si>
+    <t>Where Or When (49)</t>
+  </si>
+  <si>
+    <t>Where Or When (49)-Dick Haymes</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8-ndV1Tgino</t>
+  </si>
+  <si>
+    <t>Best of Big Band 1945</t>
+  </si>
+  <si>
+    <t>It's Been A Long, Long Time (45)-Charlie Spivak</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=e4Sdwohid_o</t>
+  </si>
+  <si>
+    <t>1941-1943</t>
+  </si>
+  <si>
+    <t>Stars Fell On Alabama</t>
+  </si>
+  <si>
+    <t>Stars Fell On Alabama-Jack Teagarden</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cc8hmvaseRA</t>
+  </si>
+  <si>
+    <t>Cotton Tail (40)</t>
+  </si>
+  <si>
+    <t>Cotton Tail (40)-Duke Ellington</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_5plZUBoVyI</t>
+  </si>
+  <si>
+    <t>Opus One (45)</t>
+  </si>
+  <si>
+    <t>Opus One (45)-Gene Krupa</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sCa6BvmPTvw</t>
+  </si>
+  <si>
+    <t>Little Brown Jug (44)</t>
+  </si>
+  <si>
+    <t>Little Brown Jug (44)-Les Brown</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-6jSSwQtVNI</t>
+  </si>
+  <si>
+    <t>Planet Jazz</t>
+  </si>
+  <si>
+    <t>You Turned The Tables On Me</t>
+  </si>
+  <si>
+    <t>You Turned The Tables On Me-Benny Goodman</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PD741_IVy9I</t>
+  </si>
+  <si>
+    <t>It's Only A Paper Moon</t>
+  </si>
+  <si>
+    <t>It's Only A Paper Moon-Nat King Cole Trio</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Qc5RMYvXOhA</t>
+  </si>
+  <si>
+    <t>Harry James &amp; His Orchestra Play</t>
+  </si>
+  <si>
+    <t>Between The Devil And The... (46)</t>
+  </si>
+  <si>
+    <t>Between The Devil And The... (46)-Harry James</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XiTh-bEF80A&amp;list=OLAK5uy_n-ls0PPI83-a5oCsKQSwMiKws5d-vc-Jo</t>
+  </si>
+  <si>
+    <t>A Centennial Anthology of His De</t>
+  </si>
+  <si>
+    <t>Red Sails In The Sunset-Bing Crosby</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vGIwSwAvp6o</t>
+  </si>
+  <si>
+    <t>Studio Recordings 1951-1953</t>
+  </si>
+  <si>
+    <t>Lean Baby-Billy May</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=82LuQX4ufb8</t>
+  </si>
+  <si>
+    <t>Classic Sinatra</t>
+  </si>
+  <si>
+    <t>I've Got You Under My Skin</t>
+  </si>
+  <si>
+    <t>I've Got You Under My Skin-Frank Sinatra o/Nelson Riddle</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SPu0zkfmglQ</t>
+  </si>
+  <si>
+    <t>Charlie Barnet v/Mary Ann McCall</t>
+  </si>
+  <si>
+    <t>Between 18th And 19th On... (40)</t>
+  </si>
+  <si>
+    <t>Between 18th And 19th On... (40)-Charlie Barnet v/Mary Ann McCall</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OxYenSTAol8</t>
+  </si>
+  <si>
+    <t>Guy Lombardo</t>
+  </si>
+  <si>
+    <t>The Third Man Theme</t>
+  </si>
+  <si>
+    <t>The Third Man Theme-Guy Lombardo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ssvavwz4CRo</t>
+  </si>
+  <si>
+    <t>Sentimental Journey, Vol. 2</t>
+  </si>
+  <si>
+    <t>Linda (47)</t>
+  </si>
+  <si>
+    <t>Linda (47)-Buddy Clark o/Ray Noble</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NRZeA8n0LXM</t>
+  </si>
+  <si>
+    <t>Red Bank Boogie (45)</t>
+  </si>
+  <si>
+    <t>Red Bank Boogie (45)-Count Basie</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GliERYTrVJo</t>
+  </si>
+  <si>
+    <t>I'll See You in My Dreams</t>
+  </si>
+  <si>
+    <t>I'll See You in My Dreams-Tommy Dorsey</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EHO3CcOhwTk</t>
+  </si>
+  <si>
+    <t>One Mint Julep</t>
+  </si>
+  <si>
+    <t>One Mint Julep-Buddy Morrow</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=puO6TJiHmZ4</t>
+  </si>
+  <si>
+    <t>I Should Care</t>
+  </si>
+  <si>
+    <t>I Should Care-Ralph Flanagan</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uPuhgEUgy40</t>
+  </si>
+  <si>
+    <t>Moonglow (41)</t>
+  </si>
+  <si>
+    <t>Moonglow (41)-Artie Shaw</t>
+  </si>
+  <si>
+    <t>Vincent Lopez v/Sonny Schuyler</t>
+  </si>
+  <si>
+    <t>If I Only Had A Brain</t>
+  </si>
+  <si>
+    <t>If I Only Had A Brain-Vincent Lopez v/Sonny Schuyler</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fMVQeNIGzho</t>
+  </si>
+  <si>
+    <t>Tea for Two (45)</t>
+  </si>
+  <si>
+    <t>Tea for Two (45)-Gene Krupa v/Anita O'Day</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DiLV93woxcA</t>
+  </si>
+  <si>
+    <t>Bunny Berigan And His Boys</t>
+  </si>
+  <si>
+    <t>You Took Advantage Of Me</t>
+  </si>
+  <si>
+    <t>You Took Advantage Of Me-Bunny Berigan And His Boys</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MF_6FzfqJbQ</t>
+  </si>
+  <si>
+    <t>Songs That Got Us Through WW2</t>
+  </si>
+  <si>
+    <t>I'll Walk Alone (44)</t>
+  </si>
+  <si>
+    <t>I'll Walk Alone (44)-Martha Tilton</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hs57pRpBjsg</t>
+  </si>
+  <si>
+    <t>Billboard Pop Memories  1940-194</t>
+  </si>
+  <si>
+    <t>I've Heard That Song Before  (42)</t>
+  </si>
+  <si>
+    <t>I've Heard That Song Before  (42)-Harry James v/Helen Forrest</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tX5S9iXmMek</t>
+  </si>
+  <si>
+    <t>Benny Goodman v/Mildred Bailey</t>
+  </si>
+  <si>
+    <t>Darn That Dream (40)</t>
+  </si>
+  <si>
+    <t>Darn That Dream (40)-Benny Goodman v/Mildred Bailey</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=p_3gncaKrC0</t>
+  </si>
+  <si>
+    <t>Bing &amp; Gary Crosby</t>
+  </si>
+  <si>
+    <t>Sam's Song</t>
+  </si>
+  <si>
+    <t>Sam's Song-Bing &amp; Gary Crosby</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Vd0tZ2SYpGg</t>
+  </si>
+  <si>
+    <t>Don Redman</t>
+  </si>
+  <si>
+    <t>Swingin' With The Fat Man</t>
+  </si>
+  <si>
+    <t>Swingin' With The Fat Man-Don Redman</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0Gu-2M2z6pU</t>
+  </si>
+  <si>
+    <t>The Glow Worm-Johnny Mercer</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BvStK9DqPSc</t>
+  </si>
+  <si>
+    <t>I Can't Believe That You... (46)</t>
+  </si>
+  <si>
+    <t>I Can't Believe That You... (46)-Jimmy Dorsey</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=csiHWxuztaw</t>
+  </si>
+  <si>
+    <t>Tenderly (47)</t>
+  </si>
+  <si>
+    <t>Tenderly (47)-Charlie Spivak</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=brmEkiGpD1A</t>
+  </si>
+  <si>
+    <t>Cootie Williams</t>
+  </si>
+  <si>
+    <t>BIG BAND JAZZ JUBILEE SESSIONS</t>
+  </si>
+  <si>
+    <t>Airmail Special (46)</t>
+  </si>
+  <si>
+    <t>Airmail Special (46)-Cootie Williams</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WtMyAUy4myM</t>
+  </si>
+  <si>
+    <t>Doris Day o/Percy Faith</t>
+  </si>
+  <si>
+    <t>When I Fall In Love</t>
+  </si>
+  <si>
+    <t>When I Fall In Love-Doris Day o/Percy Faith</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZQRXyZJ_LmQ</t>
+  </si>
+  <si>
+    <t>For Dancers Only</t>
+  </si>
+  <si>
+    <t>For Dancers Only-Bob Crosby</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XBEVZZRQRG8</t>
+  </si>
+  <si>
+    <t>Remember Me</t>
+  </si>
+  <si>
+    <t>Remember Me-Bing Crosby</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DkMl8H43HFE</t>
+  </si>
+  <si>
+    <t>Charlie Ventura v/Jackie Cain</t>
+  </si>
+  <si>
+    <t>Lullaby In Rhythm (49)</t>
+  </si>
+  <si>
+    <t>Lullaby In Rhythm (49)-Charlie Ventura v/Jackie Cain</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=d-y7l5FYLc0</t>
+  </si>
+  <si>
+    <t>The Complete Capitol Studio Recordin</t>
+  </si>
+  <si>
+    <t>Sweet Dreams, Sweetheart (44)</t>
+  </si>
+  <si>
+    <t>Sweet Dreams, Sweetheart (44)-Stan Kenton</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gCp_j7j9LhQ</t>
+  </si>
+  <si>
+    <t>The Jumpin' Jive</t>
+  </si>
+  <si>
+    <t>The Jumpin' Jive-Ella Fitzgerald</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3lAbcUTqxXw</t>
+  </si>
+  <si>
+    <t>Sing Along With Basie</t>
+  </si>
+  <si>
+    <t>Every Tub</t>
+  </si>
+  <si>
+    <t>Every Tub-Count Basie</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_ZLmqF-jix0</t>
+  </si>
+  <si>
+    <t>American Patrol (42)</t>
+  </si>
+  <si>
+    <t>American Patrol (42)-Glenn Miller</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DK-lBi5r6Jk</t>
+  </si>
+  <si>
+    <t>Ted Weems</t>
+  </si>
+  <si>
+    <t>Heartaches</t>
+  </si>
+  <si>
+    <t>Heartaches-Ted Weems</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mxe5OmWSJcc</t>
+  </si>
+  <si>
+    <t>Vera Lynn</t>
+  </si>
+  <si>
+    <t>Something To Remember / Wartime Memories</t>
+  </si>
+  <si>
+    <t>We'll Meet Again</t>
+  </si>
+  <si>
+    <t>We'll Meet Again-Vera Lynn</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cHcunREYzNY</t>
+  </si>
+  <si>
+    <t>I Cover the Waterfront (44)</t>
+  </si>
+  <si>
+    <t>I Cover the Waterfront (44)-Artie Shaw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5GmlyInkE-U</t>
+  </si>
+  <si>
+    <t>Jeepers Creepers</t>
+  </si>
+  <si>
+    <t>Jeepers Creepers-Larry Clinton v/Ford Leary</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gWJFsD3GEPQ</t>
+  </si>
+  <si>
+    <t>Flying Home (42)</t>
+  </si>
+  <si>
+    <t>Flying Home (42)-Lionel Hampton</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=b21hlIw0uG0</t>
+  </si>
+  <si>
+    <t>Les Elgart</t>
+  </si>
+  <si>
+    <t>In The Still Of The Night</t>
+  </si>
+  <si>
+    <t>In The Still Of The Night-Les Elgart</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pBVuiU5jakY</t>
+  </si>
+  <si>
+    <t>At A Dixie Roadside Diner (44)</t>
+  </si>
+  <si>
+    <t>At A Dixie Roadside Diner (44)-Ivie Anderson</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=P6shi5k26iM</t>
+  </si>
+  <si>
+    <t>The Blue Room-Perry Como</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JRZnsksvf7k</t>
+  </si>
+  <si>
+    <t>From This Moment On</t>
+  </si>
+  <si>
+    <t>From This Moment On-Les Brown</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w1Fe-yFXIqI</t>
+  </si>
+  <si>
+    <t>No Name Jive (40)</t>
+  </si>
+  <si>
+    <t>No Name Jive (40)-Glen Gray</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Tp4_hb0pBB8</t>
+  </si>
+  <si>
+    <t>Bing Crosby/Jane Wyman</t>
+  </si>
+  <si>
+    <t>In The Cool, Cool, Cool Of The Even-Bing Crosby/Jane Wyman</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YYitVIRxCPE</t>
+  </si>
+  <si>
+    <t>Blues Skies</t>
+  </si>
+  <si>
+    <t>Blues Skies-Benny Goodman</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YHXjHWrshB0</t>
+  </si>
+  <si>
+    <t>Say It Isn't So (44)</t>
+  </si>
+  <si>
+    <t>Say It Isn't So (44)-Stan Kenton</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=E-Umm9X2y6g</t>
+  </si>
+  <si>
+    <t>I Hear Music (40)-Gene Krupa</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3dQSrQyUAck</t>
+  </si>
+  <si>
+    <t>There I Go (40)</t>
+  </si>
+  <si>
+    <t>There I Go (40)-Vaughn Monroe</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ojuJfPQ8Mek</t>
+  </si>
+  <si>
+    <t>22 Original Recordings</t>
+  </si>
+  <si>
+    <t>Imagination (40)-Jimmy Dorsey</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lO7P4bbOdKQ</t>
+  </si>
+  <si>
+    <t>Tom Cunningham Orchestra</t>
+  </si>
+  <si>
+    <t>One O'Clock Boogie/Two O'Clock Jump</t>
+  </si>
+  <si>
+    <t>Bugle Call Rag</t>
+  </si>
+  <si>
+    <t>Bugle Call Rag-Tom Cunningham Orchestra</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5W9Z_EACKGI</t>
+  </si>
+  <si>
+    <t>Jo Stafford o/Paul Weston</t>
+  </si>
+  <si>
+    <t>Smoke Dreams (47)</t>
+  </si>
+  <si>
+    <t>Smoke Dreams (47)-Jo Stafford o/Paul Weston</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uphx3fYjc1Y</t>
+  </si>
+  <si>
+    <t>Dancing In The Dark (41)</t>
+  </si>
+  <si>
+    <t>Dancing In The Dark (41)-Artie Shaw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8dbL_lQrBYY</t>
+  </si>
+  <si>
+    <t>Allen Miller</t>
+  </si>
+  <si>
+    <t>Rosie The Riveter (43)</t>
+  </si>
+  <si>
+    <t>Rosie The Riveter (43)-Allen Miller</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XJxe3vQRMuY</t>
+  </si>
+  <si>
+    <t>The Very Best of Dick Haymes, Vol. 2</t>
+  </si>
+  <si>
+    <t>How Are Things in Glocca Mo... (47)</t>
+  </si>
+  <si>
+    <t>How Are Things in Glocca Mo... (47)-Dick Haymes</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ntk2kQT_4pQ</t>
+  </si>
+  <si>
+    <t>Bizet Has His Day (42)</t>
+  </si>
+  <si>
+    <t>Bizet Has His Day (42)-Les Brown</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4LLeT-a6O14</t>
+  </si>
+  <si>
+    <t>Louis Prima</t>
+  </si>
+  <si>
+    <t>Bell Bottom Trousers (45)-Louis Prima</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UXHcJWgV6TU</t>
+  </si>
+  <si>
+    <t>Chattanooga Choo Choo: The #1 Hi</t>
+  </si>
+  <si>
+    <t>Song Of The Volga Boatmen (41)</t>
+  </si>
+  <si>
+    <t>Song Of The Volga Boatmen (41)-Glenn Miller</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LJRts1kwzKc</t>
+  </si>
+  <si>
+    <t>I'm In The Mood For Love-Frances Langford</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iYkgpF6rvV0</t>
+  </si>
+  <si>
+    <t>Lawrence Welk</t>
+  </si>
+  <si>
+    <t>Hot Toddy (49)</t>
+  </si>
+  <si>
+    <t>Hot Toddy (49)-Lawrence Welk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bMvqPffzDMQ</t>
+  </si>
+  <si>
+    <t>Chattanooga Choo Choo</t>
+  </si>
+  <si>
+    <t>Chattanooga Choo Choo-Jan Savitt</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_ICU8ALWR9s</t>
+  </si>
+  <si>
+    <t>Early Years, Part 1 &amp; Part 2</t>
+  </si>
+  <si>
+    <t>I Want to Be Happy</t>
+  </si>
+  <si>
+    <t>I Want to Be Happy-Chick Webb v/Ella Fitzgerald</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BVglo7vRskA</t>
+  </si>
+  <si>
+    <t>It Might as Well Be Spring (45)</t>
+  </si>
+  <si>
+    <t>It Might as Well Be Spring (45)-Dick Haymes</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qyJ-QNxdqfI</t>
+  </si>
+  <si>
+    <t>Night Train</t>
+  </si>
+  <si>
+    <t>Night Train-Buddy Morrow</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hamup2cGTLU</t>
+  </si>
+  <si>
+    <t>Mail Call</t>
+  </si>
+  <si>
+    <t>It's Love, Love, Love (44)</t>
+  </si>
+  <si>
+    <t>It's Love, Love, Love (44)-Bing Crosby</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WxRAMq5-l08</t>
+  </si>
+  <si>
+    <t>Sophisticated Swing-Les Brown</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tdt1wrO7aO8</t>
+  </si>
+  <si>
+    <t>Benny Goodman Sextet</t>
+  </si>
+  <si>
+    <t>Jazz-The Definitive Performances</t>
+  </si>
+  <si>
+    <t>Flying Home (42)-Benny Goodman Sextet</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kizoLacjV2k</t>
+  </si>
+  <si>
+    <t>Ina Ray Hutton</t>
+  </si>
+  <si>
+    <t>Back in Your Own Backyard (41)</t>
+  </si>
+  <si>
+    <t>Back in Your Own Backyard (41)-Ina Ray Hutton</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FsJOEd0KY1Q</t>
+  </si>
+  <si>
+    <t>Praise the Lord And Pass The Ammuni</t>
+  </si>
+  <si>
+    <t>Praise the Lord And Pass The Ammuni-Merry Macs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HStrLiUKn6s</t>
+  </si>
+  <si>
+    <t>I Can't Believe That You're... (44)</t>
+  </si>
+  <si>
+    <t>I Can't Believe That You're... (44)-Billie Holiday</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8RZsSKxk0DE</t>
+  </si>
+  <si>
+    <t>Listen And You Shall Hear</t>
+  </si>
+  <si>
+    <t>The Glory Of Love</t>
+  </si>
+  <si>
+    <t>The Glory Of Love-Count Basie</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RqleOAWRpvo</t>
+  </si>
+  <si>
+    <t>Billboard Pop Memories: The 1930s</t>
+  </si>
+  <si>
+    <t>Deep Purple-Larry Clinton v/Bea Wain</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hH2-4-drxIg</t>
+  </si>
+  <si>
+    <t>Keep A Knockin' (But You Can't Come</t>
+  </si>
+  <si>
+    <t>Keep A Knockin' (But You Can't Come-Louis Jordan</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6pcve7daxNM</t>
+  </si>
+  <si>
+    <t>Harbor Lights-Ray Anthony v/Ronnie Deauville</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6voPfTySlc0</t>
+  </si>
+  <si>
+    <t>Clap Hands Here Comes Charlie</t>
+  </si>
+  <si>
+    <t>Clap Hands Here Comes Charlie-Charlie Barnet</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=C2ZLjGi073A</t>
+  </si>
+  <si>
+    <t>VOL. 10-1939-HIGH SOCIETY</t>
+  </si>
+  <si>
+    <t>Blue Orchids</t>
+  </si>
+  <si>
+    <t>Blue Orchids-Bob Crosby</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dcSqrl3Xg1o</t>
+  </si>
+  <si>
+    <t>Columbia 36827</t>
+  </si>
+  <si>
+    <t>11:60 PM (45)</t>
+  </si>
+  <si>
+    <t>11:60 PM (45)-Harry James v/Kitty Kallen</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vb0ZDdL77hQ</t>
+  </si>
+  <si>
+    <t>Four Freshmen o/Dick Reynolds</t>
+  </si>
+  <si>
+    <t>Day By Day</t>
+  </si>
+  <si>
+    <t>Day By Day-Four Freshmen o/Dick Reynolds</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lJiWrONX4pA</t>
+  </si>
+  <si>
+    <t>An Anthology Of Big Band Swing 1</t>
+  </si>
+  <si>
+    <t>Down South Camp Meeting-Fletcher Henderson</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mjqNXv4Z5lw</t>
+  </si>
+  <si>
+    <t>The Continental-Artie Shaw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jAiGb-YRGPA</t>
+  </si>
+  <si>
+    <t>Les Brown v/Jack Haskel</t>
+  </si>
+  <si>
+    <t>I Guess I'll Get The Papers (And Go</t>
+  </si>
+  <si>
+    <t>I Guess I'll Get The Papers (And Go-Les Brown v/Jack Haskel</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=j0SJUosJ-qg</t>
+  </si>
+  <si>
+    <t>Live From the Palladium</t>
+  </si>
+  <si>
+    <t>Caribbean Clipper-Jerry Gray</t>
+  </si>
+  <si>
+    <t>You Belong To Me</t>
+  </si>
+  <si>
+    <t>You Belong To Me-Jo Stafford o/Paul Weston</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=paHiAP1_eGY</t>
+  </si>
+  <si>
+    <t>Gene Krupa v/Irene Daye</t>
+  </si>
+  <si>
+    <t>Drum Boogie (41)</t>
+  </si>
+  <si>
+    <t>Drum Boogie (41)-Gene Krupa v/Irene Daye</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sH2--aQ76wY</t>
+  </si>
+  <si>
+    <t>Stormy Weather (43)</t>
+  </si>
+  <si>
+    <t>Stormy Weather (43)-Duke Ellington</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RqW7aFjnboA</t>
+  </si>
+  <si>
+    <t>Time Was (41)</t>
+  </si>
+  <si>
+    <t>Time Was (41)-Jimmy Dorsey v/Bob &amp; Helen</t>
   </si>
 </sst>
 </file>
@@ -6639,7 +8718,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A2:E540"/>
+  <dimension ref="A2:E741"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A63" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A78" activeCellId="0" pane="topLeft" sqref="A78"/>
@@ -15164,6 +17243,3147 @@
         <v>2084</v>
       </c>
     </row>
+    <row r="541" spans="1:5">
+      <c r="A541" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C541" t="s">
+        <v>2085</v>
+      </c>
+      <c r="D541" t="s">
+        <v>2086</v>
+      </c>
+      <c r="E541" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5">
+      <c r="A542" t="s">
+        <v>53</v>
+      </c>
+      <c r="B542" t="s">
+        <v>2088</v>
+      </c>
+      <c r="C542" t="s">
+        <v>2089</v>
+      </c>
+      <c r="D542" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E542" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5">
+      <c r="A543" t="s">
+        <v>122</v>
+      </c>
+      <c r="B543" t="n">
+        <v>1939</v>
+      </c>
+      <c r="C543" t="s">
+        <v>2092</v>
+      </c>
+      <c r="D543" t="s">
+        <v>2093</v>
+      </c>
+      <c r="E543" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5">
+      <c r="A544" t="s">
+        <v>2095</v>
+      </c>
+      <c r="C544" t="s">
+        <v>2096</v>
+      </c>
+      <c r="D544" t="s">
+        <v>2097</v>
+      </c>
+      <c r="E544" t="s">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5">
+      <c r="A545" t="s">
+        <v>2099</v>
+      </c>
+      <c r="C545" t="s">
+        <v>382</v>
+      </c>
+      <c r="D545" t="s">
+        <v>2100</v>
+      </c>
+      <c r="E545" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5">
+      <c r="A546" t="s">
+        <v>487</v>
+      </c>
+      <c r="C546" t="s">
+        <v>2102</v>
+      </c>
+      <c r="D546" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E546" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5">
+      <c r="A547" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B547" t="s">
+        <v>2105</v>
+      </c>
+      <c r="C547" t="s">
+        <v>2106</v>
+      </c>
+      <c r="D547" t="s">
+        <v>2107</v>
+      </c>
+      <c r="E547" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5">
+      <c r="A548" t="s">
+        <v>49</v>
+      </c>
+      <c r="C548" t="s">
+        <v>2109</v>
+      </c>
+      <c r="D548" t="s">
+        <v>2110</v>
+      </c>
+      <c r="E548" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5">
+      <c r="A549" t="s">
+        <v>9</v>
+      </c>
+      <c r="C549" t="s">
+        <v>2112</v>
+      </c>
+      <c r="D549" t="s">
+        <v>2113</v>
+      </c>
+      <c r="E549" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5">
+      <c r="A550" t="s">
+        <v>2115</v>
+      </c>
+      <c r="C550" t="s">
+        <v>2116</v>
+      </c>
+      <c r="D550" t="s">
+        <v>2117</v>
+      </c>
+      <c r="E550" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5">
+      <c r="A551" t="s">
+        <v>440</v>
+      </c>
+      <c r="C551" t="s">
+        <v>524</v>
+      </c>
+      <c r="D551" t="s">
+        <v>2119</v>
+      </c>
+      <c r="E551" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5">
+      <c r="A552" t="s">
+        <v>2121</v>
+      </c>
+      <c r="B552" t="s">
+        <v>2122</v>
+      </c>
+      <c r="C552" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D552" t="s">
+        <v>2124</v>
+      </c>
+      <c r="E552" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5">
+      <c r="A553" t="s">
+        <v>183</v>
+      </c>
+      <c r="B553" t="s">
+        <v>2126</v>
+      </c>
+      <c r="C553" t="s">
+        <v>2127</v>
+      </c>
+      <c r="D553" t="s">
+        <v>2128</v>
+      </c>
+      <c r="E553" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5">
+      <c r="A554" t="s">
+        <v>22</v>
+      </c>
+      <c r="C554" t="s">
+        <v>2130</v>
+      </c>
+      <c r="D554" t="s">
+        <v>2131</v>
+      </c>
+      <c r="E554" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5">
+      <c r="A555" t="s">
+        <v>35</v>
+      </c>
+      <c r="B555" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C555" t="s">
+        <v>2133</v>
+      </c>
+      <c r="D555" t="s">
+        <v>2134</v>
+      </c>
+      <c r="E555" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5">
+      <c r="A556" t="s">
+        <v>223</v>
+      </c>
+      <c r="C556" t="s">
+        <v>2136</v>
+      </c>
+      <c r="D556" t="s">
+        <v>2137</v>
+      </c>
+      <c r="E556" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5">
+      <c r="A557" t="s">
+        <v>2139</v>
+      </c>
+      <c r="C557" t="s">
+        <v>2140</v>
+      </c>
+      <c r="D557" t="s">
+        <v>2141</v>
+      </c>
+      <c r="E557" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5">
+      <c r="A558" t="s">
+        <v>167</v>
+      </c>
+      <c r="C558" t="s">
+        <v>2143</v>
+      </c>
+      <c r="D558" t="s">
+        <v>2144</v>
+      </c>
+      <c r="E558" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5">
+      <c r="A559" t="s">
+        <v>26</v>
+      </c>
+      <c r="B559" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C559" t="s">
+        <v>2146</v>
+      </c>
+      <c r="D559" t="s">
+        <v>2147</v>
+      </c>
+      <c r="E559" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5">
+      <c r="A560" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B560" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C560" t="s">
+        <v>2150</v>
+      </c>
+      <c r="D560" t="s">
+        <v>2151</v>
+      </c>
+      <c r="E560" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5">
+      <c r="A561" t="s">
+        <v>2153</v>
+      </c>
+      <c r="B561" t="s">
+        <v>245</v>
+      </c>
+      <c r="C561" t="s">
+        <v>2009</v>
+      </c>
+      <c r="D561" t="s">
+        <v>2154</v>
+      </c>
+      <c r="E561" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5">
+      <c r="A562" t="s">
+        <v>2156</v>
+      </c>
+      <c r="B562" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C562" t="s">
+        <v>2158</v>
+      </c>
+      <c r="D562" t="s">
+        <v>2159</v>
+      </c>
+      <c r="E562" t="s">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5">
+      <c r="A563" t="s">
+        <v>318</v>
+      </c>
+      <c r="C563" t="s">
+        <v>2161</v>
+      </c>
+      <c r="D563" t="s">
+        <v>2162</v>
+      </c>
+      <c r="E563" t="s">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5">
+      <c r="A564" t="s">
+        <v>649</v>
+      </c>
+      <c r="B564" t="s">
+        <v>2164</v>
+      </c>
+      <c r="C564" t="s">
+        <v>2165</v>
+      </c>
+      <c r="D564" t="s">
+        <v>2166</v>
+      </c>
+      <c r="E564" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5">
+      <c r="A565" t="s">
+        <v>53</v>
+      </c>
+      <c r="B565" t="s">
+        <v>2168</v>
+      </c>
+      <c r="C565" t="s">
+        <v>2169</v>
+      </c>
+      <c r="D565" t="s">
+        <v>2170</v>
+      </c>
+      <c r="E565" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5">
+      <c r="A566" t="s">
+        <v>487</v>
+      </c>
+      <c r="B566" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C566" t="s">
+        <v>2172</v>
+      </c>
+      <c r="D566" t="s">
+        <v>2173</v>
+      </c>
+      <c r="E566" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5">
+      <c r="A567" t="s">
+        <v>435</v>
+      </c>
+      <c r="C567" t="s">
+        <v>2175</v>
+      </c>
+      <c r="D567" t="s">
+        <v>2176</v>
+      </c>
+      <c r="E567" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5">
+      <c r="A568" t="s">
+        <v>2178</v>
+      </c>
+      <c r="B568" t="s">
+        <v>2179</v>
+      </c>
+      <c r="C568" t="s">
+        <v>2180</v>
+      </c>
+      <c r="D568" t="s">
+        <v>2181</v>
+      </c>
+      <c r="E568" t="s">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5">
+      <c r="A569" t="s">
+        <v>40</v>
+      </c>
+      <c r="B569" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C569" t="s">
+        <v>2183</v>
+      </c>
+      <c r="D569" t="s">
+        <v>2184</v>
+      </c>
+      <c r="E569" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5">
+      <c r="A570" t="s">
+        <v>934</v>
+      </c>
+      <c r="B570" t="s">
+        <v>2186</v>
+      </c>
+      <c r="C570" t="s">
+        <v>2187</v>
+      </c>
+      <c r="D570" t="s">
+        <v>2188</v>
+      </c>
+      <c r="E570" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5">
+      <c r="A571" t="s">
+        <v>214</v>
+      </c>
+      <c r="B571" t="s">
+        <v>548</v>
+      </c>
+      <c r="C571" t="s">
+        <v>347</v>
+      </c>
+      <c r="D571" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E571" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5">
+      <c r="A572" t="s">
+        <v>2192</v>
+      </c>
+      <c r="C572" t="s">
+        <v>2193</v>
+      </c>
+      <c r="D572" t="s">
+        <v>2194</v>
+      </c>
+      <c r="E572" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="573" spans="1:5">
+      <c r="A573" t="s">
+        <v>2196</v>
+      </c>
+      <c r="B573" t="s">
+        <v>2197</v>
+      </c>
+      <c r="C573" t="s">
+        <v>2198</v>
+      </c>
+      <c r="D573" t="s">
+        <v>2199</v>
+      </c>
+      <c r="E573" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5">
+      <c r="A574" t="s">
+        <v>2201</v>
+      </c>
+      <c r="B574" t="s">
+        <v>2202</v>
+      </c>
+      <c r="C574" t="s">
+        <v>2203</v>
+      </c>
+      <c r="D574" t="s">
+        <v>2204</v>
+      </c>
+      <c r="E574" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5">
+      <c r="A575" t="s">
+        <v>2206</v>
+      </c>
+      <c r="C575" t="s">
+        <v>2207</v>
+      </c>
+      <c r="D575" t="s">
+        <v>2208</v>
+      </c>
+      <c r="E575" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5">
+      <c r="A576" t="s">
+        <v>482</v>
+      </c>
+      <c r="B576" t="s">
+        <v>2210</v>
+      </c>
+      <c r="C576" t="s">
+        <v>2211</v>
+      </c>
+      <c r="D576" t="s">
+        <v>2212</v>
+      </c>
+      <c r="E576" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5">
+      <c r="A577" t="s">
+        <v>88</v>
+      </c>
+      <c r="B577" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C577" t="s">
+        <v>2214</v>
+      </c>
+      <c r="D577" t="s">
+        <v>2215</v>
+      </c>
+      <c r="E577" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5">
+      <c r="A578" t="s">
+        <v>2217</v>
+      </c>
+      <c r="B578" t="s">
+        <v>2218</v>
+      </c>
+      <c r="C578" t="s">
+        <v>2219</v>
+      </c>
+      <c r="D578" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E578" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5">
+      <c r="A579" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B579" t="s">
+        <v>2222</v>
+      </c>
+      <c r="C579" t="s">
+        <v>2223</v>
+      </c>
+      <c r="D579" t="s">
+        <v>2224</v>
+      </c>
+      <c r="E579" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="580" spans="1:5">
+      <c r="A580" t="s">
+        <v>235</v>
+      </c>
+      <c r="C580" t="s">
+        <v>2226</v>
+      </c>
+      <c r="D580" t="s">
+        <v>2227</v>
+      </c>
+      <c r="E580" t="s">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5">
+      <c r="A581" t="s">
+        <v>122</v>
+      </c>
+      <c r="C581" t="s">
+        <v>2229</v>
+      </c>
+      <c r="D581" t="s">
+        <v>2230</v>
+      </c>
+      <c r="E581" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="582" spans="1:5">
+      <c r="A582" t="s">
+        <v>176</v>
+      </c>
+      <c r="C582" t="s">
+        <v>2232</v>
+      </c>
+      <c r="D582" t="s">
+        <v>2233</v>
+      </c>
+      <c r="E582" t="s">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5">
+      <c r="A583" t="s">
+        <v>487</v>
+      </c>
+      <c r="B583" t="s">
+        <v>2235</v>
+      </c>
+      <c r="C583" t="s">
+        <v>2236</v>
+      </c>
+      <c r="D583" t="s">
+        <v>2237</v>
+      </c>
+      <c r="E583" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5">
+      <c r="A584" t="s">
+        <v>183</v>
+      </c>
+      <c r="C584" t="s">
+        <v>2239</v>
+      </c>
+      <c r="D584" t="s">
+        <v>2240</v>
+      </c>
+      <c r="E584" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5">
+      <c r="A585" t="s">
+        <v>2034</v>
+      </c>
+      <c r="C585" t="s">
+        <v>2242</v>
+      </c>
+      <c r="D585" t="s">
+        <v>2243</v>
+      </c>
+      <c r="E585" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5">
+      <c r="A586" t="s">
+        <v>695</v>
+      </c>
+      <c r="C586" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D586" t="s">
+        <v>2245</v>
+      </c>
+      <c r="E586" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5">
+      <c r="A587" t="s">
+        <v>672</v>
+      </c>
+      <c r="C587" t="s">
+        <v>2247</v>
+      </c>
+      <c r="D587" t="s">
+        <v>2248</v>
+      </c>
+      <c r="E587" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5">
+      <c r="A588" t="s">
+        <v>117</v>
+      </c>
+      <c r="C588" t="s">
+        <v>2250</v>
+      </c>
+      <c r="D588" t="s">
+        <v>2251</v>
+      </c>
+      <c r="E588" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5">
+      <c r="A589" t="s">
+        <v>662</v>
+      </c>
+      <c r="C589" t="s">
+        <v>2253</v>
+      </c>
+      <c r="D589" t="s">
+        <v>2254</v>
+      </c>
+      <c r="E589" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5">
+      <c r="A590" t="s">
+        <v>309</v>
+      </c>
+      <c r="B590" t="s">
+        <v>2256</v>
+      </c>
+      <c r="C590" t="s">
+        <v>2257</v>
+      </c>
+      <c r="D590" t="s">
+        <v>2258</v>
+      </c>
+      <c r="E590" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5">
+      <c r="A591" t="s">
+        <v>621</v>
+      </c>
+      <c r="B591" t="s">
+        <v>2260</v>
+      </c>
+      <c r="C591" t="s">
+        <v>2261</v>
+      </c>
+      <c r="D591" t="s">
+        <v>2262</v>
+      </c>
+      <c r="E591" t="s">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5">
+      <c r="A592" t="s">
+        <v>708</v>
+      </c>
+      <c r="B592" t="s">
+        <v>2264</v>
+      </c>
+      <c r="C592" t="s">
+        <v>232</v>
+      </c>
+      <c r="D592" t="s">
+        <v>2265</v>
+      </c>
+      <c r="E592" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="593" spans="1:5">
+      <c r="A593" t="s">
+        <v>2267</v>
+      </c>
+      <c r="B593" t="s">
+        <v>2268</v>
+      </c>
+      <c r="C593" t="s">
+        <v>2269</v>
+      </c>
+      <c r="D593" t="s">
+        <v>2270</v>
+      </c>
+      <c r="E593" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="594" spans="1:5">
+      <c r="A594" t="s">
+        <v>2272</v>
+      </c>
+      <c r="B594" t="s">
+        <v>2273</v>
+      </c>
+      <c r="C594" t="s">
+        <v>2274</v>
+      </c>
+      <c r="D594" t="s">
+        <v>2275</v>
+      </c>
+      <c r="E594" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5">
+      <c r="A595" t="s">
+        <v>122</v>
+      </c>
+      <c r="B595" t="s">
+        <v>2277</v>
+      </c>
+      <c r="C595" t="s">
+        <v>2278</v>
+      </c>
+      <c r="D595" t="s">
+        <v>2279</v>
+      </c>
+      <c r="E595" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5">
+      <c r="A596" t="s">
+        <v>367</v>
+      </c>
+      <c r="B596" t="s">
+        <v>2281</v>
+      </c>
+      <c r="C596" t="s">
+        <v>2282</v>
+      </c>
+      <c r="D596" t="s">
+        <v>2283</v>
+      </c>
+      <c r="E596" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="597" spans="1:5">
+      <c r="A597" t="s">
+        <v>149</v>
+      </c>
+      <c r="B597" t="s">
+        <v>2285</v>
+      </c>
+      <c r="C597" t="s">
+        <v>2286</v>
+      </c>
+      <c r="D597" t="s">
+        <v>2287</v>
+      </c>
+      <c r="E597" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5">
+      <c r="A598" t="s">
+        <v>40</v>
+      </c>
+      <c r="B598" t="s">
+        <v>2289</v>
+      </c>
+      <c r="C598" t="s">
+        <v>2290</v>
+      </c>
+      <c r="D598" t="s">
+        <v>2291</v>
+      </c>
+      <c r="E598" t="s">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="599" spans="1:5">
+      <c r="A599" t="s">
+        <v>565</v>
+      </c>
+      <c r="C599" t="s">
+        <v>2293</v>
+      </c>
+      <c r="D599" t="s">
+        <v>2294</v>
+      </c>
+      <c r="E599" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5">
+      <c r="A600" t="s">
+        <v>380</v>
+      </c>
+      <c r="B600" t="s">
+        <v>2296</v>
+      </c>
+      <c r="C600" t="s">
+        <v>2297</v>
+      </c>
+      <c r="D600" t="s">
+        <v>2298</v>
+      </c>
+      <c r="E600" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="601" spans="1:5">
+      <c r="A601" t="s">
+        <v>487</v>
+      </c>
+      <c r="B601" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C601" t="s">
+        <v>2300</v>
+      </c>
+      <c r="D601" t="s">
+        <v>2301</v>
+      </c>
+      <c r="E601" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="602" spans="1:5">
+      <c r="A602" t="s">
+        <v>209</v>
+      </c>
+      <c r="B602" t="s">
+        <v>2303</v>
+      </c>
+      <c r="C602" t="s">
+        <v>2304</v>
+      </c>
+      <c r="D602" t="s">
+        <v>2305</v>
+      </c>
+      <c r="E602" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="603" spans="1:5">
+      <c r="A603" t="s">
+        <v>2307</v>
+      </c>
+      <c r="B603" t="s">
+        <v>2308</v>
+      </c>
+      <c r="C603" t="s">
+        <v>2309</v>
+      </c>
+      <c r="D603" t="s">
+        <v>2310</v>
+      </c>
+      <c r="E603" t="s">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="604" spans="1:5">
+      <c r="A604" t="s">
+        <v>339</v>
+      </c>
+      <c r="B604" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C604" t="s">
+        <v>2312</v>
+      </c>
+      <c r="D604" t="s">
+        <v>2313</v>
+      </c>
+      <c r="E604" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="605" spans="1:5">
+      <c r="A605" t="s">
+        <v>117</v>
+      </c>
+      <c r="B605" t="s">
+        <v>741</v>
+      </c>
+      <c r="C605" t="s">
+        <v>2315</v>
+      </c>
+      <c r="D605" t="s">
+        <v>2316</v>
+      </c>
+      <c r="E605" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5">
+      <c r="A606" t="s">
+        <v>612</v>
+      </c>
+      <c r="C606" t="s">
+        <v>94</v>
+      </c>
+      <c r="D606" t="s">
+        <v>2318</v>
+      </c>
+      <c r="E606" t="s">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="607" spans="1:5">
+      <c r="A607" t="s">
+        <v>139</v>
+      </c>
+      <c r="B607" t="s">
+        <v>140</v>
+      </c>
+      <c r="C607" t="s">
+        <v>2320</v>
+      </c>
+      <c r="D607" t="s">
+        <v>2321</v>
+      </c>
+      <c r="E607" t="s">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="608" spans="1:5">
+      <c r="A608" t="s">
+        <v>79</v>
+      </c>
+      <c r="C608" t="s">
+        <v>2323</v>
+      </c>
+      <c r="D608" t="s">
+        <v>2324</v>
+      </c>
+      <c r="E608" t="s">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="609" spans="1:5">
+      <c r="A609" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B609" t="s">
+        <v>2326</v>
+      </c>
+      <c r="C609" t="s">
+        <v>2327</v>
+      </c>
+      <c r="D609" t="s">
+        <v>2328</v>
+      </c>
+      <c r="E609" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="610" spans="1:5">
+      <c r="A610" t="s">
+        <v>318</v>
+      </c>
+      <c r="B610" t="s">
+        <v>319</v>
+      </c>
+      <c r="C610" t="s">
+        <v>2330</v>
+      </c>
+      <c r="D610" t="s">
+        <v>2331</v>
+      </c>
+      <c r="E610" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="611" spans="1:5">
+      <c r="A611" t="s">
+        <v>2333</v>
+      </c>
+      <c r="C611" t="s">
+        <v>2334</v>
+      </c>
+      <c r="D611" t="s">
+        <v>2335</v>
+      </c>
+      <c r="E611" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="612" spans="1:5">
+      <c r="A612" t="s">
+        <v>672</v>
+      </c>
+      <c r="C612" t="s">
+        <v>2337</v>
+      </c>
+      <c r="D612" t="s">
+        <v>2338</v>
+      </c>
+      <c r="E612" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="613" spans="1:5">
+      <c r="A613" t="s">
+        <v>2340</v>
+      </c>
+      <c r="B613" t="s">
+        <v>245</v>
+      </c>
+      <c r="C613" t="s">
+        <v>2341</v>
+      </c>
+      <c r="D613" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E613" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="614" spans="1:5">
+      <c r="A614" t="s">
+        <v>2344</v>
+      </c>
+      <c r="C614" t="s">
+        <v>63</v>
+      </c>
+      <c r="D614" t="s">
+        <v>2345</v>
+      </c>
+      <c r="E614" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="615" spans="1:5">
+      <c r="A615" t="s">
+        <v>209</v>
+      </c>
+      <c r="B615" t="s">
+        <v>2347</v>
+      </c>
+      <c r="C615" t="s">
+        <v>2348</v>
+      </c>
+      <c r="D615" t="s">
+        <v>2349</v>
+      </c>
+      <c r="E615" t="s">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="616" spans="1:5">
+      <c r="A616" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C616" t="s">
+        <v>2071</v>
+      </c>
+      <c r="D616" t="s">
+        <v>2352</v>
+      </c>
+      <c r="E616" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="617" spans="1:5">
+      <c r="A617" t="s">
+        <v>117</v>
+      </c>
+      <c r="B617" t="s">
+        <v>2354</v>
+      </c>
+      <c r="C617" t="s">
+        <v>2355</v>
+      </c>
+      <c r="D617" t="s">
+        <v>2356</v>
+      </c>
+      <c r="E617" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="618" spans="1:5">
+      <c r="A618" t="s">
+        <v>214</v>
+      </c>
+      <c r="B618" t="s">
+        <v>2358</v>
+      </c>
+      <c r="C618" t="s">
+        <v>2359</v>
+      </c>
+      <c r="D618" t="s">
+        <v>2360</v>
+      </c>
+      <c r="E618" t="s">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="619" spans="1:5">
+      <c r="A619" t="s">
+        <v>2362</v>
+      </c>
+      <c r="B619" t="s">
+        <v>2363</v>
+      </c>
+      <c r="C619" t="s">
+        <v>2364</v>
+      </c>
+      <c r="D619" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E619" t="s">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="620" spans="1:5">
+      <c r="A620" t="s">
+        <v>149</v>
+      </c>
+      <c r="B620" t="s">
+        <v>150</v>
+      </c>
+      <c r="C620" t="s">
+        <v>2367</v>
+      </c>
+      <c r="D620" t="s">
+        <v>2368</v>
+      </c>
+      <c r="E620" t="s">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="621" spans="1:5">
+      <c r="A621" t="s">
+        <v>2370</v>
+      </c>
+      <c r="C621" t="s">
+        <v>15</v>
+      </c>
+      <c r="D621" t="s">
+        <v>2371</v>
+      </c>
+      <c r="E621" t="s">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="622" spans="1:5">
+      <c r="A622" t="s">
+        <v>2373</v>
+      </c>
+      <c r="C622" t="s">
+        <v>2374</v>
+      </c>
+      <c r="D622" t="s">
+        <v>2375</v>
+      </c>
+      <c r="E622" t="s">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="623" spans="1:5">
+      <c r="A623" t="s">
+        <v>176</v>
+      </c>
+      <c r="B623" t="s">
+        <v>2377</v>
+      </c>
+      <c r="C623" t="s">
+        <v>2378</v>
+      </c>
+      <c r="D623" t="s">
+        <v>2379</v>
+      </c>
+      <c r="E623" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="624" spans="1:5">
+      <c r="A624" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B624" t="s">
+        <v>2381</v>
+      </c>
+      <c r="C624" t="s">
+        <v>2382</v>
+      </c>
+      <c r="D624" t="s">
+        <v>2383</v>
+      </c>
+      <c r="E624" t="s">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="625" spans="1:5">
+      <c r="A625" t="s">
+        <v>167</v>
+      </c>
+      <c r="C625" t="s">
+        <v>1662</v>
+      </c>
+      <c r="D625" t="s">
+        <v>2385</v>
+      </c>
+      <c r="E625" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="626" spans="1:5">
+      <c r="A626" t="s">
+        <v>407</v>
+      </c>
+      <c r="C626" t="s">
+        <v>2387</v>
+      </c>
+      <c r="D626" t="s">
+        <v>2388</v>
+      </c>
+      <c r="E626" t="s">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="627" spans="1:5">
+      <c r="A627" t="s">
+        <v>2390</v>
+      </c>
+      <c r="B627" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C627" t="s">
+        <v>2391</v>
+      </c>
+      <c r="D627" t="s">
+        <v>2392</v>
+      </c>
+      <c r="E627" t="s">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="628" spans="1:5">
+      <c r="A628" t="s">
+        <v>53</v>
+      </c>
+      <c r="B628" t="s">
+        <v>2394</v>
+      </c>
+      <c r="C628" t="s">
+        <v>2143</v>
+      </c>
+      <c r="D628" t="s">
+        <v>2395</v>
+      </c>
+      <c r="E628" t="s">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="629" spans="1:5">
+      <c r="A629" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C629" t="s">
+        <v>2397</v>
+      </c>
+      <c r="D629" t="s">
+        <v>2398</v>
+      </c>
+      <c r="E629" t="s">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="630" spans="1:5">
+      <c r="A630" t="s">
+        <v>22</v>
+      </c>
+      <c r="B630" t="s">
+        <v>2400</v>
+      </c>
+      <c r="C630" t="s">
+        <v>2401</v>
+      </c>
+      <c r="D630" t="s">
+        <v>2402</v>
+      </c>
+      <c r="E630" t="s">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="631" spans="1:5">
+      <c r="A631" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C631" t="s">
+        <v>2404</v>
+      </c>
+      <c r="D631" t="s">
+        <v>2405</v>
+      </c>
+      <c r="E631" t="s">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="632" spans="1:5">
+      <c r="A632" t="s">
+        <v>820</v>
+      </c>
+      <c r="C632" t="s">
+        <v>2407</v>
+      </c>
+      <c r="D632" t="s">
+        <v>2408</v>
+      </c>
+      <c r="E632" t="s">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="633" spans="1:5">
+      <c r="A633" t="s">
+        <v>527</v>
+      </c>
+      <c r="C633" t="s">
+        <v>2410</v>
+      </c>
+      <c r="D633" t="s">
+        <v>2411</v>
+      </c>
+      <c r="E633" t="s">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="634" spans="1:5">
+      <c r="A634" t="s">
+        <v>93</v>
+      </c>
+      <c r="B634" t="s">
+        <v>2413</v>
+      </c>
+      <c r="C634" t="s">
+        <v>2414</v>
+      </c>
+      <c r="D634" t="s">
+        <v>2415</v>
+      </c>
+      <c r="E634" t="s">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="635" spans="1:5">
+      <c r="A635" t="s">
+        <v>130</v>
+      </c>
+      <c r="B635" t="s">
+        <v>2417</v>
+      </c>
+      <c r="C635" t="s">
+        <v>2418</v>
+      </c>
+      <c r="D635" t="s">
+        <v>2419</v>
+      </c>
+      <c r="E635" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="636" spans="1:5">
+      <c r="A636" t="s">
+        <v>126</v>
+      </c>
+      <c r="B636" t="s">
+        <v>2421</v>
+      </c>
+      <c r="C636" t="s">
+        <v>2422</v>
+      </c>
+      <c r="D636" t="s">
+        <v>2423</v>
+      </c>
+      <c r="E636" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="637" spans="1:5">
+      <c r="A637" t="s">
+        <v>196</v>
+      </c>
+      <c r="C637" t="s">
+        <v>2425</v>
+      </c>
+      <c r="D637" t="s">
+        <v>2426</v>
+      </c>
+      <c r="E637" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="638" spans="1:5">
+      <c r="A638" t="s">
+        <v>200</v>
+      </c>
+      <c r="B638" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C638" t="s">
+        <v>2428</v>
+      </c>
+      <c r="D638" t="s">
+        <v>2429</v>
+      </c>
+      <c r="E638" t="s">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5">
+      <c r="A639" t="s">
+        <v>214</v>
+      </c>
+      <c r="B639" t="s">
+        <v>2431</v>
+      </c>
+      <c r="C639" t="s">
+        <v>2432</v>
+      </c>
+      <c r="D639" t="s">
+        <v>2433</v>
+      </c>
+      <c r="E639" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5">
+      <c r="A640" t="s">
+        <v>2206</v>
+      </c>
+      <c r="C640" t="s">
+        <v>2435</v>
+      </c>
+      <c r="D640" t="s">
+        <v>2436</v>
+      </c>
+      <c r="E640" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="641" spans="1:5">
+      <c r="A641" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B641" t="s">
+        <v>2438</v>
+      </c>
+      <c r="C641" t="s">
+        <v>2439</v>
+      </c>
+      <c r="D641" t="s">
+        <v>2440</v>
+      </c>
+      <c r="E641" t="s">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="642" spans="1:5">
+      <c r="A642" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C642" t="s">
+        <v>2442</v>
+      </c>
+      <c r="D642" t="s">
+        <v>2443</v>
+      </c>
+      <c r="E642" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="643" spans="1:5">
+      <c r="A643" t="s">
+        <v>35</v>
+      </c>
+      <c r="B643" t="s">
+        <v>2444</v>
+      </c>
+      <c r="C643" t="s">
+        <v>2445</v>
+      </c>
+      <c r="D643" t="s">
+        <v>2446</v>
+      </c>
+      <c r="E643" t="s">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="644" spans="1:5">
+      <c r="A644" t="s">
+        <v>74</v>
+      </c>
+      <c r="C644" t="s">
+        <v>2448</v>
+      </c>
+      <c r="D644" t="s">
+        <v>2449</v>
+      </c>
+      <c r="E644" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="645" spans="1:5">
+      <c r="A645" t="s">
+        <v>2451</v>
+      </c>
+      <c r="B645" t="s">
+        <v>2452</v>
+      </c>
+      <c r="C645" t="s">
+        <v>2453</v>
+      </c>
+      <c r="D645" t="s">
+        <v>2454</v>
+      </c>
+      <c r="E645" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="646" spans="1:5">
+      <c r="A646" t="s">
+        <v>122</v>
+      </c>
+      <c r="B646" t="s">
+        <v>2456</v>
+      </c>
+      <c r="C646" t="s">
+        <v>2457</v>
+      </c>
+      <c r="D646" t="s">
+        <v>2458</v>
+      </c>
+      <c r="E646" t="s">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="647" spans="1:5">
+      <c r="A647" t="s">
+        <v>565</v>
+      </c>
+      <c r="B647" t="s">
+        <v>2460</v>
+      </c>
+      <c r="C647" t="s">
+        <v>2461</v>
+      </c>
+      <c r="D647" t="s">
+        <v>2462</v>
+      </c>
+      <c r="E647" t="s">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="648" spans="1:5">
+      <c r="A648" t="s">
+        <v>2464</v>
+      </c>
+      <c r="C648" t="s">
+        <v>2465</v>
+      </c>
+      <c r="D648" t="s">
+        <v>2466</v>
+      </c>
+      <c r="E648" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="649" spans="1:5">
+      <c r="A649" t="s">
+        <v>2468</v>
+      </c>
+      <c r="B649" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C649" t="s">
+        <v>193</v>
+      </c>
+      <c r="D649" t="s">
+        <v>2469</v>
+      </c>
+      <c r="E649" t="s">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="650" spans="1:5">
+      <c r="A650" t="s">
+        <v>144</v>
+      </c>
+      <c r="C650" t="s">
+        <v>2471</v>
+      </c>
+      <c r="D650" t="s">
+        <v>2472</v>
+      </c>
+      <c r="E650" t="s">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="651" spans="1:5">
+      <c r="A651" t="s">
+        <v>235</v>
+      </c>
+      <c r="B651" t="s">
+        <v>2474</v>
+      </c>
+      <c r="C651" t="s">
+        <v>633</v>
+      </c>
+      <c r="D651" t="s">
+        <v>2475</v>
+      </c>
+      <c r="E651" t="s">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="652" spans="1:5">
+      <c r="A652" t="s">
+        <v>686</v>
+      </c>
+      <c r="B652" t="s">
+        <v>2477</v>
+      </c>
+      <c r="C652" t="s">
+        <v>2478</v>
+      </c>
+      <c r="D652" t="s">
+        <v>2479</v>
+      </c>
+      <c r="E652" t="s">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="653" spans="1:5">
+      <c r="A653" t="s">
+        <v>9</v>
+      </c>
+      <c r="B653" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C653" t="s">
+        <v>2481</v>
+      </c>
+      <c r="D653" t="s">
+        <v>2482</v>
+      </c>
+      <c r="E653" t="s">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="654" spans="1:5">
+      <c r="A654" t="s">
+        <v>318</v>
+      </c>
+      <c r="B654" t="s">
+        <v>319</v>
+      </c>
+      <c r="C654" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D654" t="s">
+        <v>2485</v>
+      </c>
+      <c r="E654" t="s">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="655" spans="1:5">
+      <c r="A655" t="s">
+        <v>223</v>
+      </c>
+      <c r="C655" t="s">
+        <v>2487</v>
+      </c>
+      <c r="D655" t="s">
+        <v>2488</v>
+      </c>
+      <c r="E655" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="656" spans="1:5">
+      <c r="A656" t="s">
+        <v>35</v>
+      </c>
+      <c r="B656" t="s">
+        <v>2490</v>
+      </c>
+      <c r="C656" t="s">
+        <v>2491</v>
+      </c>
+      <c r="D656" t="s">
+        <v>2492</v>
+      </c>
+      <c r="E656" t="s">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="657" spans="1:5">
+      <c r="A657" t="s">
+        <v>440</v>
+      </c>
+      <c r="C657" t="s">
+        <v>2494</v>
+      </c>
+      <c r="D657" t="s">
+        <v>2495</v>
+      </c>
+      <c r="E657" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="658" spans="1:5">
+      <c r="A658" t="s">
+        <v>122</v>
+      </c>
+      <c r="B658" t="s">
+        <v>2497</v>
+      </c>
+      <c r="C658" t="s">
+        <v>2498</v>
+      </c>
+      <c r="D658" t="s">
+        <v>2499</v>
+      </c>
+      <c r="E658" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="659" spans="1:5">
+      <c r="A659" t="s">
+        <v>621</v>
+      </c>
+      <c r="B659" t="s">
+        <v>2501</v>
+      </c>
+      <c r="C659" t="s">
+        <v>2053</v>
+      </c>
+      <c r="D659" t="s">
+        <v>2502</v>
+      </c>
+      <c r="E659" t="s">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="660" spans="1:5">
+      <c r="A660" t="s">
+        <v>196</v>
+      </c>
+      <c r="B660" t="s">
+        <v>2504</v>
+      </c>
+      <c r="C660" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D660" t="s">
+        <v>2505</v>
+      </c>
+      <c r="E660" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="661" spans="1:5">
+      <c r="A661" t="s">
+        <v>907</v>
+      </c>
+      <c r="B661" t="s">
+        <v>2507</v>
+      </c>
+      <c r="C661" t="s">
+        <v>2508</v>
+      </c>
+      <c r="D661" t="s">
+        <v>2509</v>
+      </c>
+      <c r="E661" t="s">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="662" spans="1:5">
+      <c r="A662" t="s">
+        <v>2511</v>
+      </c>
+      <c r="C662" t="s">
+        <v>2512</v>
+      </c>
+      <c r="D662" t="s">
+        <v>2513</v>
+      </c>
+      <c r="E662" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="663" spans="1:5">
+      <c r="A663" t="s">
+        <v>2515</v>
+      </c>
+      <c r="C663" t="s">
+        <v>2516</v>
+      </c>
+      <c r="D663" t="s">
+        <v>2517</v>
+      </c>
+      <c r="E663" t="s">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="664" spans="1:5">
+      <c r="A664" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B664" t="s">
+        <v>2519</v>
+      </c>
+      <c r="C664" t="s">
+        <v>2520</v>
+      </c>
+      <c r="D664" t="s">
+        <v>2521</v>
+      </c>
+      <c r="E664" t="s">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="665" spans="1:5">
+      <c r="A665" t="s">
+        <v>214</v>
+      </c>
+      <c r="C665" t="s">
+        <v>2523</v>
+      </c>
+      <c r="D665" t="s">
+        <v>2524</v>
+      </c>
+      <c r="E665" t="s">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="666" spans="1:5">
+      <c r="A666" t="s">
+        <v>209</v>
+      </c>
+      <c r="C666" t="s">
+        <v>2526</v>
+      </c>
+      <c r="D666" t="s">
+        <v>2527</v>
+      </c>
+      <c r="E666" t="s">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="667" spans="1:5">
+      <c r="A667" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C667" t="s">
+        <v>2529</v>
+      </c>
+      <c r="D667" t="s">
+        <v>2530</v>
+      </c>
+      <c r="E667" t="s">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="668" spans="1:5">
+      <c r="A668" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C668" t="s">
+        <v>2532</v>
+      </c>
+      <c r="D668" t="s">
+        <v>2533</v>
+      </c>
+      <c r="E668" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="669" spans="1:5">
+      <c r="A669" t="s">
+        <v>117</v>
+      </c>
+      <c r="B669" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C669" t="s">
+        <v>2535</v>
+      </c>
+      <c r="D669" t="s">
+        <v>2536</v>
+      </c>
+      <c r="E669" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="670" spans="1:5">
+      <c r="A670" t="s">
+        <v>2537</v>
+      </c>
+      <c r="B670" t="s">
+        <v>245</v>
+      </c>
+      <c r="C670" t="s">
+        <v>2538</v>
+      </c>
+      <c r="D670" t="s">
+        <v>2539</v>
+      </c>
+      <c r="E670" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="671" spans="1:5">
+      <c r="A671" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C671" t="s">
+        <v>2541</v>
+      </c>
+      <c r="D671" t="s">
+        <v>2542</v>
+      </c>
+      <c r="E671" t="s">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="672" spans="1:5">
+      <c r="A672" t="s">
+        <v>2544</v>
+      </c>
+      <c r="C672" t="s">
+        <v>2545</v>
+      </c>
+      <c r="D672" t="s">
+        <v>2546</v>
+      </c>
+      <c r="E672" t="s">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="673" spans="1:5">
+      <c r="A673" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B673" t="s">
+        <v>2548</v>
+      </c>
+      <c r="C673" t="s">
+        <v>2549</v>
+      </c>
+      <c r="D673" t="s">
+        <v>2550</v>
+      </c>
+      <c r="E673" t="s">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="674" spans="1:5">
+      <c r="A674" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B674" t="s">
+        <v>2552</v>
+      </c>
+      <c r="C674" t="s">
+        <v>2553</v>
+      </c>
+      <c r="D674" t="s">
+        <v>2554</v>
+      </c>
+      <c r="E674" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="675" spans="1:5">
+      <c r="A675" t="s">
+        <v>2556</v>
+      </c>
+      <c r="C675" t="s">
+        <v>2557</v>
+      </c>
+      <c r="D675" t="s">
+        <v>2558</v>
+      </c>
+      <c r="E675" t="s">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="676" spans="1:5">
+      <c r="A676" t="s">
+        <v>2560</v>
+      </c>
+      <c r="B676" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C676" t="s">
+        <v>2561</v>
+      </c>
+      <c r="D676" t="s">
+        <v>2562</v>
+      </c>
+      <c r="E676" t="s">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="677" spans="1:5">
+      <c r="A677" t="s">
+        <v>2564</v>
+      </c>
+      <c r="C677" t="s">
+        <v>2565</v>
+      </c>
+      <c r="D677" t="s">
+        <v>2566</v>
+      </c>
+      <c r="E677" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="678" spans="1:5">
+      <c r="A678" t="s">
+        <v>74</v>
+      </c>
+      <c r="B678" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C678" t="s">
+        <v>2140</v>
+      </c>
+      <c r="D678" t="s">
+        <v>2568</v>
+      </c>
+      <c r="E678" t="s">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="679" spans="1:5">
+      <c r="A679" t="s">
+        <v>88</v>
+      </c>
+      <c r="C679" t="s">
+        <v>2570</v>
+      </c>
+      <c r="D679" t="s">
+        <v>2571</v>
+      </c>
+      <c r="E679" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="680" spans="1:5">
+      <c r="A680" t="s">
+        <v>235</v>
+      </c>
+      <c r="C680" t="s">
+        <v>2573</v>
+      </c>
+      <c r="D680" t="s">
+        <v>2574</v>
+      </c>
+      <c r="E680" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="681" spans="1:5">
+      <c r="A681" t="s">
+        <v>2576</v>
+      </c>
+      <c r="B681" t="s">
+        <v>2577</v>
+      </c>
+      <c r="C681" t="s">
+        <v>2578</v>
+      </c>
+      <c r="D681" t="s">
+        <v>2579</v>
+      </c>
+      <c r="E681" t="s">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="682" spans="1:5">
+      <c r="A682" t="s">
+        <v>2581</v>
+      </c>
+      <c r="C682" t="s">
+        <v>2582</v>
+      </c>
+      <c r="D682" t="s">
+        <v>2583</v>
+      </c>
+      <c r="E682" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="683" spans="1:5">
+      <c r="A683" t="s">
+        <v>280</v>
+      </c>
+      <c r="C683" t="s">
+        <v>2585</v>
+      </c>
+      <c r="D683" t="s">
+        <v>2586</v>
+      </c>
+      <c r="E683" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="684" spans="1:5">
+      <c r="A684" t="s">
+        <v>621</v>
+      </c>
+      <c r="C684" t="s">
+        <v>2588</v>
+      </c>
+      <c r="D684" t="s">
+        <v>2589</v>
+      </c>
+      <c r="E684" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="685" spans="1:5">
+      <c r="A685" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C685" t="s">
+        <v>2592</v>
+      </c>
+      <c r="D685" t="s">
+        <v>2593</v>
+      </c>
+      <c r="E685" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="686" spans="1:5">
+      <c r="A686" t="s">
+        <v>22</v>
+      </c>
+      <c r="B686" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C686" t="s">
+        <v>2596</v>
+      </c>
+      <c r="D686" t="s">
+        <v>2597</v>
+      </c>
+      <c r="E686" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="687" spans="1:5">
+      <c r="A687" t="s">
+        <v>522</v>
+      </c>
+      <c r="C687" t="s">
+        <v>2599</v>
+      </c>
+      <c r="D687" t="s">
+        <v>2600</v>
+      </c>
+      <c r="E687" t="s">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="688" spans="1:5">
+      <c r="A688" t="s">
+        <v>214</v>
+      </c>
+      <c r="B688" t="s">
+        <v>2602</v>
+      </c>
+      <c r="C688" t="s">
+        <v>2603</v>
+      </c>
+      <c r="D688" t="s">
+        <v>2604</v>
+      </c>
+      <c r="E688" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="689" spans="1:5">
+      <c r="A689" t="s">
+        <v>53</v>
+      </c>
+      <c r="C689" t="s">
+        <v>2606</v>
+      </c>
+      <c r="D689" t="s">
+        <v>2607</v>
+      </c>
+      <c r="E689" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="690" spans="1:5">
+      <c r="A690" t="s">
+        <v>2609</v>
+      </c>
+      <c r="B690" t="s">
+        <v>2431</v>
+      </c>
+      <c r="C690" t="s">
+        <v>2610</v>
+      </c>
+      <c r="D690" t="s">
+        <v>2611</v>
+      </c>
+      <c r="E690" t="s">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="691" spans="1:5">
+      <c r="A691" t="s">
+        <v>2613</v>
+      </c>
+      <c r="B691" t="s">
+        <v>2614</v>
+      </c>
+      <c r="C691" t="s">
+        <v>2615</v>
+      </c>
+      <c r="D691" t="s">
+        <v>2616</v>
+      </c>
+      <c r="E691" t="s">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="692" spans="1:5">
+      <c r="A692" t="s">
+        <v>117</v>
+      </c>
+      <c r="C692" t="s">
+        <v>2618</v>
+      </c>
+      <c r="D692" t="s">
+        <v>2619</v>
+      </c>
+      <c r="E692" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="693" spans="1:5">
+      <c r="A693" t="s">
+        <v>1981</v>
+      </c>
+      <c r="C693" t="s">
+        <v>2621</v>
+      </c>
+      <c r="D693" t="s">
+        <v>2622</v>
+      </c>
+      <c r="E693" t="s">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="694" spans="1:5">
+      <c r="A694" t="s">
+        <v>149</v>
+      </c>
+      <c r="C694" t="s">
+        <v>2624</v>
+      </c>
+      <c r="D694" t="s">
+        <v>2625</v>
+      </c>
+      <c r="E694" t="s">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="695" spans="1:5">
+      <c r="A695" t="s">
+        <v>2627</v>
+      </c>
+      <c r="C695" t="s">
+        <v>2628</v>
+      </c>
+      <c r="D695" t="s">
+        <v>2629</v>
+      </c>
+      <c r="E695" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="696" spans="1:5">
+      <c r="A696" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B696" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C696" t="s">
+        <v>2631</v>
+      </c>
+      <c r="D696" t="s">
+        <v>2632</v>
+      </c>
+      <c r="E696" t="s">
+        <v>2633</v>
+      </c>
+    </row>
+    <row r="697" spans="1:5">
+      <c r="A697" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C697" t="s">
+        <v>274</v>
+      </c>
+      <c r="D697" t="s">
+        <v>2634</v>
+      </c>
+      <c r="E697" t="s">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="698" spans="1:5">
+      <c r="A698" t="s">
+        <v>223</v>
+      </c>
+      <c r="C698" t="s">
+        <v>2636</v>
+      </c>
+      <c r="D698" t="s">
+        <v>2637</v>
+      </c>
+      <c r="E698" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="699" spans="1:5">
+      <c r="A699" t="s">
+        <v>167</v>
+      </c>
+      <c r="C699" t="s">
+        <v>2639</v>
+      </c>
+      <c r="D699" t="s">
+        <v>2640</v>
+      </c>
+      <c r="E699" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="700" spans="1:5">
+      <c r="A700" t="s">
+        <v>2642</v>
+      </c>
+      <c r="B700" t="s">
+        <v>2501</v>
+      </c>
+      <c r="C700" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D700" t="s">
+        <v>2643</v>
+      </c>
+      <c r="E700" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="701" spans="1:5">
+      <c r="A701" t="s">
+        <v>35</v>
+      </c>
+      <c r="C701" t="s">
+        <v>2645</v>
+      </c>
+      <c r="D701" t="s">
+        <v>2646</v>
+      </c>
+      <c r="E701" t="s">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="702" spans="1:5">
+      <c r="A702" t="s">
+        <v>22</v>
+      </c>
+      <c r="B702" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C702" t="s">
+        <v>2648</v>
+      </c>
+      <c r="D702" t="s">
+        <v>2649</v>
+      </c>
+      <c r="E702" t="s">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="703" spans="1:5">
+      <c r="A703" t="s">
+        <v>318</v>
+      </c>
+      <c r="C703" t="s">
+        <v>161</v>
+      </c>
+      <c r="D703" t="s">
+        <v>2651</v>
+      </c>
+      <c r="E703" t="s">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="704" spans="1:5">
+      <c r="A704" t="s">
+        <v>130</v>
+      </c>
+      <c r="C704" t="s">
+        <v>2653</v>
+      </c>
+      <c r="D704" t="s">
+        <v>2654</v>
+      </c>
+      <c r="E704" t="s">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="705" spans="1:5">
+      <c r="A705" t="s">
+        <v>88</v>
+      </c>
+      <c r="B705" t="s">
+        <v>2656</v>
+      </c>
+      <c r="C705" t="s">
+        <v>2169</v>
+      </c>
+      <c r="D705" t="s">
+        <v>2657</v>
+      </c>
+      <c r="E705" t="s">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="706" spans="1:5">
+      <c r="A706" t="s">
+        <v>2659</v>
+      </c>
+      <c r="B706" t="s">
+        <v>2660</v>
+      </c>
+      <c r="C706" t="s">
+        <v>2661</v>
+      </c>
+      <c r="D706" t="s">
+        <v>2662</v>
+      </c>
+      <c r="E706" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="707" spans="1:5">
+      <c r="A707" t="s">
+        <v>2664</v>
+      </c>
+      <c r="C707" t="s">
+        <v>2665</v>
+      </c>
+      <c r="D707" t="s">
+        <v>2666</v>
+      </c>
+      <c r="E707" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="708" spans="1:5">
+      <c r="A708" t="s">
+        <v>117</v>
+      </c>
+      <c r="C708" t="s">
+        <v>2668</v>
+      </c>
+      <c r="D708" t="s">
+        <v>2669</v>
+      </c>
+      <c r="E708" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="709" spans="1:5">
+      <c r="A709" t="s">
+        <v>2671</v>
+      </c>
+      <c r="B709" t="s">
+        <v>245</v>
+      </c>
+      <c r="C709" t="s">
+        <v>2672</v>
+      </c>
+      <c r="D709" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E709" t="s">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="710" spans="1:5">
+      <c r="A710" t="s">
+        <v>144</v>
+      </c>
+      <c r="B710" t="s">
+        <v>2675</v>
+      </c>
+      <c r="C710" t="s">
+        <v>2676</v>
+      </c>
+      <c r="D710" t="s">
+        <v>2677</v>
+      </c>
+      <c r="E710" t="s">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="711" spans="1:5">
+      <c r="A711" t="s">
+        <v>223</v>
+      </c>
+      <c r="B711" t="s">
+        <v>104</v>
+      </c>
+      <c r="C711" t="s">
+        <v>2679</v>
+      </c>
+      <c r="D711" t="s">
+        <v>2680</v>
+      </c>
+      <c r="E711" t="s">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="712" spans="1:5">
+      <c r="A712" t="s">
+        <v>2682</v>
+      </c>
+      <c r="C712" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D712" t="s">
+        <v>2683</v>
+      </c>
+      <c r="E712" t="s">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="713" spans="1:5">
+      <c r="A713" t="s">
+        <v>53</v>
+      </c>
+      <c r="B713" t="s">
+        <v>2685</v>
+      </c>
+      <c r="C713" t="s">
+        <v>2686</v>
+      </c>
+      <c r="D713" t="s">
+        <v>2687</v>
+      </c>
+      <c r="E713" t="s">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="714" spans="1:5">
+      <c r="A714" t="s">
+        <v>2267</v>
+      </c>
+      <c r="C714" t="s">
+        <v>2268</v>
+      </c>
+      <c r="D714" t="s">
+        <v>2689</v>
+      </c>
+      <c r="E714" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="715" spans="1:5">
+      <c r="A715" t="s">
+        <v>2691</v>
+      </c>
+      <c r="C715" t="s">
+        <v>2692</v>
+      </c>
+      <c r="D715" t="s">
+        <v>2693</v>
+      </c>
+      <c r="E715" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="716" spans="1:5">
+      <c r="A716" t="s">
+        <v>527</v>
+      </c>
+      <c r="C716" t="s">
+        <v>2695</v>
+      </c>
+      <c r="D716" t="s">
+        <v>2696</v>
+      </c>
+      <c r="E716" t="s">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="717" spans="1:5">
+      <c r="A717" t="s">
+        <v>753</v>
+      </c>
+      <c r="B717" t="s">
+        <v>2698</v>
+      </c>
+      <c r="C717" t="s">
+        <v>2699</v>
+      </c>
+      <c r="D717" t="s">
+        <v>2700</v>
+      </c>
+      <c r="E717" t="s">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="718" spans="1:5">
+      <c r="A718" t="s">
+        <v>144</v>
+      </c>
+      <c r="C718" t="s">
+        <v>2702</v>
+      </c>
+      <c r="D718" t="s">
+        <v>2703</v>
+      </c>
+      <c r="E718" t="s">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="719" spans="1:5">
+      <c r="A719" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C719" t="s">
+        <v>2705</v>
+      </c>
+      <c r="D719" t="s">
+        <v>2706</v>
+      </c>
+      <c r="E719" t="s">
+        <v>2707</v>
+      </c>
+    </row>
+    <row r="720" spans="1:5">
+      <c r="A720" t="s">
+        <v>621</v>
+      </c>
+      <c r="B720" t="s">
+        <v>2708</v>
+      </c>
+      <c r="C720" t="s">
+        <v>2709</v>
+      </c>
+      <c r="D720" t="s">
+        <v>2710</v>
+      </c>
+      <c r="E720" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="721" spans="1:5">
+      <c r="A721" t="s">
+        <v>223</v>
+      </c>
+      <c r="B721" t="s">
+        <v>94</v>
+      </c>
+      <c r="C721" t="s">
+        <v>2439</v>
+      </c>
+      <c r="D721" t="s">
+        <v>2712</v>
+      </c>
+      <c r="E721" t="s">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="722" spans="1:5">
+      <c r="A722" t="s">
+        <v>2714</v>
+      </c>
+      <c r="B722" t="s">
+        <v>2715</v>
+      </c>
+      <c r="C722" t="s">
+        <v>2624</v>
+      </c>
+      <c r="D722" t="s">
+        <v>2716</v>
+      </c>
+      <c r="E722" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="723" spans="1:5">
+      <c r="A723" t="s">
+        <v>2718</v>
+      </c>
+      <c r="C723" t="s">
+        <v>2719</v>
+      </c>
+      <c r="D723" t="s">
+        <v>2720</v>
+      </c>
+      <c r="E723" t="s">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="724" spans="1:5">
+      <c r="A724" t="s">
+        <v>612</v>
+      </c>
+      <c r="B724" t="s">
+        <v>946</v>
+      </c>
+      <c r="C724" t="s">
+        <v>2722</v>
+      </c>
+      <c r="D724" t="s">
+        <v>2723</v>
+      </c>
+      <c r="E724" t="s">
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="725" spans="1:5">
+      <c r="A725" t="s">
+        <v>79</v>
+      </c>
+      <c r="C725" t="s">
+        <v>2725</v>
+      </c>
+      <c r="D725" t="s">
+        <v>2726</v>
+      </c>
+      <c r="E725" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="726" spans="1:5">
+      <c r="A726" t="s">
+        <v>214</v>
+      </c>
+      <c r="B726" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C726" t="s">
+        <v>2729</v>
+      </c>
+      <c r="D726" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E726" t="s">
+        <v>2731</v>
+      </c>
+    </row>
+    <row r="727" spans="1:5">
+      <c r="A727" t="s">
+        <v>672</v>
+      </c>
+      <c r="B727" t="s">
+        <v>2732</v>
+      </c>
+      <c r="C727" t="s">
+        <v>19</v>
+      </c>
+      <c r="D727" t="s">
+        <v>2733</v>
+      </c>
+      <c r="E727" t="s">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="728" spans="1:5">
+      <c r="A728" t="s">
+        <v>171</v>
+      </c>
+      <c r="C728" t="s">
+        <v>2735</v>
+      </c>
+      <c r="D728" t="s">
+        <v>2736</v>
+      </c>
+      <c r="E728" t="s">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="729" spans="1:5">
+      <c r="A729" t="s">
+        <v>745</v>
+      </c>
+      <c r="B729" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C729" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D729" t="s">
+        <v>2738</v>
+      </c>
+      <c r="E729" t="s">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="730" spans="1:5">
+      <c r="A730" t="s">
+        <v>176</v>
+      </c>
+      <c r="C730" t="s">
+        <v>2740</v>
+      </c>
+      <c r="D730" t="s">
+        <v>2741</v>
+      </c>
+      <c r="E730" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="731" spans="1:5">
+      <c r="A731" t="s">
+        <v>280</v>
+      </c>
+      <c r="B731" t="s">
+        <v>2743</v>
+      </c>
+      <c r="C731" t="s">
+        <v>2744</v>
+      </c>
+      <c r="D731" t="s">
+        <v>2745</v>
+      </c>
+      <c r="E731" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="732" spans="1:5">
+      <c r="A732" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B732" t="s">
+        <v>2747</v>
+      </c>
+      <c r="C732" t="s">
+        <v>2748</v>
+      </c>
+      <c r="D732" t="s">
+        <v>2749</v>
+      </c>
+      <c r="E732" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="733" spans="1:5">
+      <c r="A733" t="s">
+        <v>2751</v>
+      </c>
+      <c r="B733" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C733" t="s">
+        <v>2752</v>
+      </c>
+      <c r="D733" t="s">
+        <v>2753</v>
+      </c>
+      <c r="E733" t="s">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="734" spans="1:5">
+      <c r="A734" t="s">
+        <v>375</v>
+      </c>
+      <c r="B734" t="s">
+        <v>2755</v>
+      </c>
+      <c r="C734" t="s">
+        <v>1916</v>
+      </c>
+      <c r="D734" t="s">
+        <v>2756</v>
+      </c>
+      <c r="E734" t="s">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="735" spans="1:5">
+      <c r="A735" t="s">
+        <v>117</v>
+      </c>
+      <c r="C735" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D735" t="s">
+        <v>2758</v>
+      </c>
+      <c r="E735" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="736" spans="1:5">
+      <c r="A736" t="s">
+        <v>2760</v>
+      </c>
+      <c r="B736" t="s">
+        <v>104</v>
+      </c>
+      <c r="C736" t="s">
+        <v>2761</v>
+      </c>
+      <c r="D736" t="s">
+        <v>2762</v>
+      </c>
+      <c r="E736" t="s">
+        <v>2763</v>
+      </c>
+    </row>
+    <row r="737" spans="1:5">
+      <c r="A737" t="s">
+        <v>284</v>
+      </c>
+      <c r="B737" t="s">
+        <v>2764</v>
+      </c>
+      <c r="C737" t="s">
+        <v>678</v>
+      </c>
+      <c r="D737" t="s">
+        <v>2765</v>
+      </c>
+      <c r="E737" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="738" spans="1:5">
+      <c r="A738" t="s">
+        <v>2664</v>
+      </c>
+      <c r="C738" t="s">
+        <v>2766</v>
+      </c>
+      <c r="D738" t="s">
+        <v>2767</v>
+      </c>
+      <c r="E738" t="s">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="739" spans="1:5">
+      <c r="A739" t="s">
+        <v>2769</v>
+      </c>
+      <c r="C739" t="s">
+        <v>2770</v>
+      </c>
+      <c r="D739" t="s">
+        <v>2771</v>
+      </c>
+      <c r="E739" t="s">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="740" spans="1:5">
+      <c r="A740" t="s">
+        <v>9</v>
+      </c>
+      <c r="C740" t="s">
+        <v>2773</v>
+      </c>
+      <c r="D740" t="s">
+        <v>2774</v>
+      </c>
+      <c r="E740" t="s">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="741" spans="1:5">
+      <c r="A741" t="s">
+        <v>2468</v>
+      </c>
+      <c r="B741" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C741" t="s">
+        <v>2776</v>
+      </c>
+      <c r="D741" t="s">
+        <v>2777</v>
+      </c>
+      <c r="E741" t="s">
+        <v>1953</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>

--- a/songs.xlsx
+++ b/songs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3222">
   <si>
     <t>Pied Pipers</t>
   </si>
@@ -8349,6 +8349,1338 @@
   </si>
   <si>
     <t>Time Was (41)-Jimmy Dorsey v/Bob &amp; Helen</t>
+  </si>
+  <si>
+    <t>The Little Man Who Wasn't There</t>
+  </si>
+  <si>
+    <t>The Little Man Who Wasn't There-Larry Clinton v/Ford Leary</t>
+  </si>
+  <si>
+    <t>Hold Tight (Want Some Sea Food, Mam</t>
+  </si>
+  <si>
+    <t>Hold Tight (Want Some Sea Food, Mam-Andrews Sisters</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zKS5RM6TFUE</t>
+  </si>
+  <si>
+    <t>Eddy Howard</t>
+  </si>
+  <si>
+    <t>The Best Of Eddy Howard  The Mer</t>
+  </si>
+  <si>
+    <t>On A Slow Boat To China (48)</t>
+  </si>
+  <si>
+    <t>On A Slow Boat To China (48)-Eddy Howard</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lQuBalIYfh4</t>
+  </si>
+  <si>
+    <t>Jimmie Lunceford v/Delta Rhythm Boy</t>
+  </si>
+  <si>
+    <t>The Honeydripper (45)-Jimmie Lunceford v/Delta Rhythm Boy</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RqgFL3K1yfw</t>
+  </si>
+  <si>
+    <t>A Portrait of Louis Armstrong</t>
+  </si>
+  <si>
+    <t>Lazybones (49)</t>
+  </si>
+  <si>
+    <t>Lazybones (49)-Louis Armstrong</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IguSiK1ZEKI</t>
+  </si>
+  <si>
+    <t>Skyliner  1940-1945</t>
+  </si>
+  <si>
+    <t>Redskin Rhumba (40)</t>
+  </si>
+  <si>
+    <t>Redskin Rhumba (40)-Charlie Barnet</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4x9JXgXnOYg</t>
+  </si>
+  <si>
+    <t>It's De-Lovely (44)</t>
+  </si>
+  <si>
+    <t>It's De-Lovely (44)-Martha Tilton</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Qhn679OLyNU</t>
+  </si>
+  <si>
+    <t>The Joint Is Jumpin' (41)</t>
+  </si>
+  <si>
+    <t>The Joint Is Jumpin' (41)-Fats Waller</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=W_4R43_bFxs</t>
+  </si>
+  <si>
+    <t>George Roumanis</t>
+  </si>
+  <si>
+    <t>Swing! Here and Now</t>
+  </si>
+  <si>
+    <t>Jeepers Creepers-George Roumanis</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=E6AQQLVI68g</t>
+  </si>
+  <si>
+    <t>Stairway To The Stars-Glenn Miller</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kcB_CJ-ZIDY</t>
+  </si>
+  <si>
+    <t>Jerry Lewis</t>
+  </si>
+  <si>
+    <t>Just Sings</t>
+  </si>
+  <si>
+    <t>Get Happy</t>
+  </si>
+  <si>
+    <t>Get Happy-Jerry Lewis</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QpYMCH-rAus</t>
+  </si>
+  <si>
+    <t>I Wish I Didn't Love You So</t>
+  </si>
+  <si>
+    <t>I Wish I Didn't Love You So-Vaughn Monroe</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=T7oiD-g772k</t>
+  </si>
+  <si>
+    <t>Bing Crosby o/Xavier Cugat</t>
+  </si>
+  <si>
+    <t>Bing! His Legendary Years, 1941</t>
+  </si>
+  <si>
+    <t>You Belong To My Heart (41)</t>
+  </si>
+  <si>
+    <t>You Belong To My Heart (41)-Bing Crosby o/Xavier Cugat</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BN9PfSI288w</t>
+  </si>
+  <si>
+    <t>Teddy Wilson</t>
+  </si>
+  <si>
+    <t>When You're Smiling-Teddy Wilson</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nQ5oYgpqRos</t>
+  </si>
+  <si>
+    <t>Paul Whiteman</t>
+  </si>
+  <si>
+    <t>The Japanese Sandman</t>
+  </si>
+  <si>
+    <t>The Japanese Sandman-Paul Whiteman</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tef8RQF3XTU</t>
+  </si>
+  <si>
+    <t>Homework (49)</t>
+  </si>
+  <si>
+    <t>Homework (49)-Jo Stafford</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-aETFBHjL4g</t>
+  </si>
+  <si>
+    <t>You Made Me Love You (41)</t>
+  </si>
+  <si>
+    <t>You Made Me Love You (41)-Harry James</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qGFyThctU6c</t>
+  </si>
+  <si>
+    <t>Duke Ellington and His Orchestra</t>
+  </si>
+  <si>
+    <t>C Jam Blues (42)</t>
+  </si>
+  <si>
+    <t>C Jam Blues (42)-Duke Ellington</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gOlpcJhNyDI</t>
+  </si>
+  <si>
+    <t>Indian Love Call</t>
+  </si>
+  <si>
+    <t>What Is This Thing Called Love?</t>
+  </si>
+  <si>
+    <t>What Is This Thing Called Love?-Artie Shaw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XPXX8ddZkvM</t>
+  </si>
+  <si>
+    <t>Everybody Eats When They... (47)</t>
+  </si>
+  <si>
+    <t>Everybody Eats When They... (47)-Cab Calloway</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KRqf7IbBj4o</t>
+  </si>
+  <si>
+    <t>It's Magic (48)</t>
+  </si>
+  <si>
+    <t>It's Magic (48)-Doris Day</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JRp1LZOk05o</t>
+  </si>
+  <si>
+    <t>Vol. 9-Masterpieces</t>
+  </si>
+  <si>
+    <t>Organ Grinder's Swing</t>
+  </si>
+  <si>
+    <t>Organ Grinder's Swing-Jimmie Lunceford</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6og7ip44tx8</t>
+  </si>
+  <si>
+    <t>Swing It, Daddy-O!</t>
+  </si>
+  <si>
+    <t>Choo Choo Ch'Boogie (46)</t>
+  </si>
+  <si>
+    <t>Choo Choo Ch'Boogie (46)-Louis Jordan</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JSp1M2n1fFA</t>
+  </si>
+  <si>
+    <t>At Long Last Love</t>
+  </si>
+  <si>
+    <t>At Long Last Love-Larry Clinton v/Bea Wain</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7kGztqLHegg</t>
+  </si>
+  <si>
+    <t>Artistry Jumps (46)</t>
+  </si>
+  <si>
+    <t>Artistry Jumps (46)-Stan Kenton</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=r-p7msuLHY4</t>
+  </si>
+  <si>
+    <t>If I Didn't Care (48)</t>
+  </si>
+  <si>
+    <t>If I Didn't Care (48)-Ink Spots</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=aDft9596QZA</t>
+  </si>
+  <si>
+    <t>Jimmy Dorsey &amp; Orchestra</t>
+  </si>
+  <si>
+    <t>King Porter Stomp-Jimmy Dorsey &amp; Orchestra</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=R31VkzCH8rg</t>
+  </si>
+  <si>
+    <t>Frankie Masters</t>
+  </si>
+  <si>
+    <t>Scatter-Brain</t>
+  </si>
+  <si>
+    <t>Scatter-Brain-Frankie Masters</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Oy9d3NR9RpI</t>
+  </si>
+  <si>
+    <t>Dream (45)</t>
+  </si>
+  <si>
+    <t>Dream (45)-Pied Pipers</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8eFk8fMM8wU</t>
+  </si>
+  <si>
+    <t>Swingin' Uptown  Big Band 1923-1952</t>
+  </si>
+  <si>
+    <t>Frankie and Johnny</t>
+  </si>
+  <si>
+    <t>Frankie and Johnny-Bunny Berigan</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zj0W_lTx5gQ</t>
+  </si>
+  <si>
+    <t>Songs of New York</t>
+  </si>
+  <si>
+    <t>Broadway (45)</t>
+  </si>
+  <si>
+    <t>Broadway (45)-Mel Torme</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=X9xdSpLd_tY</t>
+  </si>
+  <si>
+    <t>Skyliner (44)</t>
+  </si>
+  <si>
+    <t>Skyliner (44)-Charlie Barnet</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dJv2VkKzzOQ</t>
+  </si>
+  <si>
+    <t>South America, Take It Away! (46)</t>
+  </si>
+  <si>
+    <t>South America, Take It Away! (46)-Bing Crosby/Andrews Sisters</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=k78HwgLeq8g</t>
+  </si>
+  <si>
+    <t>Big Band Years, Vol. 1  Lost Treasur</t>
+  </si>
+  <si>
+    <t>There I Go</t>
+  </si>
+  <si>
+    <t>There I Go-Will Bradley</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tTzQlBk0KEY</t>
+  </si>
+  <si>
+    <t>Freddie Slack/Ella Mae Morse</t>
+  </si>
+  <si>
+    <t>Mister Five by Five (42)-Freddie Slack/Ella Mae Morse</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nrs_1s7xMeU</t>
+  </si>
+  <si>
+    <t>Charlie Spivak v/Garry Stevens</t>
+  </si>
+  <si>
+    <t>As Time Goes By</t>
+  </si>
+  <si>
+    <t>I Left My Heart At The Stage Door C</t>
+  </si>
+  <si>
+    <t>I Left My Heart At The Stage Door C-Charlie Spivak v/Garry Stevens</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9-l8bHbpzD8</t>
+  </si>
+  <si>
+    <t>Nola (41)</t>
+  </si>
+  <si>
+    <t>Nola (41)-Lionel Hampton</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t5xonOYQ0qI</t>
+  </si>
+  <si>
+    <t>Gene's Boogie (47)</t>
+  </si>
+  <si>
+    <t>Gene's Boogie (47)-Gene Krupa</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nml1CdSdh2E</t>
+  </si>
+  <si>
+    <t>The Genius of The Electric Guitar</t>
+  </si>
+  <si>
+    <t>Memories of You</t>
+  </si>
+  <si>
+    <t>Memories of You-Benny Goodman</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DWPLZ6FZiLI</t>
+  </si>
+  <si>
+    <t>Northwest Passage (45)</t>
+  </si>
+  <si>
+    <t>Northwest Passage (45)-Woody Herman</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IsuBfMPglDY</t>
+  </si>
+  <si>
+    <t>I'll Be Seeing You (44)-Billie Holiday</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_AlylMhav7w</t>
+  </si>
+  <si>
+    <t>Anniversary</t>
+  </si>
+  <si>
+    <t>I'm Checkin' Out, Go'om Bye (44)</t>
+  </si>
+  <si>
+    <t>I'm Checkin' Out, Go'om Bye (44)-Ivie Anderson</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dix6hiNxN-Q</t>
+  </si>
+  <si>
+    <t>Rhythm Is Our Business</t>
+  </si>
+  <si>
+    <t>Le Jazz Hot</t>
+  </si>
+  <si>
+    <t>Le Jazz Hot-Jimmie Lunceford</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xFandRNjlpI</t>
+  </si>
+  <si>
+    <t>Cocktails For Two</t>
+  </si>
+  <si>
+    <t>Cocktails For Two-Duke Ellington</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JJHGxnBb06Q</t>
+  </si>
+  <si>
+    <t>Blues in the Night (42)-Cab Calloway</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RbRnURyXXFI</t>
+  </si>
+  <si>
+    <t>Battle Of The Bands</t>
+  </si>
+  <si>
+    <t>Opus No. 1 (45)</t>
+  </si>
+  <si>
+    <t>Opus No. 1 (45)-Tommy Dorsey</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uRIaFOKYN0k</t>
+  </si>
+  <si>
+    <t>My Reverie</t>
+  </si>
+  <si>
+    <t>My Reverie-Larry Clinton v/Bea Wain</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mdGXN6JuCcs</t>
+  </si>
+  <si>
+    <t>National Emblem March</t>
+  </si>
+  <si>
+    <t>National Emblem March-Ray Anthony</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NtAyszIzUok</t>
+  </si>
+  <si>
+    <t>The Things We Did Last Summer (46)</t>
+  </si>
+  <si>
+    <t>The Things We Did Last Summer (46)-Frank Sinatra</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dgxYRvsuK8M</t>
+  </si>
+  <si>
+    <t>Say Si Si (Para Vigo Me Voy)</t>
+  </si>
+  <si>
+    <t>Say Si Si (Para Vigo Me Voy)-Andrews Sisters</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zAOArDh6n1g</t>
+  </si>
+  <si>
+    <t>Hamp  The Legendary Decca Record</t>
+  </si>
+  <si>
+    <t>There Will Never Be Another... (41)</t>
+  </si>
+  <si>
+    <t>There Will Never Be Another... (41)-Lionel Hampton</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y0rL4uoP_aU</t>
+  </si>
+  <si>
+    <t>Bea Wain</t>
+  </si>
+  <si>
+    <t>Kiss The Boys Goodbye (41)-Bea Wain</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PUhiyaTD0oc</t>
+  </si>
+  <si>
+    <t>Louis Armstrong Collection, Vol.</t>
+  </si>
+  <si>
+    <t>The Peanut Vendor (43)</t>
+  </si>
+  <si>
+    <t>The Peanut Vendor (43)-Louis Armstrong</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DRW7RzwxVM4</t>
+  </si>
+  <si>
+    <t>I Cover The Waterfront (44)</t>
+  </si>
+  <si>
+    <t>I Cover The Waterfront (44)-Harry James</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=173h7kq9KkU</t>
+  </si>
+  <si>
+    <t>I Never Knew</t>
+  </si>
+  <si>
+    <t>I Never Knew-Yasha Bunchuk's Swing Symphony</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SQ8xIj21jCw</t>
+  </si>
+  <si>
+    <t>Crazy Rhythm-Benny Goodman</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=elbkoEQKXZk</t>
+  </si>
+  <si>
+    <t>My Devotion</t>
+  </si>
+  <si>
+    <t>My Devotion-Vaughn Monroe</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=o03lsJBbY7Q</t>
+  </si>
+  <si>
+    <t>Songs That Got Us Through WWII</t>
+  </si>
+  <si>
+    <t>Ac-Cent-Tchu-Ate The Positive (45)</t>
+  </si>
+  <si>
+    <t>Ac-Cent-Tchu-Ate The Positive (45)-Johnny Mercer</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=H-j2OZs9tqc</t>
+  </si>
+  <si>
+    <t>Charleston</t>
+  </si>
+  <si>
+    <t>Charleston-Ted Heath</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=j7fg0BNgcbE</t>
+  </si>
+  <si>
+    <t>And The Angels Sing-Count Basie</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JtIYtg_k02E</t>
+  </si>
+  <si>
+    <t>Liberace</t>
+  </si>
+  <si>
+    <t>Begin The Beguine (47)</t>
+  </si>
+  <si>
+    <t>Begin The Beguine (47)-Liberace</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kYq4B_Mp6ps</t>
+  </si>
+  <si>
+    <t>Sam Donahue</t>
+  </si>
+  <si>
+    <t>Dinah (46)</t>
+  </si>
+  <si>
+    <t>Dinah (46)-Sam Donahue</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LMDy87uFpT0</t>
+  </si>
+  <si>
+    <t>Joe Sullivan v/Helen Ward</t>
+  </si>
+  <si>
+    <t>Queen Of Big Band Swing</t>
+  </si>
+  <si>
+    <t>I've Got A Crush On You (40)</t>
+  </si>
+  <si>
+    <t>I've Got A Crush On You (40)-Joe Sullivan v/Helen Ward</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=x7huOj95PnI</t>
+  </si>
+  <si>
+    <t>22 Great Songs for Dancing</t>
+  </si>
+  <si>
+    <t>Bubbles in the Wine</t>
+  </si>
+  <si>
+    <t>Bubbles in the Wine-Lawrence Welk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UA0Ysptf5l4</t>
+  </si>
+  <si>
+    <t>Linger Awhile</t>
+  </si>
+  <si>
+    <t>Linger Awhile-Glen Gray</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tTTRdXcG-X0</t>
+  </si>
+  <si>
+    <t>Love Is Here To Stay</t>
+  </si>
+  <si>
+    <t>Love Is Here To Stay-Larry Clinton v/Bea Wain</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=glKyWnf0S5Y</t>
+  </si>
+  <si>
+    <t>Savannah (47)</t>
+  </si>
+  <si>
+    <t>Savannah (47)-Ray McKinley</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LUZhxzzSuGQ</t>
+  </si>
+  <si>
+    <t>The Lady from 29 Palms (47)-Andrews Sisters</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Vxr7shrLB9w</t>
+  </si>
+  <si>
+    <t>Don't Be That Way-Benny Goodman</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kOO8Gzr__zc</t>
+  </si>
+  <si>
+    <t>Don'cha Go 'Way Mad (43)</t>
+  </si>
+  <si>
+    <t>Don'cha Go 'Way Mad (43)-Harry James</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZEhlzwmWjr0</t>
+  </si>
+  <si>
+    <t>Frankie Carle</t>
+  </si>
+  <si>
+    <t>1944-1946</t>
+  </si>
+  <si>
+    <t>Semper Fidelis (46)</t>
+  </si>
+  <si>
+    <t>Semper Fidelis (46)-Frankie Carle</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gm77HnK96fQ</t>
+  </si>
+  <si>
+    <t>Till the End of Time (45)</t>
+  </si>
+  <si>
+    <t>Till the End of Time (45)-Dick Haymes</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=L4CjQp0BwzM</t>
+  </si>
+  <si>
+    <t>Glenn Miller v/Modernaires</t>
+  </si>
+  <si>
+    <t>Perfidia (40)</t>
+  </si>
+  <si>
+    <t>Perfidia (40)-Glenn Miller v/Modernaires</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dLDCA5tCKlg</t>
+  </si>
+  <si>
+    <t>Big Band Era</t>
+  </si>
+  <si>
+    <t>In The Mood</t>
+  </si>
+  <si>
+    <t>In The Mood-Al Donahue v/Paula Kelly</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sJwdXrVnkWo</t>
+  </si>
+  <si>
+    <t>Red Top (45)</t>
+  </si>
+  <si>
+    <t>Red Top (45)-Lionel Hampton</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QA1bMpBTh3A</t>
+  </si>
+  <si>
+    <t>Highlights from His Decca Years</t>
+  </si>
+  <si>
+    <t>Jeepers Creepers-Louis Armstrong</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bpUtb1G4FoU</t>
+  </si>
+  <si>
+    <t>Count Basie &amp; Joe Williams</t>
+  </si>
+  <si>
+    <t>I'm Beginning To See The Light</t>
+  </si>
+  <si>
+    <t>I'm Beginning To See The Light-Count Basie &amp; Joe Williams</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FbXJvBI7s3g</t>
+  </si>
+  <si>
+    <t>The Capitol Collectors Series</t>
+  </si>
+  <si>
+    <t>Personality (46)</t>
+  </si>
+  <si>
+    <t>Personality (46)-Johnny Mercer</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OmTdL1W5gZ4</t>
+  </si>
+  <si>
+    <t>Speak Low</t>
+  </si>
+  <si>
+    <t>Speak Low-Buddy Morrow</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uM-jq49zacs</t>
+  </si>
+  <si>
+    <t>Andy Kirk</t>
+  </si>
+  <si>
+    <t>1939-40</t>
+  </si>
+  <si>
+    <t>S'Posin</t>
+  </si>
+  <si>
+    <t>S'Posin-Andy Kirk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MyZ7ZxVxRGo</t>
+  </si>
+  <si>
+    <t>Bing Crosby o/Bob Crosby</t>
+  </si>
+  <si>
+    <t>Where Do We Go From Here, Vol. 1</t>
+  </si>
+  <si>
+    <t>When My Dreamboat Comes Home</t>
+  </si>
+  <si>
+    <t>When My Dreamboat Comes Home-Bing Crosby o/Bob Crosby</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gpvxildnZaU</t>
+  </si>
+  <si>
+    <t>Can't Help Lovin' Dat Man</t>
+  </si>
+  <si>
+    <t>Can't Help Lovin' Dat Man-Billie Holiday</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Hzb-HmY6-sM</t>
+  </si>
+  <si>
+    <t>Ames Brothers/Les Brown</t>
+  </si>
+  <si>
+    <t>Sentimental Journey-Ames Brothers/Les Brown</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wOmHVdXk4sI</t>
+  </si>
+  <si>
+    <t>Blue Orchids-Benny Goodman</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=S0nEGAVXcg0</t>
+  </si>
+  <si>
+    <t>Uptown</t>
+  </si>
+  <si>
+    <t>Thanks for the Boogie Ride (42)</t>
+  </si>
+  <si>
+    <t>Thanks for the Boogie Ride (42)-Gene Krupa</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4jMsCMMeWBg</t>
+  </si>
+  <si>
+    <t>Moten Swing 1 &amp; 2 (47)</t>
+  </si>
+  <si>
+    <t>Moten Swing 1 &amp; 2 (47)-Harry James</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=88bZ8fbS3bk</t>
+  </si>
+  <si>
+    <t>Marlene Dietrich</t>
+  </si>
+  <si>
+    <t>Falling In Love Again</t>
+  </si>
+  <si>
+    <t>You Go To My Head (48)</t>
+  </si>
+  <si>
+    <t>You Go To My Head (48)-Marlene Dietrich</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gE0eoMBWGso</t>
+  </si>
+  <si>
+    <t>Blow, Gabriel, Blow (47)</t>
+  </si>
+  <si>
+    <t>Blow, Gabriel, Blow (47)-Martha Tilton</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WMmd-zJXJ3c</t>
+  </si>
+  <si>
+    <t>Dick Haymes o/Sonny Burke</t>
+  </si>
+  <si>
+    <t>Volume 2  The Very Best Of Dick Haym</t>
+  </si>
+  <si>
+    <t>The Old Master Painter (49)</t>
+  </si>
+  <si>
+    <t>The Old Master Painter (49)-Dick Haymes o/Sonny Burke</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nuv6xC9MgiU</t>
+  </si>
+  <si>
+    <t>Ziggy Elman</t>
+  </si>
+  <si>
+    <t>Let's Fall In Love</t>
+  </si>
+  <si>
+    <t>Let's Fall In Love-Ziggy Elman</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NWpng4HpRYE</t>
+  </si>
+  <si>
+    <t>Sunset Serenade Live January 3,</t>
+  </si>
+  <si>
+    <t>Baby Me</t>
+  </si>
+  <si>
+    <t>Baby Me-Glenn Miller</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_OxPS5a7ESY</t>
+  </si>
+  <si>
+    <t>Time On My Hands (46)</t>
+  </si>
+  <si>
+    <t>Time On My Hands (46)-Billy Eckstine</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=c5-J6vmfQ00</t>
+  </si>
+  <si>
+    <t>I'm In The Mood For Swing</t>
+  </si>
+  <si>
+    <t>Rhythm, Rhythm (I Got Rhythm)</t>
+  </si>
+  <si>
+    <t>Rhythm, Rhythm (I Got Rhythm)-Lionel Hampton</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NTKOgTk2gGE</t>
+  </si>
+  <si>
+    <t>Six Jerks In A Jeep (42)</t>
+  </si>
+  <si>
+    <t>Six Jerks In A Jeep (42)-Andrews Sisters</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2k_6_XZ1b4I</t>
+  </si>
+  <si>
+    <t>A Jam Session At Victor</t>
+  </si>
+  <si>
+    <t>Honeysuckle Rose (43)</t>
+  </si>
+  <si>
+    <t>Honeysuckle Rose (43)-A Jam Session At Victor</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2d_HGHy8aB0</t>
+  </si>
+  <si>
+    <t>When Winter Comes</t>
+  </si>
+  <si>
+    <t>When Winter Comes-Artie Shaw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=03R2FZhYbqs</t>
+  </si>
+  <si>
+    <t>Blue Skies (46)-Bing Crosby</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3MS-2_8AS_Q</t>
+  </si>
+  <si>
+    <t>Clap Hands Here Comes Charlie-Chick Webb</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ehfiPqyoA1M</t>
+  </si>
+  <si>
+    <t>Fractious Fingering: The Early Years, Part 3</t>
+  </si>
+  <si>
+    <t>Bye Bye Baby-Fats Waller</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=q01Y66wf8lE</t>
+  </si>
+  <si>
+    <t>The Hits &amp; More</t>
+  </si>
+  <si>
+    <t>This Is the Army, Mister Jones (43)</t>
+  </si>
+  <si>
+    <t>This Is the Army, Mister Jones (43)-Horace Heidt</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DszZ4FfuWmc</t>
+  </si>
+  <si>
+    <t>Moments Like This</t>
+  </si>
+  <si>
+    <t>A Tisket A Tasket (41)</t>
+  </si>
+  <si>
+    <t>A Tisket A Tasket (41)-Teddy Wilson</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6iRkEth2MHA</t>
+  </si>
+  <si>
+    <t>Ralph Flanagan v/Singing Winds</t>
+  </si>
+  <si>
+    <t>Slow Poke</t>
+  </si>
+  <si>
+    <t>Slow Poke-Ralph Flanagan v/Singing Winds</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=n_j0QJrjSTM</t>
+  </si>
+  <si>
+    <t>I'll Walk Alone (44)-Harry James v/Kitty Kallen</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8HAb8Jqu1b8</t>
+  </si>
+  <si>
+    <t>Popular Frank Sinatra, Vol. 1</t>
+  </si>
+  <si>
+    <t>Imagination</t>
+  </si>
+  <si>
+    <t>Imagination-Tommy Dorsey v/Frank Sinatra</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_zp1B6r6CjE</t>
+  </si>
+  <si>
+    <t>The V-Disc Recordings</t>
+  </si>
+  <si>
+    <t>By The River Of The Roses (43)</t>
+  </si>
+  <si>
+    <t>By The River Of The Roses (43)-Woody Herman</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OTFCtKRIl8E</t>
+  </si>
+  <si>
+    <t>Robbin's Nest (48)</t>
+  </si>
+  <si>
+    <t>Robbin's Nest (48)-Count Basie</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=exc8Q1uanBw</t>
+  </si>
+  <si>
+    <t>Poinciana</t>
+  </si>
+  <si>
+    <t>Poinciana-Four Freshmen</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=l4NafK3NFhA</t>
+  </si>
+  <si>
+    <t>Jersey Bounce (42)-Benny Goodman</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9y6ngdzKgao</t>
+  </si>
+  <si>
+    <t>Wishing on the Moon</t>
+  </si>
+  <si>
+    <t>A Fine Romance-Billie Holiday</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=e-n8gnspUsc</t>
+  </si>
+  <si>
+    <t>Crazy Rhythm (47)</t>
+  </si>
+  <si>
+    <t>Crazy Rhythm (47)-Tex Beneke</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vm4LUvXE7po</t>
+  </si>
+  <si>
+    <t>Flying Home (45)</t>
+  </si>
+  <si>
+    <t>Flying Home (45)-Ella Fitzgerald</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WgJsQoCeOfo</t>
+  </si>
+  <si>
+    <t>I Can't Give You Anything... (43)</t>
+  </si>
+  <si>
+    <t>I Can't Give You Anything... (43)-Louis Armstrong</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TvKEzc3JXo4</t>
+  </si>
+  <si>
+    <t>Milt Herth Trio</t>
+  </si>
+  <si>
+    <t>Honky Tonk Train Blues</t>
+  </si>
+  <si>
+    <t>Honky Tonk Train Blues-Milt Herth Trio</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SWilqIw3u24</t>
+  </si>
+  <si>
+    <t>Dooley Wilson</t>
+  </si>
+  <si>
+    <t>Great Songs From The Movies</t>
+  </si>
+  <si>
+    <t>As Time Goes By (42)</t>
+  </si>
+  <si>
+    <t>As Time Goes By (42)-Dooley Wilson</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=d22CiKMPpaY</t>
+  </si>
+  <si>
+    <t>I've Got a Crush on You (47)</t>
+  </si>
+  <si>
+    <t>I've Got a Crush on You (47)-Frank Sinatra</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=T8EiNJRQioY</t>
+  </si>
+  <si>
+    <t>Dick Todd</t>
+  </si>
+  <si>
+    <t>It's A Hundred To One (I'm In Love)</t>
+  </si>
+  <si>
+    <t>It's A Hundred To One (I'm In Love)-Dick Todd</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wbG7M8aT7Bs</t>
+  </si>
+  <si>
+    <t>Song of India</t>
+  </si>
+  <si>
+    <t>Song of India-Glen Gray</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2vOfDs1szmA</t>
+  </si>
+  <si>
+    <t>Bing Crosby &amp; Fred Waring</t>
+  </si>
+  <si>
+    <t>Bing Crosby's Gold Records</t>
+  </si>
+  <si>
+    <t>Whiffenpoof Song (47)</t>
+  </si>
+  <si>
+    <t>Whiffenpoof Song (47)-Bing Crosby &amp; Fred Waring</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XkZrhiHffH4</t>
+  </si>
+  <si>
+    <t>Francis Craig v/Bob Lamm</t>
+  </si>
+  <si>
+    <t>Near You (47)-Francis Craig v/Bob Lamm</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RuK71xTbCyk</t>
+  </si>
+  <si>
+    <t>Benny Goodman v/Dick Haymes</t>
+  </si>
+  <si>
+    <t>Serenade in Blue (42)</t>
+  </si>
+  <si>
+    <t>Serenade in Blue (42)-Benny Goodman v/Dick Haymes</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=078NHlpNNl8</t>
+  </si>
+  <si>
+    <t>Arkansas Traveler (46)</t>
+  </si>
+  <si>
+    <t>Arkansas Traveler (46)-Jimmy Dorsey</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y4bqwmqbli8</t>
+  </si>
+  <si>
+    <t>Nat King Cole o/Billy May</t>
+  </si>
+  <si>
+    <t>Walkin' My Baby Back Home</t>
+  </si>
+  <si>
+    <t>Walkin' My Baby Back Home-Nat King Cole o/Billy May</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=C5eCuFlA0Bw</t>
+  </si>
+  <si>
+    <t>Vincent Lopez</t>
+  </si>
+  <si>
+    <t>Bluebird 10534</t>
+  </si>
+  <si>
+    <t>Diane (40)</t>
+  </si>
+  <si>
+    <t>Diane (40)-Vincent Lopez</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCxV8iu_cLdH10JjCjczah5g</t>
+  </si>
+  <si>
+    <t>Tony Bennett</t>
+  </si>
+  <si>
+    <t>Because Of You</t>
+  </si>
+  <si>
+    <t>Because Of You-Tony Bennett</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=i-4zvArJDGg</t>
+  </si>
+  <si>
+    <t>Fred Waring v/Chick Bullock</t>
+  </si>
+  <si>
+    <t>Let's Have Another Cup Of Coffee</t>
+  </si>
+  <si>
+    <t>Let's Have Another Cup Of Coffee-Fred Waring v/Chick Bullock</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TsAn4D2TW2g</t>
+  </si>
+  <si>
+    <t>I Got Rhythm (47)</t>
+  </si>
+  <si>
+    <t>I Got Rhythm (47)-Lester Young</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FjVvQvp3dsY</t>
+  </si>
+  <si>
+    <t>Anchors Aweigh</t>
+  </si>
+  <si>
+    <t>Anchors Aweigh-Tex Beneke</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sowhemP7J0w</t>
+  </si>
+  <si>
+    <t>70 Oz. of Big Band  Vocalists</t>
+  </si>
+  <si>
+    <t>I Remember You (42)-Harry James v/Helen Forrest</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Bf79IbbEVFM</t>
+  </si>
+  <si>
+    <t>This Can't Be Love</t>
+  </si>
+  <si>
+    <t>This Can't Be Love-Artie Shaw v/Helen Forrest</t>
+  </si>
+  <si>
+    <t>Drummin' Man (41)</t>
+  </si>
+  <si>
+    <t>Drummin' Man (41)-Gene Krupa</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_VBrTQw-2aI</t>
   </si>
 </sst>
 </file>
@@ -8718,7 +10050,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A2:E741"/>
+  <dimension ref="A2:E871"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A63" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A78" activeCellId="0" pane="topLeft" sqref="A78"/>
@@ -20384,6 +21716,2030 @@
         <v>1953</v>
       </c>
     </row>
+    <row r="742" spans="1:5">
+      <c r="A742" t="s">
+        <v>1981</v>
+      </c>
+      <c r="C742" t="s">
+        <v>2778</v>
+      </c>
+      <c r="D742" t="s">
+        <v>2779</v>
+      </c>
+      <c r="E742" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="743" spans="1:5">
+      <c r="A743" t="s">
+        <v>487</v>
+      </c>
+      <c r="B743" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C743" t="s">
+        <v>2780</v>
+      </c>
+      <c r="D743" t="s">
+        <v>2781</v>
+      </c>
+      <c r="E743" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="744" spans="1:5">
+      <c r="A744" t="s">
+        <v>2783</v>
+      </c>
+      <c r="B744" t="s">
+        <v>2784</v>
+      </c>
+      <c r="C744" t="s">
+        <v>2785</v>
+      </c>
+      <c r="D744" t="s">
+        <v>2786</v>
+      </c>
+      <c r="E744" t="s">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="745" spans="1:5">
+      <c r="A745" t="s">
+        <v>2788</v>
+      </c>
+      <c r="B745" t="s">
+        <v>245</v>
+      </c>
+      <c r="C745" t="s">
+        <v>2127</v>
+      </c>
+      <c r="D745" t="s">
+        <v>2789</v>
+      </c>
+      <c r="E745" t="s">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="746" spans="1:5">
+      <c r="A746" t="s">
+        <v>40</v>
+      </c>
+      <c r="B746" t="s">
+        <v>2791</v>
+      </c>
+      <c r="C746" t="s">
+        <v>2792</v>
+      </c>
+      <c r="D746" t="s">
+        <v>2793</v>
+      </c>
+      <c r="E746" t="s">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="747" spans="1:5">
+      <c r="A747" t="s">
+        <v>176</v>
+      </c>
+      <c r="B747" t="s">
+        <v>2795</v>
+      </c>
+      <c r="C747" t="s">
+        <v>2796</v>
+      </c>
+      <c r="D747" t="s">
+        <v>2797</v>
+      </c>
+      <c r="E747" t="s">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="748" spans="1:5">
+      <c r="A748" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C748" t="s">
+        <v>2799</v>
+      </c>
+      <c r="D748" t="s">
+        <v>2800</v>
+      </c>
+      <c r="E748" t="s">
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="749" spans="1:5">
+      <c r="A749" t="s">
+        <v>249</v>
+      </c>
+      <c r="C749" t="s">
+        <v>2802</v>
+      </c>
+      <c r="D749" t="s">
+        <v>2803</v>
+      </c>
+      <c r="E749" t="s">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="750" spans="1:5">
+      <c r="A750" t="s">
+        <v>2805</v>
+      </c>
+      <c r="B750" t="s">
+        <v>2806</v>
+      </c>
+      <c r="C750" t="s">
+        <v>2621</v>
+      </c>
+      <c r="D750" t="s">
+        <v>2807</v>
+      </c>
+      <c r="E750" t="s">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="751" spans="1:5">
+      <c r="A751" t="s">
+        <v>53</v>
+      </c>
+      <c r="B751" t="s">
+        <v>2168</v>
+      </c>
+      <c r="C751" t="s">
+        <v>432</v>
+      </c>
+      <c r="D751" t="s">
+        <v>2809</v>
+      </c>
+      <c r="E751" t="s">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="752" spans="1:5">
+      <c r="A752" t="s">
+        <v>2811</v>
+      </c>
+      <c r="B752" t="s">
+        <v>2812</v>
+      </c>
+      <c r="C752" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D752" t="s">
+        <v>2814</v>
+      </c>
+      <c r="E752" t="s">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="753" spans="1:5">
+      <c r="A753" t="s">
+        <v>130</v>
+      </c>
+      <c r="C753" t="s">
+        <v>2816</v>
+      </c>
+      <c r="D753" t="s">
+        <v>2817</v>
+      </c>
+      <c r="E753" t="s">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="754" spans="1:5">
+      <c r="A754" t="s">
+        <v>2819</v>
+      </c>
+      <c r="B754" t="s">
+        <v>2820</v>
+      </c>
+      <c r="C754" t="s">
+        <v>2821</v>
+      </c>
+      <c r="D754" t="s">
+        <v>2822</v>
+      </c>
+      <c r="E754" t="s">
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="755" spans="1:5">
+      <c r="A755" t="s">
+        <v>2824</v>
+      </c>
+      <c r="C755" t="s">
+        <v>609</v>
+      </c>
+      <c r="D755" t="s">
+        <v>2825</v>
+      </c>
+      <c r="E755" t="s">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="756" spans="1:5">
+      <c r="A756" t="s">
+        <v>2827</v>
+      </c>
+      <c r="C756" t="s">
+        <v>2828</v>
+      </c>
+      <c r="D756" t="s">
+        <v>2829</v>
+      </c>
+      <c r="E756" t="s">
+        <v>2830</v>
+      </c>
+    </row>
+    <row r="757" spans="1:5">
+      <c r="A757" t="s">
+        <v>649</v>
+      </c>
+      <c r="C757" t="s">
+        <v>2831</v>
+      </c>
+      <c r="D757" t="s">
+        <v>2832</v>
+      </c>
+      <c r="E757" t="s">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="758" spans="1:5">
+      <c r="A758" t="s">
+        <v>122</v>
+      </c>
+      <c r="B758" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C758" t="s">
+        <v>2834</v>
+      </c>
+      <c r="D758" t="s">
+        <v>2835</v>
+      </c>
+      <c r="E758" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="759" spans="1:5">
+      <c r="A759" t="s">
+        <v>9</v>
+      </c>
+      <c r="B759" t="s">
+        <v>2837</v>
+      </c>
+      <c r="C759" t="s">
+        <v>2838</v>
+      </c>
+      <c r="D759" t="s">
+        <v>2839</v>
+      </c>
+      <c r="E759" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="760" spans="1:5">
+      <c r="A760" t="s">
+        <v>117</v>
+      </c>
+      <c r="B760" t="s">
+        <v>2841</v>
+      </c>
+      <c r="C760" t="s">
+        <v>2842</v>
+      </c>
+      <c r="D760" t="s">
+        <v>2843</v>
+      </c>
+      <c r="E760" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="761" spans="1:5">
+      <c r="A761" t="s">
+        <v>183</v>
+      </c>
+      <c r="C761" t="s">
+        <v>2845</v>
+      </c>
+      <c r="D761" t="s">
+        <v>2846</v>
+      </c>
+      <c r="E761" t="s">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="762" spans="1:5">
+      <c r="A762" t="s">
+        <v>887</v>
+      </c>
+      <c r="C762" t="s">
+        <v>2848</v>
+      </c>
+      <c r="D762" t="s">
+        <v>2849</v>
+      </c>
+      <c r="E762" t="s">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="763" spans="1:5">
+      <c r="A763" t="s">
+        <v>309</v>
+      </c>
+      <c r="B763" t="s">
+        <v>2851</v>
+      </c>
+      <c r="C763" t="s">
+        <v>2852</v>
+      </c>
+      <c r="D763" t="s">
+        <v>2853</v>
+      </c>
+      <c r="E763" t="s">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="764" spans="1:5">
+      <c r="A764" t="s">
+        <v>171</v>
+      </c>
+      <c r="B764" t="s">
+        <v>2855</v>
+      </c>
+      <c r="C764" t="s">
+        <v>2856</v>
+      </c>
+      <c r="D764" t="s">
+        <v>2857</v>
+      </c>
+      <c r="E764" t="s">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="765" spans="1:5">
+      <c r="A765" t="s">
+        <v>672</v>
+      </c>
+      <c r="B765" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C765" t="s">
+        <v>2859</v>
+      </c>
+      <c r="D765" t="s">
+        <v>2860</v>
+      </c>
+      <c r="E765" t="s">
+        <v>2861</v>
+      </c>
+    </row>
+    <row r="766" spans="1:5">
+      <c r="A766" t="s">
+        <v>22</v>
+      </c>
+      <c r="B766" t="s">
+        <v>2296</v>
+      </c>
+      <c r="C766" t="s">
+        <v>2862</v>
+      </c>
+      <c r="D766" t="s">
+        <v>2863</v>
+      </c>
+      <c r="E766" t="s">
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="767" spans="1:5">
+      <c r="A767" t="s">
+        <v>367</v>
+      </c>
+      <c r="B767" t="s">
+        <v>368</v>
+      </c>
+      <c r="C767" t="s">
+        <v>2865</v>
+      </c>
+      <c r="D767" t="s">
+        <v>2866</v>
+      </c>
+      <c r="E767" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="768" spans="1:5">
+      <c r="A768" t="s">
+        <v>2868</v>
+      </c>
+      <c r="C768" t="s">
+        <v>2445</v>
+      </c>
+      <c r="D768" t="s">
+        <v>2869</v>
+      </c>
+      <c r="E768" t="s">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="769" spans="1:5">
+      <c r="A769" t="s">
+        <v>2871</v>
+      </c>
+      <c r="C769" t="s">
+        <v>2872</v>
+      </c>
+      <c r="D769" t="s">
+        <v>2873</v>
+      </c>
+      <c r="E769" t="s">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="770" spans="1:5">
+      <c r="A770" t="s">
+        <v>0</v>
+      </c>
+      <c r="C770" t="s">
+        <v>2875</v>
+      </c>
+      <c r="D770" t="s">
+        <v>2876</v>
+      </c>
+      <c r="E770" t="s">
+        <v>2877</v>
+      </c>
+    </row>
+    <row r="771" spans="1:5">
+      <c r="A771" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B771" t="s">
+        <v>2878</v>
+      </c>
+      <c r="C771" t="s">
+        <v>2879</v>
+      </c>
+      <c r="D771" t="s">
+        <v>2880</v>
+      </c>
+      <c r="E771" t="s">
+        <v>2881</v>
+      </c>
+    </row>
+    <row r="772" spans="1:5">
+      <c r="A772" t="s">
+        <v>662</v>
+      </c>
+      <c r="B772" t="s">
+        <v>2882</v>
+      </c>
+      <c r="C772" t="s">
+        <v>2883</v>
+      </c>
+      <c r="D772" t="s">
+        <v>2884</v>
+      </c>
+      <c r="E772" t="s">
+        <v>2885</v>
+      </c>
+    </row>
+    <row r="773" spans="1:5">
+      <c r="A773" t="s">
+        <v>176</v>
+      </c>
+      <c r="C773" t="s">
+        <v>2886</v>
+      </c>
+      <c r="D773" t="s">
+        <v>2887</v>
+      </c>
+      <c r="E773" t="s">
+        <v>2888</v>
+      </c>
+    </row>
+    <row r="774" spans="1:5">
+      <c r="A774" t="s">
+        <v>200</v>
+      </c>
+      <c r="C774" t="s">
+        <v>2889</v>
+      </c>
+      <c r="D774" t="s">
+        <v>2890</v>
+      </c>
+      <c r="E774" t="s">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="775" spans="1:5">
+      <c r="A775" t="s">
+        <v>126</v>
+      </c>
+      <c r="B775" t="s">
+        <v>2892</v>
+      </c>
+      <c r="C775" t="s">
+        <v>2893</v>
+      </c>
+      <c r="D775" t="s">
+        <v>2894</v>
+      </c>
+      <c r="E775" t="s">
+        <v>2895</v>
+      </c>
+    </row>
+    <row r="776" spans="1:5">
+      <c r="A776" t="s">
+        <v>2896</v>
+      </c>
+      <c r="C776" t="s">
+        <v>1665</v>
+      </c>
+      <c r="D776" t="s">
+        <v>2897</v>
+      </c>
+      <c r="E776" t="s">
+        <v>2898</v>
+      </c>
+    </row>
+    <row r="777" spans="1:5">
+      <c r="A777" t="s">
+        <v>2899</v>
+      </c>
+      <c r="B777" t="s">
+        <v>2900</v>
+      </c>
+      <c r="C777" t="s">
+        <v>2901</v>
+      </c>
+      <c r="D777" t="s">
+        <v>2902</v>
+      </c>
+      <c r="E777" t="s">
+        <v>2903</v>
+      </c>
+    </row>
+    <row r="778" spans="1:5">
+      <c r="A778" t="s">
+        <v>149</v>
+      </c>
+      <c r="C778" t="s">
+        <v>2904</v>
+      </c>
+      <c r="D778" t="s">
+        <v>2905</v>
+      </c>
+      <c r="E778" t="s">
+        <v>2906</v>
+      </c>
+    </row>
+    <row r="779" spans="1:5">
+      <c r="A779" t="s">
+        <v>318</v>
+      </c>
+      <c r="C779" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D779" t="s">
+        <v>2908</v>
+      </c>
+      <c r="E779" t="s">
+        <v>2909</v>
+      </c>
+    </row>
+    <row r="780" spans="1:5">
+      <c r="A780" t="s">
+        <v>35</v>
+      </c>
+      <c r="B780" t="s">
+        <v>2910</v>
+      </c>
+      <c r="C780" t="s">
+        <v>2911</v>
+      </c>
+      <c r="D780" t="s">
+        <v>2912</v>
+      </c>
+      <c r="E780" t="s">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="781" spans="1:5">
+      <c r="A781" t="s">
+        <v>26</v>
+      </c>
+      <c r="C781" t="s">
+        <v>2914</v>
+      </c>
+      <c r="D781" t="s">
+        <v>2915</v>
+      </c>
+      <c r="E781" t="s">
+        <v>2916</v>
+      </c>
+    </row>
+    <row r="782" spans="1:5">
+      <c r="A782" t="s">
+        <v>79</v>
+      </c>
+      <c r="C782" t="s">
+        <v>980</v>
+      </c>
+      <c r="D782" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E782" t="s">
+        <v>2918</v>
+      </c>
+    </row>
+    <row r="783" spans="1:5">
+      <c r="A783" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B783" t="s">
+        <v>2919</v>
+      </c>
+      <c r="C783" t="s">
+        <v>2920</v>
+      </c>
+      <c r="D783" t="s">
+        <v>2921</v>
+      </c>
+      <c r="E783" t="s">
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="784" spans="1:5">
+      <c r="A784" t="s">
+        <v>309</v>
+      </c>
+      <c r="B784" t="s">
+        <v>2923</v>
+      </c>
+      <c r="C784" t="s">
+        <v>2924</v>
+      </c>
+      <c r="D784" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E784" t="s">
+        <v>2926</v>
+      </c>
+    </row>
+    <row r="785" spans="1:5">
+      <c r="A785" t="s">
+        <v>9</v>
+      </c>
+      <c r="C785" t="s">
+        <v>2927</v>
+      </c>
+      <c r="D785" t="s">
+        <v>2928</v>
+      </c>
+      <c r="E785" t="s">
+        <v>2929</v>
+      </c>
+    </row>
+    <row r="786" spans="1:5">
+      <c r="A786" t="s">
+        <v>183</v>
+      </c>
+      <c r="C786" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D786" t="s">
+        <v>2930</v>
+      </c>
+      <c r="E786" t="s">
+        <v>2931</v>
+      </c>
+    </row>
+    <row r="787" spans="1:5">
+      <c r="A787" t="s">
+        <v>209</v>
+      </c>
+      <c r="B787" t="s">
+        <v>2932</v>
+      </c>
+      <c r="C787" t="s">
+        <v>2933</v>
+      </c>
+      <c r="D787" t="s">
+        <v>2934</v>
+      </c>
+      <c r="E787" t="s">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="788" spans="1:5">
+      <c r="A788" t="s">
+        <v>672</v>
+      </c>
+      <c r="C788" t="s">
+        <v>2936</v>
+      </c>
+      <c r="D788" t="s">
+        <v>2937</v>
+      </c>
+      <c r="E788" t="s">
+        <v>2938</v>
+      </c>
+    </row>
+    <row r="789" spans="1:5">
+      <c r="A789" t="s">
+        <v>339</v>
+      </c>
+      <c r="C789" t="s">
+        <v>2939</v>
+      </c>
+      <c r="D789" t="s">
+        <v>2940</v>
+      </c>
+      <c r="E789" t="s">
+        <v>2941</v>
+      </c>
+    </row>
+    <row r="790" spans="1:5">
+      <c r="A790" t="s">
+        <v>565</v>
+      </c>
+      <c r="B790" t="s">
+        <v>2460</v>
+      </c>
+      <c r="C790" t="s">
+        <v>2942</v>
+      </c>
+      <c r="D790" t="s">
+        <v>2943</v>
+      </c>
+      <c r="E790" t="s">
+        <v>2944</v>
+      </c>
+    </row>
+    <row r="791" spans="1:5">
+      <c r="A791" t="s">
+        <v>487</v>
+      </c>
+      <c r="B791" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C791" t="s">
+        <v>2945</v>
+      </c>
+      <c r="D791" t="s">
+        <v>2946</v>
+      </c>
+      <c r="E791" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="792" spans="1:5">
+      <c r="A792" t="s">
+        <v>149</v>
+      </c>
+      <c r="B792" t="s">
+        <v>2948</v>
+      </c>
+      <c r="C792" t="s">
+        <v>2949</v>
+      </c>
+      <c r="D792" t="s">
+        <v>2950</v>
+      </c>
+      <c r="E792" t="s">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="793" spans="1:5">
+      <c r="A793" t="s">
+        <v>2952</v>
+      </c>
+      <c r="B793" t="s">
+        <v>2936</v>
+      </c>
+      <c r="C793" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D793" t="s">
+        <v>2953</v>
+      </c>
+      <c r="E793" t="s">
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="794" spans="1:5">
+      <c r="A794" t="s">
+        <v>40</v>
+      </c>
+      <c r="B794" t="s">
+        <v>2955</v>
+      </c>
+      <c r="C794" t="s">
+        <v>2956</v>
+      </c>
+      <c r="D794" t="s">
+        <v>2957</v>
+      </c>
+      <c r="E794" t="s">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="795" spans="1:5">
+      <c r="A795" t="s">
+        <v>122</v>
+      </c>
+      <c r="B795" t="s">
+        <v>2497</v>
+      </c>
+      <c r="C795" t="s">
+        <v>2959</v>
+      </c>
+      <c r="D795" t="s">
+        <v>2960</v>
+      </c>
+      <c r="E795" t="s">
+        <v>2961</v>
+      </c>
+    </row>
+    <row r="796" spans="1:5">
+      <c r="A796" t="s">
+        <v>569</v>
+      </c>
+      <c r="B796" t="s">
+        <v>245</v>
+      </c>
+      <c r="C796" t="s">
+        <v>2962</v>
+      </c>
+      <c r="D796" t="s">
+        <v>2963</v>
+      </c>
+      <c r="E796" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="797" spans="1:5">
+      <c r="A797" t="s">
+        <v>35</v>
+      </c>
+      <c r="C797" t="s">
+        <v>570</v>
+      </c>
+      <c r="D797" t="s">
+        <v>2965</v>
+      </c>
+      <c r="E797" t="s">
+        <v>2966</v>
+      </c>
+    </row>
+    <row r="798" spans="1:5">
+      <c r="A798" t="s">
+        <v>130</v>
+      </c>
+      <c r="C798" t="s">
+        <v>2967</v>
+      </c>
+      <c r="D798" t="s">
+        <v>2968</v>
+      </c>
+      <c r="E798" t="s">
+        <v>2969</v>
+      </c>
+    </row>
+    <row r="799" spans="1:5">
+      <c r="A799" t="s">
+        <v>74</v>
+      </c>
+      <c r="B799" t="s">
+        <v>2970</v>
+      </c>
+      <c r="C799" t="s">
+        <v>2971</v>
+      </c>
+      <c r="D799" t="s">
+        <v>2972</v>
+      </c>
+      <c r="E799" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="800" spans="1:5">
+      <c r="A800" t="s">
+        <v>393</v>
+      </c>
+      <c r="C800" t="s">
+        <v>2974</v>
+      </c>
+      <c r="D800" t="s">
+        <v>2975</v>
+      </c>
+      <c r="E800" t="s">
+        <v>2976</v>
+      </c>
+    </row>
+    <row r="801" spans="1:5">
+      <c r="A801" t="s">
+        <v>214</v>
+      </c>
+      <c r="C801" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D801" t="s">
+        <v>2977</v>
+      </c>
+      <c r="E801" t="s">
+        <v>2978</v>
+      </c>
+    </row>
+    <row r="802" spans="1:5">
+      <c r="A802" t="s">
+        <v>2979</v>
+      </c>
+      <c r="C802" t="s">
+        <v>2980</v>
+      </c>
+      <c r="D802" t="s">
+        <v>2981</v>
+      </c>
+      <c r="E802" t="s">
+        <v>2982</v>
+      </c>
+    </row>
+    <row r="803" spans="1:5">
+      <c r="A803" t="s">
+        <v>2983</v>
+      </c>
+      <c r="C803" t="s">
+        <v>2984</v>
+      </c>
+      <c r="D803" t="s">
+        <v>2985</v>
+      </c>
+      <c r="E803" t="s">
+        <v>2986</v>
+      </c>
+    </row>
+    <row r="804" spans="1:5">
+      <c r="A804" t="s">
+        <v>2987</v>
+      </c>
+      <c r="B804" t="s">
+        <v>2988</v>
+      </c>
+      <c r="C804" t="s">
+        <v>2989</v>
+      </c>
+      <c r="D804" t="s">
+        <v>2990</v>
+      </c>
+      <c r="E804" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="805" spans="1:5">
+      <c r="A805" t="s">
+        <v>2691</v>
+      </c>
+      <c r="B805" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C805" t="s">
+        <v>2993</v>
+      </c>
+      <c r="D805" t="s">
+        <v>2994</v>
+      </c>
+      <c r="E805" t="s">
+        <v>2995</v>
+      </c>
+    </row>
+    <row r="806" spans="1:5">
+      <c r="A806" t="s">
+        <v>167</v>
+      </c>
+      <c r="C806" t="s">
+        <v>2996</v>
+      </c>
+      <c r="D806" t="s">
+        <v>2997</v>
+      </c>
+      <c r="E806" t="s">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="807" spans="1:5">
+      <c r="A807" t="s">
+        <v>672</v>
+      </c>
+      <c r="B807" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C807" t="s">
+        <v>2999</v>
+      </c>
+      <c r="D807" t="s">
+        <v>3000</v>
+      </c>
+      <c r="E807" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="808" spans="1:5">
+      <c r="A808" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B808" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C808" t="s">
+        <v>3002</v>
+      </c>
+      <c r="D808" t="s">
+        <v>3003</v>
+      </c>
+      <c r="E808" t="s">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="809" spans="1:5">
+      <c r="A809" t="s">
+        <v>487</v>
+      </c>
+      <c r="C809" t="s">
+        <v>1872</v>
+      </c>
+      <c r="D809" t="s">
+        <v>3005</v>
+      </c>
+      <c r="E809" t="s">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="810" spans="1:5">
+      <c r="A810" t="s">
+        <v>35</v>
+      </c>
+      <c r="B810" t="s">
+        <v>36</v>
+      </c>
+      <c r="C810" t="s">
+        <v>1869</v>
+      </c>
+      <c r="D810" t="s">
+        <v>3007</v>
+      </c>
+      <c r="E810" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="811" spans="1:5">
+      <c r="A811" t="s">
+        <v>122</v>
+      </c>
+      <c r="C811" t="s">
+        <v>3009</v>
+      </c>
+      <c r="D811" t="s">
+        <v>3010</v>
+      </c>
+      <c r="E811" t="s">
+        <v>3011</v>
+      </c>
+    </row>
+    <row r="812" spans="1:5">
+      <c r="A812" t="s">
+        <v>3012</v>
+      </c>
+      <c r="B812" t="s">
+        <v>3013</v>
+      </c>
+      <c r="C812" t="s">
+        <v>3014</v>
+      </c>
+      <c r="D812" t="s">
+        <v>3015</v>
+      </c>
+      <c r="E812" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="813" spans="1:5">
+      <c r="A813" t="s">
+        <v>144</v>
+      </c>
+      <c r="C813" t="s">
+        <v>3017</v>
+      </c>
+      <c r="D813" t="s">
+        <v>3018</v>
+      </c>
+      <c r="E813" t="s">
+        <v>3019</v>
+      </c>
+    </row>
+    <row r="814" spans="1:5">
+      <c r="A814" t="s">
+        <v>3020</v>
+      </c>
+      <c r="B814" t="s">
+        <v>808</v>
+      </c>
+      <c r="C814" t="s">
+        <v>3021</v>
+      </c>
+      <c r="D814" t="s">
+        <v>3022</v>
+      </c>
+      <c r="E814" t="s">
+        <v>3023</v>
+      </c>
+    </row>
+    <row r="815" spans="1:5">
+      <c r="A815" t="s">
+        <v>204</v>
+      </c>
+      <c r="B815" t="s">
+        <v>3024</v>
+      </c>
+      <c r="C815" t="s">
+        <v>3025</v>
+      </c>
+      <c r="D815" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E815" t="s">
+        <v>3027</v>
+      </c>
+    </row>
+    <row r="816" spans="1:5">
+      <c r="A816" t="s">
+        <v>149</v>
+      </c>
+      <c r="C816" t="s">
+        <v>3028</v>
+      </c>
+      <c r="D816" t="s">
+        <v>3029</v>
+      </c>
+      <c r="E816" t="s">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="817" spans="1:5">
+      <c r="A817" t="s">
+        <v>40</v>
+      </c>
+      <c r="B817" t="s">
+        <v>3031</v>
+      </c>
+      <c r="C817" t="s">
+        <v>2621</v>
+      </c>
+      <c r="D817" t="s">
+        <v>3032</v>
+      </c>
+      <c r="E817" t="s">
+        <v>3033</v>
+      </c>
+    </row>
+    <row r="818" spans="1:5">
+      <c r="A818" t="s">
+        <v>3034</v>
+      </c>
+      <c r="C818" t="s">
+        <v>3035</v>
+      </c>
+      <c r="D818" t="s">
+        <v>3036</v>
+      </c>
+      <c r="E818" t="s">
+        <v>3037</v>
+      </c>
+    </row>
+    <row r="819" spans="1:5">
+      <c r="A819" t="s">
+        <v>74</v>
+      </c>
+      <c r="B819" t="s">
+        <v>3038</v>
+      </c>
+      <c r="C819" t="s">
+        <v>3039</v>
+      </c>
+      <c r="D819" t="s">
+        <v>3040</v>
+      </c>
+      <c r="E819" t="s">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="820" spans="1:5">
+      <c r="A820" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C820" t="s">
+        <v>3042</v>
+      </c>
+      <c r="D820" t="s">
+        <v>3043</v>
+      </c>
+      <c r="E820" t="s">
+        <v>3044</v>
+      </c>
+    </row>
+    <row r="821" spans="1:5">
+      <c r="A821" t="s">
+        <v>3045</v>
+      </c>
+      <c r="B821" t="s">
+        <v>3046</v>
+      </c>
+      <c r="C821" t="s">
+        <v>3047</v>
+      </c>
+      <c r="D821" t="s">
+        <v>3048</v>
+      </c>
+      <c r="E821" t="s">
+        <v>3049</v>
+      </c>
+    </row>
+    <row r="822" spans="1:5">
+      <c r="A822" t="s">
+        <v>3050</v>
+      </c>
+      <c r="B822" t="s">
+        <v>3051</v>
+      </c>
+      <c r="C822" t="s">
+        <v>3052</v>
+      </c>
+      <c r="D822" t="s">
+        <v>3053</v>
+      </c>
+      <c r="E822" t="s">
+        <v>3054</v>
+      </c>
+    </row>
+    <row r="823" spans="1:5">
+      <c r="A823" t="s">
+        <v>79</v>
+      </c>
+      <c r="C823" t="s">
+        <v>3055</v>
+      </c>
+      <c r="D823" t="s">
+        <v>3056</v>
+      </c>
+      <c r="E823" t="s">
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="824" spans="1:5">
+      <c r="A824" t="s">
+        <v>3058</v>
+      </c>
+      <c r="C824" t="s">
+        <v>94</v>
+      </c>
+      <c r="D824" t="s">
+        <v>3059</v>
+      </c>
+      <c r="E824" t="s">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="825" spans="1:5">
+      <c r="A825" t="s">
+        <v>35</v>
+      </c>
+      <c r="C825" t="s">
+        <v>2744</v>
+      </c>
+      <c r="D825" t="s">
+        <v>3061</v>
+      </c>
+      <c r="E825" t="s">
+        <v>3062</v>
+      </c>
+    </row>
+    <row r="826" spans="1:5">
+      <c r="A826" t="s">
+        <v>318</v>
+      </c>
+      <c r="B826" t="s">
+        <v>3063</v>
+      </c>
+      <c r="C826" t="s">
+        <v>3064</v>
+      </c>
+      <c r="D826" t="s">
+        <v>3065</v>
+      </c>
+      <c r="E826" t="s">
+        <v>3066</v>
+      </c>
+    </row>
+    <row r="827" spans="1:5">
+      <c r="A827" t="s">
+        <v>122</v>
+      </c>
+      <c r="C827" t="s">
+        <v>3067</v>
+      </c>
+      <c r="D827" t="s">
+        <v>3068</v>
+      </c>
+      <c r="E827" t="s">
+        <v>3069</v>
+      </c>
+    </row>
+    <row r="828" spans="1:5">
+      <c r="A828" t="s">
+        <v>3070</v>
+      </c>
+      <c r="B828" t="s">
+        <v>3071</v>
+      </c>
+      <c r="C828" t="s">
+        <v>3072</v>
+      </c>
+      <c r="D828" t="s">
+        <v>3073</v>
+      </c>
+      <c r="E828" t="s">
+        <v>3074</v>
+      </c>
+    </row>
+    <row r="829" spans="1:5">
+      <c r="A829" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B829" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C829" t="s">
+        <v>3075</v>
+      </c>
+      <c r="D829" t="s">
+        <v>3076</v>
+      </c>
+      <c r="E829" t="s">
+        <v>3077</v>
+      </c>
+    </row>
+    <row r="830" spans="1:5">
+      <c r="A830" t="s">
+        <v>3078</v>
+      </c>
+      <c r="B830" t="s">
+        <v>3079</v>
+      </c>
+      <c r="C830" t="s">
+        <v>3080</v>
+      </c>
+      <c r="D830" t="s">
+        <v>3081</v>
+      </c>
+      <c r="E830" t="s">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="831" spans="1:5">
+      <c r="A831" t="s">
+        <v>3083</v>
+      </c>
+      <c r="C831" t="s">
+        <v>3084</v>
+      </c>
+      <c r="D831" t="s">
+        <v>3085</v>
+      </c>
+      <c r="E831" t="s">
+        <v>3086</v>
+      </c>
+    </row>
+    <row r="832" spans="1:5">
+      <c r="A832" t="s">
+        <v>53</v>
+      </c>
+      <c r="B832" t="s">
+        <v>3087</v>
+      </c>
+      <c r="C832" t="s">
+        <v>3088</v>
+      </c>
+      <c r="D832" t="s">
+        <v>3089</v>
+      </c>
+      <c r="E832" t="s">
+        <v>3090</v>
+      </c>
+    </row>
+    <row r="833" spans="1:5">
+      <c r="A833" t="s">
+        <v>695</v>
+      </c>
+      <c r="C833" t="s">
+        <v>3091</v>
+      </c>
+      <c r="D833" t="s">
+        <v>3092</v>
+      </c>
+      <c r="E833" t="s">
+        <v>3093</v>
+      </c>
+    </row>
+    <row r="834" spans="1:5">
+      <c r="A834" t="s">
+        <v>149</v>
+      </c>
+      <c r="B834" t="s">
+        <v>3094</v>
+      </c>
+      <c r="C834" t="s">
+        <v>3095</v>
+      </c>
+      <c r="D834" t="s">
+        <v>3096</v>
+      </c>
+      <c r="E834" t="s">
+        <v>3097</v>
+      </c>
+    </row>
+    <row r="835" spans="1:5">
+      <c r="A835" t="s">
+        <v>487</v>
+      </c>
+      <c r="C835" t="s">
+        <v>3098</v>
+      </c>
+      <c r="D835" t="s">
+        <v>3099</v>
+      </c>
+      <c r="E835" t="s">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="836" spans="1:5">
+      <c r="A836" t="s">
+        <v>3101</v>
+      </c>
+      <c r="B836" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C836" t="s">
+        <v>3102</v>
+      </c>
+      <c r="D836" t="s">
+        <v>3103</v>
+      </c>
+      <c r="E836" t="s">
+        <v>3104</v>
+      </c>
+    </row>
+    <row r="837" spans="1:5">
+      <c r="A837" t="s">
+        <v>117</v>
+      </c>
+      <c r="C837" t="s">
+        <v>3105</v>
+      </c>
+      <c r="D837" t="s">
+        <v>3106</v>
+      </c>
+      <c r="E837" t="s">
+        <v>3107</v>
+      </c>
+    </row>
+    <row r="838" spans="1:5">
+      <c r="A838" t="s">
+        <v>621</v>
+      </c>
+      <c r="C838" t="s">
+        <v>105</v>
+      </c>
+      <c r="D838" t="s">
+        <v>3108</v>
+      </c>
+      <c r="E838" t="s">
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="839" spans="1:5">
+      <c r="A839" t="s">
+        <v>415</v>
+      </c>
+      <c r="B839" t="s">
+        <v>259</v>
+      </c>
+      <c r="C839" t="s">
+        <v>2740</v>
+      </c>
+      <c r="D839" t="s">
+        <v>3110</v>
+      </c>
+      <c r="E839" t="s">
+        <v>3111</v>
+      </c>
+    </row>
+    <row r="840" spans="1:5">
+      <c r="A840" t="s">
+        <v>249</v>
+      </c>
+      <c r="B840" t="s">
+        <v>3112</v>
+      </c>
+      <c r="C840" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D840" t="s">
+        <v>3113</v>
+      </c>
+      <c r="E840" t="s">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="841" spans="1:5">
+      <c r="A841" t="s">
+        <v>2370</v>
+      </c>
+      <c r="B841" t="s">
+        <v>3115</v>
+      </c>
+      <c r="C841" t="s">
+        <v>3116</v>
+      </c>
+      <c r="D841" t="s">
+        <v>3117</v>
+      </c>
+      <c r="E841" t="s">
+        <v>3118</v>
+      </c>
+    </row>
+    <row r="842" spans="1:5">
+      <c r="A842" t="s">
+        <v>2824</v>
+      </c>
+      <c r="B842" t="s">
+        <v>3119</v>
+      </c>
+      <c r="C842" t="s">
+        <v>3120</v>
+      </c>
+      <c r="D842" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E842" t="s">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="843" spans="1:5">
+      <c r="A843" t="s">
+        <v>3123</v>
+      </c>
+      <c r="B843" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C843" t="s">
+        <v>3124</v>
+      </c>
+      <c r="D843" t="s">
+        <v>3125</v>
+      </c>
+      <c r="E843" t="s">
+        <v>3126</v>
+      </c>
+    </row>
+    <row r="844" spans="1:5">
+      <c r="A844" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C844" t="s">
+        <v>2549</v>
+      </c>
+      <c r="D844" t="s">
+        <v>3127</v>
+      </c>
+      <c r="E844" t="s">
+        <v>3128</v>
+      </c>
+    </row>
+    <row r="845" spans="1:5">
+      <c r="A845" t="s">
+        <v>98</v>
+      </c>
+      <c r="B845" t="s">
+        <v>3129</v>
+      </c>
+      <c r="C845" t="s">
+        <v>3130</v>
+      </c>
+      <c r="D845" t="s">
+        <v>3131</v>
+      </c>
+      <c r="E845" t="s">
+        <v>3132</v>
+      </c>
+    </row>
+    <row r="846" spans="1:5">
+      <c r="A846" t="s">
+        <v>26</v>
+      </c>
+      <c r="B846" t="s">
+        <v>3133</v>
+      </c>
+      <c r="C846" t="s">
+        <v>3134</v>
+      </c>
+      <c r="D846" t="s">
+        <v>3135</v>
+      </c>
+      <c r="E846" t="s">
+        <v>3136</v>
+      </c>
+    </row>
+    <row r="847" spans="1:5">
+      <c r="A847" t="s">
+        <v>214</v>
+      </c>
+      <c r="C847" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D847" t="s">
+        <v>3138</v>
+      </c>
+      <c r="E847" t="s">
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="848" spans="1:5">
+      <c r="A848" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C848" t="s">
+        <v>3140</v>
+      </c>
+      <c r="D848" t="s">
+        <v>3141</v>
+      </c>
+      <c r="E848" t="s">
+        <v>3142</v>
+      </c>
+    </row>
+    <row r="849" spans="1:5">
+      <c r="A849" t="s">
+        <v>35</v>
+      </c>
+      <c r="C849" t="s">
+        <v>90</v>
+      </c>
+      <c r="D849" t="s">
+        <v>3143</v>
+      </c>
+      <c r="E849" t="s">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="850" spans="1:5">
+      <c r="A850" t="s">
+        <v>79</v>
+      </c>
+      <c r="B850" t="s">
+        <v>3145</v>
+      </c>
+      <c r="C850" t="s">
+        <v>356</v>
+      </c>
+      <c r="D850" t="s">
+        <v>3146</v>
+      </c>
+      <c r="E850" t="s">
+        <v>3147</v>
+      </c>
+    </row>
+    <row r="851" spans="1:5">
+      <c r="A851" t="s">
+        <v>139</v>
+      </c>
+      <c r="C851" t="s">
+        <v>3148</v>
+      </c>
+      <c r="D851" t="s">
+        <v>3149</v>
+      </c>
+      <c r="E851" t="s">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="852" spans="1:5">
+      <c r="A852" t="s">
+        <v>522</v>
+      </c>
+      <c r="C852" t="s">
+        <v>3151</v>
+      </c>
+      <c r="D852" t="s">
+        <v>3152</v>
+      </c>
+      <c r="E852" t="s">
+        <v>3153</v>
+      </c>
+    </row>
+    <row r="853" spans="1:5">
+      <c r="A853" t="s">
+        <v>40</v>
+      </c>
+      <c r="C853" t="s">
+        <v>3154</v>
+      </c>
+      <c r="D853" t="s">
+        <v>3155</v>
+      </c>
+      <c r="E853" t="s">
+        <v>3156</v>
+      </c>
+    </row>
+    <row r="854" spans="1:5">
+      <c r="A854" t="s">
+        <v>3157</v>
+      </c>
+      <c r="B854" t="s">
+        <v>245</v>
+      </c>
+      <c r="C854" t="s">
+        <v>3158</v>
+      </c>
+      <c r="D854" t="s">
+        <v>3159</v>
+      </c>
+      <c r="E854" t="s">
+        <v>3160</v>
+      </c>
+    </row>
+    <row r="855" spans="1:5">
+      <c r="A855" t="s">
+        <v>3161</v>
+      </c>
+      <c r="B855" t="s">
+        <v>3162</v>
+      </c>
+      <c r="C855" t="s">
+        <v>3163</v>
+      </c>
+      <c r="D855" t="s">
+        <v>3164</v>
+      </c>
+      <c r="E855" t="s">
+        <v>3165</v>
+      </c>
+    </row>
+    <row r="856" spans="1:5">
+      <c r="A856" t="s">
+        <v>565</v>
+      </c>
+      <c r="C856" t="s">
+        <v>3166</v>
+      </c>
+      <c r="D856" t="s">
+        <v>3167</v>
+      </c>
+      <c r="E856" t="s">
+        <v>3168</v>
+      </c>
+    </row>
+    <row r="857" spans="1:5">
+      <c r="A857" t="s">
+        <v>3169</v>
+      </c>
+      <c r="C857" t="s">
+        <v>3170</v>
+      </c>
+      <c r="D857" t="s">
+        <v>3171</v>
+      </c>
+      <c r="E857" t="s">
+        <v>3172</v>
+      </c>
+    </row>
+    <row r="858" spans="1:5">
+      <c r="A858" t="s">
+        <v>167</v>
+      </c>
+      <c r="C858" t="s">
+        <v>3173</v>
+      </c>
+      <c r="D858" t="s">
+        <v>3174</v>
+      </c>
+      <c r="E858" t="s">
+        <v>3175</v>
+      </c>
+    </row>
+    <row r="859" spans="1:5">
+      <c r="A859" t="s">
+        <v>3176</v>
+      </c>
+      <c r="B859" t="s">
+        <v>3177</v>
+      </c>
+      <c r="C859" t="s">
+        <v>3178</v>
+      </c>
+      <c r="D859" t="s">
+        <v>3179</v>
+      </c>
+      <c r="E859" t="s">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="860" spans="1:5">
+      <c r="A860" t="s">
+        <v>3181</v>
+      </c>
+      <c r="C860" t="s">
+        <v>2236</v>
+      </c>
+      <c r="D860" t="s">
+        <v>3182</v>
+      </c>
+      <c r="E860" t="s">
+        <v>3183</v>
+      </c>
+    </row>
+    <row r="861" spans="1:5">
+      <c r="A861" t="s">
+        <v>3184</v>
+      </c>
+      <c r="B861" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C861" t="s">
+        <v>3185</v>
+      </c>
+      <c r="D861" t="s">
+        <v>3186</v>
+      </c>
+      <c r="E861" t="s">
+        <v>3187</v>
+      </c>
+    </row>
+    <row r="862" spans="1:5">
+      <c r="A862" t="s">
+        <v>88</v>
+      </c>
+      <c r="C862" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D862" t="s">
+        <v>3189</v>
+      </c>
+      <c r="E862" t="s">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="863" spans="1:5">
+      <c r="A863" t="s">
+        <v>3191</v>
+      </c>
+      <c r="C863" t="s">
+        <v>3192</v>
+      </c>
+      <c r="D863" t="s">
+        <v>3193</v>
+      </c>
+      <c r="E863" t="s">
+        <v>3194</v>
+      </c>
+    </row>
+    <row r="864" spans="1:5">
+      <c r="A864" t="s">
+        <v>3195</v>
+      </c>
+      <c r="B864" t="s">
+        <v>3196</v>
+      </c>
+      <c r="C864" t="s">
+        <v>3197</v>
+      </c>
+      <c r="D864" t="s">
+        <v>3198</v>
+      </c>
+      <c r="E864" t="s">
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="865" spans="1:5">
+      <c r="A865" t="s">
+        <v>3200</v>
+      </c>
+      <c r="C865" t="s">
+        <v>3201</v>
+      </c>
+      <c r="D865" t="s">
+        <v>3202</v>
+      </c>
+      <c r="E865" t="s">
+        <v>3203</v>
+      </c>
+    </row>
+    <row r="866" spans="1:5">
+      <c r="A866" t="s">
+        <v>3204</v>
+      </c>
+      <c r="B866" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C866" t="s">
+        <v>3205</v>
+      </c>
+      <c r="D866" t="s">
+        <v>3206</v>
+      </c>
+      <c r="E866" t="s">
+        <v>3207</v>
+      </c>
+    </row>
+    <row r="867" spans="1:5">
+      <c r="A867" t="s">
+        <v>749</v>
+      </c>
+      <c r="C867" t="s">
+        <v>3208</v>
+      </c>
+      <c r="D867" t="s">
+        <v>3209</v>
+      </c>
+      <c r="E867" t="s">
+        <v>3210</v>
+      </c>
+    </row>
+    <row r="868" spans="1:5">
+      <c r="A868" t="s">
+        <v>139</v>
+      </c>
+      <c r="C868" t="s">
+        <v>3211</v>
+      </c>
+      <c r="D868" t="s">
+        <v>3212</v>
+      </c>
+      <c r="E868" t="s">
+        <v>3213</v>
+      </c>
+    </row>
+    <row r="869" spans="1:5">
+      <c r="A869" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B869" t="s">
+        <v>3214</v>
+      </c>
+      <c r="C869" t="s">
+        <v>2096</v>
+      </c>
+      <c r="D869" t="s">
+        <v>3215</v>
+      </c>
+      <c r="E869" t="s">
+        <v>3216</v>
+      </c>
+    </row>
+    <row r="870" spans="1:5">
+      <c r="A870" t="s">
+        <v>18</v>
+      </c>
+      <c r="C870" t="s">
+        <v>3217</v>
+      </c>
+      <c r="D870" t="s">
+        <v>3218</v>
+      </c>
+      <c r="E870" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="871" spans="1:5">
+      <c r="A871" t="s">
+        <v>318</v>
+      </c>
+      <c r="B871" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C871" t="s">
+        <v>3219</v>
+      </c>
+      <c r="D871" t="s">
+        <v>3220</v>
+      </c>
+      <c r="E871" t="s">
+        <v>3221</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>

--- a/songs.xlsx
+++ b/songs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3493">
   <si>
     <t>Pied Pipers</t>
   </si>
@@ -9681,6 +9681,819 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=_VBrTQw-2aI</t>
+  </si>
+  <si>
+    <t>The Caissons Go Rolling Along (42)</t>
+  </si>
+  <si>
+    <t>The Caissons Go Rolling Along (42)-Bob Crosby</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=auu7pQWODaI</t>
+  </si>
+  <si>
+    <t>Enric Madriguera</t>
+  </si>
+  <si>
+    <t>Carioca-Enric Madriguera</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DKn6wqJRfLs</t>
+  </si>
+  <si>
+    <t>Joe Liggins &amp; The Honeydrippers</t>
+  </si>
+  <si>
+    <t>The Big Dipper</t>
+  </si>
+  <si>
+    <t>The Big Dipper-Joe Liggins &amp; The Honeydrippers</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TE27GQ7O39o</t>
+  </si>
+  <si>
+    <t>Nat King Cole &amp; Stan Kenton</t>
+  </si>
+  <si>
+    <t>Orange Colored Sky</t>
+  </si>
+  <si>
+    <t>Orange Colored Sky-Nat King Cole &amp; Stan Kenton</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ad6EL-qTGl8</t>
+  </si>
+  <si>
+    <t>Four or Five Times</t>
+  </si>
+  <si>
+    <t>Four or Five Times-Jimmie Lunceford</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GOHL5pY4ICY</t>
+  </si>
+  <si>
+    <t>Boyd Raeburn v/Marjorie Wood</t>
+  </si>
+  <si>
+    <t>Boyd Raeburn And His Orchestra 1</t>
+  </si>
+  <si>
+    <t>Milkman, Keep Those Bottles Quiet (</t>
+  </si>
+  <si>
+    <t>Milkman, Keep Those Bottles Quiet (-Boyd Raeburn v/Marjorie Wood</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pllqdw6YsX8</t>
+  </si>
+  <si>
+    <t>The Liltin' Miss Tilton</t>
+  </si>
+  <si>
+    <t>How Are Things In Glocca Morra (47)</t>
+  </si>
+  <si>
+    <t>How Are Things In Glocca Morra (47)-Martha Tilton</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ld4OiLMUz1w</t>
+  </si>
+  <si>
+    <t>Change Partners</t>
+  </si>
+  <si>
+    <t>Change Partners-Jimmy Dorsey</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=75Wt5HuaogI</t>
+  </si>
+  <si>
+    <t>WB Studio Orch &amp; Benny Goodman</t>
+  </si>
+  <si>
+    <t>Hooray For Hollywood</t>
+  </si>
+  <si>
+    <t>Hooray For Hollywood-WB Studio Orch &amp; Benny Goodman</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=d2DfSAuSmso</t>
+  </si>
+  <si>
+    <t>Daddy (46)</t>
+  </si>
+  <si>
+    <t>Daddy (46)-Harry James</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=x2kdwS5PEU8</t>
+  </si>
+  <si>
+    <t>There'll Be Bluebirds Over The WHit</t>
+  </si>
+  <si>
+    <t>There'll Be Bluebirds Over The WHit-Kay Kyser</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oIQbDtUg8U8</t>
+  </si>
+  <si>
+    <t>A Portrait Of Louis Armstrong</t>
+  </si>
+  <si>
+    <t>Cuban Pete</t>
+  </si>
+  <si>
+    <t>Cuban Pete-Louis Armstrong</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wudIQcx0-EQ</t>
+  </si>
+  <si>
+    <t>Kay Starr</t>
+  </si>
+  <si>
+    <t>So Tired</t>
+  </si>
+  <si>
+    <t>So Tired-Kay Starr</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=C2RkvMxL2Fo</t>
+  </si>
+  <si>
+    <t>Pistol Packin' Mama (43)</t>
+  </si>
+  <si>
+    <t>Pistol Packin' Mama (43)-Bing Crosby/Andrews Sisters</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PjgqQcKE3DY</t>
+  </si>
+  <si>
+    <t>Pied Pipers Collectors Series</t>
+  </si>
+  <si>
+    <t>Open The Door Richard (47)-Pied Pipers</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=W0zcXw3mA_c</t>
+  </si>
+  <si>
+    <t>I Hear Music (40)-Billie Holiday</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QE89uBF6mXo</t>
+  </si>
+  <si>
+    <t>Glen Gray v/Kenny Sargent</t>
+  </si>
+  <si>
+    <t>The Complete Okeh and Brunswick Hits</t>
+  </si>
+  <si>
+    <t>Under The Blanket Of Blue</t>
+  </si>
+  <si>
+    <t>Under The Blanket Of Blue-Glen Gray v/Kenny Sargent</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=o6DUmffZPFw</t>
+  </si>
+  <si>
+    <t>Stardreams (41)</t>
+  </si>
+  <si>
+    <t>Stardreams (41)-Charlie Spivak</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hrZzBHyTGLw</t>
+  </si>
+  <si>
+    <t>Tampico</t>
+  </si>
+  <si>
+    <t>It's A Pity To Say Goodnight (46)</t>
+  </si>
+  <si>
+    <t>It's A Pity To Say Goodnight (46)-Stan Kenton v/June Christy</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Osljww2unGU</t>
+  </si>
+  <si>
+    <t>Leap Frog (45)</t>
+  </si>
+  <si>
+    <t>Leap Frog (45)-Les Brown</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NhnSFQVI_Oc</t>
+  </si>
+  <si>
+    <t>Take Five: 1945-1948</t>
+  </si>
+  <si>
+    <t>Rainy Night In Rio (46)</t>
+  </si>
+  <si>
+    <t>Rainy Night In Rio (46)-Sam Donahue</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UFQ67v55B_I</t>
+  </si>
+  <si>
+    <t>Inst</t>
+  </si>
+  <si>
+    <t>Topsy</t>
+  </si>
+  <si>
+    <t>Topsy-Count Basie</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=svbHFH92rHY</t>
+  </si>
+  <si>
+    <t>Early Years, Pts. 1-2</t>
+  </si>
+  <si>
+    <t>Stairway To The Stars-Ella Fitzgerald</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Z9zsf7reJTo</t>
+  </si>
+  <si>
+    <t>Richard Himber</t>
+  </si>
+  <si>
+    <t>The Song Is Cole Porter</t>
+  </si>
+  <si>
+    <t>Just One of Those Things</t>
+  </si>
+  <si>
+    <t>Just One of Those Things-Richard Himber</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MAGTcRsXZOY</t>
+  </si>
+  <si>
+    <t>Mr. B &amp; the Bebop Band</t>
+  </si>
+  <si>
+    <t>Prisoner Of Love (46)</t>
+  </si>
+  <si>
+    <t>Prisoner Of Love (46)-Billy Eckstine</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VWuGF-Xh-RM</t>
+  </si>
+  <si>
+    <t>Jazz  The Definitive Performance</t>
+  </si>
+  <si>
+    <t>'Tain't What You Do (It's The Way T</t>
+  </si>
+  <si>
+    <t>'Tain't What You Do (It's The Way T-Jimmie Lunceford</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1SkoD2CIakQ</t>
+  </si>
+  <si>
+    <t>Franklin Mint Big Band Era</t>
+  </si>
+  <si>
+    <t>My Shawl (40)</t>
+  </si>
+  <si>
+    <t>My Shawl (40)-Xavier Cugat</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DaxYvLxlpsQ</t>
+  </si>
+  <si>
+    <t>I'll Be Seeing You (44)-Tommy Dorsey v/Frank Sinatra</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4kqjq6UaIEk</t>
+  </si>
+  <si>
+    <t>Ames Brothers o/Les Brown</t>
+  </si>
+  <si>
+    <t>No Moon At All</t>
+  </si>
+  <si>
+    <t>No Moon At All-Ames Brothers o/Les Brown</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6MJtalAsRJI</t>
+  </si>
+  <si>
+    <t>Commodore Clipper (43)</t>
+  </si>
+  <si>
+    <t>Commodore Clipper (43)-Vaughn Monroe</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=abkLyIwMfo0</t>
+  </si>
+  <si>
+    <t>Betty Garrett</t>
+  </si>
+  <si>
+    <t>Buttons And Bows (48)</t>
+  </si>
+  <si>
+    <t>Buttons And Bows (48)-Betty Garrett</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dMNJ7Fm31zs</t>
+  </si>
+  <si>
+    <t>Street Of Dreams (46)</t>
+  </si>
+  <si>
+    <t>Street Of Dreams (46)-Boyd Raeburn</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ueaZTu2Qgzs</t>
+  </si>
+  <si>
+    <t>Golden Age Of The Ink Spots</t>
+  </si>
+  <si>
+    <t>The Best Things In Life Are Free</t>
+  </si>
+  <si>
+    <t>The Best Things In Life Are Free-Ink Spots</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=CQE8LVamYFk</t>
+  </si>
+  <si>
+    <t>Three Little Words (40)</t>
+  </si>
+  <si>
+    <t>Three Little Words (40)-Gene Krupa</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JgIixJJhNFI</t>
+  </si>
+  <si>
+    <t>Chicago (46)</t>
+  </si>
+  <si>
+    <t>Chicago (46)-Duke Ellington</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rZTuJTjsHYY</t>
+  </si>
+  <si>
+    <t>Nellie Lutcher &amp; Nat King Cole</t>
+  </si>
+  <si>
+    <t>For You My Love (49)</t>
+  </si>
+  <si>
+    <t>For You My Love (49)-Nellie Lutcher &amp; Nat King Cole</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Dz3VDfLklYc</t>
+  </si>
+  <si>
+    <t>Sings the Rodgers and Hart Song Book</t>
+  </si>
+  <si>
+    <t>Manhattan</t>
+  </si>
+  <si>
+    <t>Manhattan-Ella Fitzgerald</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YJsa0OfWcGA</t>
+  </si>
+  <si>
+    <t>Shine</t>
+  </si>
+  <si>
+    <t>Shine-Harry James</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OvAv74MIods</t>
+  </si>
+  <si>
+    <t>Bob Crosby v/Bob C and Marian Mann</t>
+  </si>
+  <si>
+    <t>The Big Noise</t>
+  </si>
+  <si>
+    <t>Two Sleepy People (44)</t>
+  </si>
+  <si>
+    <t>Two Sleepy People (44)-Bob Crosby v/Bob C and Marian Mann</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qCFSBmQ5_PQ</t>
+  </si>
+  <si>
+    <t>The Best of the Roulette Years</t>
+  </si>
+  <si>
+    <t>The Kid From Red Bank (41)</t>
+  </si>
+  <si>
+    <t>The Kid From Red Bank (41)-Count Basie</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=H6_p8fAQyO0</t>
+  </si>
+  <si>
+    <t>Do Nothin' Till You Hear F... (44)</t>
+  </si>
+  <si>
+    <t>Do Nothin' Till You Hear F... (44)-Woody Herman</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=G9m9RaN1hcw</t>
+  </si>
+  <si>
+    <t>Zip-A-Dee Doo-Dah (47)</t>
+  </si>
+  <si>
+    <t>Zip-A-Dee Doo-Dah (47)-Modernaires</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=spj1_d0pw18</t>
+  </si>
+  <si>
+    <t>Billie's Blues</t>
+  </si>
+  <si>
+    <t>Billie's Blues-Billie Holiday</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FVS8_vOkJNU</t>
+  </si>
+  <si>
+    <t>Stop, Look and Listen</t>
+  </si>
+  <si>
+    <t>Stop, Look and Listen-Ralph Flanagan</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4-GvACaqpN4</t>
+  </si>
+  <si>
+    <t>Stan Kenton v/Chris Connor</t>
+  </si>
+  <si>
+    <t>Capitol 2388</t>
+  </si>
+  <si>
+    <t>And The Bull Walked Around... (46)</t>
+  </si>
+  <si>
+    <t>And The Bull Walked Around... (46)-Stan Kenton v/Chris Connor</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GL14z9uU6fs</t>
+  </si>
+  <si>
+    <t>Roger Wolfe Kahn</t>
+  </si>
+  <si>
+    <t>She's A Great Great Girl (1928)</t>
+  </si>
+  <si>
+    <t>She's A Great Great Girl (1928)-Roger Wolfe Kahn</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4Ci62dIrDyg</t>
+  </si>
+  <si>
+    <t>Bunny Berigan and the Rhythm Mak</t>
+  </si>
+  <si>
+    <t>Sing You Sinners</t>
+  </si>
+  <si>
+    <t>Sing You Sinners-Bunny Berigan</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VIm4FH1RG44</t>
+  </si>
+  <si>
+    <t>Don't Cry Joe (49)-Frank Sinatra</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a-q6BwpqW0w</t>
+  </si>
+  <si>
+    <t>When You Wish Upon a Star (40)</t>
+  </si>
+  <si>
+    <t>When You Wish Upon a Star (40)-Glenn Miller</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eYiz5zXkpz0</t>
+  </si>
+  <si>
+    <t>Lester Lannin</t>
+  </si>
+  <si>
+    <t>Just One Of Those Thing (40)</t>
+  </si>
+  <si>
+    <t>Just One Of Those Thing (40)-Lester Lannin</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TPJpsQQeq1A</t>
+  </si>
+  <si>
+    <t>Deep Purple-Jimmy Dorsey</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=U9CynnKu4ds</t>
+  </si>
+  <si>
+    <t>Sometimes I'm Happy</t>
+  </si>
+  <si>
+    <t>Sometimes I'm Happy-Jo Stafford</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_FoCME5VOjY</t>
+  </si>
+  <si>
+    <t>Oh! Lady Be Good</t>
+  </si>
+  <si>
+    <t>Oh! Lady Be Good-Artie Shaw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UKFiDslrSkU</t>
+  </si>
+  <si>
+    <t>Nevertheless (I'm in Love With You)-Mills Brothers</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7qQMntAr9aM</t>
+  </si>
+  <si>
+    <t>Well All Right (Tonight's the Night</t>
+  </si>
+  <si>
+    <t>Well All Right (Tonight's the Night-Andrews Sisters</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UpiPCjBNGxY</t>
+  </si>
+  <si>
+    <t>I Found A New Baby (41)</t>
+  </si>
+  <si>
+    <t>I Found A New Baby (41)-Harry James</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UMRjn2Wxdfo</t>
+  </si>
+  <si>
+    <t>Sammy Kaye v/Tony Alamo</t>
+  </si>
+  <si>
+    <t>Swing And Sway With Sammy Kaye:</t>
+  </si>
+  <si>
+    <t>Harbor Lights-Sammy Kaye v/Tony Alamo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=obFCM0OpEMI</t>
+  </si>
+  <si>
+    <t>Vol. 3 - Greatest Hits of the 50</t>
+  </si>
+  <si>
+    <t>Lisbon Antigua</t>
+  </si>
+  <si>
+    <t>Lisbon Antigua-Nelson Riddle</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GeKB3YYV-KQ</t>
+  </si>
+  <si>
+    <t>Mary Martin/Kenny Baker</t>
+  </si>
+  <si>
+    <t>The Broadway Musical - Vol. 3</t>
+  </si>
+  <si>
+    <t>Speak Low (43)</t>
+  </si>
+  <si>
+    <t>Speak Low (43)-Mary Martin/Kenny Baker</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3Ohc5vCrrWo</t>
+  </si>
+  <si>
+    <t>Ball Of Fire (41)</t>
+  </si>
+  <si>
+    <t>Ball Of Fire (41)-Gene Krupa</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=D1QQ8UyBFoA</t>
+  </si>
+  <si>
+    <t>Rosemary Clooney o/Percy Faith</t>
+  </si>
+  <si>
+    <t>16 Biggest Hits</t>
+  </si>
+  <si>
+    <t>Blues In The Night-Rosemary Clooney o/Percy Faith</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GY0NlqWQMcw</t>
+  </si>
+  <si>
+    <t>Begin The Beguine (44)</t>
+  </si>
+  <si>
+    <t>Begin The Beguine (44)-Frank Sinatra</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=aZdyAdWTzRg</t>
+  </si>
+  <si>
+    <t>The Red We Want Is The Red We Got</t>
+  </si>
+  <si>
+    <t>The Red We Want Is The Red We Got-Ralph Flanagan</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JR2VdsueOLg</t>
+  </si>
+  <si>
+    <t>I'm Gonna Lock My Heart (And Throw</t>
+  </si>
+  <si>
+    <t>I'm Gonna Lock My Heart (And Throw-Billie Holiday</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iOv1pjl_UC8</t>
+  </si>
+  <si>
+    <t>1942-1944</t>
+  </si>
+  <si>
+    <t>Perdido (41)</t>
+  </si>
+  <si>
+    <t>Perdido (41)-Duke Ellington</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KfVJuLa0VpU</t>
+  </si>
+  <si>
+    <t>Meet Me Tonight In Dreamland</t>
+  </si>
+  <si>
+    <t>Meet Me Tonight In Dreamland-Glen Gray</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BUyLay8jbZU</t>
+  </si>
+  <si>
+    <t>Johnny One Note</t>
+  </si>
+  <si>
+    <t>Johnny One Note-Anita O'Day</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xoGW3aAIvAI</t>
+  </si>
+  <si>
+    <t>At Sundown</t>
+  </si>
+  <si>
+    <t>At Sundown-Artie Shaw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sYZWZA_Nxzw</t>
+  </si>
+  <si>
+    <t>Dick Haymes With Harry James</t>
+  </si>
+  <si>
+    <t>Maybe (40)</t>
+  </si>
+  <si>
+    <t>Maybe (40)-Harry James v/Dick Haymes</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZBzcAWXl1jE</t>
+  </si>
+  <si>
+    <t>Nellie Lutcher</t>
+  </si>
+  <si>
+    <t>Real Gone!/Our New Nellie</t>
+  </si>
+  <si>
+    <t>Fine Brown Frame (43)</t>
+  </si>
+  <si>
+    <t>Fine Brown Frame (43)-Nellie Lutcher</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1BPH8aDSd5s</t>
+  </si>
+  <si>
+    <t>Bing Crosby/Andrews Sisters/Dick Ha</t>
+  </si>
+  <si>
+    <t>There's No Business Like Sh... (47)</t>
+  </si>
+  <si>
+    <t>There's No Business Like Sh... (47)-Bing Crosby/Andrews Sisters/Dick Ha</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QrVaObffYNw</t>
+  </si>
+  <si>
+    <t>Anchors Aweigh (42)</t>
+  </si>
+  <si>
+    <t>Anchors Aweigh (42)-Bob Crosby</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GdIMCof1q6E</t>
+  </si>
+  <si>
+    <t>Romance In The Dark</t>
+  </si>
+  <si>
+    <t>Romance In The Dark-Larry Clinton v/Bea Wain</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FPXOEIRX_ng</t>
+  </si>
+  <si>
+    <t>Jimmy Dorsey v/B Eberly/K Kallen</t>
+  </si>
+  <si>
+    <t>Besame Mucho (43)</t>
+  </si>
+  <si>
+    <t>Besame Mucho (43)-Jimmy Dorsey v/B Eberly/K Kallen</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MA-MeaALXDY</t>
+  </si>
+  <si>
+    <t>The Continental-Les Elgart</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=I0P0JkvGHaw</t>
+  </si>
+  <si>
+    <t>Columbia 37885</t>
+  </si>
+  <si>
+    <t>Civilization (Bongo Bongo...) (48)</t>
+  </si>
+  <si>
+    <t>Civilization (Bongo Bongo...) (48)-Woody Herman</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UHAyOZBza0U</t>
+  </si>
+  <si>
+    <t>Crosstown Trolley (45)</t>
+  </si>
+  <si>
+    <t>Crosstown Trolley (45)-Les Brown</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=M1hVZxZw9i0</t>
+  </si>
+  <si>
+    <t>Maxine Sullivan</t>
+  </si>
+  <si>
+    <t>Nice Work If You Can Get It-Maxine Sullivan</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dysN2L0SjWA</t>
   </si>
 </sst>
 </file>
@@ -10050,7 +10863,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A2:E871"/>
+  <dimension ref="A2:E949"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A63" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A78" activeCellId="0" pane="topLeft" sqref="A78"/>
@@ -23740,6 +24553,1234 @@
         <v>3221</v>
       </c>
     </row>
+    <row r="872" spans="1:5">
+      <c r="A872" t="s">
+        <v>280</v>
+      </c>
+      <c r="C872" t="s">
+        <v>3222</v>
+      </c>
+      <c r="D872" t="s">
+        <v>3223</v>
+      </c>
+      <c r="E872" t="s">
+        <v>3224</v>
+      </c>
+    </row>
+    <row r="873" spans="1:5">
+      <c r="A873" t="s">
+        <v>3225</v>
+      </c>
+      <c r="C873" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D873" t="s">
+        <v>3226</v>
+      </c>
+      <c r="E873" t="s">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="874" spans="1:5">
+      <c r="A874" t="s">
+        <v>3228</v>
+      </c>
+      <c r="C874" t="s">
+        <v>3229</v>
+      </c>
+      <c r="D874" t="s">
+        <v>3230</v>
+      </c>
+      <c r="E874" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="875" spans="1:5">
+      <c r="A875" t="s">
+        <v>3232</v>
+      </c>
+      <c r="B875" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C875" t="s">
+        <v>3233</v>
+      </c>
+      <c r="D875" t="s">
+        <v>3234</v>
+      </c>
+      <c r="E875" t="s">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="876" spans="1:5">
+      <c r="A876" t="s">
+        <v>309</v>
+      </c>
+      <c r="C876" t="s">
+        <v>3236</v>
+      </c>
+      <c r="D876" t="s">
+        <v>3237</v>
+      </c>
+      <c r="E876" t="s">
+        <v>3238</v>
+      </c>
+    </row>
+    <row r="877" spans="1:5">
+      <c r="A877" t="s">
+        <v>3239</v>
+      </c>
+      <c r="B877" t="s">
+        <v>3240</v>
+      </c>
+      <c r="C877" t="s">
+        <v>3241</v>
+      </c>
+      <c r="D877" t="s">
+        <v>3242</v>
+      </c>
+      <c r="E877" t="s">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="878" spans="1:5">
+      <c r="A878" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B878" t="s">
+        <v>3244</v>
+      </c>
+      <c r="C878" t="s">
+        <v>3245</v>
+      </c>
+      <c r="D878" t="s">
+        <v>3246</v>
+      </c>
+      <c r="E878" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="879" spans="1:5">
+      <c r="A879" t="s">
+        <v>88</v>
+      </c>
+      <c r="C879" t="s">
+        <v>3248</v>
+      </c>
+      <c r="D879" t="s">
+        <v>3249</v>
+      </c>
+      <c r="E879" t="s">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="880" spans="1:5">
+      <c r="A880" t="s">
+        <v>3251</v>
+      </c>
+      <c r="C880" t="s">
+        <v>3252</v>
+      </c>
+      <c r="D880" t="s">
+        <v>3253</v>
+      </c>
+      <c r="E880" t="s">
+        <v>3254</v>
+      </c>
+    </row>
+    <row r="881" spans="1:5">
+      <c r="A881" t="s">
+        <v>122</v>
+      </c>
+      <c r="B881" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C881" t="s">
+        <v>3255</v>
+      </c>
+      <c r="D881" t="s">
+        <v>3256</v>
+      </c>
+      <c r="E881" t="s">
+        <v>3257</v>
+      </c>
+    </row>
+    <row r="882" spans="1:5">
+      <c r="A882" t="s">
+        <v>464</v>
+      </c>
+      <c r="B882" t="s">
+        <v>224</v>
+      </c>
+      <c r="C882" t="s">
+        <v>3258</v>
+      </c>
+      <c r="D882" t="s">
+        <v>3259</v>
+      </c>
+      <c r="E882" t="s">
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="883" spans="1:5">
+      <c r="A883" t="s">
+        <v>40</v>
+      </c>
+      <c r="B883" t="s">
+        <v>3261</v>
+      </c>
+      <c r="C883" t="s">
+        <v>3262</v>
+      </c>
+      <c r="D883" t="s">
+        <v>3263</v>
+      </c>
+      <c r="E883" t="s">
+        <v>3264</v>
+      </c>
+    </row>
+    <row r="884" spans="1:5">
+      <c r="A884" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B884" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C884" t="s">
+        <v>3266</v>
+      </c>
+      <c r="D884" t="s">
+        <v>3267</v>
+      </c>
+      <c r="E884" t="s">
+        <v>3268</v>
+      </c>
+    </row>
+    <row r="885" spans="1:5">
+      <c r="A885" t="s">
+        <v>200</v>
+      </c>
+      <c r="B885" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C885" t="s">
+        <v>3269</v>
+      </c>
+      <c r="D885" t="s">
+        <v>3270</v>
+      </c>
+      <c r="E885" t="s">
+        <v>3271</v>
+      </c>
+    </row>
+    <row r="886" spans="1:5">
+      <c r="A886" t="s">
+        <v>0</v>
+      </c>
+      <c r="B886" t="s">
+        <v>3272</v>
+      </c>
+      <c r="C886" t="s">
+        <v>2432</v>
+      </c>
+      <c r="D886" t="s">
+        <v>3273</v>
+      </c>
+      <c r="E886" t="s">
+        <v>3274</v>
+      </c>
+    </row>
+    <row r="887" spans="1:5">
+      <c r="A887" t="s">
+        <v>79</v>
+      </c>
+      <c r="C887" t="s">
+        <v>161</v>
+      </c>
+      <c r="D887" t="s">
+        <v>3275</v>
+      </c>
+      <c r="E887" t="s">
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="888" spans="1:5">
+      <c r="A888" t="s">
+        <v>3277</v>
+      </c>
+      <c r="B888" t="s">
+        <v>3278</v>
+      </c>
+      <c r="C888" t="s">
+        <v>3279</v>
+      </c>
+      <c r="D888" t="s">
+        <v>3280</v>
+      </c>
+      <c r="E888" t="s">
+        <v>3281</v>
+      </c>
+    </row>
+    <row r="889" spans="1:5">
+      <c r="A889" t="s">
+        <v>235</v>
+      </c>
+      <c r="C889" t="s">
+        <v>3282</v>
+      </c>
+      <c r="D889" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E889" t="s">
+        <v>3284</v>
+      </c>
+    </row>
+    <row r="890" spans="1:5">
+      <c r="A890" t="s">
+        <v>380</v>
+      </c>
+      <c r="B890" t="s">
+        <v>3285</v>
+      </c>
+      <c r="C890" t="s">
+        <v>3286</v>
+      </c>
+      <c r="D890" t="s">
+        <v>3287</v>
+      </c>
+      <c r="E890" t="s">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="891" spans="1:5">
+      <c r="A891" t="s">
+        <v>223</v>
+      </c>
+      <c r="B891" t="s">
+        <v>104</v>
+      </c>
+      <c r="C891" t="s">
+        <v>3289</v>
+      </c>
+      <c r="D891" t="s">
+        <v>3290</v>
+      </c>
+      <c r="E891" t="s">
+        <v>3291</v>
+      </c>
+    </row>
+    <row r="892" spans="1:5">
+      <c r="A892" t="s">
+        <v>2983</v>
+      </c>
+      <c r="B892" t="s">
+        <v>3292</v>
+      </c>
+      <c r="C892" t="s">
+        <v>3293</v>
+      </c>
+      <c r="D892" t="s">
+        <v>3294</v>
+      </c>
+      <c r="E892" t="s">
+        <v>3295</v>
+      </c>
+    </row>
+    <row r="893" spans="1:5">
+      <c r="A893" t="s">
+        <v>214</v>
+      </c>
+      <c r="B893" t="s">
+        <v>3296</v>
+      </c>
+      <c r="C893" t="s">
+        <v>3297</v>
+      </c>
+      <c r="D893" t="s">
+        <v>3298</v>
+      </c>
+      <c r="E893" t="s">
+        <v>3299</v>
+      </c>
+    </row>
+    <row r="894" spans="1:5">
+      <c r="A894" t="s">
+        <v>522</v>
+      </c>
+      <c r="B894" t="s">
+        <v>3300</v>
+      </c>
+      <c r="C894" t="s">
+        <v>432</v>
+      </c>
+      <c r="D894" t="s">
+        <v>3301</v>
+      </c>
+      <c r="E894" t="s">
+        <v>3302</v>
+      </c>
+    </row>
+    <row r="895" spans="1:5">
+      <c r="A895" t="s">
+        <v>3303</v>
+      </c>
+      <c r="B895" t="s">
+        <v>3304</v>
+      </c>
+      <c r="C895" t="s">
+        <v>3305</v>
+      </c>
+      <c r="D895" t="s">
+        <v>3306</v>
+      </c>
+      <c r="E895" t="s">
+        <v>3307</v>
+      </c>
+    </row>
+    <row r="896" spans="1:5">
+      <c r="A896" t="s">
+        <v>695</v>
+      </c>
+      <c r="B896" t="s">
+        <v>3308</v>
+      </c>
+      <c r="C896" t="s">
+        <v>3309</v>
+      </c>
+      <c r="D896" t="s">
+        <v>3310</v>
+      </c>
+      <c r="E896" t="s">
+        <v>3311</v>
+      </c>
+    </row>
+    <row r="897" spans="1:5">
+      <c r="A897" t="s">
+        <v>309</v>
+      </c>
+      <c r="B897" t="s">
+        <v>3312</v>
+      </c>
+      <c r="C897" t="s">
+        <v>3313</v>
+      </c>
+      <c r="D897" t="s">
+        <v>3314</v>
+      </c>
+      <c r="E897" t="s">
+        <v>3315</v>
+      </c>
+    </row>
+    <row r="898" spans="1:5">
+      <c r="A898" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B898" t="s">
+        <v>3316</v>
+      </c>
+      <c r="C898" t="s">
+        <v>3317</v>
+      </c>
+      <c r="D898" t="s">
+        <v>3318</v>
+      </c>
+      <c r="E898" t="s">
+        <v>3319</v>
+      </c>
+    </row>
+    <row r="899" spans="1:5">
+      <c r="A899" t="s">
+        <v>98</v>
+      </c>
+      <c r="B899" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C899" t="s">
+        <v>980</v>
+      </c>
+      <c r="D899" t="s">
+        <v>3320</v>
+      </c>
+      <c r="E899" t="s">
+        <v>3321</v>
+      </c>
+    </row>
+    <row r="900" spans="1:5">
+      <c r="A900" t="s">
+        <v>3322</v>
+      </c>
+      <c r="C900" t="s">
+        <v>3323</v>
+      </c>
+      <c r="D900" t="s">
+        <v>3324</v>
+      </c>
+      <c r="E900" t="s">
+        <v>3325</v>
+      </c>
+    </row>
+    <row r="901" spans="1:5">
+      <c r="A901" t="s">
+        <v>130</v>
+      </c>
+      <c r="C901" t="s">
+        <v>3326</v>
+      </c>
+      <c r="D901" t="s">
+        <v>3327</v>
+      </c>
+      <c r="E901" t="s">
+        <v>3328</v>
+      </c>
+    </row>
+    <row r="902" spans="1:5">
+      <c r="A902" t="s">
+        <v>3329</v>
+      </c>
+      <c r="B902" t="s">
+        <v>682</v>
+      </c>
+      <c r="C902" t="s">
+        <v>3330</v>
+      </c>
+      <c r="D902" t="s">
+        <v>3331</v>
+      </c>
+      <c r="E902" t="s">
+        <v>3332</v>
+      </c>
+    </row>
+    <row r="903" spans="1:5">
+      <c r="A903" t="s">
+        <v>995</v>
+      </c>
+      <c r="C903" t="s">
+        <v>3333</v>
+      </c>
+      <c r="D903" t="s">
+        <v>3334</v>
+      </c>
+      <c r="E903" t="s">
+        <v>3335</v>
+      </c>
+    </row>
+    <row r="904" spans="1:5">
+      <c r="A904" t="s">
+        <v>367</v>
+      </c>
+      <c r="B904" t="s">
+        <v>3336</v>
+      </c>
+      <c r="C904" t="s">
+        <v>3337</v>
+      </c>
+      <c r="D904" t="s">
+        <v>3338</v>
+      </c>
+      <c r="E904" t="s">
+        <v>3339</v>
+      </c>
+    </row>
+    <row r="905" spans="1:5">
+      <c r="A905" t="s">
+        <v>318</v>
+      </c>
+      <c r="B905" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C905" t="s">
+        <v>3340</v>
+      </c>
+      <c r="D905" t="s">
+        <v>3341</v>
+      </c>
+      <c r="E905" t="s">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="906" spans="1:5">
+      <c r="A906" t="s">
+        <v>9</v>
+      </c>
+      <c r="B906" t="n">
+        <v>1933</v>
+      </c>
+      <c r="C906" t="s">
+        <v>3343</v>
+      </c>
+      <c r="D906" t="s">
+        <v>3344</v>
+      </c>
+      <c r="E906" t="s">
+        <v>3345</v>
+      </c>
+    </row>
+    <row r="907" spans="1:5">
+      <c r="A907" t="s">
+        <v>3346</v>
+      </c>
+      <c r="C907" t="s">
+        <v>3347</v>
+      </c>
+      <c r="D907" t="s">
+        <v>3348</v>
+      </c>
+      <c r="E907" t="s">
+        <v>3349</v>
+      </c>
+    </row>
+    <row r="908" spans="1:5">
+      <c r="A908" t="s">
+        <v>522</v>
+      </c>
+      <c r="B908" t="s">
+        <v>3350</v>
+      </c>
+      <c r="C908" t="s">
+        <v>3351</v>
+      </c>
+      <c r="D908" t="s">
+        <v>3352</v>
+      </c>
+      <c r="E908" t="s">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="909" spans="1:5">
+      <c r="A909" t="s">
+        <v>122</v>
+      </c>
+      <c r="B909" t="s">
+        <v>2491</v>
+      </c>
+      <c r="C909" t="s">
+        <v>3354</v>
+      </c>
+      <c r="D909" t="s">
+        <v>3355</v>
+      </c>
+      <c r="E909" t="s">
+        <v>3356</v>
+      </c>
+    </row>
+    <row r="910" spans="1:5">
+      <c r="A910" t="s">
+        <v>3357</v>
+      </c>
+      <c r="B910" t="s">
+        <v>3358</v>
+      </c>
+      <c r="C910" t="s">
+        <v>3359</v>
+      </c>
+      <c r="D910" t="s">
+        <v>3360</v>
+      </c>
+      <c r="E910" t="s">
+        <v>3361</v>
+      </c>
+    </row>
+    <row r="911" spans="1:5">
+      <c r="A911" t="s">
+        <v>214</v>
+      </c>
+      <c r="B911" t="s">
+        <v>3362</v>
+      </c>
+      <c r="C911" t="s">
+        <v>3363</v>
+      </c>
+      <c r="D911" t="s">
+        <v>3364</v>
+      </c>
+      <c r="E911" t="s">
+        <v>3365</v>
+      </c>
+    </row>
+    <row r="912" spans="1:5">
+      <c r="A912" t="s">
+        <v>26</v>
+      </c>
+      <c r="C912" t="s">
+        <v>3366</v>
+      </c>
+      <c r="D912" t="s">
+        <v>3367</v>
+      </c>
+      <c r="E912" t="s">
+        <v>3368</v>
+      </c>
+    </row>
+    <row r="913" spans="1:5">
+      <c r="A913" t="s">
+        <v>407</v>
+      </c>
+      <c r="B913" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C913" t="s">
+        <v>3369</v>
+      </c>
+      <c r="D913" t="s">
+        <v>3370</v>
+      </c>
+      <c r="E913" t="s">
+        <v>3371</v>
+      </c>
+    </row>
+    <row r="914" spans="1:5">
+      <c r="A914" t="s">
+        <v>79</v>
+      </c>
+      <c r="B914" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C914" t="s">
+        <v>3372</v>
+      </c>
+      <c r="D914" t="s">
+        <v>3373</v>
+      </c>
+      <c r="E914" t="s">
+        <v>3374</v>
+      </c>
+    </row>
+    <row r="915" spans="1:5">
+      <c r="A915" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C915" t="s">
+        <v>3375</v>
+      </c>
+      <c r="D915" t="s">
+        <v>3376</v>
+      </c>
+      <c r="E915" t="s">
+        <v>3377</v>
+      </c>
+    </row>
+    <row r="916" spans="1:5">
+      <c r="A916" t="s">
+        <v>3378</v>
+      </c>
+      <c r="B916" t="s">
+        <v>3379</v>
+      </c>
+      <c r="C916" t="s">
+        <v>3380</v>
+      </c>
+      <c r="D916" t="s">
+        <v>3381</v>
+      </c>
+      <c r="E916" t="s">
+        <v>3382</v>
+      </c>
+    </row>
+    <row r="917" spans="1:5">
+      <c r="A917" t="s">
+        <v>3383</v>
+      </c>
+      <c r="C917" t="s">
+        <v>3384</v>
+      </c>
+      <c r="D917" t="s">
+        <v>3385</v>
+      </c>
+      <c r="E917" t="s">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="918" spans="1:5">
+      <c r="A918" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B918" t="s">
+        <v>3387</v>
+      </c>
+      <c r="C918" t="s">
+        <v>3388</v>
+      </c>
+      <c r="D918" t="s">
+        <v>3389</v>
+      </c>
+      <c r="E918" t="s">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="919" spans="1:5">
+      <c r="A919" t="s">
+        <v>565</v>
+      </c>
+      <c r="C919" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D919" t="s">
+        <v>3391</v>
+      </c>
+      <c r="E919" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="920" spans="1:5">
+      <c r="A920" t="s">
+        <v>53</v>
+      </c>
+      <c r="B920" t="s">
+        <v>2168</v>
+      </c>
+      <c r="C920" t="s">
+        <v>3393</v>
+      </c>
+      <c r="D920" t="s">
+        <v>3394</v>
+      </c>
+      <c r="E920" t="s">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="921" spans="1:5">
+      <c r="A921" t="s">
+        <v>3396</v>
+      </c>
+      <c r="C921" t="s">
+        <v>3397</v>
+      </c>
+      <c r="D921" t="s">
+        <v>3398</v>
+      </c>
+      <c r="E921" t="s">
+        <v>3399</v>
+      </c>
+    </row>
+    <row r="922" spans="1:5">
+      <c r="A922" t="s">
+        <v>88</v>
+      </c>
+      <c r="C922" t="s">
+        <v>19</v>
+      </c>
+      <c r="D922" t="s">
+        <v>3400</v>
+      </c>
+      <c r="E922" t="s">
+        <v>3401</v>
+      </c>
+    </row>
+    <row r="923" spans="1:5">
+      <c r="A923" t="s">
+        <v>649</v>
+      </c>
+      <c r="B923" t="s">
+        <v>859</v>
+      </c>
+      <c r="C923" t="s">
+        <v>3402</v>
+      </c>
+      <c r="D923" t="s">
+        <v>3403</v>
+      </c>
+      <c r="E923" t="s">
+        <v>3404</v>
+      </c>
+    </row>
+    <row r="924" spans="1:5">
+      <c r="A924" t="s">
+        <v>117</v>
+      </c>
+      <c r="C924" t="s">
+        <v>3405</v>
+      </c>
+      <c r="D924" t="s">
+        <v>3406</v>
+      </c>
+      <c r="E924" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="925" spans="1:5">
+      <c r="A925" t="s">
+        <v>500</v>
+      </c>
+      <c r="C925" t="s">
+        <v>746</v>
+      </c>
+      <c r="D925" t="s">
+        <v>3408</v>
+      </c>
+      <c r="E925" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="926" spans="1:5">
+      <c r="A926" t="s">
+        <v>487</v>
+      </c>
+      <c r="C926" t="s">
+        <v>3410</v>
+      </c>
+      <c r="D926" t="s">
+        <v>3411</v>
+      </c>
+      <c r="E926" t="s">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="927" spans="1:5">
+      <c r="A927" t="s">
+        <v>122</v>
+      </c>
+      <c r="C927" t="s">
+        <v>3413</v>
+      </c>
+      <c r="D927" t="s">
+        <v>3414</v>
+      </c>
+      <c r="E927" t="s">
+        <v>3415</v>
+      </c>
+    </row>
+    <row r="928" spans="1:5">
+      <c r="A928" t="s">
+        <v>3416</v>
+      </c>
+      <c r="B928" t="s">
+        <v>3417</v>
+      </c>
+      <c r="C928" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D928" t="s">
+        <v>3418</v>
+      </c>
+      <c r="E928" t="s">
+        <v>3419</v>
+      </c>
+    </row>
+    <row r="929" spans="1:5">
+      <c r="A929" t="s">
+        <v>974</v>
+      </c>
+      <c r="B929" t="s">
+        <v>3420</v>
+      </c>
+      <c r="C929" t="s">
+        <v>3421</v>
+      </c>
+      <c r="D929" t="s">
+        <v>3422</v>
+      </c>
+      <c r="E929" t="s">
+        <v>3423</v>
+      </c>
+    </row>
+    <row r="930" spans="1:5">
+      <c r="A930" t="s">
+        <v>3424</v>
+      </c>
+      <c r="B930" t="s">
+        <v>3425</v>
+      </c>
+      <c r="C930" t="s">
+        <v>3426</v>
+      </c>
+      <c r="D930" t="s">
+        <v>3427</v>
+      </c>
+      <c r="E930" t="s">
+        <v>3428</v>
+      </c>
+    </row>
+    <row r="931" spans="1:5">
+      <c r="A931" t="s">
+        <v>318</v>
+      </c>
+      <c r="C931" t="s">
+        <v>3429</v>
+      </c>
+      <c r="D931" t="s">
+        <v>3430</v>
+      </c>
+      <c r="E931" t="s">
+        <v>3431</v>
+      </c>
+    </row>
+    <row r="932" spans="1:5">
+      <c r="A932" t="s">
+        <v>3432</v>
+      </c>
+      <c r="B932" t="s">
+        <v>3433</v>
+      </c>
+      <c r="C932" t="s">
+        <v>1920</v>
+      </c>
+      <c r="D932" t="s">
+        <v>3434</v>
+      </c>
+      <c r="E932" t="s">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="933" spans="1:5">
+      <c r="A933" t="s">
+        <v>565</v>
+      </c>
+      <c r="C933" t="s">
+        <v>3436</v>
+      </c>
+      <c r="D933" t="s">
+        <v>3437</v>
+      </c>
+      <c r="E933" t="s">
+        <v>3438</v>
+      </c>
+    </row>
+    <row r="934" spans="1:5">
+      <c r="A934" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C934" t="s">
+        <v>3439</v>
+      </c>
+      <c r="D934" t="s">
+        <v>3440</v>
+      </c>
+      <c r="E934" t="s">
+        <v>3441</v>
+      </c>
+    </row>
+    <row r="935" spans="1:5">
+      <c r="A935" t="s">
+        <v>79</v>
+      </c>
+      <c r="C935" t="s">
+        <v>3442</v>
+      </c>
+      <c r="D935" t="s">
+        <v>3443</v>
+      </c>
+      <c r="E935" t="s">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="936" spans="1:5">
+      <c r="A936" t="s">
+        <v>9</v>
+      </c>
+      <c r="B936" t="s">
+        <v>3445</v>
+      </c>
+      <c r="C936" t="s">
+        <v>3446</v>
+      </c>
+      <c r="D936" t="s">
+        <v>3447</v>
+      </c>
+      <c r="E936" t="s">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="937" spans="1:5">
+      <c r="A937" t="s">
+        <v>167</v>
+      </c>
+      <c r="C937" t="s">
+        <v>3449</v>
+      </c>
+      <c r="D937" t="s">
+        <v>3450</v>
+      </c>
+      <c r="E937" t="s">
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="938" spans="1:5">
+      <c r="A938" t="s">
+        <v>812</v>
+      </c>
+      <c r="C938" t="s">
+        <v>3452</v>
+      </c>
+      <c r="D938" t="s">
+        <v>3453</v>
+      </c>
+      <c r="E938" t="s">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="939" spans="1:5">
+      <c r="A939" t="s">
+        <v>117</v>
+      </c>
+      <c r="B939" t="s">
+        <v>350</v>
+      </c>
+      <c r="C939" t="s">
+        <v>3455</v>
+      </c>
+      <c r="D939" t="s">
+        <v>3456</v>
+      </c>
+      <c r="E939" t="s">
+        <v>3457</v>
+      </c>
+    </row>
+    <row r="940" spans="1:5">
+      <c r="A940" t="s">
+        <v>952</v>
+      </c>
+      <c r="B940" t="s">
+        <v>3458</v>
+      </c>
+      <c r="C940" t="s">
+        <v>3459</v>
+      </c>
+      <c r="D940" t="s">
+        <v>3460</v>
+      </c>
+      <c r="E940" t="s">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="941" spans="1:5">
+      <c r="A941" t="s">
+        <v>3462</v>
+      </c>
+      <c r="B941" t="s">
+        <v>3463</v>
+      </c>
+      <c r="C941" t="s">
+        <v>3464</v>
+      </c>
+      <c r="D941" t="s">
+        <v>3465</v>
+      </c>
+      <c r="E941" t="s">
+        <v>3466</v>
+      </c>
+    </row>
+    <row r="942" spans="1:5">
+      <c r="A942" t="s">
+        <v>3467</v>
+      </c>
+      <c r="C942" t="s">
+        <v>3468</v>
+      </c>
+      <c r="D942" t="s">
+        <v>3469</v>
+      </c>
+      <c r="E942" t="s">
+        <v>3470</v>
+      </c>
+    </row>
+    <row r="943" spans="1:5">
+      <c r="A943" t="s">
+        <v>280</v>
+      </c>
+      <c r="C943" t="s">
+        <v>3471</v>
+      </c>
+      <c r="D943" t="s">
+        <v>3472</v>
+      </c>
+      <c r="E943" t="s">
+        <v>3473</v>
+      </c>
+    </row>
+    <row r="944" spans="1:5">
+      <c r="A944" t="s">
+        <v>672</v>
+      </c>
+      <c r="B944" t="s">
+        <v>245</v>
+      </c>
+      <c r="C944" t="s">
+        <v>3474</v>
+      </c>
+      <c r="D944" t="s">
+        <v>3475</v>
+      </c>
+      <c r="E944" t="s">
+        <v>3476</v>
+      </c>
+    </row>
+    <row r="945" spans="1:5">
+      <c r="A945" t="s">
+        <v>3477</v>
+      </c>
+      <c r="C945" t="s">
+        <v>3478</v>
+      </c>
+      <c r="D945" t="s">
+        <v>3479</v>
+      </c>
+      <c r="E945" t="s">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="946" spans="1:5">
+      <c r="A946" t="s">
+        <v>2627</v>
+      </c>
+      <c r="C946" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D946" t="s">
+        <v>3481</v>
+      </c>
+      <c r="E946" t="s">
+        <v>3482</v>
+      </c>
+    </row>
+    <row r="947" spans="1:5">
+      <c r="A947" t="s">
+        <v>26</v>
+      </c>
+      <c r="B947" t="s">
+        <v>3483</v>
+      </c>
+      <c r="C947" t="s">
+        <v>3484</v>
+      </c>
+      <c r="D947" t="s">
+        <v>3485</v>
+      </c>
+      <c r="E947" t="s">
+        <v>3486</v>
+      </c>
+    </row>
+    <row r="948" spans="1:5">
+      <c r="A948" t="s">
+        <v>223</v>
+      </c>
+      <c r="B948" t="s">
+        <v>104</v>
+      </c>
+      <c r="C948" t="s">
+        <v>3487</v>
+      </c>
+      <c r="D948" t="s">
+        <v>3488</v>
+      </c>
+      <c r="E948" t="s">
+        <v>3489</v>
+      </c>
+    </row>
+    <row r="949" spans="1:5">
+      <c r="A949" t="s">
+        <v>3490</v>
+      </c>
+      <c r="B949" t="s"/>
+      <c r="C949" t="s">
+        <v>489</v>
+      </c>
+      <c r="D949" t="s">
+        <v>3491</v>
+      </c>
+      <c r="E949" t="s">
+        <v>3492</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>

--- a/songs.xlsx
+++ b/songs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3686">
   <si>
     <t>Pied Pipers</t>
   </si>
@@ -10494,6 +10494,585 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=dysN2L0SjWA</t>
+  </si>
+  <si>
+    <t>A Portrait Of Tommy Dorsey</t>
+  </si>
+  <si>
+    <t>The Music Goes 'Round And Around</t>
+  </si>
+  <si>
+    <t>The Music Goes 'Round And Around-Tommy Dorsey</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hjrmjYDqwl4</t>
+  </si>
+  <si>
+    <t>Dinah</t>
+  </si>
+  <si>
+    <t>Dinah-Fats Waller</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TdkvJQuj2co</t>
+  </si>
+  <si>
+    <t>Frank Sinatra &amp; the Tommy Dorsey Orchestra</t>
+  </si>
+  <si>
+    <t>The Song Is You</t>
+  </si>
+  <si>
+    <t>The Song Is You-Frank Sinatra</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ziFF-ZlZ8Ug</t>
+  </si>
+  <si>
+    <t>LST Party, Vol. 5</t>
+  </si>
+  <si>
+    <t>My Heart Stood Still</t>
+  </si>
+  <si>
+    <t>My Heart Stood Still-Sam Donahue</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uNxTqKn_FxQ</t>
+  </si>
+  <si>
+    <t>Gotta Be This Or That (45)-Pied Pipers</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=r5HE1dpsPVo</t>
+  </si>
+  <si>
+    <t>The Best of Louis Jordan</t>
+  </si>
+  <si>
+    <t>Run Joe (48)</t>
+  </si>
+  <si>
+    <t>Run Joe (48)-Louis Jordan</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GmVR4IY5nBY</t>
+  </si>
+  <si>
+    <t>Duke Ellington - Cotton Club</t>
+  </si>
+  <si>
+    <t>The Gal From Joe's</t>
+  </si>
+  <si>
+    <t>The Gal From Joe's-Duke Ellington</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jvyTHVc-5Dc</t>
+  </si>
+  <si>
+    <t>Polka Dots And Moonbeams</t>
+  </si>
+  <si>
+    <t>Polka Dots And Moonbeams-Four Freshmen</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Z6nnlRdPSf8</t>
+  </si>
+  <si>
+    <t>J.C. Higginsbotham</t>
+  </si>
+  <si>
+    <t>That's How I Feel Today</t>
+  </si>
+  <si>
+    <t>That's How I Feel Today-J.C. Higginsbotham</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=56_9oXheVKs</t>
+  </si>
+  <si>
+    <t>Close As Pages In A Book (45)</t>
+  </si>
+  <si>
+    <t>Close As Pages In A Book (45)-Bing Crosby</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wZ3lE34Oz0I</t>
+  </si>
+  <si>
+    <t>Underneath the Arches (48)</t>
+  </si>
+  <si>
+    <t>Underneath the Arches (48)-Andrews Sisters</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TnvTt35X-Rw</t>
+  </si>
+  <si>
+    <t>Ray Anthony v/Tommy Mercer</t>
+  </si>
+  <si>
+    <t>At Last-Ray Anthony v/Tommy Mercer</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NMbmAKqJCU4</t>
+  </si>
+  <si>
+    <t>Allan Jones</t>
+  </si>
+  <si>
+    <t>Alone</t>
+  </si>
+  <si>
+    <t>Alone-Allan Jones</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MfyzjhimSI8</t>
+  </si>
+  <si>
+    <t>I Double Dare You</t>
+  </si>
+  <si>
+    <t>I Double Dare You-Larry Clinton v/Bea Wain</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5ifCmpliixg</t>
+  </si>
+  <si>
+    <t>Nightmare</t>
+  </si>
+  <si>
+    <t>Nightmare-Artie Shaw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-W59FzOwYIs</t>
+  </si>
+  <si>
+    <t>In The Mood (40)</t>
+  </si>
+  <si>
+    <t>In The Mood (40)-Glen Gray</t>
+  </si>
+  <si>
+    <t>Everything But You</t>
+  </si>
+  <si>
+    <t>Everything But You-Ravens</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rU5wbuGbaI4</t>
+  </si>
+  <si>
+    <t>Good Morning</t>
+  </si>
+  <si>
+    <t>Good Morning-Jan Savitt</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fC4_G_BpnHI</t>
+  </si>
+  <si>
+    <t>One O'Clock Jump</t>
+  </si>
+  <si>
+    <t>One O'Clock Jump-Benny Goodman</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8t3JTFfFaAc</t>
+  </si>
+  <si>
+    <t>Jumping With the Big Swing Bands</t>
+  </si>
+  <si>
+    <t>Sand Storm (46)</t>
+  </si>
+  <si>
+    <t>Sand Storm (46)-Ray McKinley</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kxKxKtYNwKw</t>
+  </si>
+  <si>
+    <t>Day by Day (46)</t>
+  </si>
+  <si>
+    <t>Day by Day (46)-Bing Crosby</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=f3wNnLShDj8</t>
+  </si>
+  <si>
+    <t>Dick Jurgens v/Buddy Moreno</t>
+  </si>
+  <si>
+    <t>Columbia 36643</t>
+  </si>
+  <si>
+    <t>Hip Hip Hooray (42)</t>
+  </si>
+  <si>
+    <t>Hip Hip Hooray (42)-Dick Jurgens v/Buddy Moreno</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SXIH8yTSvtI</t>
+  </si>
+  <si>
+    <t>Dancing On The Ceiling (He Dances O</t>
+  </si>
+  <si>
+    <t>Dancing On The Ceiling (He Dances O-Paul Weston</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ikzx0PZvh0k</t>
+  </si>
+  <si>
+    <t>Duke Ellington v/Al Hibbler</t>
+  </si>
+  <si>
+    <t>Don't Get Around Much Anymore (43)</t>
+  </si>
+  <si>
+    <t>Don't Get Around Much Anymore (43)-Duke Ellington v/Al Hibbler</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nbDe0zKt56k</t>
+  </si>
+  <si>
+    <t>Moon Dreams (42)</t>
+  </si>
+  <si>
+    <t>Moon Dreams (42)-Martha Tilton</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QqnUyqg9g8Q</t>
+  </si>
+  <si>
+    <t>S'posin' (42)</t>
+  </si>
+  <si>
+    <t>S'posin' (42)-Fats Waller &amp; His Rhythm</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Mo0cplgmcwE</t>
+  </si>
+  <si>
+    <t>April In Paris-Count Basie</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wCmcoZktZG4</t>
+  </si>
+  <si>
+    <t>Harry James featuring Frank Sinatra</t>
+  </si>
+  <si>
+    <t>Here Comes The Night</t>
+  </si>
+  <si>
+    <t>Here Comes The Night-Harry James v/Frank Sinatra</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cATLbBqW8gs</t>
+  </si>
+  <si>
+    <t>The More I See You (45)</t>
+  </si>
+  <si>
+    <t>The More I See You (45)-Dick Haymes</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gbMJ3Yt1fos</t>
+  </si>
+  <si>
+    <t>Shine (42)</t>
+  </si>
+  <si>
+    <t>Shine (42)-Louis Armstrong</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LcsfxP9oEoA</t>
+  </si>
+  <si>
+    <t>Serenade In Blue (42)-Glenn Miller v/Ray Eberle</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=CL4uVRt09As</t>
+  </si>
+  <si>
+    <t>Gene Krupa v/Anita O'Day &amp; Roy Eldr</t>
+  </si>
+  <si>
+    <t>Let Me off Uptown (41)</t>
+  </si>
+  <si>
+    <t>Let Me off Uptown (41)-Gene Krupa v/Anita O'Day &amp; Roy Eldr</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UCbxKVmxGEY</t>
+  </si>
+  <si>
+    <t>Let's Dance With Ralph Flanagan</t>
+  </si>
+  <si>
+    <t>Let's Face The Music</t>
+  </si>
+  <si>
+    <t>Let's Face The Music-Ralph Flanagan</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MukS1KnAmPE&amp;list=PLHFsI8OYwvaeCoDHoTqrNwmefbyArfQgm</t>
+  </si>
+  <si>
+    <t>Good Deal MacNeal</t>
+  </si>
+  <si>
+    <t>Just A-Sittin' And A-Rockin' (46)-Pied Pipers</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MsUtnwiR_-U</t>
+  </si>
+  <si>
+    <t>Masterpieces, Vol. 2</t>
+  </si>
+  <si>
+    <t>Caravan</t>
+  </si>
+  <si>
+    <t>Caravan-Duke Ellington</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YkLBSLxo5LE</t>
+  </si>
+  <si>
+    <t>Si Zetner</t>
+  </si>
+  <si>
+    <t>VOL. 1-Great Instrumental Hits</t>
+  </si>
+  <si>
+    <t>Up A Lazy River</t>
+  </si>
+  <si>
+    <t>Up A Lazy River-Si Zetner</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gnpVpX0ep3A</t>
+  </si>
+  <si>
+    <t>My Buddy</t>
+  </si>
+  <si>
+    <t>My Buddy-Harry James v/Frank Sinatra</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=D5920KYagjA</t>
+  </si>
+  <si>
+    <t>Meadowlands (Russian Patrol)</t>
+  </si>
+  <si>
+    <t>Meadowlands (Russian Patrol)-Tex Beneke</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jqKOP2_9kms</t>
+  </si>
+  <si>
+    <t>Loch Lomond</t>
+  </si>
+  <si>
+    <t>Loch Lomond-Benny Goodman</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=A9-0QQ_cFEw</t>
+  </si>
+  <si>
+    <t>Parade Of The Milk Bottle Caps</t>
+  </si>
+  <si>
+    <t>Parade Of The Milk Bottle Caps-Jimmy Dorsey</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=z375syNrg3A</t>
+  </si>
+  <si>
+    <t>(I Ain't Hep To That Step...) (40)</t>
+  </si>
+  <si>
+    <t>(I Ain't Hep To That Step...) (40)-Les Brown and Doris Day</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jQ6XTDveHzY</t>
+  </si>
+  <si>
+    <t>Real Jazz Ch 67</t>
+  </si>
+  <si>
+    <t>In Mins</t>
+  </si>
+  <si>
+    <t>In Mins-Real Jazz Ch 67</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=530z-_yjdlU</t>
+  </si>
+  <si>
+    <t>Tony Bennett o/Percy Faith</t>
+  </si>
+  <si>
+    <t>All Time Hall-Of-Fame Hits</t>
+  </si>
+  <si>
+    <t>Rags To Riches</t>
+  </si>
+  <si>
+    <t>Rags To Riches-Tony Bennett o/Percy Faith</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vPajO_Hk85A</t>
+  </si>
+  <si>
+    <t>White Sails</t>
+  </si>
+  <si>
+    <t>White Sails-Ozzie Nelson</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=92pAhGu8yx0</t>
+  </si>
+  <si>
+    <t>Basie Boogie</t>
+  </si>
+  <si>
+    <t>Basie Boogie-Count Basie</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AhfygIZSr5M</t>
+  </si>
+  <si>
+    <t>1941-42</t>
+  </si>
+  <si>
+    <t>The Marines' Hymn (42)-Gene Krupa</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RFdr7O1bGlE</t>
+  </si>
+  <si>
+    <t>Chronological Classics 1932-34</t>
+  </si>
+  <si>
+    <t>Shanghai Shuffle</t>
+  </si>
+  <si>
+    <t>Shanghai Shuffle-Fletcher Henderson</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rrLt1I-XPf4</t>
+  </si>
+  <si>
+    <t>Modernaires/Les Brown</t>
+  </si>
+  <si>
+    <t>Singin' &amp; Swingin'</t>
+  </si>
+  <si>
+    <t>The Milkman's Matinee-Modernaires/Les Brown</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IzfobKqCqVg</t>
+  </si>
+  <si>
+    <t>Artie Shaw Gramercy 5</t>
+  </si>
+  <si>
+    <t>Summit Ridge Drive (41)</t>
+  </si>
+  <si>
+    <t>Summit Ridge Drive (41)-Artie Shaw Gramercy 5</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pehNz5BJ1XU</t>
+  </si>
+  <si>
+    <t>1945-1946</t>
+  </si>
+  <si>
+    <t>Come To Baby, Do! (46)</t>
+  </si>
+  <si>
+    <t>Come To Baby, Do! (46)-Duke Ellington v/Joya Sherrill</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vwKBTFz8U9I</t>
+  </si>
+  <si>
+    <t>Yes Indeed</t>
+  </si>
+  <si>
+    <t>Back Beat Boogie (44)</t>
+  </si>
+  <si>
+    <t>Back Beat Boogie (44)-Harry James</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=64R6dMEnqxo</t>
+  </si>
+  <si>
+    <t>My Devotion (42)-Jimmy Dorsey v/Bob Eberly</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yW9xIOQjZ6A</t>
+  </si>
+  <si>
+    <t>On the Road to Mandalay</t>
+  </si>
+  <si>
+    <t>On the Road to Mandalay-Ralph Flanagan</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sRnBv_mzdpM</t>
+  </si>
+  <si>
+    <t>Chinatown, My Chinatown</t>
+  </si>
+  <si>
+    <t>Chinatown, My Chinatown-Ray Noble</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=goVHnGTiE7w</t>
+  </si>
+  <si>
+    <t>Hugo Winterhalter/Eddie Heywood</t>
+  </si>
+  <si>
+    <t>Canadian Sunset</t>
+  </si>
+  <si>
+    <t>Canadian Sunset-Hugo Winterhalter/Eddie Heywood</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4BJE6hwRpOc</t>
+  </si>
+  <si>
+    <t>Moonlight Serenade-Glenn Miller</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8TB_8H23EDI</t>
+  </si>
+  <si>
+    <t>There'll Be Some Changes Made (41)</t>
+  </si>
+  <si>
+    <t>There'll Be Some Changes Made (41)-Gene Krupa v/Irene Daye</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Un95sIRKo80</t>
+  </si>
+  <si>
+    <t>Route 66 (46)-Bing Crosby/Andrews Sisters</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FJ4GBrnRBic</t>
   </si>
 </sst>
 </file>
@@ -10863,7 +11442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A2:E949"/>
+  <dimension ref="A2:E1007"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A63" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A78" activeCellId="0" pane="topLeft" sqref="A78"/>
@@ -25770,7 +26349,6 @@
       <c r="A949" t="s">
         <v>3490</v>
       </c>
-      <c r="B949" t="s"/>
       <c r="C949" t="s">
         <v>489</v>
       </c>
@@ -25779,6 +26357,920 @@
       </c>
       <c r="E949" t="s">
         <v>3492</v>
+      </c>
+    </row>
+    <row r="950" spans="1:5">
+      <c r="A950" t="s">
+        <v>209</v>
+      </c>
+      <c r="B950" t="s">
+        <v>3493</v>
+      </c>
+      <c r="C950" t="s">
+        <v>3494</v>
+      </c>
+      <c r="D950" t="s">
+        <v>3495</v>
+      </c>
+      <c r="E950" t="s">
+        <v>3496</v>
+      </c>
+    </row>
+    <row r="951" spans="1:5">
+      <c r="A951" t="s">
+        <v>249</v>
+      </c>
+      <c r="C951" t="s">
+        <v>3497</v>
+      </c>
+      <c r="D951" t="s">
+        <v>3498</v>
+      </c>
+      <c r="E951" t="s">
+        <v>3499</v>
+      </c>
+    </row>
+    <row r="952" spans="1:5">
+      <c r="A952" t="s">
+        <v>565</v>
+      </c>
+      <c r="B952" t="s">
+        <v>3500</v>
+      </c>
+      <c r="C952" t="s">
+        <v>3501</v>
+      </c>
+      <c r="D952" t="s">
+        <v>3502</v>
+      </c>
+      <c r="E952" t="s">
+        <v>3503</v>
+      </c>
+    </row>
+    <row r="953" spans="1:5">
+      <c r="A953" t="s">
+        <v>2983</v>
+      </c>
+      <c r="B953" t="s">
+        <v>3504</v>
+      </c>
+      <c r="C953" t="s">
+        <v>3505</v>
+      </c>
+      <c r="D953" t="s">
+        <v>3506</v>
+      </c>
+      <c r="E953" t="s">
+        <v>3507</v>
+      </c>
+    </row>
+    <row r="954" spans="1:5">
+      <c r="A954" t="s">
+        <v>0</v>
+      </c>
+      <c r="C954" t="s">
+        <v>372</v>
+      </c>
+      <c r="D954" t="s">
+        <v>3508</v>
+      </c>
+      <c r="E954" t="s">
+        <v>3509</v>
+      </c>
+    </row>
+    <row r="955" spans="1:5">
+      <c r="A955" t="s">
+        <v>171</v>
+      </c>
+      <c r="B955" t="s">
+        <v>3510</v>
+      </c>
+      <c r="C955" t="s">
+        <v>3511</v>
+      </c>
+      <c r="D955" t="s">
+        <v>3512</v>
+      </c>
+      <c r="E955" t="s">
+        <v>3513</v>
+      </c>
+    </row>
+    <row r="956" spans="1:5">
+      <c r="A956" t="s">
+        <v>9</v>
+      </c>
+      <c r="B956" t="s">
+        <v>3514</v>
+      </c>
+      <c r="C956" t="s">
+        <v>3515</v>
+      </c>
+      <c r="D956" t="s">
+        <v>3516</v>
+      </c>
+      <c r="E956" t="s">
+        <v>3517</v>
+      </c>
+    </row>
+    <row r="957" spans="1:5">
+      <c r="A957" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C957" t="s">
+        <v>3518</v>
+      </c>
+      <c r="D957" t="s">
+        <v>3519</v>
+      </c>
+      <c r="E957" t="s">
+        <v>3520</v>
+      </c>
+    </row>
+    <row r="958" spans="1:5">
+      <c r="A958" t="s">
+        <v>3521</v>
+      </c>
+      <c r="C958" t="s">
+        <v>3522</v>
+      </c>
+      <c r="D958" t="s">
+        <v>3523</v>
+      </c>
+      <c r="E958" t="s">
+        <v>3524</v>
+      </c>
+    </row>
+    <row r="959" spans="1:5">
+      <c r="A959" t="s">
+        <v>621</v>
+      </c>
+      <c r="C959" t="s">
+        <v>3525</v>
+      </c>
+      <c r="D959" t="s">
+        <v>3526</v>
+      </c>
+      <c r="E959" t="s">
+        <v>3527</v>
+      </c>
+    </row>
+    <row r="960" spans="1:5">
+      <c r="A960" t="s">
+        <v>487</v>
+      </c>
+      <c r="B960" t="s">
+        <v>963</v>
+      </c>
+      <c r="C960" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D960" t="s">
+        <v>3529</v>
+      </c>
+      <c r="E960" t="s">
+        <v>3530</v>
+      </c>
+    </row>
+    <row r="961" spans="1:5">
+      <c r="A961" t="s">
+        <v>3531</v>
+      </c>
+      <c r="B961" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C961" t="s">
+        <v>1858</v>
+      </c>
+      <c r="D961" t="s">
+        <v>3532</v>
+      </c>
+      <c r="E961" t="s">
+        <v>3533</v>
+      </c>
+    </row>
+    <row r="962" spans="1:5">
+      <c r="A962" t="s">
+        <v>3534</v>
+      </c>
+      <c r="C962" t="s">
+        <v>3535</v>
+      </c>
+      <c r="D962" t="s">
+        <v>3536</v>
+      </c>
+      <c r="E962" t="s">
+        <v>3537</v>
+      </c>
+    </row>
+    <row r="963" spans="1:5">
+      <c r="A963" t="s">
+        <v>672</v>
+      </c>
+      <c r="B963" t="s">
+        <v>673</v>
+      </c>
+      <c r="C963" t="s">
+        <v>3538</v>
+      </c>
+      <c r="D963" t="s">
+        <v>3539</v>
+      </c>
+      <c r="E963" t="s">
+        <v>3540</v>
+      </c>
+    </row>
+    <row r="964" spans="1:5">
+      <c r="A964" t="s">
+        <v>117</v>
+      </c>
+      <c r="C964" t="s">
+        <v>3541</v>
+      </c>
+      <c r="D964" t="s">
+        <v>3542</v>
+      </c>
+      <c r="E964" t="s">
+        <v>3543</v>
+      </c>
+    </row>
+    <row r="965" spans="1:5">
+      <c r="A965" t="s">
+        <v>167</v>
+      </c>
+      <c r="B965" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C965" t="s">
+        <v>3544</v>
+      </c>
+      <c r="D965" t="s">
+        <v>3545</v>
+      </c>
+      <c r="E965" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="966" spans="1:5">
+      <c r="A966" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C966" t="s">
+        <v>3546</v>
+      </c>
+      <c r="D966" t="s">
+        <v>3547</v>
+      </c>
+      <c r="E966" t="s">
+        <v>3548</v>
+      </c>
+    </row>
+    <row r="967" spans="1:5">
+      <c r="A967" t="s">
+        <v>527</v>
+      </c>
+      <c r="C967" t="s">
+        <v>3549</v>
+      </c>
+      <c r="D967" t="s">
+        <v>3550</v>
+      </c>
+      <c r="E967" t="s">
+        <v>3551</v>
+      </c>
+    </row>
+    <row r="968" spans="1:5">
+      <c r="A968" t="s">
+        <v>35</v>
+      </c>
+      <c r="B968" t="s">
+        <v>659</v>
+      </c>
+      <c r="C968" t="s">
+        <v>3552</v>
+      </c>
+      <c r="D968" t="s">
+        <v>3553</v>
+      </c>
+      <c r="E968" t="s">
+        <v>3554</v>
+      </c>
+    </row>
+    <row r="969" spans="1:5">
+      <c r="A969" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B969" t="s">
+        <v>3555</v>
+      </c>
+      <c r="C969" t="s">
+        <v>3556</v>
+      </c>
+      <c r="D969" t="s">
+        <v>3557</v>
+      </c>
+      <c r="E969" t="s">
+        <v>3558</v>
+      </c>
+    </row>
+    <row r="970" spans="1:5">
+      <c r="A970" t="s">
+        <v>621</v>
+      </c>
+      <c r="B970" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C970" t="s">
+        <v>3559</v>
+      </c>
+      <c r="D970" t="s">
+        <v>3560</v>
+      </c>
+      <c r="E970" t="s">
+        <v>3561</v>
+      </c>
+    </row>
+    <row r="971" spans="1:5">
+      <c r="A971" t="s">
+        <v>3562</v>
+      </c>
+      <c r="B971" t="s">
+        <v>3563</v>
+      </c>
+      <c r="C971" t="s">
+        <v>3564</v>
+      </c>
+      <c r="D971" t="s">
+        <v>3565</v>
+      </c>
+      <c r="E971" t="s">
+        <v>3566</v>
+      </c>
+    </row>
+    <row r="972" spans="1:5">
+      <c r="A972" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B972" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C972" t="s">
+        <v>3567</v>
+      </c>
+      <c r="D972" t="s">
+        <v>3568</v>
+      </c>
+      <c r="E972" t="s">
+        <v>3569</v>
+      </c>
+    </row>
+    <row r="973" spans="1:5">
+      <c r="A973" t="s">
+        <v>3570</v>
+      </c>
+      <c r="B973" t="s">
+        <v>155</v>
+      </c>
+      <c r="C973" t="s">
+        <v>3571</v>
+      </c>
+      <c r="D973" t="s">
+        <v>3572</v>
+      </c>
+      <c r="E973" t="s">
+        <v>3573</v>
+      </c>
+    </row>
+    <row r="974" spans="1:5">
+      <c r="A974" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B974" t="s">
+        <v>3244</v>
+      </c>
+      <c r="C974" t="s">
+        <v>3574</v>
+      </c>
+      <c r="D974" t="s">
+        <v>3575</v>
+      </c>
+      <c r="E974" t="s">
+        <v>3576</v>
+      </c>
+    </row>
+    <row r="975" spans="1:5">
+      <c r="A975" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B975" t="n">
+        <v>1936</v>
+      </c>
+      <c r="C975" t="s">
+        <v>3577</v>
+      </c>
+      <c r="D975" t="s">
+        <v>3578</v>
+      </c>
+      <c r="E975" t="s">
+        <v>3579</v>
+      </c>
+    </row>
+    <row r="976" spans="1:5">
+      <c r="A976" t="s">
+        <v>214</v>
+      </c>
+      <c r="B976" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C976" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D976" t="s">
+        <v>3580</v>
+      </c>
+      <c r="E976" t="s">
+        <v>3581</v>
+      </c>
+    </row>
+    <row r="977" spans="1:5">
+      <c r="A977" t="s">
+        <v>239</v>
+      </c>
+      <c r="B977" t="s">
+        <v>3582</v>
+      </c>
+      <c r="C977" t="s">
+        <v>3583</v>
+      </c>
+      <c r="D977" t="s">
+        <v>3584</v>
+      </c>
+      <c r="E977" t="s">
+        <v>3585</v>
+      </c>
+    </row>
+    <row r="978" spans="1:5">
+      <c r="A978" t="s">
+        <v>144</v>
+      </c>
+      <c r="C978" t="s">
+        <v>3586</v>
+      </c>
+      <c r="D978" t="s">
+        <v>3587</v>
+      </c>
+      <c r="E978" t="s">
+        <v>3588</v>
+      </c>
+    </row>
+    <row r="979" spans="1:5">
+      <c r="A979" t="s">
+        <v>40</v>
+      </c>
+      <c r="C979" t="s">
+        <v>3589</v>
+      </c>
+      <c r="D979" t="s">
+        <v>3590</v>
+      </c>
+      <c r="E979" t="s">
+        <v>3591</v>
+      </c>
+    </row>
+    <row r="980" spans="1:5">
+      <c r="A980" t="s">
+        <v>293</v>
+      </c>
+      <c r="C980" t="s">
+        <v>2269</v>
+      </c>
+      <c r="D980" t="s">
+        <v>3592</v>
+      </c>
+      <c r="E980" t="s">
+        <v>3593</v>
+      </c>
+    </row>
+    <row r="981" spans="1:5">
+      <c r="A981" t="s">
+        <v>3594</v>
+      </c>
+      <c r="B981" t="s">
+        <v>3063</v>
+      </c>
+      <c r="C981" t="s">
+        <v>3595</v>
+      </c>
+      <c r="D981" t="s">
+        <v>3596</v>
+      </c>
+      <c r="E981" t="s">
+        <v>3597</v>
+      </c>
+    </row>
+    <row r="982" spans="1:5">
+      <c r="A982" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B982" t="s">
+        <v>3598</v>
+      </c>
+      <c r="C982" t="s">
+        <v>3599</v>
+      </c>
+      <c r="D982" t="s">
+        <v>3600</v>
+      </c>
+      <c r="E982" t="s">
+        <v>3601</v>
+      </c>
+    </row>
+    <row r="983" spans="1:5">
+      <c r="A983" t="s">
+        <v>0</v>
+      </c>
+      <c r="B983" t="s">
+        <v>3602</v>
+      </c>
+      <c r="C983" t="s">
+        <v>382</v>
+      </c>
+      <c r="D983" t="s">
+        <v>3603</v>
+      </c>
+      <c r="E983" t="s">
+        <v>3604</v>
+      </c>
+    </row>
+    <row r="984" spans="1:5">
+      <c r="A984" t="s">
+        <v>9</v>
+      </c>
+      <c r="B984" t="s">
+        <v>3605</v>
+      </c>
+      <c r="C984" t="s">
+        <v>3606</v>
+      </c>
+      <c r="D984" t="s">
+        <v>3607</v>
+      </c>
+      <c r="E984" t="s">
+        <v>3608</v>
+      </c>
+    </row>
+    <row r="985" spans="1:5">
+      <c r="A985" t="s">
+        <v>3609</v>
+      </c>
+      <c r="B985" t="s">
+        <v>3610</v>
+      </c>
+      <c r="C985" t="s">
+        <v>3611</v>
+      </c>
+      <c r="D985" t="s">
+        <v>3612</v>
+      </c>
+      <c r="E985" t="s">
+        <v>3613</v>
+      </c>
+    </row>
+    <row r="986" spans="1:5">
+      <c r="A986" t="s">
+        <v>239</v>
+      </c>
+      <c r="C986" t="s">
+        <v>3614</v>
+      </c>
+      <c r="D986" t="s">
+        <v>3615</v>
+      </c>
+      <c r="E986" t="s">
+        <v>3616</v>
+      </c>
+    </row>
+    <row r="987" spans="1:5">
+      <c r="A987" t="s">
+        <v>139</v>
+      </c>
+      <c r="B987" t="s">
+        <v>140</v>
+      </c>
+      <c r="C987" t="s">
+        <v>3617</v>
+      </c>
+      <c r="D987" t="s">
+        <v>3618</v>
+      </c>
+      <c r="E987" t="s">
+        <v>3619</v>
+      </c>
+    </row>
+    <row r="988" spans="1:5">
+      <c r="A988" t="s">
+        <v>35</v>
+      </c>
+      <c r="C988" t="s">
+        <v>3620</v>
+      </c>
+      <c r="D988" t="s">
+        <v>3621</v>
+      </c>
+      <c r="E988" t="s">
+        <v>3622</v>
+      </c>
+    </row>
+    <row r="989" spans="1:5">
+      <c r="A989" t="s">
+        <v>88</v>
+      </c>
+      <c r="C989" t="s">
+        <v>3623</v>
+      </c>
+      <c r="D989" t="s">
+        <v>3624</v>
+      </c>
+      <c r="E989" t="s">
+        <v>3625</v>
+      </c>
+    </row>
+    <row r="990" spans="1:5">
+      <c r="A990" t="s">
+        <v>508</v>
+      </c>
+      <c r="C990" t="s">
+        <v>3626</v>
+      </c>
+      <c r="D990" t="s">
+        <v>3627</v>
+      </c>
+      <c r="E990" t="s">
+        <v>3628</v>
+      </c>
+    </row>
+    <row r="991" spans="1:5">
+      <c r="A991" t="s">
+        <v>3629</v>
+      </c>
+      <c r="C991" t="s">
+        <v>3630</v>
+      </c>
+      <c r="D991" t="s">
+        <v>3631</v>
+      </c>
+      <c r="E991" t="s">
+        <v>3632</v>
+      </c>
+    </row>
+    <row r="992" spans="1:5">
+      <c r="A992" t="s">
+        <v>3633</v>
+      </c>
+      <c r="B992" t="s">
+        <v>3634</v>
+      </c>
+      <c r="C992" t="s">
+        <v>3635</v>
+      </c>
+      <c r="D992" t="s">
+        <v>3636</v>
+      </c>
+      <c r="E992" t="s">
+        <v>3637</v>
+      </c>
+    </row>
+    <row r="993" spans="1:5">
+      <c r="A993" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C993" t="s">
+        <v>3638</v>
+      </c>
+      <c r="D993" t="s">
+        <v>3639</v>
+      </c>
+      <c r="E993" t="s">
+        <v>3640</v>
+      </c>
+    </row>
+    <row r="994" spans="1:5">
+      <c r="A994" t="s">
+        <v>214</v>
+      </c>
+      <c r="C994" t="s">
+        <v>3641</v>
+      </c>
+      <c r="D994" t="s">
+        <v>3642</v>
+      </c>
+      <c r="E994" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="995" spans="1:5">
+      <c r="A995" t="s">
+        <v>318</v>
+      </c>
+      <c r="B995" t="s">
+        <v>3644</v>
+      </c>
+      <c r="C995" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D995" t="s">
+        <v>3645</v>
+      </c>
+      <c r="E995" t="s">
+        <v>3646</v>
+      </c>
+    </row>
+    <row r="996" spans="1:5">
+      <c r="A996" t="s">
+        <v>375</v>
+      </c>
+      <c r="B996" t="s">
+        <v>3647</v>
+      </c>
+      <c r="C996" t="s">
+        <v>3648</v>
+      </c>
+      <c r="D996" t="s">
+        <v>3649</v>
+      </c>
+      <c r="E996" t="s">
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="997" spans="1:5">
+      <c r="A997" t="s">
+        <v>3651</v>
+      </c>
+      <c r="B997" t="s">
+        <v>3652</v>
+      </c>
+      <c r="C997" t="s">
+        <v>177</v>
+      </c>
+      <c r="D997" t="s">
+        <v>3653</v>
+      </c>
+      <c r="E997" t="s">
+        <v>3654</v>
+      </c>
+    </row>
+    <row r="998" spans="1:5">
+      <c r="A998" t="s">
+        <v>3655</v>
+      </c>
+      <c r="B998" t="s">
+        <v>455</v>
+      </c>
+      <c r="C998" t="s">
+        <v>3656</v>
+      </c>
+      <c r="D998" t="s">
+        <v>3657</v>
+      </c>
+      <c r="E998" t="s">
+        <v>3658</v>
+      </c>
+    </row>
+    <row r="999" spans="1:5">
+      <c r="A999" t="s">
+        <v>573</v>
+      </c>
+      <c r="B999" t="s">
+        <v>3659</v>
+      </c>
+      <c r="C999" t="s">
+        <v>3660</v>
+      </c>
+      <c r="D999" t="s">
+        <v>3661</v>
+      </c>
+      <c r="E999" t="s">
+        <v>3662</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:5">
+      <c r="A1000" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>3663</v>
+      </c>
+      <c r="C1000" t="s">
+        <v>3664</v>
+      </c>
+      <c r="D1000" t="s">
+        <v>3665</v>
+      </c>
+      <c r="E1000" t="s">
+        <v>3666</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:5">
+      <c r="A1001" t="s">
+        <v>430</v>
+      </c>
+      <c r="C1001" t="s">
+        <v>865</v>
+      </c>
+      <c r="D1001" t="s">
+        <v>3667</v>
+      </c>
+      <c r="E1001" t="s">
+        <v>3668</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:5">
+      <c r="A1002" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C1002" t="s">
+        <v>3669</v>
+      </c>
+      <c r="D1002" t="s">
+        <v>3670</v>
+      </c>
+      <c r="E1002" t="s">
+        <v>3671</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:5">
+      <c r="A1003" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1003" t="s">
+        <v>3672</v>
+      </c>
+      <c r="D1003" t="s">
+        <v>3673</v>
+      </c>
+      <c r="E1003" t="s">
+        <v>3674</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:5">
+      <c r="A1004" t="s">
+        <v>3675</v>
+      </c>
+      <c r="C1004" t="s">
+        <v>3676</v>
+      </c>
+      <c r="D1004" t="s">
+        <v>3677</v>
+      </c>
+      <c r="E1004" t="s">
+        <v>3678</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:5">
+      <c r="A1005" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>834</v>
+      </c>
+      <c r="C1005" t="s">
+        <v>2394</v>
+      </c>
+      <c r="D1005" t="s">
+        <v>3679</v>
+      </c>
+      <c r="E1005" t="s">
+        <v>3680</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:5">
+      <c r="A1006" t="s">
+        <v>2769</v>
+      </c>
+      <c r="C1006" t="s">
+        <v>3681</v>
+      </c>
+      <c r="D1006" t="s">
+        <v>3682</v>
+      </c>
+      <c r="E1006" t="s">
+        <v>3683</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:5">
+      <c r="A1007" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>323</v>
+      </c>
+      <c r="C1007" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1007" t="s">
+        <v>3684</v>
+      </c>
+      <c r="E1007" t="s">
+        <v>3685</v>
       </c>
     </row>
   </sheetData>

--- a/songs.xlsx
+++ b/songs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3718">
   <si>
     <t>Pied Pipers</t>
   </si>
@@ -11073,6 +11073,102 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=FJ4GBrnRBic</t>
+  </si>
+  <si>
+    <t>Hoagy Carmichael</t>
+  </si>
+  <si>
+    <t>Stardust (42)</t>
+  </si>
+  <si>
+    <t>Stardust (42)-Hoagy Carmichael</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=j2fbOAyNOpM</t>
+  </si>
+  <si>
+    <t>I Get A Kick Out Of You</t>
+  </si>
+  <si>
+    <t>I Get A Kick Out Of You-Tommy Dorsey</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TlmITSlf5FU</t>
+  </si>
+  <si>
+    <t>You Go to My Head (40)</t>
+  </si>
+  <si>
+    <t>You Go to My Head (40)-Glen Gray</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WJfAWWDJsAk</t>
+  </si>
+  <si>
+    <t>Television Themes-16 Most Requested</t>
+  </si>
+  <si>
+    <t>I Love Lucy</t>
+  </si>
+  <si>
+    <t>I Love Lucy-Desi Arnaz</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3IJNikrJIyg</t>
+  </si>
+  <si>
+    <t>The Helen O'Connell Years</t>
+  </si>
+  <si>
+    <t>Arthur Murray Taught Me Dan... (42)</t>
+  </si>
+  <si>
+    <t>Arthur Murray Taught Me Dan... (42)-Jimmy Dorsey v/Helen O'Connell</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FLrl9dEHu7A</t>
+  </si>
+  <si>
+    <t>Things Ain't What They Use... (43)</t>
+  </si>
+  <si>
+    <t>Things Ain't What They Use... (43)-Charlie Barnet</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BWIhw4nI3LQ</t>
+  </si>
+  <si>
+    <t>Patti Page</t>
+  </si>
+  <si>
+    <t>At Sundown-Patti Page</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cjFogHvefgU</t>
+  </si>
+  <si>
+    <t>Billie Holiday o/Eddie Heywood</t>
+  </si>
+  <si>
+    <t>Lover Come Back To Me</t>
+  </si>
+  <si>
+    <t>Lover Come Back To Me-Billie Holiday o/Eddie Heywood</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=j-ymRPuQvz8</t>
+  </si>
+  <si>
+    <t>In The Forties</t>
+  </si>
+  <si>
+    <t>Do Nothin' Till You Hear From Me (4</t>
+  </si>
+  <si>
+    <t>Do Nothin' Till You Hear From Me (4-Duke Ellington</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vjApoRdEOi4</t>
   </si>
 </sst>
 </file>
@@ -11442,7 +11538,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A2:E1007"/>
+  <dimension ref="A2:E1016"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A63" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A78" activeCellId="0" pane="topLeft" sqref="A78"/>
@@ -27273,6 +27369,147 @@
         <v>3685</v>
       </c>
     </row>
+    <row r="1008" spans="1:5">
+      <c r="A1008" t="s">
+        <v>3686</v>
+      </c>
+      <c r="C1008" t="s">
+        <v>3687</v>
+      </c>
+      <c r="D1008" t="s">
+        <v>3688</v>
+      </c>
+      <c r="E1008" t="s">
+        <v>3689</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:5">
+      <c r="A1009" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C1009" t="s">
+        <v>3690</v>
+      </c>
+      <c r="D1009" t="s">
+        <v>3691</v>
+      </c>
+      <c r="E1009" t="s">
+        <v>3692</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:5">
+      <c r="A1010" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1010" t="s">
+        <v>3693</v>
+      </c>
+      <c r="D1010" t="s">
+        <v>3694</v>
+      </c>
+      <c r="E1010" t="s">
+        <v>3695</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:5">
+      <c r="A1011" t="s">
+        <v>803</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>3696</v>
+      </c>
+      <c r="C1011" t="s">
+        <v>3697</v>
+      </c>
+      <c r="D1011" t="s">
+        <v>3698</v>
+      </c>
+      <c r="E1011" t="s">
+        <v>3699</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:5">
+      <c r="A1012" t="s">
+        <v>772</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>3700</v>
+      </c>
+      <c r="C1012" t="s">
+        <v>3701</v>
+      </c>
+      <c r="D1012" t="s">
+        <v>3702</v>
+      </c>
+      <c r="E1012" t="s">
+        <v>3703</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:5">
+      <c r="A1013" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1013" t="s">
+        <v>3704</v>
+      </c>
+      <c r="D1013" t="s">
+        <v>3705</v>
+      </c>
+      <c r="E1013" t="s">
+        <v>3706</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:5">
+      <c r="A1014" t="s">
+        <v>3707</v>
+      </c>
+      <c r="C1014" t="s">
+        <v>3455</v>
+      </c>
+      <c r="D1014" t="s">
+        <v>3708</v>
+      </c>
+      <c r="E1014" t="s">
+        <v>3709</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:5">
+      <c r="A1015" t="s">
+        <v>3710</v>
+      </c>
+      <c r="C1015" t="s">
+        <v>3711</v>
+      </c>
+      <c r="D1015" t="s">
+        <v>3712</v>
+      </c>
+      <c r="E1015" t="s">
+        <v>3713</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:5">
+      <c r="A1016" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>3714</v>
+      </c>
+      <c r="C1016" t="s">
+        <v>3715</v>
+      </c>
+      <c r="D1016" t="s">
+        <v>3716</v>
+      </c>
+      <c r="E1016" t="s">
+        <v>3717</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
